--- a/app/public/人工智能.xlsx
+++ b/app/public/人工智能.xlsx
@@ -427,7 +427,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="发明公布"/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,391 +466,7458 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>[发明公布]一种断电后反光的透镜新材料和在人工智能狗颈圈的使用方法</v>
+        <v>[发明公布]多驱动新能源汽车</v>
       </c>
       <c r="B2" t="str">
-        <v>CN107996444A</v>
+        <v>CN108016272A</v>
       </c>
       <c r="C2" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D2" t="str">
-        <v>2017112056463</v>
+        <v>2017114008252</v>
       </c>
       <c r="E2" t="str">
-        <v>2017.11.27</v>
+        <v>2017.12.22</v>
       </c>
       <c r="F2" t="str">
-        <v>谭希妤</v>
+        <v>朱幕松</v>
       </c>
       <c r="G2" t="str">
-        <v>谭希妤</v>
+        <v>朱幕松</v>
       </c>
       <c r="H2" t="str">
-        <v>528100广东省佛山市三水区城区文锋中路七巷一座5-401</v>
+        <v>236008安徽省阜阳市颍泉区颍州中路49号电业一村7号楼203室</v>
       </c>
       <c r="I2" t="str" xml:space="preserve">
-        <v xml:space="preserve">A01K27/00(2006.01)I_x000d_
-_x000d_
-				</v>
+        <v xml:space="preserve">B60K6/22(2007.01)I;_x000d_
+						H02K7/00(2006.01)I;H02K7/10(2006.01)I_x000d_
+						</v>
       </c>
       <c r="J2" t="str">
-        <v>一种断电后反光的透镜新材料，包括四脚全彩LED，透明导电膜、透明表层、透明润滑剂、半空反射磁性双三棱锥、透明支柱、透明珠隔、扁平电磁铁。透明润滑剂用于填充断电后反光材料上层，用于辅助半空反射磁性双三棱锥翻转。半空反射磁性双三棱锥由一个实心三棱锥和一个空心三棱锥，中间夹一块磁片组成；实心三棱锥比空心三棱锥重；磁片S极是镜面，与空心三棱锥连接；磁片N极是哑光面，与实心三棱锥连接；当半空反射磁性双三棱锥在透明润滑剂中正常放置时，由于重力作用，重的一面在下面，磁片的S极的镜面向上，具有反光功能；当半空反射磁性双三棱锥放置在磁铁上，且磁铁靠近的一面是N极时，磁片的N极的哑光面向上，不具有反光功能。</v>
+        <v>一种多驱动新能源汽车,由普通汽车、制动电机组件、锂电盒、智能控制盒、速度传感器、霍尔调速器、油门电磁阀、制动电磁阀组成,所述制动电机组件中的圈式电机充分合理地利用了铝合金轮辋与鼓式制动器之间的空间,圈式电机的上、下联接爪的受力上下平衡，使圈式电机驱动的输出扭力在定子、转子之间的超薄轴承不产生径向压力，不承受车载压力，多驱动新能源汽车的左、右低速圈式电机驱动前轮，左、右高速圈式电机驱动后轮，加上发动机驱动的混合动力，经过人工智能化控制，实现多种动力合理匹配,自动切换动力,自动换挡，使多驱动新能源汽车工作在最佳的节能环保状态，所述制动电机组件很容易使普通汽车升级改造为多驱动新能源汽车,不仅降低新能源汽车的成本,而且提高新能源汽车的质量。</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>[发明公布]一种高速X光快递分拣方法</v>
+        <v>[发明公布]一种半导体热电制冷器驱动控制方法</v>
       </c>
       <c r="B3" t="str">
-        <v>CN107999413A</v>
+        <v>CN108019982A</v>
       </c>
       <c r="C3" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D3" t="str">
-        <v>2018100371724</v>
+        <v>2017112153139</v>
       </c>
       <c r="E3" t="str">
-        <v>2018.01.15</v>
+        <v>2017.11.28</v>
       </c>
       <c r="F3" t="str">
-        <v>倪洪雷</v>
-      </c>
-      <c r="G3" t="str">
-        <v>倪洪雷</v>
+        <v>四川航天系统工程研究所</v>
+      </c>
+      <c r="G3" t="str" xml:space="preserve">
+        <v xml:space="preserve">谭平;陈粤海;张志;蒋琳;康建玲;刘福东_x000d_
+				</v>
       </c>
       <c r="H3" t="str">
-        <v>200123上海市浦东新区上南路3855号11号楼103室</v>
+        <v>610000四川省成都市龙泉驿区航天北路工业区201号科研楼</v>
       </c>
       <c r="I3" t="str" xml:space="preserve">
-        <v xml:space="preserve">B07C5/34(2006.01)I;_x000d_
-_x000d_
-						B07C5/02(2006.01)I;B07C5/36(2006.01)I_x000d_
-_x000d_
-						</v>
+        <v xml:space="preserve">F25B21/02(2006.01)I;F25B49/00(2006.01)I_x000d_
+						专利代理机构：四川省成都市天策商标专利事务所51213代理人：刘兴亮</v>
       </c>
       <c r="J3" t="str">
-        <v>本发明公开了一种高速X光快递分拣方法，包括以下步骤：在自动分拣线的供包口处安装跨越式X光机设备，并通过拍照或扫描设备获取快递包裹上的条码识别信息，并控制X光机按照一定的时间间隔对快递包裹进行X光图片采集，并根据获得的条码识别信息对获得的X光图片进行命名；本发明的有益效果是：通过将跨越式X光机和高速分拣机结合起来，以提高获取X光图片的速度，并对图片进行标识；通过人工智能和深度学习的方法，对X光片中的危险物品进行快速的检测和判断；将有问题的物品通过自动分拣线系统加以甄别和剔除，确保过检的准确性和效率，减少人为干扰并降低成本。</v>
+        <v>本发明公开了一种半导体热电制冷器驱动控制方法，采用PWM调压控制驱动方式，利用实时采集的半导体热电制冷器冷端、热端温度、电压、电流和制冷目标温度参数，采用数值分方法结合自学习型人工智能模糊模型控制PWM的输出占空比P值，自适应的控制热电制冷器的驱动电压和控制制冷温度。本发明采用自适应PWM调压控制驱动方式，通过对半导体热电制冷器的冷端、热端温度、电压、电流等影响制冷效率的实时参数数值分析，选择发挥制冷效率的最佳驱动电压，经过测试其制冷阶段的制冷效率达28％，温控阶段的制冷效率达到30％。</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>[发明公布]一种具有基于人工智能驾驶辅助系统的新能源车</v>
+        <v>[发明公布]一种基于人工智能的股票价格预测方法及系统</v>
       </c>
       <c r="B4" t="str">
-        <v>CN108001375A</v>
+        <v>CN108022016A</v>
       </c>
       <c r="C4" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D4" t="str">
-        <v>2017112723823</v>
+        <v>2017112941762</v>
       </c>
       <c r="E4" t="str">
-        <v>2017.12.06</v>
+        <v>2017.12.08</v>
       </c>
       <c r="F4" t="str">
-        <v>韩学</v>
+        <v>宏谷信息科技（珠海）有限公司</v>
       </c>
       <c r="G4" t="str">
-        <v>韩学</v>
+        <v>张潇</v>
       </c>
       <c r="H4" t="str">
-        <v>315000浙江省宁波市气象路118号</v>
+        <v>519031广东省珠海市横琴新区环岛东路1889号创意谷18栋110室-159（集中办公区）</v>
       </c>
       <c r="I4" t="str" xml:space="preserve">
-        <v xml:space="preserve">B60R13/00(2006.01)I;_x000d_
-_x000d_
-						G09F21/04(2006.01)I;B60W50/00(2006.01)I;B60R21/02(2006.01)I_x000d_
-_x000d_
-						</v>
+        <v xml:space="preserve">G06Q10/04(2012.01)I;_x000d_
+						G06Q30/02(2012.01)I;G06Q40/04(2012.01)I_x000d_
+						专利代理机构：杭州千克知识产权代理有限公司33246代理人：郭扬部</v>
       </c>
       <c r="J4" t="str">
-        <v>本发明公开了一种具有基于人工智能驾驶辅助系统的新能源车，包括车厢，所述车厢顶部有展示装置，所述展示装置包括一正方形的底座，所述底座上设有轨道部，所述轨道部包括正方形轨道和圆形轨道，所述圆形轨道内切于正方形轨道，以使所述底座上分隔出圆盘区和四个角点区，每个所述角点区包括邻近底座边缘的相互垂直的两个直角边和邻近圆盘区的一个弧形边，所述圆盘区的中心设有圆形的第一齿轮，所述第一齿轮通过主电机传动而转动，所述轨道部上设有展示架，所述展示架外圈设有与所述第一齿轮相啮合的第二齿轮，所述第二齿轮的外轮廓为椭圆形。本发明的展示装置通过单个主电机驱动展示架实现全方位的动态的展示效果，展示效果佳，具有实用性。</v>
+        <v>本发明公开了一种基于人工智能的股票价格预测方法及系统，用以解决现有的股票预测的考虑因素具有片面性的问题。该方法包括：获取预设时间内交易日的股票价格特征及股票新闻特征；将所述股票价格特征及所述股票新闻特征输入双向循环神经网络模型进行训练；将所述双向循环神经网络模型输出的混合特征向量输入多层感知机进行分类训练；根据所述多层感知机的输出预测下一个交易日的股票价格。本发明基于双向循环网络的框架，通过将价格特征与新闻特征结合，充分利用获取的数据信息，更加准确地对股票价格进行预测。</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>[发明公布]一种基于PSO参数优化的工业物联网安全聚合关联方法</v>
+        <v>[发明公布]一种人工智能红外图像处理仪</v>
       </c>
       <c r="B5" t="str">
-        <v>CN108009241A</v>
+        <v>CN108022199A</v>
       </c>
       <c r="C5" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D5" t="str">
-        <v>2017112324908</v>
+        <v>2017113797025</v>
       </c>
       <c r="E5" t="str">
-        <v>2017.11.30</v>
+        <v>2017.12.20</v>
       </c>
       <c r="F5" t="str">
-        <v>昆山青石计算机有限公司</v>
-      </c>
-      <c r="G5" t="str">
-        <v>王昆明;翟秀霞;刘昭华</v>
+        <v>南通使爱智能科技有限公司</v>
+      </c>
+      <c r="G5" t="str" xml:space="preserve">
+        <v xml:space="preserve">张成栋;钱之越;廖晓辉;郭利敏_x000d_
+				</v>
       </c>
       <c r="H5" t="str">
-        <v>215334江苏省苏州市昆山开发区朝阳东路55号建伟汽配物流市场6号楼402室</v>
+        <v>226000江苏省南通市海德路2号1幢110494室</v>
       </c>
       <c r="I5" t="str" xml:space="preserve">
-        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
-_x000d_
-				</v>
+        <v xml:space="preserve">G06T1/00(2006.01)I_x000d_
+						专利代理机构：北京东方盛凡知识产权代理事务所(普通合伙)11562代理人：牟炳彦</v>
       </c>
       <c r="J5" t="str">
-        <v>本发明公开了一种基于PSO参数优化的工业物联网安全聚合关联方法，所述方法包括以下步骤：对原始的网络安全告警信息数据进行归类，运用特征对称思想建立标称属性的索引库，以便差异化处理；针对各标称属性的特征，建立相似度函数模型，计算标称属性库中各属性的特征相似度；计算标称属性间的总体差异度；综合目标物联网络的拓扑结构，引入差异度阈值函数，利用PSO算法对差异度阈值进行优化，实现用户柔性聚类和人工智能的接口。本发明可从海量繁杂且冗余的安全告警事件中将同类网络安全事件聚类，消除安全信息中的冗余信息，快速地为工业物联网络安全策略提供决策支撑，具有适应性好、稳定性和实时性高的优点。</v>
+        <v>本发明提供一种人工智能红外图像处理仪，属于图像处理仪领域。其主要包括红外图像采集装置、图像处理装置以及图像采集的人工智能控制系统，所述采集装置包括图像装载模块，图像处理装置包括图像处理模块；所述图像装载模块，用于加载未经退化的红外图像；所述图像处理模块通过红外图像处理技术将红外图像文件转换为波形数据文件，作为红外图像采集与处理系统性能评估的数据源；人工智能控制系统包括控制单元、改进单元和编辑输出单元，所述人工智能控制系统与红外图像采集装置及处理单元连接。本发明具有自动化程度高、可靠性高、成本低、操作使用简单、通用性强等特点，使得该装置具备自主解决问题的能力，融合人工智能以及数据处理的技术优势。</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str">
-        <v>[发明公布]一种大数据智慧信用治理平台架构</v>
+        <v>[发明公布]面向光伏电池在线位置检测的人工智能图像识别方法</v>
       </c>
       <c r="B6" t="str">
-        <v>CN108009294A</v>
+        <v>CN108022266A</v>
       </c>
       <c r="C6" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D6" t="str">
-        <v>2017114339664</v>
+        <v>2017113377777</v>
       </c>
       <c r="E6" t="str">
-        <v>2017.12.26</v>
+        <v>2017.12.14</v>
       </c>
       <c r="F6" t="str">
-        <v>中电科大数据研究院有限公司</v>
-      </c>
-      <c r="G6" t="str">
-        <v>刘汪洋;谢真强;牟其林</v>
+        <v>杭州电子科技大学</v>
+      </c>
+      <c r="G6" t="str" xml:space="preserve">
+        <v xml:space="preserve">刘光宇;朱凌;薛安克;杨成忠_x000d_
+				</v>
       </c>
       <c r="H6" t="str">
-        <v>550000贵州省贵阳市贵阳国家高新技术产业开发区金阳科技产业园黎阳大厦</v>
+        <v>310018浙江省杭州市下沙高教园区2号大街</v>
       </c>
       <c r="I6" t="str" xml:space="preserve">
-        <v xml:space="preserve">G06F17/30(2006.01)I;_x000d_
-_x000d_
-						G06Q30/00(2012.01)I;G06Q30/06(2012.01)I_x000d_
-_x000d_
-						专利代理机构：贵阳睿腾知识产权代理有限公司52114代理人：谷庆红</v>
+        <v xml:space="preserve">G06T7/73(2017.01)I;G06K9/34(2006.01)I_x000d_
+						专利代理机构：杭州君度专利代理事务所(特殊普通合伙)33240代理人：朱月芬</v>
       </c>
       <c r="J6" t="str">
-        <v>本发明提供了一种大数据智慧信用治理平台架构，包括涉信数据源层、大数据平台层和智慧应用层；所述涉信数据源层包括政府委办局、重点行业、社会企业和征信机构的涉信数据；所述大数据平台层包括数据集成、数据存储、资源器、计算框架、数据分析、数据可视化和管理框架。本发明采用人工智能、区块链技术实现数据的ETL、共享、交换和查询，使其便于扩展，安全性高，让集群在利用率、资源统一管理和数据共享上减少了资源消耗，提高了管理速度，且数据存储更加方便，查询速度更快，降低了延迟，提高了容错率，使得检索更精确，工作效率高，其界面友好，功能齐全，操作模式简单，达到了让用户方便查询的目的。</v>
+        <v>本发明公开了一种面向光伏电池在线位置检测的人工智能图像识别方法。本发明包括工业相机、图像数据采集卡、光伏电池位置传感器、面向光伏电池位置检测的图像识别模块、检测传输带；当光伏电池位置传感器感应到光伏电池置放于检测传输带的视觉检测工位的时候，工业相机拍摄光伏电池区域原始图像，原始图像经信号线传输给图像数据采集卡并数字信号转换为基于像素的像素图像，然后再将像素图像进一步传输给微处理期内运行的面向光伏电池位置检测的图像识别模块，对光伏电池的坐标误差与角度误差进行特征提取。本发明能够测量出光伏电池相对于传输带的位置偏差和角度偏差得到精确测量，能够大幅度提升光伏电池位置在线无损检测的精度和效率。</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>[发明公布]轮毂追溯用基于BCD编码的二维矩阵点阵及其生成方法</v>
+        <v>[发明公布]医用内窥镜人工智能系统的硬件架构及图像处理方法</v>
       </c>
       <c r="B7" t="str">
-        <v>CN108009617A</v>
+        <v>CN108024061A</v>
       </c>
       <c r="C7" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D7" t="str">
-        <v>2017113650726</v>
+        <v>2017112989687</v>
       </c>
       <c r="E7" t="str">
-        <v>2017.12.18</v>
-      </c>
-      <c r="F7" t="str" xml:space="preserve">
-        <v xml:space="preserve">赛赫智能设备（上海）股份有限公司;滨州戴森车轮科技有限公司_x000d_
-_x000d_
-				</v>
-      </c>
-      <c r="G7" t="str">
-        <v>罗年;张子男;张威</v>
+        <v>2017.12.08</v>
+      </c>
+      <c r="F7" t="str">
+        <v>合肥工业大学</v>
+      </c>
+      <c r="G7" t="str" xml:space="preserve">
+        <v xml:space="preserve">丁帅;岳子杰;杨善林;王浩;赵磊_x000d_
+				</v>
       </c>
       <c r="H7" t="str">
-        <v>200441上海市宝山区长逸路188号1115室</v>
+        <v>230009安徽省合肥市包河区屯溪路193号</v>
       </c>
       <c r="I7" t="str" xml:space="preserve">
-        <v xml:space="preserve">G06K19/06(2006.01)I_x000d_
-_x000d_
-						专利代理机构：上海一平知识产权代理有限公司31266代理人：李夫玲;徐迅</v>
+        <v xml:space="preserve">H04N5/232(2006.01)I;_x000d_
+						H04N5/225(2006.01)I;H04N5/77(2006.01)I;H04N7/18(2006.01)I;G06T7/00(2017.01)I;G06K9/46(2006.01)I_x000d_
+						专利代理机构：北京路浩知识产权代理有限公司11002代理人：王莹;余罡</v>
       </c>
       <c r="J7" t="str">
-        <v>本发明涉及人工智能和自动控制领域，公开了一种轮毂追溯用基于BCD编码的二维矩阵点阵包括：方向码、校验码和多个码文单元。方向码位于二维矩阵点阵的左上角，用于表示码文单元的识别方向。校验码位于二维矩阵点阵的最后一位，用于检测码文单元的正确性或者修正误读的码文单元。多个码文单元依次位于二维矩阵点阵的剩余位置上，用于表示轮毂追溯信息。码文单元、方向码和校验码都是2×2的点阵结构。该轮毂追溯用基于BCD编码的二维矩阵点阵结构简单，可识别性高；可以根据实际需求增减、调整和变形，适合于各种复杂条件下的码文涂刻、检测需求；具有校验码，具有一定的防错纠错能力。</v>
+        <v>本发明提供一种医用内窥镜人工智能系统的硬件架构及图像处理方法。设置数据处理模块，筛选置信度超过预定阀值的图像，传送给远程服务端，降低了通信负载。包含该数据处理模块的内窥镜需要远程传输的数据量也相应的得到降低，从而降低了内窥镜的通信负载。设置数据处理模块，将预定特征区域进行标注，从而将特定的图像信息展示给相关的工作人员，减少了图像识别的工作量，提高了工作效率。包含该数据处理模块的内窥镜也可以将具有特定的图像信息的图像展示给相关的工作人员，提高工作效率及提高检测的实时性。设置数据处理模块，筛选置信度超过预定阀值的图像，后续只需要存储这部分置信度超过预定阀值的图像，能够有效减少需要的存储空间。</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>[发明公布]机器人的记忆构建方法及装置</v>
+        <v>[发明公布]神经退行性疾病的治疗</v>
       </c>
       <c r="B8" t="str">
-        <v>CN108009624A</v>
+        <v>CN108025005A</v>
       </c>
       <c r="C8" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D8" t="str">
-        <v>2017113371018</v>
+        <v>2016800560621</v>
       </c>
       <c r="E8" t="str">
-        <v>2017.12.14</v>
+        <v>2016.09.23</v>
       </c>
       <c r="F8" t="str">
-        <v>深圳狗尾草智能科技有限公司</v>
+        <v>博善人工智能生物科技有限公司</v>
       </c>
       <c r="G8" t="str" xml:space="preserve">
-        <v xml:space="preserve">宋亚楠;程谦;邱楠;严汉明;邹创华;陈甜_x000d_
-_x000d_
+        <v xml:space="preserve">皮特·理查森;理查德·米德;劳拉·费拉约洛;肯尼思·帕特里克·马尔瓦尼_x000d_
 				</v>
       </c>
       <c r="H8" t="str">
-        <v>518000广东省深圳市南山区粤海街道科苑路16号东方科技大厦1307-09</v>
+        <v>英国大伦敦</v>
       </c>
       <c r="I8" t="str" xml:space="preserve">
-        <v xml:space="preserve">G06N3/00(2006.01)I;G06F17/30(2006.01)I_x000d_
-_x000d_
-						专利代理机构：北京酷爱智慧知识产权代理有限公司11514代理人：安娜</v>
+        <v xml:space="preserve">A61K31/473(2006.01)I;_x000d_
+						A61K39/395(2006.01)I;A61K31/49(2006.01)I;A61K31/517(2006.01)I;A61K31/5377(2006.01)I;A61P25/28(2006.01)I;A61K45/00(2006.01)I_x000d_
+						专利代理机构：广州华进联合专利商标代理有限公司44224代理人：胡杰;王雯雯优先权：1516905.5 2015.09.24 GBPCT进入国家阶段日：2018.03.26PCT申请数据：PCT/GB2016/052970 2016.09.23PCT公布数据：WO2017/051188 EN 2017.03.30</v>
       </c>
       <c r="J8" t="str">
-        <v>本发明提供一种机器人的记忆构建方法及装置，方法包括，信息获取步骤，获取记忆信息；信息确定步骤，确定记忆信息的显隐性；记忆存储步骤，根据记忆信息的显隐性对记忆信息进行数据处理，并将处理后的数据存储至记忆库中，以生成瞬时记忆。本发明提供的机器人的记忆构建方法及装置，为机器人建立记忆模型，记忆模型具有拟人性，其中的显性记忆模型为多维立体模型，不同维度间相连接，以实现记忆联想，且隐性记忆模型为人工智能模型，以实现学习与复用，真正使得机器人有了记忆。</v>
+        <v>描述了用于预防和治疗神经退行性疾病，特别是运动神经元病如肌萎缩侧索硬化(ALS)的方法，以及用于所述方法中的组合物和组合制剂。所述方法包括在需要所述预防或治疗的对象的中枢神经系统中抑制EGFR信号传导并抑制MyD88依赖性TLR/IL‑R1信号传导。所述组合物包含EGFR信号传导抑制剂和MyD88依赖性TLR/IL‑R1信号传导抑制剂。</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
       <c r="A9" t="str">
-        <v>[发明公布]一种医学图像处理系统和方法</v>
+        <v>[发明公布]使用深度摄像头的基于计算机视觉的安全系统</v>
       </c>
       <c r="B9" t="str">
-        <v>CN108010021A</v>
+        <v>CN108027874A</v>
       </c>
       <c r="C9" t="str">
-        <v>2018.05.08</v>
+        <v>2018.05.11</v>
       </c>
       <c r="D9" t="str">
-        <v>2017112426418</v>
+        <v>2016800516493</v>
       </c>
       <c r="E9" t="str">
-        <v>2017.11.30</v>
+        <v>2016.07.28</v>
       </c>
       <c r="F9" t="str">
-        <v>上海联影医疗科技有限公司</v>
+        <v>灯塔人工智能公司</v>
       </c>
       <c r="G9" t="str">
-        <v>王季勇;李强</v>
+        <v>A·W·泰克曼;H·达尔坎普</v>
       </c>
       <c r="H9" t="str">
-        <v>201807上海市嘉定区城北路2258号</v>
+        <v>美国加利福尼亚州</v>
       </c>
       <c r="I9" t="str" xml:space="preserve">
-        <v xml:space="preserve">G06T7/00(2017.01)I;G06K9/62(2006.01)I_x000d_
-_x000d_
-						专利代理机构：北京品源专利代理有限公司11332代理人：孟金喆</v>
+        <v xml:space="preserve">G06K9/00(2006.01)I;_x000d_
+						G06K9/38(2006.01)I;G06T5/00(2006.01)I_x000d_
+						专利代理机构：北京英赛嘉华知识产权代理有限责任公司11204代理人：王达佐;王艳春优先权：14/813,907 2015.07.30 USPCT进入国家阶段日：2018.03.07PCT申请数据：PCT/US2016/044456 2016.07.28PCT公布数据：WO2017/019857 EN 2017.02.02</v>
       </c>
       <c r="J9" t="str">
-        <v>本发明实施例公开了一种医学图像处理系统和方法。该系统包括：一个或多个处理器；存储器，用于存储一个或多个程序，当所述一个或多个程序被所述一个或多个处理器执行，使得所述一个或多个处理器实现：获取医学图像；将所述医学图像输入第一人工智能网络，获取所述医学图像的第一分类概率图，所述第一分类概率图中的每一点与所述医学图像的像素点相对应，所述第一人工智能网络是预先依据医学图像样本和对应的目标像素点训练获得的；根据所述第一分类概率图在所述医学图像中确定目标像素点，所述目标像素点的集合为目标对象。本发明实施例提高了目标像素点的检测速率，保证了目标对象检测的准确率。</v>
+        <v>一种保护环境安全的方法。该方法包括获得三维(3D)环境的二维(2D)表示。该2D表示包括编码3D环境的深度值的2D像素帧。该方法还包括识别该2D表示中的一组前景像素，基于该组前景像素来定义前景物体。该方法还包括对前景物体进行分类，并基于该前景物体的分类来采取动作。</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>[发明公布]基于云端无线传输的智能巡航机器人反向寻车系统及方法</v>
+        <v>[发明公布]一种断电后反光的透镜新材料和在人工智能狗颈圈的使用方法</v>
       </c>
       <c r="B10" t="str">
-        <v>CN108010375A</v>
+        <v>CN107996444A</v>
       </c>
       <c r="C10" t="str">
         <v>2018.05.08</v>
       </c>
       <c r="D10" t="str">
-        <v>2017112992618</v>
+        <v>2017112056463</v>
       </c>
       <c r="E10" t="str">
-        <v>2017.12.08</v>
+        <v>2017.11.27</v>
       </c>
       <c r="F10" t="str">
-        <v>杨奎军</v>
+        <v>谭希妤</v>
       </c>
       <c r="G10" t="str">
-        <v>杨奎军</v>
+        <v>谭希妤</v>
       </c>
       <c r="H10" t="str">
-        <v>100085北京市海淀区逸成东苑19号楼101室</v>
+        <v>528100广东省佛山市三水区城区文锋中路七巷一座5-401</v>
       </c>
       <c r="I10" t="str" xml:space="preserve">
-        <v xml:space="preserve">G08G1/14(2006.01)I_x000d_
-_x000d_
-						专利代理机构：北京红福盈知识产权代理事务所(普通合伙)11525代理人：陈月福</v>
+        <v xml:space="preserve">A01K27/00(2006.01)I_x000d_
+				</v>
       </c>
       <c r="J10" t="str">
-        <v>本发明涉及一种应用于停车场反向寻车的技术领域，具体涉及一种基于云端无线传输的智能巡航机器人反向寻车系统及方法。所述系统包括智能巡航机器人端，车位标识端，云端，反向寻车查询端四个部分。该系统是一种具备车辆位置识别、车牌自动识别和移动行走的全自动智能机器人装置，该寻车机器人装置集自动控制、视频识别分析、自主行走、无线通讯和基于人工智能的算法为一体，实现在停车场快速准确的识别车牌、车位和发布查找车辆位置信息。</v>
+        <v>一种断电后反光的透镜新材料，包括四脚全彩LED，透明导电膜、透明表层、透明润滑剂、半空反射磁性双三棱锥、透明支柱、透明珠隔、扁平电磁铁。透明润滑剂用于填充断电后反光材料上层，用于辅助半空反射磁性双三棱锥翻转。半空反射磁性双三棱锥由一个实心三棱锥和一个空心三棱锥，中间夹一块磁片组成；实心三棱锥比空心三棱锥重；磁片S极是镜面，与空心三棱锥连接；磁片N极是哑光面，与实心三棱锥连接；当半空反射磁性双三棱锥在透明润滑剂中正常放置时，由于重力作用，重的一面在下面，磁片的S极的镜面向上，具有反光功能；当半空反射磁性双三棱锥放置在磁铁上，且磁铁靠近的一面是N极时，磁片的N极的哑光面向上，不具有反光功能。</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>[发明公布]一种光伏电池智能位置检测与反馈控制矫正装置</v>
+        <v>[发明公布]一种高速X光快递分拣方法</v>
       </c>
       <c r="B11" t="str">
-        <v>CN108011589A</v>
+        <v>CN107999413A</v>
       </c>
       <c r="C11" t="str">
         <v>2018.05.08</v>
       </c>
       <c r="D11" t="str">
-        <v>2017113381556</v>
+        <v>2018100371724</v>
       </c>
       <c r="E11" t="str">
-        <v>2017.12.14</v>
+        <v>2018.01.15</v>
       </c>
       <c r="F11" t="str">
-        <v>杭州电子科技大学</v>
+        <v>倪洪雷</v>
       </c>
       <c r="G11" t="str">
-        <v>刘光宇;朱凌;陶勇</v>
+        <v>倪洪雷</v>
       </c>
       <c r="H11" t="str">
-        <v>310018浙江省杭州市下沙高教园区2号大街</v>
+        <v>200123上海市浦东新区上南路3855号11号楼103室</v>
       </c>
       <c r="I11" t="str" xml:space="preserve">
-        <v xml:space="preserve">H02S50/15(2014.01)I_x000d_
-_x000d_
-						专利代理机构：杭州君度专利代理事务所(特殊普通合伙)33240代理人：朱月芬</v>
+        <v xml:space="preserve">B07C5/34(2006.01)I;_x000d_
+						B07C5/02(2006.01)I;B07C5/36(2006.01)I_x000d_
+						</v>
       </c>
       <c r="J11" t="str">
-        <v>本发明公开了一种光伏电池智能位置检测与反馈控制矫正装置，其特征在于包括一个内环控制系统和一个外环控制系统；内环控制系统包括工业相机、图像数据采集卡、面向光伏电池位置检测的图像识别智能算法、位置矫正非线性反馈控制器、第一伺服电机、第二伺服电机、第三伺服电机、第四伺服电机、第一末端执行器、第二末端执行器、第三末端执行器、第四末端执行器；外环控制系统包括基于有监督学习的协调控制器、第五伺服电机、第六伺服电机、检测传输带、矫正传输带。本发明采用了人工智能进行位置图像处理与识别，非线性控制器驱动多个机械手指进行位置矫正，从而为光伏电池特性曲线检测与分拣的自动化与智能化提供了精确位置矫正装置。</v>
+        <v>本发明公开了一种高速X光快递分拣方法，包括以下步骤：在自动分拣线的供包口处安装跨越式X光机设备，并通过拍照或扫描设备获取快递包裹上的条码识别信息，并控制X光机按照一定的时间间隔对快递包裹进行X光图片采集，并根据获得的条码识别信息对获得的X光图片进行命名；本发明的有益效果是：通过将跨越式X光机和高速分拣机结合起来，以提高获取X光图片的速度，并对图片进行标识；通过人工智能和深度学习的方法，对X光片中的危险物品进行快速的检测和判断；将有问题的物品通过自动分拣线系统加以甄别和剔除，确保过检的准确性和效率，减少人为干扰并降低成本。</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
       <c r="A12" t="str">
-        <v>[发明公布]一种光伏电池智能位置检测与反馈控制矫正装置</v>
+        <v>[发明公布]一种高速X光快递分拣方法</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>CN107999413A</v>
       </c>
       <c r="C12" t="str">
         <v>2018.05.08</v>
       </c>
       <c r="D12" t="str">
+        <v>2018100371724</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2018.01.15</v>
+      </c>
+      <c r="F12" t="str">
+        <v>倪洪雷</v>
+      </c>
+      <c r="G12" t="str">
+        <v>倪洪雷</v>
+      </c>
+      <c r="H12" t="str">
+        <v>200123上海市浦东新区上南路3855号11号楼103室</v>
+      </c>
+      <c r="I12" t="str" xml:space="preserve">
+        <v xml:space="preserve">B07C5/34(2006.01)I;_x000d_
+						B07C5/02(2006.01)I;B07C5/36(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J12" t="str">
+        <v>本发明公开了一种高速X光快递分拣方法，包括以下步骤：在自动分拣线的供包口处安装跨越式X光机设备，并通过拍照或扫描设备获取快递包裹上的条码识别信息，并控制X光机按照一定的时间间隔对快递包裹进行X光图片采集，并根据获得的条码识别信息对获得的X光图片进行命名；本发明的有益效果是：通过将跨越式X光机和高速分拣机结合起来，以提高获取X光图片的速度，并对图片进行标识；通过人工智能和深度学习的方法，对X光片中的危险物品进行快速的检测和判断；将有问题的物品通过自动分拣线系统加以甄别和剔除，确保过检的准确性和效率，减少人为干扰并降低成本。</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>[发明公布]一种具有基于人工智能驾驶辅助系统的新能源车</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CN108001375A</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2017112723823</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2017.12.06</v>
+      </c>
+      <c r="F13" t="str">
+        <v>韩学</v>
+      </c>
+      <c r="G13" t="str">
+        <v>韩学</v>
+      </c>
+      <c r="H13" t="str">
+        <v>315000浙江省宁波市气象路118号</v>
+      </c>
+      <c r="I13" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60R13/00(2006.01)I;_x000d_
+						G09F21/04(2006.01)I;B60W50/00(2006.01)I;B60R21/02(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J13" t="str">
+        <v>本发明公开了一种具有基于人工智能驾驶辅助系统的新能源车，包括车厢，所述车厢顶部有展示装置，所述展示装置包括一正方形的底座，所述底座上设有轨道部，所述轨道部包括正方形轨道和圆形轨道，所述圆形轨道内切于正方形轨道，以使所述底座上分隔出圆盘区和四个角点区，每个所述角点区包括邻近底座边缘的相互垂直的两个直角边和邻近圆盘区的一个弧形边，所述圆盘区的中心设有圆形的第一齿轮，所述第一齿轮通过主电机传动而转动，所述轨道部上设有展示架，所述展示架外圈设有与所述第一齿轮相啮合的第二齿轮，所述第二齿轮的外轮廓为椭圆形。本发明的展示装置通过单个主电机驱动展示架实现全方位的动态的展示效果，展示效果佳，具有实用性。</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>[发明公布]一种基于PSO参数优化的工业物联网安全聚合关联方法</v>
+      </c>
+      <c r="B14" t="str">
+        <v>CN108009241A</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2017112324908</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F14" t="str">
+        <v>昆山青石计算机有限公司</v>
+      </c>
+      <c r="G14" t="str">
+        <v>王昆明;翟秀霞;刘昭华</v>
+      </c>
+      <c r="H14" t="str">
+        <v>215334江苏省苏州市昆山开发区朝阳东路55号建伟汽配物流市场6号楼402室</v>
+      </c>
+      <c r="I14" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J14" t="str">
+        <v>本发明公开了一种基于PSO参数优化的工业物联网安全聚合关联方法，所述方法包括以下步骤：对原始的网络安全告警信息数据进行归类，运用特征对称思想建立标称属性的索引库，以便差异化处理；针对各标称属性的特征，建立相似度函数模型，计算标称属性库中各属性的特征相似度；计算标称属性间的总体差异度；综合目标物联网络的拓扑结构，引入差异度阈值函数，利用PSO算法对差异度阈值进行优化，实现用户柔性聚类和人工智能的接口。本发明可从海量繁杂且冗余的安全告警事件中将同类网络安全事件聚类，消除安全信息中的冗余信息，快速地为工业物联网络安全策略提供决策支撑，具有适应性好、稳定性和实时性高的优点。</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>[发明公布]一种大数据智慧信用治理平台架构</v>
+      </c>
+      <c r="B15" t="str">
+        <v>CN108009294A</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2017114339664</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2017.12.26</v>
+      </c>
+      <c r="F15" t="str">
+        <v>中电科大数据研究院有限公司</v>
+      </c>
+      <c r="G15" t="str">
+        <v>刘汪洋;谢真强;牟其林</v>
+      </c>
+      <c r="H15" t="str">
+        <v>550000贵州省贵阳市贵阳国家高新技术产业开发区金阳科技产业园黎阳大厦</v>
+      </c>
+      <c r="I15" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;_x000d_
+						G06Q30/00(2012.01)I;G06Q30/06(2012.01)I_x000d_
+						专利代理机构：贵阳睿腾知识产权代理有限公司52114代理人：谷庆红</v>
+      </c>
+      <c r="J15" t="str">
+        <v>本发明提供了一种大数据智慧信用治理平台架构，包括涉信数据源层、大数据平台层和智慧应用层；所述涉信数据源层包括政府委办局、重点行业、社会企业和征信机构的涉信数据；所述大数据平台层包括数据集成、数据存储、资源器、计算框架、数据分析、数据可视化和管理框架。本发明采用人工智能、区块链技术实现数据的ETL、共享、交换和查询，使其便于扩展，安全性高，让集群在利用率、资源统一管理和数据共享上减少了资源消耗，提高了管理速度，且数据存储更加方便，查询速度更快，降低了延迟，提高了容错率，使得检索更精确，工作效率高，其界面友好，功能齐全，操作模式简单，达到了让用户方便查询的目的。</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>[发明公布]轮毂追溯用基于BCD编码的二维矩阵点阵及其生成方法</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CN108009617A</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2017113650726</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2017.12.18</v>
+      </c>
+      <c r="F16" t="str" xml:space="preserve">
+        <v xml:space="preserve">赛赫智能设备（上海）股份有限公司;滨州戴森车轮科技有限公司_x000d_
+				</v>
+      </c>
+      <c r="G16" t="str">
+        <v>罗年;张子男;张威</v>
+      </c>
+      <c r="H16" t="str">
+        <v>200441上海市宝山区长逸路188号1115室</v>
+      </c>
+      <c r="I16" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K19/06(2006.01)I_x000d_
+						专利代理机构：上海一平知识产权代理有限公司31266代理人：李夫玲;徐迅</v>
+      </c>
+      <c r="J16" t="str">
+        <v>本发明涉及人工智能和自动控制领域，公开了一种轮毂追溯用基于BCD编码的二维矩阵点阵包括：方向码、校验码和多个码文单元。方向码位于二维矩阵点阵的左上角，用于表示码文单元的识别方向。校验码位于二维矩阵点阵的最后一位，用于检测码文单元的正确性或者修正误读的码文单元。多个码文单元依次位于二维矩阵点阵的剩余位置上，用于表示轮毂追溯信息。码文单元、方向码和校验码都是2×2的点阵结构。该轮毂追溯用基于BCD编码的二维矩阵点阵结构简单，可识别性高；可以根据实际需求增减、调整和变形，适合于各种复杂条件下的码文涂刻、检测需求；具有校验码，具有一定的防错纠错能力。</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>[发明公布]机器人的记忆构建方法及装置</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CN108009624A</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2017113371018</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2017.12.14</v>
+      </c>
+      <c r="F17" t="str">
+        <v>深圳狗尾草智能科技有限公司</v>
+      </c>
+      <c r="G17" t="str" xml:space="preserve">
+        <v xml:space="preserve">宋亚楠;程谦;邱楠;严汉明;邹创华;陈甜_x000d_
+				</v>
+      </c>
+      <c r="H17" t="str">
+        <v>518000广东省深圳市南山区粤海街道科苑路16号东方科技大厦1307-09</v>
+      </c>
+      <c r="I17" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06N3/00(2006.01)I;G06F17/30(2006.01)I_x000d_
+						专利代理机构：北京酷爱智慧知识产权代理有限公司11514代理人：安娜</v>
+      </c>
+      <c r="J17" t="str">
+        <v>本发明提供一种机器人的记忆构建方法及装置，方法包括，信息获取步骤，获取记忆信息；信息确定步骤，确定记忆信息的显隐性；记忆存储步骤，根据记忆信息的显隐性对记忆信息进行数据处理，并将处理后的数据存储至记忆库中，以生成瞬时记忆。本发明提供的机器人的记忆构建方法及装置，为机器人建立记忆模型，记忆模型具有拟人性，其中的显性记忆模型为多维立体模型，不同维度间相连接，以实现记忆联想，且隐性记忆模型为人工智能模型，以实现学习与复用，真正使得机器人有了记忆。</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>[发明公布]一种医学图像处理系统和方法</v>
+      </c>
+      <c r="B18" t="str">
+        <v>CN108010021A</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2017112426418</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F18" t="str">
+        <v>上海联影医疗科技有限公司</v>
+      </c>
+      <c r="G18" t="str">
+        <v>王季勇;李强</v>
+      </c>
+      <c r="H18" t="str">
+        <v>201807上海市嘉定区城北路2258号</v>
+      </c>
+      <c r="I18" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06T7/00(2017.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京品源专利代理有限公司11332代理人：孟金喆</v>
+      </c>
+      <c r="J18" t="str">
+        <v>本发明实施例公开了一种医学图像处理系统和方法。该系统包括：一个或多个处理器；存储器，用于存储一个或多个程序，当所述一个或多个程序被所述一个或多个处理器执行，使得所述一个或多个处理器实现：获取医学图像；将所述医学图像输入第一人工智能网络，获取所述医学图像的第一分类概率图，所述第一分类概率图中的每一点与所述医学图像的像素点相对应，所述第一人工智能网络是预先依据医学图像样本和对应的目标像素点训练获得的；根据所述第一分类概率图在所述医学图像中确定目标像素点，所述目标像素点的集合为目标对象。本发明实施例提高了目标像素点的检测速率，保证了目标对象检测的准确率。</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>[发明公布]基于云端无线传输的智能巡航机器人反向寻车系统及方法</v>
+      </c>
+      <c r="B19" t="str">
+        <v>CN108010375A</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2017112992618</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2017.12.08</v>
+      </c>
+      <c r="F19" t="str">
+        <v>杨奎军</v>
+      </c>
+      <c r="G19" t="str">
+        <v>杨奎军</v>
+      </c>
+      <c r="H19" t="str">
+        <v>100085北京市海淀区逸成东苑19号楼101室</v>
+      </c>
+      <c r="I19" t="str" xml:space="preserve">
+        <v xml:space="preserve">G08G1/14(2006.01)I_x000d_
+						专利代理机构：北京红福盈知识产权代理事务所(普通合伙)11525代理人：陈月福</v>
+      </c>
+      <c r="J19" t="str">
+        <v>本发明涉及一种应用于停车场反向寻车的技术领域，具体涉及一种基于云端无线传输的智能巡航机器人反向寻车系统及方法。所述系统包括智能巡航机器人端，车位标识端，云端，反向寻车查询端四个部分。该系统是一种具备车辆位置识别、车牌自动识别和移动行走的全自动智能机器人装置，该寻车机器人装置集自动控制、视频识别分析、自主行走、无线通讯和基于人工智能的算法为一体，实现在停车场快速准确的识别车牌、车位和发布查找车辆位置信息。</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>[发明公布]一种光伏电池智能位置检测与反馈控制矫正装置</v>
+      </c>
+      <c r="B20" t="str">
+        <v>CN108011589A</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D20" t="str">
         <v>2017113381556</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E20" t="str">
         <v>2017.12.14</v>
       </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="str">
+      <c r="F20" t="str">
+        <v>杭州电子科技大学</v>
+      </c>
+      <c r="G20" t="str">
         <v>刘光宇;朱凌;陶勇</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H20" t="str">
         <v>310018浙江省杭州市下沙高教园区2号大街</v>
       </c>
-      <c r="I12" t="str" xml:space="preserve">
+      <c r="I20" t="str" xml:space="preserve">
         <v xml:space="preserve">H02S50/15(2014.01)I_x000d_
 						专利代理机构：杭州君度专利代理事务所(特殊普通合伙)33240代理人：朱月芬</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J20" t="str">
         <v>本发明公开了一种光伏电池智能位置检测与反馈控制矫正装置，其特征在于包括一个内环控制系统和一个外环控制系统；内环控制系统包括工业相机、图像数据采集卡、面向光伏电池位置检测的图像识别智能算法、位置矫正非线性反馈控制器、第一伺服电机、第二伺服电机、第三伺服电机、第四伺服电机、第一末端执行器、第二末端执行器、第三末端执行器、第四末端执行器；外环控制系统包括基于有监督学习的协调控制器、第五伺服电机、第六伺服电机、检测传输带、矫正传输带。本发明采用了人工智能进行位置图像处理与识别，非线性控制器驱动多个机械手指进行位置矫正，从而为光伏电池特性曲线检测与分拣的自动化与智能化提供了精确位置矫正装置。</v>
       </c>
-      <c r="K12" t="str">
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <v/>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>[发明公布]一种人工智能深度学习神经网络嵌入式控制系统</v>
+      </c>
+      <c r="B21" t="str">
+        <v>CN108011789A</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D21" t="str">
+        <v>201711334435X</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2017.12.14</v>
+      </c>
+      <c r="F21" t="str">
+        <v>四川声达创新科技有限公司</v>
+      </c>
+      <c r="G21" t="str">
+        <v>蒋川宁;程丹;赵飞洪</v>
+      </c>
+      <c r="H21" t="str">
+        <v>621000四川省绵阳市高新区绵兴东路133号</v>
+      </c>
+      <c r="I21" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L12/28(2006.01)I;_x000d_
+						G10L15/18(2013.01)I;G10L15/22(2006.01)I;G08C23/04(2006.01)I_x000d_
+						专利代理机构：北京盛凡智荣知识产权代理有限公司11616代理人：高志军</v>
+      </c>
+      <c r="J21" t="str">
+        <v>本发明公开了一种人工智能深度学习神经网络嵌入式控制系统，包括控制中心与智能外部设备，控制中心包括微处理器、语音识别单元，语音识别单元包括语音收集器、语义解析器，语音收集器的输出端电性连接语义解析器的输入端，语义解析器的输出端电性连接命令词库的输入端，命令词库的输出端电性连接微处理器的输入端；控制中心还包括红外遥控单元，红外遥控单元包括红外信号接收器、红外信号码库，红外信号接收器的输出端电性连接红外信号码库的输入端，红外信号码库通过专用信道与内部存储单元互通，红外信号码库的输出端与微处理器的输入端电性连接。本发明可实现将离线语音命令库存储在内部或外部存储单元，实现离线语音识别。</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>[发明公布]兼容运营商接口的预警短信发布系统以及方法</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CN108012242A</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2018.05.08</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2017112455340</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2017.12.01</v>
+      </c>
+      <c r="F22" t="str">
+        <v>深圳前海数创人工智能有限公司</v>
+      </c>
+      <c r="G22" t="str">
+        <v>曹春燕;刘东华</v>
+      </c>
+      <c r="H22" t="str">
+        <v>518000广东省深圳市福田区侨香路3085号岭南大厦327室</v>
+      </c>
+      <c r="I22" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04W4/14(2009.01)I;H04W4/90(2018.01)I_x000d_
+						专利代理机构：深圳市科进知识产权代理事务所(普通合伙)44316代理人：赵勍毅</v>
+      </c>
+      <c r="J22" t="str">
+        <v>本发明一种兼容运营商接口的预警短信发布方法，包括在客户端建立任务，客户端将所述建立的任务同步到所述的预警短信发布系统；预警短信发布系统对所述任务进行内容校验，并将所述任务分拆成具体的信息单元；预警短信发布系统从运营商基站获取真实的用户号码；生成短信发送任务，并根据发送策略进行调度；根据获取的用户号码，将分拣好的短信数据下发到短信中心；短信中心将经过处理的短信数据最终发送到用户手机，且将最终发送的状态报告发送到所述预警短信发布系统；所述预警短信发布系统将任务发送情况反馈到客户端。本发明还提供一种兼容运营商接口的预警短信发布系统。本发明可以减少系统网元，提升发送短信时的及时性、高效性和稳定性。</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>[发明公布]基于人工智能的心电图心搏自动识别分类方法</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CN107981858A</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2017112035467</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F23" t="str">
+        <v>乐普（北京）医疗器械股份有限公司</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">胡传言;张雪;田亮;刘涛;曹君;刘畅_x000d_
+				</v>
+      </c>
+      <c r="H23" t="str">
+        <v>102200北京市昌平区昌平科技园区超前路37号3号楼</v>
+      </c>
+      <c r="I23" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61B5/0402(2006.01)I;_x000d_
+						G06K9/00(2006.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京慧诚智道知识产权代理事务所(特殊普通合伙)11539代理人：李楠</v>
+      </c>
+      <c r="J23" t="str">
+        <v>本发明实施例涉及一种基于人工智能的心电图心搏自动识别分类方法，包括：处理接收到的原始心电图数字信号，得到心搏时间序列数据和导联心搏数据；根据心搏时间序列数据，对导联心搏数据进行切割生成导联的心搏分析数据；对导联的心搏分析数据进行数据组合，得到一维心搏分析数组；根据一维心搏分析数组，进行数据维度扩增转换，得到四维张量数据；输入四维张量数据到训练得到的LepuEcgCatNet心搏分类模型，得到心搏分类信息。本方法改进了传统方法仅仅依靠单个导联独立分析进行结果汇总统计比较容易得出的分类错误的缺陷，极大地提高了心电图心搏分类的准确率。</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>[发明公布]基于关卡类游戏精细化难度调整方法</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CN107982920A</v>
+      </c>
+      <c r="C24" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2017112171781</v>
+      </c>
+      <c r="E24" t="str">
+        <v>2017.11.28</v>
+      </c>
+      <c r="F24" t="str">
+        <v>上海波克城市网络科技股份有限公司</v>
+      </c>
+      <c r="G24" t="str" xml:space="preserve">
+        <v xml:space="preserve">杨敏捷;徐仁彬;李晶;程永亮;柏志建;朱涛涛;曹汇辉;孙芳芳;吴胜_x000d_
+				</v>
+      </c>
+      <c r="H24" t="str">
+        <v>200333上海市普陀区金沙江路1628弄10号2201室</v>
+      </c>
+      <c r="I24" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63F13/65(2014.01)I;A63F13/79(2014.01)I_x000d_
+						专利代理机构：上海容慧专利代理事务所(普通合伙)31287代理人：于晓菁</v>
+      </c>
+      <c r="J24" t="str">
+        <v>本发明公开了一种基于关卡类游戏精细化难度调整方法，包括：第一步骤：提供设计的游戏关卡；第二步骤：利用人工智能来模拟实际玩家的平均水平，以便对所述游戏关卡进行模拟操作；第三步骤：根据模拟操作的结果来创建因子库；第四步骤：根据所述游戏关卡的预期难度，利用因子库动态调整所述游戏关卡的难度。根据本发明的基于关卡类游戏精细化难度调整方法能够消除目前关卡类游戏中存在的关卡调整的弊端，使得可以进行更精细、高精度、自动化的调整。</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>[发明公布]一种基于多传感器的车载自适应驾驶员酒精检测报警系统</v>
+      </c>
+      <c r="B25" t="str">
+        <v>CN107985190A</v>
+      </c>
+      <c r="C25" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2017112036328</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F25" t="str">
+        <v>中原工学院</v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v xml:space="preserve">张朋;瞿博阳;焦岳超;郭琳琳;常静_x000d_
+				</v>
+      </c>
+      <c r="H25" t="str">
+        <v>451191河南省郑州市新郑市双湖镇经济技术开发区淮河路1号</v>
+      </c>
+      <c r="I25" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60Q9/00(2006.01)I;_x000d_
+						B60R16/023(2006.01)I;G08B25/08(2006.01)I;G08B21/02(2006.01)I;G08G1/00(2006.01)I_x000d_
+						专利代理机构：郑州优盾知识产权代理有限公司41125代理人：孙诗雨;栗改</v>
+      </c>
+      <c r="J25" t="str">
+        <v>本发明提出了一种基于多传感器的车载自适应驾驶员酒精检测报警系统，用以解决酒精浓度测量仪成本高，预防酒后驾车行为效果不好的问题；包括传感器模块、智能锁检测模块、报警模块和中心控制模块，传感器模块、报警模块和智能锁检测模块均与中心控制模块相连接，中心控制模块与远端的智能交通云服务器相连接；传感器模块包括智能酒精探测模块、智能加速度检测模块、智能压力检测模块、智能声音拾取模块和智能图像检测模块。本发明于基多传感器检测技术、智能图像处理技术、智能语音盲源分离技术、人工智能技术实现了综合信息化和智能化，酒精浓度的高精度随车在线检测和报警，且抗干扰能强；利用多种通信方式实现各组成模块间的可靠、便捷传输。</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>[发明公布]一种安全监护方法及车载机器人座椅</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CN107985253A</v>
+      </c>
+      <c r="C26" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2017112167292</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2017.11.28</v>
+      </c>
+      <c r="F26" t="str">
+        <v>上海与德科技有限公司</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">李承敏;王文斌;包振毅;余倩_x000d_
+				</v>
+      </c>
+      <c r="H26" t="str">
+        <v>201506上海市金山区亭卫公路6558号4幢1309室</v>
+      </c>
+      <c r="I26" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60R22/46(2006.01)I_x000d_
+						专利代理机构：上海晨皓知识产权代理事务所(普通合伙)31260代理人：胡丽莉</v>
+      </c>
+      <c r="J26" t="str">
+        <v>本发明实施例涉及人工智能领域，公开了一种安全监护方法及车载机器人座椅。本发明中，应用于车载机器人座椅，包括：检测儿童安全带绑定的松紧程度；将检测到的松紧程度与预设松紧程度进行比较；在检测到的松紧程度大于预设松紧程度时，判断是否满足预设条件，并在满足预设条件时，收紧安全带。通过车载机器人座椅看管儿童，使得在无需专人看管的情况下，既能保障儿童的乘车安全，又在一定程度上避免了安全带对儿童的强制束缚，有利于提高儿童乘车的舒适度。</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>[发明公布]基于人工智能的城市化建设管理装置</v>
+      </c>
+      <c r="B27" t="str">
+        <v>CN107985839A</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2017112672465</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2017.12.05</v>
+      </c>
+      <c r="F27" t="str">
+        <v>成都猎维科技有限公司</v>
+      </c>
+      <c r="G27" t="str">
+        <v>秦睿</v>
+      </c>
+      <c r="H27" t="str">
+        <v>610000四川省成都市高新区天府四街66号2栋8层3号</v>
+      </c>
+      <c r="I27" t="str" xml:space="preserve">
+        <v xml:space="preserve">B65F1/00(2006.01)I;_x000d_
+						G06Q50/26(2012.01)I;G06K9/00(2006.01)I_x000d_
+						专利代理机构：成都路航知识产权代理有限公司51256代理人：李凌</v>
+      </c>
+      <c r="J27" t="str">
+        <v>本发明公开了基于人工智能的城市化建设管理装置，包括垃圾桶，所述垃圾桶设置编码，所述编码对应匹配一个GPS定位点和重力传感器，所述重力传感器间隔1小时发送信息到处理器，所述处理器接收重力传感器的信息，并提取对应的时间、重量、GPS定位信息，还包括图像传感器，所述图相传感器设置在垃圾桶顶部，采集垃圾桶内部的图像信息发送至处理器，所述处理器接收图像信息，当图像信息中垃圾已满时，提取对应垃圾桶的重量信息，还包括设置在垃圾桶上的全视场红外热成像火情探测装置，所述全视场红外热成像火情探测装置采集热点成像数据，对热点成像数据进行量化分析。</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>[发明公布]一种人工智能机器人用减震防撞保护装置</v>
+      </c>
+      <c r="B28" t="str">
+        <v>CN107990125A</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D28" t="str">
+        <v>201711343188X</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2017.12.14</v>
+      </c>
+      <c r="F28" t="str">
+        <v>李从宾</v>
+      </c>
+      <c r="G28" t="str">
+        <v>李从宾</v>
+      </c>
+      <c r="H28" t="str">
+        <v>264000山东省烟台市芝罘区毓西路14号218室</v>
+      </c>
+      <c r="I28" t="str" xml:space="preserve">
+        <v xml:space="preserve">F16M11/42(2006.01)I;_x000d_
+						F16M11/04(2006.01)I;F16F15/04(2006.01)I_x000d_
+						专利代理机构：烟台双联专利事务所(普通合伙)37225代理人：张辉</v>
+      </c>
+      <c r="J28" t="str">
+        <v>本发明公开了一种人工智能机器人用减震防撞保护装置，包括罩壳、万向轮、连接块、支撑板、螺栓、压紧板、旋把手、左L型架、左紧固螺钉、右L型架、右紧固螺钉等。本发明将机器人放置到放置座上，旋动旋把手，压紧板对机器人进行固定，防止晃动，设置万向轮，大大提高了移动性能，通过气压杆对锥度块的控制，对锥度块上的滚轮高低位置进行控制，从而实现机器人高低位置的控制，设置了外管和内管之间设置弹簧，滑板和固定连接板之间设置了弹簧提高了缓冲能力，实现减震，还设置了限位杆，对放置座的行程进行限制，限位杆上设置了缓冲垫，对限位杆和放置座进行有效保护，还设置了防撞装置，可以有效保护人工智能机器人。</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>[发明公布]一种全息定位装置</v>
+      </c>
+      <c r="B29" t="str">
+        <v>CN107990887A</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2017110866451</v>
+      </c>
+      <c r="E29" t="str">
+        <v>2017.11.07</v>
+      </c>
+      <c r="F29" t="str">
+        <v>南宁学院</v>
+      </c>
+      <c r="G29" t="str">
+        <v>欧彬运</v>
+      </c>
+      <c r="H29" t="str">
+        <v>530200广西壮族自治区南宁市邕宁区龙亭路8号</v>
+      </c>
+      <c r="I29" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01C21/00(2006.01)I_x000d_
+						专利代理机构：贵阳派腾阳光知识产权代理事务所(普通合伙)52110代理人：田江飞</v>
+      </c>
+      <c r="J29" t="str">
+        <v>本发明提供了一种全息定位装置，包括功能系统、音响和麦克风；所述音响、麦克风并列设置在功能系统的一侧，在功能系统的一面设有显示屏和全息成像仪；所述功能系统内设有GPS模块、无线通信模块、人工智能模块、集合系统，集合系统包括语音控制模块、显示模块和监控模块，无线通信模块内设有定时器；所述麦克风、语音控制模块、人工智能模块、无线通信模块、GPS模块、音响依次连接，显示模块、监控模块、显示屏依次连接，GPS模块、显示模块和全息成像仪依次连接。本发明实时监控安全舱内各项指标的变化，及时给出当前情况最适合的方案供受灾者选择，且装置与安全舱之间可拆卸，独立性极好，便于避难者自主逃出后，救生员能通过求救信号及时找到。</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>[发明公布]一种建筑中枢系统</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CN107991953A</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2017110503570</v>
+      </c>
+      <c r="E30" t="str">
+        <v>2017.10.31</v>
+      </c>
+      <c r="F30" t="str">
+        <v>上海雅直科技有限公司</v>
+      </c>
+      <c r="G30" t="str">
+        <v>余涛</v>
+      </c>
+      <c r="H30" t="str">
+        <v>200000上海市长宁区天山西路789号A幢401室</v>
+      </c>
+      <c r="I30" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B19/048(2006.01)I_x000d_
+						专利代理机构：苏州市方略专利代理事务所(普通合伙)32267代理人：刘燕娇</v>
+      </c>
+      <c r="J30" t="str">
+        <v>本发明公开了一种建筑中枢系统，包括：设施管理、知识库、人工智能模块、地理信息管理模块、建筑信息模型、大数据模块和服务器，大数据模块的输出端通过智能网关与知识库的输入端、人工智能模块的输入端以及地理信息管理模块的输入端以及建筑信息模型的输入端连接，所述的设施管理、知识库、人工智能模块、地理信息管理模块、建筑信息模型和大数据模块之间两两之间相互连接，本发明主要部署在云端或中控室，与边缘服务器结合使用，形成完整的建筑数据集成系统，集成一个相互关联、完整和协调的综合监控与管理的大系统，系统信息高度共享和合理分配，克服以往因各应用系统独立操作。</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>[发明公布]基于人工智能的景区导游咨询系统</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CN107992539A</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2017111952986</v>
+      </c>
+      <c r="E31" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F31" t="str">
+        <v>合肥博焱智能科技有限公司</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v xml:space="preserve">钱波;张震;姚庆锋;鲁群_x000d_
+				</v>
+      </c>
+      <c r="H31" t="str">
+        <v>230000安徽省合肥市高新区云飞路6号赛普科技园4楼401室</v>
+      </c>
+      <c r="I31" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06Q50/10(2012.01)I_x000d_
+						专利代理机构：上海精晟知识产权代理有限公司31253代理人：冯子玲</v>
+      </c>
+      <c r="J31" t="str">
+        <v>本发明公开了基于人工智能的景区导游咨询系统，涉及人工智能领域。本发明包括用于游客与系统进行交互的智能终端交互平台；用于存储大量知识型数据信息的知识库；人工智能服务器内建至少六个引擎包括一关键字提取引擎、一判断引擎、一智能分类引擎、一相似问题搜索引擎、一转接人工服务引擎和一答案总结引擎。本发明通过游客向智能终端交互平台提出问题，景区导游咨询系统提取问题关键字检索知识库，通过平台向游客展示所需答案，当系统没有检索到知识库中的关键字时，将联系客服人员进行帮助解答，解决了现有的景区管理费事，游客咨询难等问题，提升了景区管理力度，具有使用方便、操作简单、方便游客快速获得想要的答案等优点。</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>[发明公布]一种基于三维扫描点云数据及人工智能识别与计算的建筑业构部件生产与安装精度控制工艺</v>
+      </c>
+      <c r="B32" t="str">
+        <v>CN107992643A</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2017110057230</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2017.10.25</v>
+      </c>
+      <c r="F32" t="str">
+        <v>刘界鹏</v>
+      </c>
+      <c r="G32" t="str">
+        <v>刘界鹏;齐宏拓</v>
+      </c>
+      <c r="H32" t="str">
+        <v>400044重庆市沙坪坝区学林雅园</v>
+      </c>
+      <c r="I32" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/50(2006.01)I;G06T17/10(2006.01)I_x000d_
+						专利代理机构：重庆大学专利中心50201代理人：王翔</v>
+      </c>
+      <c r="J32" t="str">
+        <v>发明提供一种基于三维扫描点云数据及人工智能识别与计算的建筑业构部件生产与安装精度控制工艺。该控制工艺包括对预制构部件进行编号、全景扫描、生成真实三维BIM模型、数字化预拼装等步骤。该控制工艺精度控制及数字化预拼装效率高，减少了人工劳动投入。通过预拼装发现误差并及时在工厂里整改，避免了施工现场返工，保障了工期，控制了建设成本。</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>[发明公布]基于机器视觉的林业生态环境人机交互方法</v>
+      </c>
+      <c r="B33" t="str">
+        <v>CN107992854A</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2017114071646</v>
+      </c>
+      <c r="E33" t="str">
+        <v>2017.12.22</v>
+      </c>
+      <c r="F33" t="str">
+        <v>重庆邮电大学</v>
+      </c>
+      <c r="G33" t="str" xml:space="preserve">
+        <v xml:space="preserve">朱智勤;郑明耀;李鹏华;李嫄源;赵芬_x000d_
+				</v>
+      </c>
+      <c r="H33" t="str">
+        <v>400065重庆市南岸区黄桷垭崇文路2号</v>
+      </c>
+      <c r="I33" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京同恒源知识产权代理有限公司11275代理人：赵荣之</v>
+      </c>
+      <c r="J33" t="str">
+        <v>本发明涉及一种基于机器视觉的林业生态环境人机交互方法，属于神经网络领域。该方法融合人工智能在图像处理中的已有先进成果，面向林业生态典型应用场景，采用“云”到“端”的处理方式，利用视觉感知所记忆的信息，构建林业生态环境统一语义表达的人机交互平台。本发明围绕林业生态中的特殊人群分析、危险行为理解、人流量监测与野生动物识别等典型需求，研究图像敏感区域捕获、目标种类判别与图像语义理解的共性技术，解决林业生态环境中视觉信息交互问题，使多模态交互设备实现智能环境感知，改善林区监管手段、提高管理效率。实现林区智能监控与预警功能，丰富林业生态监管手段、提升林业生态管理效率。</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>[发明公布]一种基于人脸检测的切图方法</v>
+      </c>
+      <c r="B34" t="str">
+        <v>CN107992859A</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2017114660015</v>
+      </c>
+      <c r="E34" t="str">
+        <v>2017.12.28</v>
+      </c>
+      <c r="F34" t="str">
+        <v>华慧视科技（天津）有限公司</v>
+      </c>
+      <c r="G34" t="str">
+        <v>施金佑;林志祥</v>
+      </c>
+      <c r="H34" t="str">
+        <v>300457天津市滨海新区生态城中天大道2018号生态城科技园启发大厦1107室</v>
+      </c>
+      <c r="I34" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I_x000d_
+						专利代理机构：北京科亿知识产权代理事务所(普通合伙)11350代理人：汤东凤</v>
+      </c>
+      <c r="J34" t="str">
+        <v>本发明公开了一种基于人脸检测的切图方法，采用人脸检测的方法，只有当在画面中出现符合人脸识别系统要求的头像时自动的切图，输出的图片包含了全要素的人脸头像；且发明采用人工智能的卷积神经网络方法成功地解决了在人证合一验证系统中获取有效人脸的方法。</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>[发明公布]一种Boosting支持向量机学习方法</v>
+      </c>
+      <c r="B35" t="str">
+        <v>CN107992895A</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2017113186290</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2017.12.12</v>
+      </c>
+      <c r="F35" t="str">
+        <v>电子科技大学</v>
+      </c>
+      <c r="G35" t="str">
+        <v>高建彬;赵俊祎</v>
+      </c>
+      <c r="H35" t="str">
+        <v>611731四川省成都市高新区（西区）西源大道2006号</v>
+      </c>
+      <c r="I35" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I_x000d_
+						专利代理机构：成都弘毅天承知识产权代理有限公司51230代理人：徐金琼本国优先权：2017109803822 2017.10.19 CN</v>
+      </c>
+      <c r="J35" t="str">
+        <v>本发明公开了一种Boosting支持向量机学习方法，涉及人工智能技术领域，本发明包括以下步骤：步骤1：数据处理，对初始支持向量机分类器进行参数γ的选择；步骤2：初始化权值，选取n个训练样本组成总数据集，初始化每个训练样本的权值；步骤3：进入循环迭代，更新所有训练样本的权值；步骤4：通过T次循环，得到最终分类器H(x)，本发明结合支持向量机与Adaboost算法的思想，提高模式识别中分类器设计的重采样技术的学习精度并且保证稳定的学习能力，优化了分类效果，使得分类精确率大大提升。</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>[发明公布]基于多源信息融合的林业生态环境人机交互方法</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CN107992904A</v>
+      </c>
+      <c r="C36" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2017114083395</v>
+      </c>
+      <c r="E36" t="str">
+        <v>2017.12.22</v>
+      </c>
+      <c r="F36" t="str">
+        <v>重庆邮电大学</v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">朱智勤;秦石磊;李鹏华;李嫄源;郑明耀_x000d_
+				</v>
+      </c>
+      <c r="H36" t="str">
+        <v>400065重庆市南岸区黄桷垭崇文路2号</v>
+      </c>
+      <c r="I36" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I;_x000d_
+						G06N3/04(2006.01)I;G06N3/08(2006.01)I_x000d_
+						专利代理机构：北京同恒源知识产权代理有限公司11275代理人：赵荣之</v>
+      </c>
+      <c r="J36" t="str">
+        <v>本发明涉及一种基于多源信息融合的林业生态环境人机交互方法，属于神经网络领域。该方法围绕林业生态中声音、图像、文字等关键信息综合处理，研究面向多源异构林业生态数据的稀疏特征提取、决策融合分析的共性技术，处理林业生态环境中多源异构信息，通过多模态信息的融合实现对于林业生态信息的多角度理解与分析。本发明融合人工智能在图像、语音识别和自然语言处理中的已有先进成果，面向林业生态典型应用场景，采用“云”到“端”的处理方式，利用视觉、语言、听觉等各种感知所记忆的多通道信息，构建林业生态环境统一语义表达的多模态人机交互平台，丰富林业生态监管手段、提升林业生态管理效率。</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>[发明公布]一种基于虚拟融合的智能化监控装置</v>
+      </c>
+      <c r="B37" t="str">
+        <v>CN107992990A</v>
+      </c>
+      <c r="C37" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2017110742069</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2017.11.05</v>
+      </c>
+      <c r="F37" t="str">
+        <v>常州工学院</v>
+      </c>
+      <c r="G37" t="str">
+        <v>李晓芳</v>
+      </c>
+      <c r="H37" t="str">
+        <v>213000江苏省常州市通江南路299号</v>
+      </c>
+      <c r="I37" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/06(2012.01)I;_x000d_
+						G06K17/00(2006.01)I;G08C17/02(2006.01)I;G10L15/22(2006.01)I;H04W84/18(2009.01)I_x000d_
+						</v>
+      </c>
+      <c r="J37" t="str">
+        <v>一种基于虚拟融合的智能化监控装置，本发明涉及智能化监控技术领域；它包含虚拟工厂、电源供电模块、无线传感网络模块、射频识别模块、多媒体模块、网络通信模块、人工智能模块；虚拟工厂与物理工厂连接；所述的无线传感网络模块、射频识别模块、多媒体模块均与物理工厂连接；所述的电源供电模块与物理工厂和虚拟工厂连接；所述的人工智能模块和网络通信模块均与虚拟工厂连接。用于实时监控工业现场设备、人员，并高可靠性传输实现远程监控，灵活多样、功能强大，可以通过移动设备，计算机等远程管理，实用性更强。</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>[发明公布]一种独立式无人机飞行安全监测与信息管理系统</v>
+      </c>
+      <c r="B38" t="str">
+        <v>CN107993308A</v>
+      </c>
+      <c r="C38" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2017108026713</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2017.09.08</v>
+      </c>
+      <c r="F38" t="str">
+        <v>北京航空航天大学</v>
+      </c>
+      <c r="G38" t="str">
+        <v>陈旭智;蒙志君;吴镇平</v>
+      </c>
+      <c r="H38" t="str">
+        <v>100191北京市海淀区学院路37号</v>
+      </c>
+      <c r="I38" t="str" xml:space="preserve">
+        <v xml:space="preserve">G07C5/08(2006.01)I;G01C23/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J38" t="str">
+        <v>一种独立式无人机飞行安全监测与信息管理系统，其特征在于：系统主要由无人机状态监测单元、无人机状态显示单元、无人机状态存储分析单元组成。其中，无人机状态监测单元采用独立的内置可充电电池，利用内置的完整传感器组监测无人机飞行状态，将无人机飞行状态回传至无人机状态存储分析单元。无人机状态显示单元可在登录后查询对应账号的无人机状态信息，接收无人机状态存储分析单元推送的维护和报警信息并可触发无人机状态监测单元的报警信息在无人机丢失时帮助寻找无人机。无人机状态存储分析单元接收、存储无人机状态监测单元传回的无人机状态信息，并通过内置的无人机飞行信息资料以及机器学习、人工智能算法分析统计无人机飞行时长、发动机开车时间、飞行热点以及是否违规飞行等飞行信息，向无人机状态显示单元推送飞行区域选择、无人机维护以及无人机飞行违规报警信息。</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>[发明公布]基于递归神经网络的乐谱建模与生成方法</v>
+      </c>
+      <c r="B39" t="str">
+        <v>CN107993636A</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2017110599018</v>
+      </c>
+      <c r="E39" t="str">
+        <v>2017.11.01</v>
+      </c>
+      <c r="F39" t="str">
+        <v>天津大学</v>
+      </c>
+      <c r="G39" t="str" xml:space="preserve">
+        <v xml:space="preserve">王建荣;王丽媛;于瑞国;赵满坤;高洁;薛寒钰_x000d_
+				</v>
+      </c>
+      <c r="H39" t="str">
+        <v>300072天津市南开区卫津路92号</v>
+      </c>
+      <c r="I39" t="str" xml:space="preserve">
+        <v xml:space="preserve">G10H1/00(2006.01)I_x000d_
+						专利代理机构：天津市北洋有限责任专利代理事务所12201代理人：刘国威</v>
+      </c>
+      <c r="J39" t="str">
+        <v>本发明属于人工智能、数据挖掘和机器翻译领域，为提出一种自动化音乐创作方法，能够有效克服传统音乐创作方法中自动对乐谱进行建模与生成时发生的乐谱格式的错乱、节奏与标注的不一致及旋律的不恰当等问题。本发明，基于递归神经网络的乐谱建模与生成方法，步骤如下：步骤一：调研乐谱的电子表达形式，选择最适用于电子乐谱建模与生成的表达形式；步骤二：构建用于ABC格式电子乐谱建模与生成的递归神经网络模型；步骤四：生成从音乐角度和文法角度都满足要求的ABC格式乐谱；步骤五：比较分析两个模型在乐谱建模学习能力与生成效果上的差别。本发明主要应用于自动化音乐创作场合。</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>[发明公布]应用于机器人的翻页方法、机器人翻页系统及服务器</v>
+      </c>
+      <c r="B40" t="str">
+        <v>CN107993659A</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2017112201039</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2017.11.28</v>
+      </c>
+      <c r="F40" t="str">
+        <v>上海与德科技有限公司</v>
+      </c>
+      <c r="G40" t="str" xml:space="preserve">
+        <v xml:space="preserve">李承敏;王文斌;包振毅;余倩_x000d_
+				</v>
+      </c>
+      <c r="H40" t="str">
+        <v>201506上海市金山区亭卫公路6558号4幢1309室</v>
+      </c>
+      <c r="I40" t="str" xml:space="preserve">
+        <v xml:space="preserve">G10L15/26(2006.01)I;_x000d_
+						G10L15/22(2006.01)I;B25J9/16(2006.01)I;B42D9/04(2006.01)I_x000d_
+						专利代理机构：上海晨皓知识产权代理事务所(普通合伙)31260代理人：胡丽莉</v>
+      </c>
+      <c r="J40" t="str">
+        <v>本发明实施例涉及人工智能领域，公开了一种应用于机器人的翻页方法、机器人翻页系统及服务器。本发明中，一种应用于机器人的翻页方法，包括：实时采集用户读书时的语音信息，并根据采集到的所述语音信息，确定与所述语音信息相对应的文字信息所在的页码；当检测到所述采集的语音信息与所述页码中的最后一句文字信息相匹配时，执行翻页操作。使得机器人能够执行自动翻页操作，无需人为手动操作，提高了阅读效率。</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>[发明公布]体检数据管理方法、系统、存储介质及电子设备</v>
+      </c>
+      <c r="B41" t="str">
+        <v>CN107993693A</v>
+      </c>
+      <c r="C41" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2017113046844</v>
+      </c>
+      <c r="E41" t="str">
+        <v>2017.12.11</v>
+      </c>
+      <c r="F41" t="str">
+        <v>泰康保险集团股份有限公司</v>
+      </c>
+      <c r="G41" t="str">
+        <v>黄洋</v>
+      </c>
+      <c r="H41" t="str">
+        <v>100031北京市西城区复兴门内大街156号泰康人寿大厦</v>
+      </c>
+      <c r="I41" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H10/60(2018.01)I;G16H70/00(2018.01)I_x000d_
+						专利代理机构：北京同立钧成知识产权代理有限公司11205代理人：杨泽;刘芳</v>
+      </c>
+      <c r="J41" t="str">
+        <v>本发明提供一种体检数据管理方法、系统、存储介质及电子设备。所述方法，包括：获取体检数据中的第一体检项目名称以及所述第一体检项目名称所对应的第一体检项目结果；根据所述第一体检项目名称从预设的对码表中筛选出与所述第一体检项目名称相对应的第一标准名称；根据所述第一标准名称与所述第一体检项目结果，生成第一结果数据。本发明解决现有的体检数据存在数据格式以及编码不统一的问题，使得现有的体检结果数据得到标准化，为后期利用大数据和人工智能等方式对该数据进行进一步地挖掘和利用提供了坚实的基础。</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>[发明公布]一种糖尿病五驾马车的人工智能干预系统和方法</v>
+      </c>
+      <c r="B42" t="str">
+        <v>CN107993716A</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2018.05.04</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2017113107602</v>
+      </c>
+      <c r="E42" t="str">
+        <v>2017.12.11</v>
+      </c>
+      <c r="F42" t="str">
+        <v>北京平糖移动互联医疗科技有限公司</v>
+      </c>
+      <c r="G42" t="str">
+        <v>周剑锋;兰为民</v>
+      </c>
+      <c r="H42" t="str">
+        <v>101100北京市通州区新华西街60院2号楼26层2617室</v>
+      </c>
+      <c r="I42" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H50/20(2018.01)I;_x000d_
+						G16H40/67(2018.01)I;G16H20/60(2018.01)I;G16H20/30(2018.01)I_x000d_
+						专利代理机构：北京爱普纳杰专利代理事务所(特殊普通合伙)11419代理人：王玉松</v>
+      </c>
+      <c r="J42" t="str">
+        <v>本发明提供了一种糖尿病五驾马车的人工智能干预系统和方法，根据用户的医学检查结果、历史用药和干预行为等数据，从起居、营养、饮食、饮水、运动以及血糖监控六个方面着手，为用户量身定制一套智能、科学、规范的康复干预指导方案，并据此间接提供了减针、减药的干预指导方案。该方法通过智能提醒、监测和评估解决糖尿病患者自律性差，以及缺乏科学的干预方法等问题；以定期定时智能提醒执行计划，评估执行结果，实时的发送给用户和指定监护人；通过大数据分析，告诉糖尿病患者在干预过程中存在的问题，由监护人(家人和专家等)帮助和督导患者正确、科学干预糖尿病。逐步脱离药物依赖，提升生活质量，减少医疗费用支出。</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>[发明公布]一种组合式宠物训导系统</v>
+      </c>
+      <c r="B43" t="str">
+        <v>CN107926747A</v>
+      </c>
+      <c r="C43" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2018100010980</v>
+      </c>
+      <c r="E43" t="str">
+        <v>2018.01.02</v>
+      </c>
+      <c r="F43" t="str">
+        <v>合肥淘云科技有限公司</v>
+      </c>
+      <c r="G43" t="str" xml:space="preserve">
+        <v xml:space="preserve">胡郁;刘庆升;于继栋;方明_x000d_
+				</v>
+      </c>
+      <c r="H43" t="str">
+        <v>230000安徽省合肥市高新区望江西路666号讯飞大厦13层</v>
+      </c>
+      <c r="I43" t="str" xml:space="preserve">
+        <v xml:space="preserve">A01K15/02(2006.01)I;A01K29/00(2006.01)I_x000d_
+						专利代理机构：合肥道正企智知识产权代理有限公司34130代理人：张浩</v>
+      </c>
+      <c r="J43" t="str">
+        <v>本发明公开了一种组合式宠物训导系统，包括云平台大数据处理中心、移动接收控制终端、无线充电站、智能项圈、智能背囊、智能投食机；本发明的系统可实时监控宠物相关情况，通过信号刺激安抚和诱导改善宠物的生活习性，提高其健康生活状况，系统利用生物物联网、大数据分析、云计算、人工智能和深度学习等高新技术，不仅可以完成宠物的全生命周期管理，监测和照顾宠物的健康，显著改善宠物的生存质量，还能矫正宠物的行为习惯，甚至训导宠物从事表演和家务工作；此外，还能训导宠物完成特定任务，如疏导交通、导盲、灾难现场生命探测搜救、排爆等，具有较高的实用价值和广泛的应用前景。</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>[发明公布]一种养蚕自动喂料、上消毒粉方法</v>
+      </c>
+      <c r="B44" t="str">
+        <v>CN107926870A</v>
+      </c>
+      <c r="C44" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2017111733917</v>
+      </c>
+      <c r="E44" t="str">
+        <v>2017.11.22</v>
+      </c>
+      <c r="F44" t="str">
+        <v>蓬安县斯创格汽车配件科技有限公司</v>
+      </c>
+      <c r="G44" t="str">
+        <v>唐杰</v>
+      </c>
+      <c r="H44" t="str">
+        <v>637800四川省南充市蓬安县河舒工业园区桂花南路25号</v>
+      </c>
+      <c r="I44" t="str" xml:space="preserve">
+        <v xml:space="preserve">A01K67/04(2006.01)I;A61L2/23(2006.01)I_x000d_
+						专利代理机构：南充聚力三新专利代理有限责任公司51207代理人：唐睿</v>
+      </c>
+      <c r="J44" t="str">
+        <v>本发明公开了一种养蚕自动喂料、上消毒粉方法：起动设备运作开关，机器人按照程序的要求，搬到桑叶上桑叶机械手的上料区；撒消毒粉机械手开始按程序，逐层给蚕上消毒粉；通过吸料盘开始吸附桑叶在吸板上，同时上桑叶机械手开始按照程序，找到该层进行逐层投料；通过无线网络发送一条指令给机器人，机器人把蚕架搬到养蚕区原该蚕架的放置区，以此类推，直到一次喂养全部完成。本发明全采用人工智能，通过光电感应传感器和设计好的程序进行运作，实现了养蚕自动喂料、上消毒粉，节省了大量的养蚕人工成本。同时，因用人少，减少了蚕因感染病菌的风险，因是设备自行运作对喂养的料准时、均量，对蚕的生长大有好处，还节省了养蚕的空间。</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>[发明公布]一种基于神经网络的脉搏波信号血压检测方法</v>
+      </c>
+      <c r="B45" t="str">
+        <v>CN107928654A</v>
+      </c>
+      <c r="C45" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2017113098849</v>
+      </c>
+      <c r="E45" t="str">
+        <v>2017.12.11</v>
+      </c>
+      <c r="F45" t="str">
+        <v>重庆邮电大学</v>
+      </c>
+      <c r="G45" t="str" xml:space="preserve">
+        <v xml:space="preserve">林金朝;张亚华;庞宇;李国权;曲雷政_x000d_
+				</v>
+      </c>
+      <c r="H45" t="str">
+        <v>400065重庆市南岸区崇文路2号</v>
+      </c>
+      <c r="I45" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61B5/021(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J45" t="str">
+        <v>本发明提出一种基于神经网络的脉搏波信号血压检测方法，属于生命体征信号处理领域和人工智能领域。该方法包括步骤：使用一个数据采集模块，采集脉搏波信号；使用一个数据处理模块，用于处理原始脉搏波信号，主要使用低通滤波去除信号中的高频突变点及小波去噪算法去除信号中的基线漂移；提取脉搏波中的特征点，特征点包含脉搏波周期，周期内的最大值和最小值，波形时域面积参数，周期内的曲率最大点和曲率最小点等一系列特征点；计算相关特征参数，本发明提取了15个特征参数；将15个特征参数作为输入层，选取适当的人工智能的BP算法，基于神经网络计算出收缩压和舒张压。</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>[发明公布]一种基于人工智能的乒乓球捡球机</v>
+      </c>
+      <c r="B46" t="str">
+        <v>CN107930038A</v>
+      </c>
+      <c r="C46" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2017114502327</v>
+      </c>
+      <c r="E46" t="str">
+        <v>2017.12.28</v>
+      </c>
+      <c r="F46" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G46" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H46" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I46" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63B47/02(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J46" t="str">
+        <v>本发明公开了一种基于人工智能的乒乓球捡球机，本发明包括壳体、检测装置和控制系统，所述的检测装置包括红外检测传感器和超声波传感器，所述的红外检测传感器设置在壳体的顶部，超声波传感器设置在壳体的外侧面上，壳体的底部设置有滚轮，还包括捡球装置，所述的捡球装置包括设置在壳体下端的集球装置、设置在壳体上部内的集球仓和连接集球装置与集球仓的输送装置。本发明的捡球机能够自动实现捡球和将球转移到发球机的储球桶内，大大节省了人力，同时也节省了人工捡球耗费的大量时间。</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>[发明公布]一种智能交互式竞技锻炼设备</v>
+      </c>
+      <c r="B47" t="str">
+        <v>CN107930089A</v>
+      </c>
+      <c r="C47" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2018100011930</v>
+      </c>
+      <c r="E47" t="str">
+        <v>2018.01.02</v>
+      </c>
+      <c r="F47" t="str">
+        <v>合肥淘云科技有限公司</v>
+      </c>
+      <c r="G47" t="str" xml:space="preserve">
+        <v xml:space="preserve">胡郁;刘庆升;于继栋;方明_x000d_
+				</v>
+      </c>
+      <c r="H47" t="str">
+        <v>230000安徽省合肥市高新区望江西路666号讯飞大厦13层</v>
+      </c>
+      <c r="I47" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63B71/06(2006.01)I;_x000d_
+						A63B63/08(2006.01)I;A63B63/00(2006.01)I;G06F3/01(2006.01)I_x000d_
+						专利代理机构：合肥道正企智知识产权代理有限公司34130代理人：张浩</v>
+      </c>
+      <c r="J47" t="str">
+        <v>本发明涉及人工智能技术领域，公开了一种智能交互式竞技锻炼设备，包括云平台大数据处理中心、电源系统、中央处理系统、存储模块、通信模块、组合式壳体、人机交互系统、声光显示系统、移动接收控制终端。本发明的组装式外壳和声光显示系统根据系统型号配置不同有多个规格，具有多种输入交互形式，设备结构简单、易于实施、自动化程度高、具有智能化的特点，同时其电力来源为光伏发电技术与市电相结合，将光能转化的电能为各模块提供所需电能，缓解了能源压力，达到了节能环保的效果，各模块配合使用能够实现轻松锻炼、科学健身、知识学习、人工智能辅助健康管理的目的。</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>[发明公布]一种钛合金和铝合金的等离子焊接方法</v>
+      </c>
+      <c r="B48" t="str">
+        <v>CN107931805A</v>
+      </c>
+      <c r="C48" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2017114363930</v>
+      </c>
+      <c r="E48" t="str">
+        <v>2017.12.26</v>
+      </c>
+      <c r="F48" t="str">
+        <v>江苏烁石焊接科技有限公司</v>
+      </c>
+      <c r="G48" t="str" xml:space="preserve">
+        <v xml:space="preserve">周琦;郭顺;朱军;王克鸿;王波;彭勇;范霁康;王毅;徐俊强;喻嘉熙;张雪;李洪强;陈鑫_x000d_
+				</v>
+      </c>
+      <c r="H48" t="str">
+        <v>210000江苏省南京市麒麟人工智能产业园</v>
+      </c>
+      <c r="I48" t="str" xml:space="preserve">
+        <v xml:space="preserve">B23K10/02(2006.01)I;B23K103/18(2006.01)N_x000d_
+						专利代理机构：南京理工大学专利中心32203代理人：邹伟红</v>
+      </c>
+      <c r="J48" t="str">
+        <v>本发明为一种钛合金和铝合金异种金属的等离子焊接方法，待焊试件接头为在I型接头两个对接面上分别设置一个沿焊接件厚度方向的凸起平台，两个平台在焊接件长度及宽度方向等长，在厚度方向的高度之和为对接试板厚度。其次，进行焊前处理并优化等离子焊接参数，完成第一次熔钎焊接；之后，在熔钎焊缝相邻的钛侧，进行第二次改性焊接，两焊缝相近但不交叉。本发明的连接方法利用异种金属高熔点差异特点，在高熔点钛侧相邻熔钎焊道旁进行第二次焊接，通过第二次焊接温度场对钛铝结合界面进行重熔改性，优化结合界面处相结构，减弱接头脆性，同时采用特殊的接头结构，提高焊缝根部结合强度，增加接头可靠性。</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>[发明公布]智控式微型清洁机器人</v>
+      </c>
+      <c r="B49" t="str">
+        <v>CN107932525A</v>
+      </c>
+      <c r="C49" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2017112471517</v>
+      </c>
+      <c r="E49" t="str">
+        <v>2017.12.01</v>
+      </c>
+      <c r="F49" t="str">
+        <v>王冬冬</v>
+      </c>
+      <c r="G49" t="str">
+        <v>王冬冬</v>
+      </c>
+      <c r="H49" t="str">
+        <v>528447广东省中山市港口镇横河涌街265号</v>
+      </c>
+      <c r="I49" t="str" xml:space="preserve">
+        <v xml:space="preserve">B25J11/00(2006.01)I;B25J13/00(2006.01)I_x000d_
+						专利代理机构：中山市铭洋专利商标事务所(普通合伙)44286代理人：邹常友</v>
+      </c>
+      <c r="J49" t="str">
+        <v>本发明公开智控式微型清洁机器人，其特征在于，它包括：驱动电机，其连接有行走机构、清扫机构和吸尘机构；所述行走机构，包括行走驱动轮和随动轮；所述清扫机构连接所述吸尘机构，均由所述驱动电机带动进行清扫、吸尘作业；光电传感器，其包括碰撞检测光电传感器和悬空检测光电传感器；所述驱动电机还设有通讯单元，连接移动终端进行无线控制。本智控式微型清洁机器人，采用传感器探测环境，实现数据传输以及人工智能控制方式，通过设定优化指标或用户自定义优化指标，实现所需清扫区域的合理完全路径覆盖，实现智能小家电应用，帮助用户减轻家务压力。</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>[发明公布]安全无人驾驶汽车人车路三合一方法</v>
+      </c>
+      <c r="B50" t="str">
+        <v>CN107933478A</v>
+      </c>
+      <c r="C50" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2016108895733</v>
+      </c>
+      <c r="E50" t="str">
+        <v>2016.10.12</v>
+      </c>
+      <c r="F50" t="str">
+        <v>宋云波</v>
+      </c>
+      <c r="G50" t="str">
+        <v>宋云波</v>
+      </c>
+      <c r="H50" t="str">
+        <v>518054广东省深圳市南山区创业路观海台C3-901</v>
+      </c>
+      <c r="I50" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60R21/02(2006.01)I;_x000d_
+						B60R21/0134(2006.01)I;B60R21/36(2011.01)I;B60T1/14(2006.01)I;G06K7/08(2006.01)I;G06K7/10(2006.01)I;G06K19/08(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J50" t="str">
+        <v>无人驾驶汽车是当前最重要的应用，但商业化进程依然存在不少问题。单纯依靠人工智能的方式让传统的有人驾驶汽车变成无人驾驶汽车的思路是欠缺的。本发明抛弃传统汽车的通常设计思路，通过对无人驾驶汽车重新设计，去掉前后挡风玻璃，将座舱完全独立出来进行安全加强，并弹射真空吸盘来缩短刹车距离，在汽车的外围设置智能缓冲圈和将安全气囊外置在原前挡风玻璃外形成莲花式保护垫来保护被撞击的人和物；同时将人和路一并综合考虑视作一个整体：在车道表面涂覆有带有信息的磁条和无源射频卡芯片来帮助精确定位并在必要时设置人行自动门。本发明能大大加强无人驾驶汽车的安全性，极大的提高其商业化进程，对传统汽车也有不少的益处。</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>[发明公布]一种人工智能分拣机器人</v>
+      </c>
+      <c r="B51" t="str">
+        <v>CN107934482A</v>
+      </c>
+      <c r="C51" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2017109042361</v>
+      </c>
+      <c r="E51" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F51" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G51" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H51" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I51" t="str" xml:space="preserve">
+        <v xml:space="preserve">B65G47/256(2006.01)I;_x000d_
+						B65G47/90(2006.01)I;B65G47/64(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J51" t="str">
+        <v>本发明公开了一种人工智能分拣机器人，本发明包括控制装置、识别装置、底座、第一活动部件、第二活动部件、第三活动部件和夹持部件，所述的第一活动部件包括第一电机和转动臂，所述的第二活动部件包括第一气缸和第一铰接臂，第一气缸与控制装置连接，所述的第三活动部件包括第二气缸和第二铰接臂，所述的夹持部件包括夹持爪和夹持电机，所述的识别装置与控制装置连接，所述的转动臂的一端转动连接在底座上，所述的第一铰接臂的一端与转动臂的另一端铰接，所述的第二铰接臂的一端与第一铰接臂的另一端铰接，所述得夹持爪固定连接第二铰接臂的另一端。本发明可以用来代替人工劳动，既节省了人力劳动，还提高了工作效率。</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>[发明公布]一种人工智能烘干装置及方法</v>
+      </c>
+      <c r="B52" t="str">
+        <v>CN107940981A</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2017111045103</v>
+      </c>
+      <c r="E52" t="str">
+        <v>2017.11.10</v>
+      </c>
+      <c r="F52" t="str">
+        <v>苏州大成电子科技有限公司</v>
+      </c>
+      <c r="G52" t="str">
+        <v>夏泽宇</v>
+      </c>
+      <c r="H52" t="str">
+        <v>215011江苏省苏州市高新区滨河路625号</v>
+      </c>
+      <c r="I52" t="str" xml:space="preserve">
+        <v xml:space="preserve">F26B25/00(2006.01)I_x000d_
+						专利代理机构：南京纵横知识产权代理有限公司32224代理人：董建林</v>
+      </c>
+      <c r="J52" t="str">
+        <v>本发明一种人工智能烘干装置，包括烘干器和为其供电的供电模块，还包括定时模块、多功能监测模块、语音识别模块、控制模块、语音播报模块、报警模块和无线通信模块，多功能监测模块和语音识别模块与控制模块输入端相连，控制模块输出端与语音播报模块和报警模块相连并通过无线通信模块连接客户端，定时模块与控制模块相连再连接至供电模块。本发明提供的人工智能烘干装置及方法，通过定时模块智能控制供电模块的通断电，烘干完毕可智能断电，降低电能消耗，可智能识别工作人员传送的语音信号并经处理后通过语音播报模块向工作人员传达所需信息，通过客户端实时接收烘干室内的数据信息，便于工作人员及时做出响应，兼具报警功能，智能化水平高。</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>[发明公布]情感智能音响系统</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CN107942695A</v>
+      </c>
+      <c r="C53" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2017112665870</v>
+      </c>
+      <c r="E53" t="str">
+        <v>2017.12.04</v>
+      </c>
+      <c r="F53" t="str">
+        <v>北京贞宇科技有限公司</v>
+      </c>
+      <c r="G53" t="str">
+        <v>佀慧峰</v>
+      </c>
+      <c r="H53" t="str">
+        <v>100044北京市海淀区中关村大街18号11层1111-27</v>
+      </c>
+      <c r="I53" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B15/02(2006.01)I;_x000d_
+						G05B19/418(2006.01)I;G10L25/63(2013.01)I;H04M1/725(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J53" t="str">
+        <v>本发明涉及情感智能音响系统，由传感器、中央处理器、大数据平台、临时缓存分析平台和数据库组成；所述智能音响系统通过传感器和中央处理器对人类的表情和声音进行分析，然后通过人工智能技术和大数据技术取得正确的人类感情信息。本发明的情感智能音响系统通过多种传感器采集信息、分析大数据，并借助情感特征样本数据库和用户信息的历史分析等技术工具，从多方面获取人类的正确情感，并且能够针对人类相应的情感进行自然而优雅的互动。特别是情感智能音响系统对于多种情感特征数据库的使用，弥补了现有技术的不足，提高了分析识别人类情感的准确率，同时本情感智能音响系统成本非常低廉，能够极大的方便使用者的接受和使用。</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>[发明公布]基于云平台的海量数据分布式规则引擎操作系统</v>
+      </c>
+      <c r="B54" t="str">
+        <v>CN107943963A</v>
+      </c>
+      <c r="C54" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2017112096121</v>
+      </c>
+      <c r="E54" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F54" t="str">
+        <v>上海交通大学</v>
+      </c>
+      <c r="G54" t="str">
+        <v>薛广涛;王重;钱诗友</v>
+      </c>
+      <c r="H54" t="str">
+        <v>200240上海市闵行区东川路800号</v>
+      </c>
+      <c r="I54" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06F9/54(2006.01)I_x000d_
+						专利代理机构：上海汉声知识产权代理有限公司31236代理人：庄文莉</v>
+      </c>
+      <c r="J54" t="str">
+        <v>本发明提供了一种基于云平台的海量数据分布式规则引擎操作系统，包括如下模块；数据源模块：从数据库中收集目标对象；内存管理模块：根据收集的目标对象，将单节点存储扩展为分布式存储；策略决策模块：通过调度器实现各目标对象的任务分配；操作执行管理模块：根据目标对象的任务分配，过滤重复冗余请求。本发明重新设计了内存管理和操作执行这两个关键组件，通过多执行器远程过程调用RPC框架提供操作执行，实现在云平台下的海量数据分布式规则引擎操作策略。本发明提供的基于云平台的海量数据分布式规则引擎操作策略系统‑‑规则引擎是一种在人工智能和商业管理领域中广泛使用的规则生成系统，它的使用会促进程序编写人员与策略专家的分离。</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>[发明公布]场景识别系统</v>
+      </c>
+      <c r="B55" t="str">
+        <v>CN107944389A</v>
+      </c>
+      <c r="C55" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2017111921831</v>
+      </c>
+      <c r="E55" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F55" t="str">
+        <v>陕西玉航电子有限公司</v>
+      </c>
+      <c r="G55" t="str">
+        <v>郝青</v>
+      </c>
+      <c r="H55" t="str">
+        <v>710065陕西省西安市高新区沣惠南路36号橡树街区1号楼10501室</v>
+      </c>
+      <c r="I55" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;G06T17/00(2006.01)I_x000d_
+						专利代理机构：西安亿诺专利代理有限公司61220代理人：华长华</v>
+      </c>
+      <c r="J55" t="str">
+        <v>本发明涉及现代电子技术领域，本发明涉及一种基于人工智能视觉的特定场景识别系统。一种场景识别系统，包括依次连接的人工智能视觉识别模块、光感模块以及定位调制模块；其中，所述的人工智能视觉识别模块包括摄像机以及加速度计，所述的摄像机包括检测端以及重构端，所述的检测端包括依次连接的检测器、分类器以及跟踪器；所述的重构端由异常监测电路、形状识别电路、分辨率恢复电路和重构器组成。本发明基于人工智能视觉的特定场景识别系统，其由人工智能视觉识别模块、光感模块和定位调制模块组成。经实验验证可知，所设计的系统具有较高的识别效率和识别精度。</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>[发明公布]一种基于深度强化学习的黄桃挖核机器人行为控制方法</v>
+      </c>
+      <c r="B56" t="str">
+        <v>CN107944476A</v>
+      </c>
+      <c r="C56" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2017111029083</v>
+      </c>
+      <c r="E56" t="str">
+        <v>2017.11.10</v>
+      </c>
+      <c r="F56" t="str">
+        <v>大连理工大学</v>
+      </c>
+      <c r="G56" t="str" xml:space="preserve">
+        <v xml:space="preserve">葛宏伟;林娇娇;孙亮;赵明德_x000d_
+				</v>
+      </c>
+      <c r="H56" t="str">
+        <v>116024辽宁省大连市甘井子区凌工路2号</v>
+      </c>
+      <c r="I56" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I;_x000d_
+						G06N3/04(2006.01)I;G06F17/50(2006.01)I;B25J9/16(2006.01)I_x000d_
+						专利代理机构：大连理工大学专利中心21200代理人：温福雪;侯明远</v>
+      </c>
+      <c r="J56" t="str">
+        <v>本发明属于计算机应用及人工智能技术领域，涉及一种基于深度强化学习的黄桃挖核机器人行为控制策略。针对传统的机械控制方法难以有效的对黄桃挖核机器人进行行为控制问题，本发明提出了一种基于深度强化学习的方法对具有视觉功能的黄桃挖核机器人进行行为控制，以期提高其工作性能。本发明发挥了深度学习的感知能力和强化学习的决策能力，使机器人能够利用深度学习识别桃核状态，进而，通过强化学习的方法指导单片机控制电机挖除桃核，以最终完成挖核任务。本发明对于利用机器代替人工劳力的挖核任务具有优势。</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>[发明公布]一种基于图像识别的城市数据采集方法及系统</v>
+      </c>
+      <c r="B57" t="str">
+        <v>CN107944503A</v>
+      </c>
+      <c r="C57" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2017113329222</v>
+      </c>
+      <c r="E57" t="str">
+        <v>2017.12.13</v>
+      </c>
+      <c r="F57" t="str">
+        <v>北京数洋智慧科技有限公司</v>
+      </c>
+      <c r="G57" t="str">
+        <v>朱瑾鹏</v>
+      </c>
+      <c r="H57" t="str">
+        <v>100000北京市海淀区中关村南大街甲18号北京国际c座</v>
+      </c>
+      <c r="I57" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I;_x000d_
+						G06N5/02(2006.01)I;G06N3/12(2006.01)I_x000d_
+						专利代理机构：北京正鼎专利代理事务所(普通合伙)11495代理人：岳亚</v>
+      </c>
+      <c r="J57" t="str">
+        <v>本发明公开了一种基于图像识别的城市数据采集方法及系统，采用了图像识别相关领域的技术方法，通过结合人工智能和机器学习的技术体系，使影像数据能够真正提取出来应用于城市分析当中，达到了实时获取城市数据的技术体系，具有大数据+人工智能的技术优势，和借助城市影像数据真正提升城市运行管理能力意义。</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>[发明公布]基于人工智能的数据分析方法</v>
+      </c>
+      <c r="B58" t="str">
+        <v>CN107944549A</v>
+      </c>
+      <c r="C58" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2017112970445</v>
+      </c>
+      <c r="E58" t="str">
+        <v>2017.12.08</v>
+      </c>
+      <c r="F58" t="str">
+        <v>成都谷问信息技术有限公司</v>
+      </c>
+      <c r="G58" t="str">
+        <v>徐娇</v>
+      </c>
+      <c r="H58" t="str">
+        <v>610000四川省成都市高新区益州大道中段1800号1栋7层704室</v>
+      </c>
+      <c r="I58" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06N3/04(2006.01)I;_x000d_
+						G06N3/08(2006.01)I;G06Q10/06(2012.01)I_x000d_
+						专利代理机构：成都路航知识产权代理有限公司51256代理人：李凌</v>
+      </c>
+      <c r="J58" t="str">
+        <v>本发明公开了基于人工智能的数据分析方法，包括以下步骤：S1：建立带权重的神经网络；所述神经网络中每个连接对应各自的权重值；S2：随机化所有权重值，并将数据库中的数据输出到神经网络中；S3：神经网络学习输入到神经网络中的数据；S4：对产生好的效果的连接赋予优质标识，对产生坏的效果的连接赋予劣质标识；S5：提高被赋予优质标识的连接对应的权重值，降低被赋予劣质标识的连接的权重值。本发明基于人工智能的数据分析方法，将数据通过神经网络进行连接，并对连接赋予权重，同时根据连接产生的结果调整权重值，使得数据分析从单一层面扩展到整个数据库，使得所有数据通过数据之间的连接成为一个有机体，提高了数据分析结果的可靠性。</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>[发明公布]一种数据赋值处理的方法</v>
+      </c>
+      <c r="B59" t="str">
+        <v>CN107944561A</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2017112773023</v>
+      </c>
+      <c r="E59" t="str">
+        <v>2017.12.06</v>
+      </c>
+      <c r="F59" t="str">
+        <v>四川联众防务科技有限责任公司</v>
+      </c>
+      <c r="G59" t="str">
+        <v>廖勇</v>
+      </c>
+      <c r="H59" t="str">
+        <v>618300四川省德阳市广汉市台中路74号</v>
+      </c>
+      <c r="I59" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06N7/00(2006.01)I_x000d_
+						专利代理机构：成都华风专利事务所(普通合伙)51223代理人：梁菊兰</v>
+      </c>
+      <c r="J59" t="str">
+        <v>本发明提供了一种数据赋值处理的方法，通过对不同数据进行三个基本赋值：时间（when）、空间（where）、逻辑关系（why），赋值后，就可以在同一张基础地理空间地图上进行叠加，组成立体的空间逻辑关系，时间上的变化关系。就可以用数学工具进行人工智能的计算。</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>[发明公布]一种基于fisher信息处理短期负荷预测特征输入量的选择方法</v>
+      </c>
+      <c r="B60" t="str">
+        <v>CN107944646A</v>
+      </c>
+      <c r="C60" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2017114769094</v>
+      </c>
+      <c r="E60" t="str">
+        <v>2017.12.29</v>
+      </c>
+      <c r="F60" t="str">
+        <v>江苏大学</v>
+      </c>
+      <c r="G60" t="str" xml:space="preserve">
+        <v xml:space="preserve">蔡舒平;刘琳;孙华辰;闫静_x000d_
+				</v>
+      </c>
+      <c r="H60" t="str">
+        <v>212013江苏省镇江市京口区学府路301号</v>
+      </c>
+      <c r="I60" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/04(2012.01)I;_x000d_
+						G06Q50/06(2012.01)I;G06N3/04(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J60" t="str">
+        <v>本发明涉及一种基于fisher信息处理短期负荷预测特征输入量的选择方法，对历史样本数据进行处理，构建判断矩阵并对其进行无量纲化处理得到标准矩阵,影响因素的Fisher信息权FIW&lt;sub&gt;j</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>[发明公布]一种基于人工智能的饮水配送系统及方法</v>
+      </c>
+      <c r="B61" t="str">
+        <v>CN107944647A</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2017114783443</v>
+      </c>
+      <c r="E61" t="str">
+        <v>2017.12.29</v>
+      </c>
+      <c r="F61" t="str">
+        <v>深圳市智搜信息技术有限公司</v>
+      </c>
+      <c r="G61" t="str" xml:space="preserve">
+        <v xml:space="preserve">肖楚玉;卢炳干;徐静;武文斌;郑海涛_x000d_
+				</v>
+      </c>
+      <c r="H61" t="str">
+        <v>518000广东省深圳市南山区西丽街道新东路1号清华信息港科研楼9楼905</v>
+      </c>
+      <c r="I61" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/04(2012.01)I;_x000d_
+						G06Q10/06(2012.01)I;G06Q30/02(2012.01)I;G06Q50/06(2012.01)I_x000d_
+						专利代理机构：深圳市精英专利事务所44242代理人：冯筠</v>
+      </c>
+      <c r="J61" t="str">
+        <v>本发明公开了一种基于人工智能的饮水配送系统及方法，其中，系统包括取水客户端，用于用户发送取水命令；饮水终端，用于接收用户发送的取水命令，用户进行取水操作，并记录用户的取水量以及饮用水的剩余量数据信息；水店配送管理单元，用于接收饮水终端发送的送水命令，并分配送水工进行送水任务；水厂配送管理单元，用于接收水店配送管理单元的饮用水的需求数据，计划生产饮用水的数量。本发明提高了饮水配送的效率，避免了水资源的浪费。用户可以通过在取水客户端阅读资讯以及玩游戏可获得相应的虚拟货币，虚拟货币可对兑换取水权，增加的系统的趣味性。另外，用户可以了解到每天的饮水情况以及饮水时间，保证了用户健康的饮水，更加人性化。</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>[发明公布]基于人工智能消费维权指数企业投诉预警监测分析方法</v>
+      </c>
+      <c r="B62" t="str">
+        <v>CN107944761A</v>
+      </c>
+      <c r="C62" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2017113612993</v>
+      </c>
+      <c r="E62" t="str">
+        <v>2017.12.18</v>
+      </c>
+      <c r="F62" t="str">
+        <v>广东广业开元科技有限公司</v>
+      </c>
+      <c r="G62" t="str">
+        <v>孔祥明;陈洁;蔡文鑫</v>
+      </c>
+      <c r="H62" t="str">
+        <v>510070广东省广州市越秀区天河路45号之6粤能大厦20楼</v>
+      </c>
+      <c r="I62" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/06(2012.01)I;_x000d_
+						G06Q30/00(2012.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京科家知识产权代理事务所(普通合伙)11427代理人：陈娟</v>
+      </c>
+      <c r="J62" t="str">
+        <v>本发明提供了一种基于人工智能消费维权指数企业投诉预警监测分析方法，包括如下步骤：步骤1)包括数据采集模块，利用所述数据采集模块获取12345热线的工单内容；步骤2)对将步骤1)建立分类模块，通过步骤1)数据采集模块采集的12345热线按照工单内容，按照关键字通过嵌入式分类模块进行分类，得到二级指标，以及重要等级进行分组分类；步骤3)专家评分模型建立计算二级指标的得分率，包括如下：步骤4)构建SVM分类器；步骤5)构建训练分类模型；步骤6)构建分类梳理模块，对工单数据进行业务分类梳理；步骤7)构建监测模块，该构建监测模块用于指数与业务数据结合的企业投诉预警监测分析。</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>[发明公布]一种基于大数据的人工智能教育系统及数据处理方法</v>
+      </c>
+      <c r="B63" t="str">
+        <v>CN107945075A</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2017113530902</v>
+      </c>
+      <c r="E63" t="str">
+        <v>2017.12.15</v>
+      </c>
+      <c r="F63" t="str">
+        <v>佛山市极加互动科技有限公司</v>
+      </c>
+      <c r="G63" t="str">
+        <v>吴兆启</v>
+      </c>
+      <c r="H63" t="str">
+        <v>528200广东省佛山市南海区桂城街道融和路25号荣耀国际金融中心1306室</v>
+      </c>
+      <c r="I63" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q50/20(2012.01)I_x000d_
+						专利代理机构：佛山帮专知识产权代理事务所(普通合伙)44387代理人：颜春艳</v>
+      </c>
+      <c r="J63" t="str">
+        <v>本发明提出了一种基于大数据的人工智能教育系统及数据处理方法，所述系统包括教育资源管理端模块、教学服务端模块、学校管理端模块、学习者端模块、监督评价端模块、技术与安全管理端模块和费用支付管理端模块，所述教育资源管理端模块、教学服务端模块、学校管理端模块、学习者端模块、监督评价端模块、技术与安全管理端模块、费用支付管理端模块分别与教育系统中心相连。所述方法包括数据预处理、数据分类、结构整理和整合、存储数据。本发明可以进行无线数据交流，有利于数据的共享，有利于教育过程的实施；也能够促进大数据的处理速度，有利于大数据的接收与发送，使得数据不需要积累，能够实现资源共享。</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>[发明公布]一种医学图像的处理方法及医学图像处理系统</v>
+      </c>
+      <c r="B64" t="str">
+        <v>CN107945168A</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2017112407455</v>
+      </c>
+      <c r="E64" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F64" t="str">
+        <v>上海联影医疗科技有限公司</v>
+      </c>
+      <c r="G64" t="str">
+        <v>王季勇;李强</v>
+      </c>
+      <c r="H64" t="str">
+        <v>201807上海市嘉定区城北路2258号</v>
+      </c>
+      <c r="I64" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06T7/00(2017.01)I;_x000d_
+						G06T7/136(2017.01)I;G06T7/187(2017.01)I;G06T7/30(2017.01)I;G06N3/04(2006.01)I_x000d_
+						专利代理机构：北京品源专利代理有限公司11332代理人：孟金喆</v>
+      </c>
+      <c r="J64" t="str">
+        <v>本发明实施例公开了一种医学图像的处理方法及医学图像处理系统。该方法包括：获取同一检测区域的多幅医学图像；将多幅医学图像分别输入到人工智能网络产生多个概率分布图，其中，所述概率分布图用于判定所述医学图像的像素点属于目标像素点的概率；将所述多个概率分布图进行融合形成组合概率图；根据所述组合概率图在至少一幅所述医学图像中确定目标像素点的集合。本发明实施例提高了目标像素点的检测速率和准确率。</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>[发明公布]一种基于人工智能精确计算绿灯时间段的方法</v>
+      </c>
+      <c r="B65" t="str">
+        <v>CN107945543A</v>
+      </c>
+      <c r="C65" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2017113174927</v>
+      </c>
+      <c r="E65" t="str">
+        <v>2017.12.12</v>
+      </c>
+      <c r="F65" t="str">
+        <v>常州大学</v>
+      </c>
+      <c r="G65" t="str">
+        <v>班书昊;李晓艳;蒋学东</v>
+      </c>
+      <c r="H65" t="str">
+        <v>213164江苏省常州市武进区滆湖路1号</v>
+      </c>
+      <c r="I65" t="str" xml:space="preserve">
+        <v xml:space="preserve">G08G1/08(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J65" t="str">
+        <v>本发明公开了一种基于人工智能精确计算绿灯时间段的方法，属于人工智能领域和交通信号灯领域。它包括如下步骤：步骤1、设定本十字路口所有绿灯的总时间；步骤2、实时获取本十字路口任意行驶方向上的所有即将行驶的车辆数目；上标i取值为1～4的整数，分别表示X向正向行驶、X向反向行驶、Y向正向行驶和Y向反向行驶；下标j取值为1～3的整数，分别表示左转弯、直行和右转弯；步骤3、获取同方向的车辆并行道路数目，然后取相应的权系数；步骤4、计算绿灯时间段。本发明是一种参照当前路段实时动态车流量的相对大小、考虑并行道路的权系数，参照整个十字路口总绿灯通行时间精确计算绿灯时间段的方法。</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>[发明公布]一种基于动态车流量分配红绿灯的人工智能系统</v>
+      </c>
+      <c r="B66" t="str">
+        <v>CN107945544A</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2017113174946</v>
+      </c>
+      <c r="E66" t="str">
+        <v>2017.12.12</v>
+      </c>
+      <c r="F66" t="str">
+        <v>常州大学</v>
+      </c>
+      <c r="G66" t="str">
+        <v>李晓艳;班书昊;江鹏</v>
+      </c>
+      <c r="H66" t="str">
+        <v>213164江苏省常州市武进区滆湖路1号</v>
+      </c>
+      <c r="I66" t="str" xml:space="preserve">
+        <v xml:space="preserve">G08G1/08(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J66" t="str">
+        <v>本发明公开了一种基于动态车流量分配红绿灯的人工智能系统，属于交通灯管理领域。它包括入口车辆统计单元、出口车辆统计单元、最佳时间分配单元和信号灯控制单元；入口车辆统计单元用于统计所有进入本段路的车辆总数，出口车辆统计单元用于计算本段路中直行车道、左转车道以及右转车道的车辆数目；最佳时间分配单元根据本十字路口所有的车辆总数、所有的各个车道准备出口的车辆数目以及完成整个十字路口所需要的总时间T进行最佳分配，最佳分配采用加权比例的方式进行。本发明是一种基于动态车流量、实时调节车辆绿灯通行时间、便于疏散拥堵车辆的人工智能系统。</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>[发明公布]一种基于多目标优化的电网自动电压控制方法及系统</v>
+      </c>
+      <c r="B67" t="str">
+        <v>CN107947185A</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2017112134458</v>
+      </c>
+      <c r="E67" t="str">
+        <v>2017.11.28</v>
+      </c>
+      <c r="F67" t="str" xml:space="preserve">
+        <v xml:space="preserve">国网湖南省电力有限公司;国网湖南省电力公司电力科学研究院;国家电网公司_x000d_
+				</v>
+      </c>
+      <c r="G67" t="str" xml:space="preserve">
+        <v xml:space="preserve">吴晋波;徐昭麟;熊尚峰;刘海峰;朱维钧;何晓;李敏;童争光;李理;郭思源;洪权;蔡昱华;潘伟;徐先勇_x000d_
+				</v>
+      </c>
+      <c r="H67" t="str">
+        <v>410004湖南省长沙市新韶东路398号</v>
+      </c>
+      <c r="I67" t="str" xml:space="preserve">
+        <v xml:space="preserve">H02J3/16(2006.01)I_x000d_
+						专利代理机构：湖南兆弘专利事务所(普通合伙)43008代理人：谭武艺</v>
+      </c>
+      <c r="J67" t="str">
+        <v>本发明公开了一种基于多目标优化的电网自动电压控制方法及系统，方法步骤包括将连续无功资源期望值离散化，与离散无功资源一起，参与电网自动电压控制；将电网自动电压优化控制问题转化一个带边界条件的多目标离散变量优化问题，按人工智能算法，得到最优解；将最优解中各离散无功资源期望值固化，同时，将最优解中各区域中枢母线电压，进行二级电压控制求解，得到各连续无功资源的期望值。本发明综合考虑了降低开关类设备动作次数和降低网损等多个优化目标，仅通过一次全局优化就有效地实现了离散、连续无功资源统一协调优化，优化效率极高，且建立在传统AVC系统基础上，便于实施。</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>[发明公布]一种自发电装置</v>
+      </c>
+      <c r="B68" t="str">
+        <v>CN107947625A</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2018100237829</v>
+      </c>
+      <c r="E68" t="str">
+        <v>2018.01.10</v>
+      </c>
+      <c r="F68" t="str">
+        <v>库尔卡人工智能有限公司</v>
+      </c>
+      <c r="G68" t="str">
+        <v>徐霞</v>
+      </c>
+      <c r="H68" t="str">
+        <v>215000江苏省苏州市昆山开发区前进东路企业科技园科技广场大楼4楼</v>
+      </c>
+      <c r="I68" t="str" xml:space="preserve">
+        <v xml:space="preserve">H02N1/08(2006.01)I;_x000d_
+						B60L11/00(2006.01)I;H02J7/04(2006.01)I_x000d_
+						专利代理机构：北京卓特专利代理事务所(普通合伙)11572代理人：段宇</v>
+      </c>
+      <c r="J68" t="str">
+        <v>本发明涉及新能源技术领域，尤其为一种自发电装置，包括用于电动汽车，包括正电荷发生转换器、负电荷发生转换器、变压器和蓄电池，正电荷发生转换器的一端设有第一电极，正电荷发生转换器的另一端设有第二电极，负电荷发生转换器的一端设有第三电极，负电荷发生转换器的另一端设有第四电极，正电荷发生转换器通过导线串联有第一电容，负电荷发生转换器通过导线串联有第二电容，正电荷发生转换器、负电荷发生转换器、第一电容和第二电容形成闭合回路且该闭合回路耦合到变压器的初级，为蓄电池充电，明显有效的解决蓄电池必须依靠外接输入产生电能的问题，使电动汽车的蓄电池无需任何外物即可自动发电，大大减少了能源的损耗。</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>[发明公布]一种使正在接受K12教育的学生绿色上网的方法</v>
+      </c>
+      <c r="B69" t="str">
+        <v>CN107948162A</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2017112147231</v>
+      </c>
+      <c r="E69" t="str">
+        <v>2017.11.28</v>
+      </c>
+      <c r="F69" t="str">
+        <v>东莞优闪电子科技有限公司</v>
+      </c>
+      <c r="G69" t="str">
+        <v>李康;单江涛</v>
+      </c>
+      <c r="H69" t="str">
+        <v>523000广东省东莞市松山湖高新技术产业开发区信息路5号融易大厦7楼705室</v>
+      </c>
+      <c r="I69" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/06(2006.01)I;_x000d_
+						H04L29/08(2006.01)I;G06Q50/20(2012.01)I;G06F17/30(2006.01)I_x000d_
+						专利代理机构：北京轻创知识产权代理有限公司11212代理人：谈杰</v>
+      </c>
+      <c r="J69" t="str">
+        <v>本发明公开了一种使正在接受K12教育的学生绿色上网的方法中，在信息化教育改革的背景下，让学生能真正享受信息化教育的便利，同时不受社会娱乐、游戏等带来的负面影响让学生在校时专注于课堂，教师可以随时了解并掌控学生使用互联网动态，并可以在某段时间内作为奖励开放网络让学习趣味学习，家长可以放心孩子使用电子设备进行学习，采用人为管控、大数据采集及人工智能相结合的方式来实现绿色上网功能，弥补了现有方案不灵活、一刀切及无法真正实现绿色的上网的缺陷。</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>[发明公布]一种基于人工智能行为分析的车联网入侵攻击检测方法和系统</v>
+      </c>
+      <c r="B70" t="str">
+        <v>CN107948172A</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2017112361771</v>
+      </c>
+      <c r="E70" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F70" t="str">
+        <v>恒安嘉新（北京）科技股份公司</v>
+      </c>
+      <c r="G70" t="str" xml:space="preserve">
+        <v xml:space="preserve">陈乔;何文杰;任翔;梁彧;金红;杨满智;刘长永_x000d_
+				</v>
+      </c>
+      <c r="H70" t="str">
+        <v>100191北京市海淀区北三环西路25号27号楼五层5002室</v>
+      </c>
+      <c r="I70" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/06(2006.01)I;H04L29/08(2006.01)I_x000d_
+						专利代理机构：北京市万慧达律师事务所11111代理人：黄玉东</v>
+      </c>
+      <c r="J70" t="str">
+        <v>本发明涉及网络技术领域，公开了一种基于人工智能行为分析的车联网入侵攻击检测方法和系统。所述方法包括：获取上网流量数据，将流量按照通信协议还原，得到上网话单日志；至少根据APN、号段、车联网APP中的一种或多种特征对上述话单日志进行过滤；利用已知的车联网正常访问数据及异常的入侵攻击数据，提取访问参数特征及访问行为特征，并使用人工智能分类器模型进行训练；对实时的车联网访问数据提取访问参数特征及访问行为特征，使用训练好的分类器模型进行判断是否遭遇到入侵攻击，并将入侵攻击行为进行相应处置。本发明的方法及系统能够准确判断外部行为对网联车辆是否进行入侵。</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>[发明公布]一种人工智能监控摄像机</v>
+      </c>
+      <c r="B71" t="str">
+        <v>CN107948494A</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2018.04.20</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2018100205955</v>
+      </c>
+      <c r="E71" t="str">
+        <v>2018.01.09</v>
+      </c>
+      <c r="F71" t="str">
+        <v>杭州在信科技有限公司</v>
+      </c>
+      <c r="G71" t="str">
+        <v>虞仲华</v>
+      </c>
+      <c r="H71" t="str">
+        <v>310004浙江省杭州市下城区石祥路71-13号416室</v>
+      </c>
+      <c r="I71" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04N5/225(2006.01)I;_x000d_
+						H04N5/232(2006.01)I;H04N7/18(2006.01)I;F16M11/06(2006.01)I;G10K11/16(2006.01)I_x000d_
+						专利代理机构：北京青松知识产权代理事务所(特殊普通合伙)11384代理人：郑青松</v>
+      </c>
+      <c r="J71" t="str">
+        <v>本发明公开了一种人工智能监控摄像机，包括壳体，所述壳体四周均设有第一弧形隔音板，所述壳体上端设有第二弧形隔音板，所述壳体上方位于所述第二弧形隔音板的中部设有连接端，所述壳体内部设有蜂鸣器，所述壳体内部设有数量为八个的拾音器，所述拾音器均匀固定在所述壳体的内壁。有益效果：解决了监控摄像留有死角的问题，监控方位全，提高监控人员的工作效率，进一步减少不良事件或恶性案件的发生，使社会更加安定、和谐，实时性高，具有良好的应用前景，并且在壳体上设有第一弧形隔音板和四周设置第二弧形隔音板，大大的减少了雷声以及其余杂音对拾音器的拾音准确性造成误导的几率，增加了摄像机本体进行监控的准确性。</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>[发明公布]一种人工智能安全防护设备</v>
+      </c>
+      <c r="B72" t="str">
+        <v>CN107912826A</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2018.04.17</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2017111244751</v>
+      </c>
+      <c r="E72" t="str">
+        <v>2017.11.14</v>
+      </c>
+      <c r="F72" t="str">
+        <v>四川联众防务科技有限责任公司</v>
+      </c>
+      <c r="G72" t="str">
+        <v>廖勇</v>
+      </c>
+      <c r="H72" t="str">
+        <v>618300四川省德阳市广汉市台中路74号</v>
+      </c>
+      <c r="I72" t="str" xml:space="preserve">
+        <v xml:space="preserve">A42B1/24(2006.01)I;_x000d_
+						A42B1/10(2006.01)I;F21V33/00(2006.01)I;F21Y115/10(2016.01)N_x000d_
+						专利代理机构：成都华风专利事务所(普通合伙)51223代理人：梁菊兰</v>
+      </c>
+      <c r="J72" t="str">
+        <v>本发明涉及人工智能技术领域，具体涉及一种人工智能安全防护设备，包括头盔，头盔正前方设置有可以调节倾角的LED矿灯，LED矿灯旁安装有摄像头；沿头盔周向设置有检测部件，头盔顶上设置有控制部件，检测部件包括瓦斯感应器、CO感应器、CO&lt;sub&gt;2</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>[发明公布]一种基于人脸识别技术的实时专注度分析方法及系统</v>
+      </c>
+      <c r="B73" t="str">
+        <v>CN107918755A</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2018.04.17</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2017101977864</v>
+      </c>
+      <c r="E73" t="str">
+        <v>2017.03.29</v>
+      </c>
+      <c r="F73" t="str" xml:space="preserve">
+        <v xml:space="preserve">广州思涵信息科技有限公司;广东轻工职业技术学院_x000d_
+				</v>
+      </c>
+      <c r="G73" t="str" xml:space="preserve">
+        <v xml:space="preserve">李昊;辛继胜;袁先珍;黄叶敏_x000d_
+				</v>
+      </c>
+      <c r="H73" t="str">
+        <v>510640广东省广州市天河区金颖路1号金颖大厦1705房</v>
+      </c>
+      <c r="I73" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;G06Q50/20(2012.01)I_x000d_
+						专利代理机构：广州粤高专利商标代理有限公司44102代理人：林丽明</v>
+      </c>
+      <c r="J73" t="str">
+        <v>本发明提供一种基于人脸识别技术的实时专注度分析方法及系统，所述方法通过信息技术领域AI(人工智能)的人脸识别技术对当前视频监控环境下的人员脸部图像进行采样分析，能够在课堂教学过程中，在无干扰状态下，建立学生专注度的大数据采集标准，判断其专注度，通过科学的大数据算法，为课堂教学的学情分析，提供了客观、真实的数据结果。将上述结果应用在教育技术领域，利用统计学原理和本发明算法，可完成整个课堂的学生专注度分析。结合其它相关数据，如课堂教学过程分析，人脸识别精准匹配等，可对课堂教学过程中的学生学情进行精准分析。</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>[发明公布]基于人工智能技术的教师课堂教学过程分析方法和系统</v>
+      </c>
+      <c r="B74" t="str">
+        <v>CN107918821A</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2018.04.17</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2017101795279</v>
+      </c>
+      <c r="E74" t="str">
+        <v>2017.03.23</v>
+      </c>
+      <c r="F74" t="str">
+        <v>广州思涵信息科技有限公司;华南师范大学</v>
+      </c>
+      <c r="G74" t="str" xml:space="preserve">
+        <v xml:space="preserve">李昊;郑凯;林南晖;黄叶敏_x000d_
+				</v>
+      </c>
+      <c r="H74" t="str">
+        <v>510640广东省广州市天河区金颖路1号金颖大厦1705房</v>
+      </c>
+      <c r="I74" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/06(2012.01)I;_x000d_
+						G06Q50/20(2012.01)I;G06F17/30(2006.01)I;G06K9/00(2006.01)I;G10L15/08(2006.01)I_x000d_
+						专利代理机构：广州粤高专利商标代理有限公司44102代理人：林丽明</v>
+      </c>
+      <c r="J74" t="str">
+        <v>本发明提供一种基于人工智能技术的教师课堂教学过程分析方法及系统，所述方法采集教师课堂上课的视频；进行图像识别处理和语音识别处理；根据图像识别处理和语音识别处理的结果，进行教师课堂教学过程分析。本发明能够建立课堂教学过程的大数据采集标准，准确获得课堂教学过程的分析数据，自动生成分析结果；能够将教学过程分析和学情分析进行关联，这样不仅能分析出教学方式，还能分析出不同教学方式所产生的教学效果。本发明数据采集更为完整准确，通过人工智能技术的图像识别和声纹识别技术的结合，使得分析结果更为准确。不局限在传统的S‑T分析法中，能够准确识别教师授课、师生互动、学生分组讨论、播放教学视频、静默练习等多种教学过程。</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>[发明公布]机器学习协调的无线网络</v>
+      </c>
+      <c r="B75" t="str">
+        <v>CN107920355A</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2018.04.17</v>
+      </c>
+      <c r="D75" t="str">
+        <v>201710941160X</v>
+      </c>
+      <c r="E75" t="str">
+        <v>2017.10.10</v>
+      </c>
+      <c r="F75" t="str">
+        <v>网件公司</v>
+      </c>
+      <c r="G75" t="str">
+        <v>佩曼·阿米尼;约瑟夫·阿麦兰·劳尔·伊曼纽尔</v>
+      </c>
+      <c r="H75" t="str">
+        <v>美国加利福尼亚州</v>
+      </c>
+      <c r="I75" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04W16/10(2009.01)I;H04W24/02(2009.01)I_x000d_
+						专利代理机构：北京中博世达专利商标代理有限公司11274代理人：申健优先权：62/406,325 2016.10.10 US;15/464,122 2017.03.20 US</v>
+      </c>
+      <c r="J75" t="str">
+        <v>所公开的方法和系统使用人工智能(AI)和机器学习(ML)技术来对每个信道的使用和干扰进行建模。例如，系统的单元可以在所有无线电设备上定期测量信道干扰。干扰信息被传送到基本单元或云服务器进行模式分析。干扰测量包括来自系统内的单元的干扰以及来自邻近设备的干扰。基站单元或云服务器可以识别干扰的模式。此外，连接的设备具有观察和建模的多个网络使用特性，包括比特率和网络行为。这些特性用于将信道分配给连接的设备。</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>[发明公布]情感控制系统、系统及程序</v>
+      </c>
+      <c r="B76" t="str">
+        <v>CN107924482A</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2018.04.17</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2016800485315</v>
+      </c>
+      <c r="E76" t="str">
+        <v>2016.06.01</v>
+      </c>
+      <c r="F76" t="str">
+        <v>情感爱思比株式会社</v>
+      </c>
+      <c r="G76" t="str">
+        <v>孙正义;朝长康介</v>
+      </c>
+      <c r="H76" t="str">
+        <v>日本东京</v>
+      </c>
+      <c r="I76" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06N3/00(2006.01)I;_x000d_
+						B25J13/00(2006.01)I;G05B13/02(2006.01)I_x000d_
+						专利代理机构：北京康信知识产权代理有限责任公司11240代理人：玉昌峰;纪秀凤优先权：2015-122408 2015.06.17 JPPCT进入国家阶段日：2018.02.22PCT申请数据：PCT/JP2016/066312 2016.06.01PCT公布数据：WO2016/203965 JA 2016.12.22</v>
+      </c>
+      <c r="J76" t="str">
+        <v>对于机器人、人工智能，无法改变其兴趣偏好。提供一种情感控制系统，具有：信息获取部，获取从公用网络获取的网络内容；存储部，存储示出网络内容对控制对象的情感给与的影响的影响信息；更新部，基于由控制对象的传感器检测到的传感器信息来更新存储在存储部中的影响信息；以及情感控制部，基于信息获取部获取的网络内容以及存储在存储部中的影响信息来控制控制对象的情感。</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>[发明公布]一种用于人工智能机器人的固定装置</v>
+      </c>
+      <c r="B77" t="str">
+        <v>CN107901028A</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2017113413398</v>
+      </c>
+      <c r="E77" t="str">
+        <v>2017.12.14</v>
+      </c>
+      <c r="F77" t="str">
+        <v>李从宾</v>
+      </c>
+      <c r="G77" t="str">
+        <v>李从宾</v>
+      </c>
+      <c r="H77" t="str">
+        <v>264000山东省烟台市芝罘区毓西路14号218室</v>
+      </c>
+      <c r="I77" t="str" xml:space="preserve">
+        <v xml:space="preserve">B25J9/00(2006.01)I_x000d_
+						专利代理机构：烟台双联专利事务所(普通合伙)37225代理人：张辉</v>
+      </c>
+      <c r="J77" t="str">
+        <v>本发明公开了一种用于人工智能机器人的固定装置，包括机器人安装底座、凹字座、矩形腔室、弹簧、右液压缸、右卡座、左液压缸、左卡座、延伸板等；本发明具有结构合理简单、生产成本低、安装方便，可以通过第一压板和第二压板，有效对机器人安装底座进行固定，防止滑动，第二销轴下方设有转球，可以对第二销轴角度进行调整，从而适合不同角度的机器人安装底座，外管和内管的高度可以调节，从而适合不同高度的机器人安装底座，右卡座和左卡座与下圆弧座和上圆弧座均可对圆形的机器人进行固定，气压杆对立柱升降，从而立柱上的齿条带动齿轮转动，实现对固定板角度的旋转，凹字座和矩形腔室之间设置弹簧，实现减震效果。</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>[发明公布]一种人工智能的汽车座椅系统</v>
+      </c>
+      <c r="B78" t="str">
+        <v>CN107901794A</v>
+      </c>
+      <c r="C78" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2017109043307</v>
+      </c>
+      <c r="E78" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F78" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G78" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H78" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I78" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60N2/02(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J78" t="str">
+        <v>本发明公开了一种人工智能的汽车座椅系统，本发明包括座椅调整单元、人工智能控制单元、座椅检测单元和驾驶员面部检测单元，座椅调整单元用于调整座椅的状态和位置，座椅检测单元用于采集座椅的状态信息，驾驶员面部检测单元用于对驾驶员进行面部识别，驾驶员面部检测单元对驾驶员面部进行识别并将信息传输到人工智能控制单元处理，人工智能控制单元将处理后的信息传输到座椅调整单元，座椅调整单元根据处理后的信息对座椅位置进行调整。本发明的有益效果是：本发明驾驶员面部检测单元对驾驶员面部进行识别并将信息传输到人工智能控制单元并处理，座椅调整单元根据处理后的信息对座椅状态位置进行自动调整，提高了驾驶员的驾驶体验。</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>[发明公布]一种人工智能的车辆辅助系统</v>
+      </c>
+      <c r="B79" t="str">
+        <v>CN107901911A</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D79" t="str">
+        <v>201710904078X</v>
+      </c>
+      <c r="E79" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F79" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G79" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H79" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I79" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60W40/04(2006.01)I;_x000d_
+						B60W40/09(2012.01)I;B60W40/12(2012.01)I;B60W40/13(2012.01)I;B60W50/14(2012.01)I;G05D1/02(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J79" t="str">
+        <v>本发明公开了一种人工智能的车辆辅助系统，本发明包括人工智能控制单元、车辆安全驾驶单元和车辆驾驶辅助单元，车辆感知单元和车辆环境检测单元采集的信息输送到人工智能控制单元进行处理，人工智能控制单元将处理后的信息输送到车辆驾驶辅助单元，车辆驾驶辅助单元根据处理后的信息控制车辆刹车、油门及转向。车辆安全驾驶单元将信息传输到人工智能控制单元中与车辆环境检测单元采集的信息进行对比处理，由车辆驾驶辅助单元根据对比信息发出安全驾驶信息提醒。本发明通过人工智能控制单元处理检测信息，然后通过车辆驾驶辅助单元控制车辆并发出安全驾驶信息提醒，本发明在驾驶员出现不正常驾驶时能最大程度的保障驾驶员及乘客的人身安全。</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>[发明公布]一种人工智能信息导航装置</v>
+      </c>
+      <c r="B80" t="str">
+        <v>CN107907132A</v>
+      </c>
+      <c r="C80" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D80" t="str">
+        <v>201711124655X</v>
+      </c>
+      <c r="E80" t="str">
+        <v>2017.11.14</v>
+      </c>
+      <c r="F80" t="str">
+        <v>成都才智圣有科技有限责任公司</v>
+      </c>
+      <c r="G80" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H80" t="str">
+        <v>610000四川省成都市高新区老成仁路6号6栋1层126号</v>
+      </c>
+      <c r="I80" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01C21/20(2006.01)I;_x000d_
+						G01V8/10(2006.01)I;G01J5/00(2006.01)I;G05B19/042(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J80" t="str">
+        <v>本发明提供一种人工智能信息导航装置，包括外壳、中央控制器、设有左右声道的扬声器、显示器、触摸屏，中央控制器设于外壳内，中央控制器的输出信息通过显示器、扬声器输出，其特征在于：所述外壳为一设有头部、躯体部和脚的立体卡通状外壳，立体卡通的头部还设有两只耳朵、两只眼睛和一嘴巴，显示器嵌入式地设于头顶部，左右声道输出的扬声器分置于左右两只耳朵内，在嘴巴的下方设有手动信息输入的嵌入式控制按钮。所述信息导航装置还设有基于红外传感技术的自动控制系统，语音识别系统，网络接口。本发明具有人性化设计，可观性强、较好效果的自动关机功能、牢固性强的优点。</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>[发明公布]一种低耗能遥感探测设备</v>
+      </c>
+      <c r="B81" t="str">
+        <v>CN107907539A</v>
+      </c>
+      <c r="C81" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2017113114057</v>
+      </c>
+      <c r="E81" t="str">
+        <v>2017.12.11</v>
+      </c>
+      <c r="F81" t="str">
+        <v>成都中鼎科技有限公司</v>
+      </c>
+      <c r="G81" t="str" xml:space="preserve">
+        <v xml:space="preserve">王静;宫宗杰;冯阳;魏新平;张镧;李家豪;鲜孟兵_x000d_
+				</v>
+      </c>
+      <c r="H81" t="str">
+        <v>610000四川省成都市高新区天府大道南延线高新孵化园1号楼</v>
+      </c>
+      <c r="I81" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01N21/84(2006.01)I;_x000d_
+						G01C11/02(2006.01)I;G01J5/00(2006.01)I;G01S19/42(2010.01)I_x000d_
+						</v>
+      </c>
+      <c r="J81" t="str">
+        <v>本发明公开了一种低耗能遥感探测设备，包括底座、伸缩支撑杆、支撑板、太阳能装置、摄像装置和捕虫装置，所述底座安装有4个万向轮，所述太阳能装置和捕虫装置固定安装在支撑板上端部，所述摄像装置与支撑板上端部通过环形结构连接，所述环形结构内设置了定位装置和驱动装置，所述支撑板侧端部还设置有GPS定位装置、红外线测温仪，所述伸缩支撑杆底部还开设有一电路盒，所述电路内还设置有单片机、信号转换器和网络传输装置，所述捕虫装置包括顶盖、壳体和底座。该发明结构简单，耗能低，人工智能。</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>[发明公布]一种非线性系统的自适应滑模控制系统及仿真方法</v>
+      </c>
+      <c r="B82" t="str">
+        <v>CN107908112A</v>
+      </c>
+      <c r="C82" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2017113580333</v>
+      </c>
+      <c r="E82" t="str">
+        <v>2017.11.10</v>
+      </c>
+      <c r="F82" t="str">
+        <v>大连民族大学</v>
+      </c>
+      <c r="G82" t="str">
+        <v>谢春利;赵丹丹</v>
+      </c>
+      <c r="H82" t="str">
+        <v>116600辽宁省大连市开发区辽河西路18号</v>
+      </c>
+      <c r="I82" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B13/04(2006.01)I_x000d_
+						专利代理机构：大连智高专利事务所(特殊普通合伙)21235代理人：刘斌分案原申请：2017111038133 2017.11.10</v>
+      </c>
+      <c r="J82" t="str">
+        <v>本分案申请涉及一种非线性系统的自适应滑模控制系统及仿真方法，属于人工智能及控制领域，用于解决闭环控制系统渐近稳定的问题，技术要点是：控制系统，其特征在于，存储有多条指令，所述指令适于处理器加载并执行：对所述非线性系统使用LS‑SVM结构逼近理想状态反馈控制器以构造新的反馈控制器；对其由施以滑模控制以对LS‑SVM回归的逼近误差和/或不确定外部干扰补偿；以自适应率确定权值参数向量，效果是：充分利用LS‑SVM回归的非线性函数逼近能力设计反馈线性化控制器，引入滑模控制补偿LS‑SVM回归的逼近误差及不确定外部干扰对系统输出的影响，进行LS‑SVM权值参数的调整。</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>[发明公布]人工智能应用构建方法和装置</v>
+      </c>
+      <c r="B83" t="str">
+        <v>CN107908743A</v>
+      </c>
+      <c r="C83" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D83" t="str">
+        <v>201711137331X</v>
+      </c>
+      <c r="E83" t="str">
+        <v>2017.11.16</v>
+      </c>
+      <c r="F83" t="str">
+        <v>百度在线网络技术（北京）有限公司</v>
+      </c>
+      <c r="G83" t="str" xml:space="preserve">
+        <v xml:space="preserve">武良呈;田晓丽;王婧雅;杨涛;贾振超;王天;唐欢;袁鹏;钟镭_x000d_
+				</v>
+      </c>
+      <c r="H83" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦三层</v>
+      </c>
+      <c r="I83" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+						专利代理机构：北京英赛嘉华知识产权代理有限责任公司11204代理人：王达佐;马晓亚</v>
+      </c>
+      <c r="J83" t="str">
+        <v>本申请公开了人工智能应用构建方法和装置。该方法的一具体实施方式包括：获取内容提供方提供的内容对应的内容描述文档和内容类目之间的从属关系；解析内容描述文档得到内容的属性信息，基于内容类目之间的从属关系或内容的属性信息，构建操作描述模板；将操作描述模板与操作描述模板描述的操作所属的操作类型的预设接口绑定；利用操作描述模板和与操作描述模板绑定的预设接口，构建人工智能应用。实现了根据内容提供方提供的内容，自动构建用于识别用户的操作意图的模板以及将模板与可执行相应的操作进行绑定，从而，帮助内容提供方实现人机对话功能，进一步构建出可通过人机对话访问内容提供方提供的内容的人工智能应用。</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>[发明公布]一种人工智能应答系统与方法</v>
+      </c>
+      <c r="B84" t="str">
+        <v>CN107908750A</v>
+      </c>
+      <c r="C84" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2017111475332</v>
+      </c>
+      <c r="E84" t="str">
+        <v>2017.11.17</v>
+      </c>
+      <c r="F84" t="str">
+        <v>郑州云海信息技术有限公司</v>
+      </c>
+      <c r="G84" t="str">
+        <v>杨振林</v>
+      </c>
+      <c r="H84" t="str">
+        <v>450000河南省郑州市郑东新区心怡路278号16层1601室</v>
+      </c>
+      <c r="I84" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06F17/27(2006.01)I_x000d_
+						专利代理机构：济南舜源专利事务所有限公司37205代理人：张亮</v>
+      </c>
+      <c r="J84" t="str">
+        <v>本发明提出了一种人工智能应答系统与方法，通过对用户输入的文本信息进行语义分析，智能识别出用户情绪信息，针对当前叙述事件采用利弊分析器给出利弊分析意见，针对当前用户情绪给出建设性意见，组合得到智能应答安抚语句，且能够及时采取用户的输入反馈，使得利弊分析以及建设性意见不断积累，情绪安抚系统能满足用户情绪的需要，针对用户的不同时候的情绪，合理安抚用户，语句输出能够精准反映当前用户状态，克服了现有技术中仅单纯分析语义等方式的缺陷。</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>[发明公布]基于振动测量的钢筋混凝土简支梁火灾损伤识别方法</v>
+      </c>
+      <c r="B85" t="str">
+        <v>CN107908825A</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2017110007890</v>
+      </c>
+      <c r="E85" t="str">
+        <v>2017.10.24</v>
+      </c>
+      <c r="F85" t="str">
+        <v>青岛理工大学</v>
+      </c>
+      <c r="G85" t="str">
+        <v>刘才玮;巴光忠;苗吉军</v>
+      </c>
+      <c r="H85" t="str">
+        <v>266033山东省青岛市市北区抚顺路11号</v>
+      </c>
+      <c r="I85" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/50(2006.01)I;G01M7/00(2006.01)I_x000d_
+						专利代理机构：青岛发思特专利商标代理有限公司37212代理人：巩同海</v>
+      </c>
+      <c r="J85" t="str">
+        <v>本发明涉及一种基于振动测量的钢筋混凝土简支梁火灾损伤识别方法，属于基于振动测量的损伤识别技术领域，包括如下步骤：步骤一：利用ANSYS温度场间接耦合法获取火灾损伤结构模态；步骤二：利用Block Lanczos方法进行模态分析，得出火灾损伤前后的模态参数；步骤三：构造基于SVM的训练样本的输入参数和输出参数；步骤四：SVM回归预测；步骤五：构造基于SVM的检测样本的输入参数和输出参数；步骤六：验证模型的损伤识别结果。该发明应用高效的支持向量机人工智能算法构建损伤识别网络进行识别，可以大大减少损伤精确定位时训练样本的数量，构造了自振频率与振型二者相结合的输入参数，从而使识别效果更加显著。</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>[发明公布]一种移动终端系统的自动阅卡评分方法</v>
+      </c>
+      <c r="B86" t="str">
+        <v>CN107909066A</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2017110785312</v>
+      </c>
+      <c r="E86" t="str">
+        <v>2017.11.06</v>
+      </c>
+      <c r="F86" t="str">
+        <v>泉州市雄蓝教育科技有限公司</v>
+      </c>
+      <c r="G86" t="str">
+        <v>王怀鑫</v>
+      </c>
+      <c r="H86" t="str">
+        <v>362012福建省泉州市洛江区双阳镇双滨街</v>
+      </c>
+      <c r="I86" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/20(2006.01)I;_x000d_
+						G06K9/68(2006.01)I;G06Q50/20(2012.01)I_x000d_
+						专利代理机构：泉州市博一专利事务所35213代理人：洪渊源;庄俊佳</v>
+      </c>
+      <c r="J86" t="str">
+        <v>本发明公开的一种移动终端系统的自动阅卡评分方法，阅卷评分方法包括以下具体步骤：答题卡数据获取，答题卡客观题的自动阅卡评分，答题卡主观题的自动阅卡评分以及得到阅卡评分结果。本发明将机器人的人工智能技术应用到考试系统中，使考试过程中使用的答题卡在扫描统分过程中，不仅不需要专用设备，普通的移动终端就可以实现对客观题、主观题的自动扫描，而且能够智能化地自动识别、生成、计算和统计，完全实现智能化、自动化地阅卷评分处理，提高阅卷效率以及考试结果的计算、统计的准确性。</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>[发明公布]模型生成方法、医学成像的扫描规划方法及医学成像系统</v>
+      </c>
+      <c r="B87" t="str">
+        <v>CN107909622A</v>
+      </c>
+      <c r="C87" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2017112381008</v>
+      </c>
+      <c r="E87" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F87" t="str">
+        <v>上海联影医疗科技有限公司</v>
+      </c>
+      <c r="G87" t="str" xml:space="preserve">
+        <v xml:space="preserve">周鑫;宋燕丽;黄小倩;李强_x000d_
+				</v>
+      </c>
+      <c r="H87" t="str">
+        <v>201807上海市嘉定区嘉定工业区城北路2258号</v>
+      </c>
+      <c r="I87" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06T11/00(2006.01)I_x000d_
+						专利代理机构：北京汇思诚业知识产权代理有限公司11444代理人：王刚;龚敏</v>
+      </c>
+      <c r="J87" t="str">
+        <v>本发明实施例提供了模型生成方法、医学成像的扫描规划方法及医学成像系统，涉及医学图像自动扫描规划技术领域，基于深度学习方法确定人工智能网络模型，进而通过人工智能网络模型得到扫描参数，保证了扫描参数的精度。该方法包括模型生成和使用过程：模型生成过程包括：获取样本预扫描图像以及样本预扫描图像对应的样本扫描参数；根据样本扫描参数生成样本距离场；通过人工智能网络对样本预扫描图像与样本距离场进行学习，生成人工智能网络模型。模型使用过程包括：获取受检者目标区域的预扫描图像；通过人工智能网络模型对预扫描图像进行处理，得到距离场；根据距离场，确定扫描参数。本发明实施例提供的技术方案，适用于扫描规划过程中。</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>[发明公布]一种医疗数据处理方法及系统</v>
+      </c>
+      <c r="B88" t="str">
+        <v>CN107910061A</v>
+      </c>
+      <c r="C88" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2017112457755</v>
+      </c>
+      <c r="E88" t="str">
+        <v>2017.12.01</v>
+      </c>
+      <c r="F88" t="str">
+        <v>中南大学</v>
+      </c>
+      <c r="G88" t="str">
+        <v>刘登超;郭克华</v>
+      </c>
+      <c r="H88" t="str">
+        <v>410083湖南省长沙市岳麓区麓山南路932号</v>
+      </c>
+      <c r="I88" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H50/20(2018.01)I;_x000d_
+						G16H30/00(2018.01)I;G06F17/30(2006.01)I_x000d_
+						专利代理机构：长沙正奇专利事务所有限责任公司43113代理人：马强;王娟</v>
+      </c>
+      <c r="J88" t="str">
+        <v>本发明公开了一种医疗数据处理方法及系统，包括以下步骤：接收训练数据，加载深度学习模型，将所述训练数据输入所述深度学习模型，并利用迁移学习方法得到训练模型，并保存在服务器中，并将服务器中保存的训练模型列表L发送到客户端；客户端加载所述训练模型，采集医疗图像，利用所述训练模型识别所述医疗图像，得到识别结果R；将所述识别结果R发送到服务器，所述服务器根据识别结果R在疾病数据库中检索所述识别结果R对应的疾病，得到最终的辅助诊断结果Y。本发明采用人工智能中的深度学习方法，通过人工智能的方式来提高医疗数据的处理精度。</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>[发明公布]一种急诊预检分诊方法及装置</v>
+      </c>
+      <c r="B89" t="str">
+        <v>CN107910073A</v>
+      </c>
+      <c r="C89" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D89" t="str">
+        <v>2017113963364</v>
+      </c>
+      <c r="E89" t="str">
+        <v>2017.12.21</v>
+      </c>
+      <c r="F89" t="str">
+        <v>苏州麦迪斯顿医疗科技股份有限公司</v>
+      </c>
+      <c r="G89" t="str" xml:space="preserve">
+        <v xml:space="preserve">王剑斌;王勇;朱荣华;刘永平_x000d_
+				</v>
+      </c>
+      <c r="H89" t="str">
+        <v>215026江苏省苏州市苏州工业园区归家巷222号</v>
+      </c>
+      <c r="I89" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H50/70(2018.01)I;G16H40/20(2018.01)I_x000d_
+						专利代理机构：北京品源专利代理有限公司11332代理人：孟金喆</v>
+      </c>
+      <c r="J89" t="str">
+        <v>本发明实施例公开了一种急诊预检分诊方法及装置。其中，该方法包括：基于预先构建的患者图像数据信息库中的信息对患者的基本信息进行识别与确认；响应分诊触发指令，依据预先存储的预检分诊知识库、所述患者的基本信息以及患者的基本病情信息，对所述患者进行分诊，生成患者分诊信息。本发明实施例提供的技术方案，可以快速响应患者分诊需求，满足了医疗服务的需求，使得急诊预检分诊人工智能化。</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>[发明公布]基于百度AI语音识别的无线互联网语音呼叫电路</v>
+      </c>
+      <c r="B90" t="str">
+        <v>CN107911526A</v>
+      </c>
+      <c r="C90" t="str">
+        <v>2018.04.13</v>
+      </c>
+      <c r="D90" t="str">
+        <v>2017109762697</v>
+      </c>
+      <c r="E90" t="str">
+        <v>2017.10.19</v>
+      </c>
+      <c r="F90" t="str">
+        <v>杭州电子科技大学</v>
+      </c>
+      <c r="G90" t="str" xml:space="preserve">
+        <v xml:space="preserve">蔡文郁;钟鸣拓;刘晓玲;陈源;刘自强_x000d_
+				</v>
+      </c>
+      <c r="H90" t="str">
+        <v>310018浙江省杭州市下沙高教园区2号大街</v>
+      </c>
+      <c r="I90" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04M1/253(2006.01)I;_x000d_
+						H04M7/00(2006.01)I;G10L15/30(2013.01)I_x000d_
+						专利代理机构：杭州奥创知识产权代理有限公司33272代理人：王佳健</v>
+      </c>
+      <c r="J90" t="str">
+        <v>本发明涉及一种基于百度AI语音识别的无线互联网语音呼叫电路。本发明中的电源模块分别与通信与处理模块、语音编解码模块、语音记录模块电源连接，为各个模块提供电能；通信与处理模块与语音编解码模块、语音记录模块信号连接，语音编解码模块与语音接口模块信号连接，通信与处理模块负责将语音编解码模块编码后的数据处理后储存在语音记录模块，并通过无线WiFi网络发送出去，并且将接收到的语音信号发送给语音编解码模块进行解码。本发明增加了无线语音呼叫功能，语音输入采用了双Mic降噪技术，能有效地提升音质，同时服务器端采用百度AI语音识别引擎实现语音关键词的鉴别与提取，用人工智能方式实现语音识别处理，增强了用户体验。</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>[发明公布]一种基于人工智能的股票新闻量化方法及系统</v>
+      </c>
+      <c r="B91" t="str">
+        <v>CN107895051A</v>
+      </c>
+      <c r="C91" t="str">
+        <v>2018.04.10</v>
+      </c>
+      <c r="D91" t="str">
+        <v>2017112941461</v>
+      </c>
+      <c r="E91" t="str">
+        <v>2017.12.08</v>
+      </c>
+      <c r="F91" t="str">
+        <v>宏谷信息科技（珠海）有限公司</v>
+      </c>
+      <c r="G91" t="str">
+        <v>张潇</v>
+      </c>
+      <c r="H91" t="str">
+        <v>519031广东省珠海市横琴新区环岛东路1889号创意谷18栋110室-159（集中办公区）</v>
+      </c>
+      <c r="I91" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;_x000d_
+						G06F17/27(2006.01)I;G06N3/04(2006.01)I;G06N3/08(2006.01)I;G06Q40/04(2012.01)I_x000d_
+						专利代理机构：杭州千克知识产权代理有限公司33246代理人：郭扬部</v>
+      </c>
+      <c r="J91" t="str">
+        <v>本发明公开了一种基于人工智能的股票新闻量化方法及系统，用以解决现有的股票预测的新闻参考因素有片面性的问题。该方法包括：获取预设时间内交易日的股票新闻序列；将所述股票新闻序列按照预设长度划分为词序列；判断所述股票新闻是否为交易日当天的新闻，若是，则利用Word2Vec与GloVe得到所述新闻的每个词项的词向量特征；若所述股票新闻不是交易日当天的新闻，则利用fastText得到所述新闻的文档向量特征。本发明通过三种不同的向量表示学习方法提取新闻特征，使新闻作为参考因素更加地全面，预测准确率越高。</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>[发明公布]一种智能会展服务系统</v>
+      </c>
+      <c r="B92" t="str">
+        <v>CN107895331A</v>
+      </c>
+      <c r="C92" t="str">
+        <v>2018.04.10</v>
+      </c>
+      <c r="D92" t="str">
+        <v>2017113588941</v>
+      </c>
+      <c r="E92" t="str">
+        <v>2017.12.17</v>
+      </c>
+      <c r="F92" t="str">
+        <v>广西特致文化传播有限公司</v>
+      </c>
+      <c r="G92" t="str">
+        <v>刘凯;张文静</v>
+      </c>
+      <c r="H92" t="str">
+        <v>545026广西壮族自治区柳州市潭中东路17号华信国际1单元13-2</v>
+      </c>
+      <c r="I92" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q50/10(2012.01)I;G07C1/10(2006.01)N_x000d_
+				</v>
+      </c>
+      <c r="J92" t="str">
+        <v>本发明公开了一种智能会展服务系统，包括主控系统、展示系统、迎宾系统和信息录入系统，所述主控系统通过网络连接系统分别与展示系统、迎宾系统和信息录入系统连接，所述主控系统包括中央服务器、客户端信息反馈模块和操作平台，所述展示系统包括3D全息投影、智能电子展示屏和幕布投影展示，所述迎宾系统包括迎宾动态指向灯、机器人向导和人工智能查询平台。本发明通过主控系统设置的中央服务器能够实现智能化的信息处理，并通过客户端信息反馈模块和操作平台能够更快捷、灵活的处理各种问题，通过展示系统能够更加智能化、科技化、全面化和人性化的将产品展示给观众看，迎宾系统则更好的为观众提供全面的、准确的向导。</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>[发明公布]一种多功能森林监控用遥感装置</v>
+      </c>
+      <c r="B93" t="str">
+        <v>CN107873672A</v>
+      </c>
+      <c r="C93" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D93" t="str">
+        <v>2017113088086</v>
+      </c>
+      <c r="E93" t="str">
+        <v>2017.12.11</v>
+      </c>
+      <c r="F93" t="str">
+        <v>成都中鼎科技有限公司</v>
+      </c>
+      <c r="G93" t="str" xml:space="preserve">
+        <v xml:space="preserve">王静;宫宗杰;冯阳;魏新平;张镧;李家豪;鲜孟兵_x000d_
+				</v>
+      </c>
+      <c r="H93" t="str">
+        <v>610000四川省成都市高新区天府大道南延线高新孵化园1号楼</v>
+      </c>
+      <c r="I93" t="str" xml:space="preserve">
+        <v xml:space="preserve">A01M1/04(2006.01)I;G01D21/02(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J93" t="str">
+        <v>本发明公开了一种多功能森林监控遥感装置，包括底座、伸缩支撑杆、支撑板、太阳能装置、摄像装置和捕虫装置，所述底座安装有4个万向轮，所述太阳能装置和捕虫装置固定安装在支撑板上端部，所述摄像装置与支撑板上端部通过环形结构连接，所述环形结构内设置了定位装置和驱动装置，所述支撑板侧端部还设置有GPS定位装置、红外线测温仪，所述伸缩支撑杆底部还开设有一电路盒，所述电路盒内还设置有单片机、信号转换器和网络传输装置，所述单片机、信号转化器、网络传输装置、GPS定位装置、红外线测温仪、定位装置、驱动装置、摄像装置和捕虫装置通过电连接。该发明结构简单，人工智能。</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>[发明公布]一种基于人工智能的高尔夫捡球机</v>
+      </c>
+      <c r="B94" t="str">
+        <v>CN107875597A</v>
+      </c>
+      <c r="C94" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D94" t="str">
+        <v>2017114486818</v>
+      </c>
+      <c r="E94" t="str">
+        <v>2017.12.28</v>
+      </c>
+      <c r="F94" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G94" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H94" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I94" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63B47/02(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J94" t="str">
+        <v>本发明公开了一种基于人工智能的额高尔夫捡球机，本发明包括机体、检测装置和控制装置，所述的检测装置包括设置在机体顶部的红外感应传感器和设置在机体侧面的超声波传感器，所述的机体的下部设置有滚轮和驱动滚轮转动的第一驱动装置，还包括捡球装置，所述的捡球装置包括设置在捡球辊、暂存仓、储球仓、连接暂存仓与储球仓的输送装置和将高尔夫球从储球仓中输出的转出装置，所述的捡球辊设置在机体的下部前侧，所述的暂存仓和储球仓均设置在机体内。本发明的捡球机能够自动实现捡球和储球，大大节省了人力，同时也节省了人工捡球耗费的大量时间。</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>[发明公布]一种基于人工智能的自动乒乓球捡球机</v>
+      </c>
+      <c r="B95" t="str">
+        <v>CN107875598A</v>
+      </c>
+      <c r="C95" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D95" t="str">
+        <v>2017114516673</v>
+      </c>
+      <c r="E95" t="str">
+        <v>2017.12.28</v>
+      </c>
+      <c r="F95" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G95" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H95" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I95" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63B47/02(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J95" t="str">
+        <v>本发明公开了一种基于人工智能的自动乒乓球捡球机，本发明包括壳体、控制系统、智能检测装置和行走系统，所述的智能检测装置包括设置在壳体顶端的红外扫描传感器和设置在壳体侧面上的超声波传感器，还包括捡球装置，所述的捡球装置包括集球装置、储球仓、输送装置和转出装置，所述的集球装置与储球仓通过输送装置连通，所述的壳体包括上半壳体和下半壳体，所述的储球仓设置在上半壳体内，所述的上半壳体上下滑动的设置在下半壳体内。本发明的捡球机能够自动实现捡球和将球转移到发球机的储球桶内，大大节省了人力，同时也节省了人工捡球耗费的大量时间。</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>[发明公布]实现人工智能行为的方法、系统及人工智能行为编辑器</v>
+      </c>
+      <c r="B96" t="str">
+        <v>CN107875632A</v>
+      </c>
+      <c r="C96" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2017112767982</v>
+      </c>
+      <c r="E96" t="str">
+        <v>2017.12.06</v>
+      </c>
+      <c r="F96" t="str" xml:space="preserve">
+        <v xml:space="preserve">广州多益网络股份有限公司;多益网络有限公司;广东利为网络科技有限公司_x000d_
+				</v>
+      </c>
+      <c r="G96" t="str">
+        <v>徐波</v>
+      </c>
+      <c r="H96" t="str">
+        <v>510530广东省广州市萝岗区伴河路90号1号楼</v>
+      </c>
+      <c r="I96" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63F13/56(2014.01)I;A63F13/60(2014.01)I_x000d_
+						专利代理机构：广州骏思知识产权代理有限公司44425代理人：吴静芝</v>
+      </c>
+      <c r="J96" t="str">
+        <v>本发明涉及一种实现人工智能行为的方法、系统及人工智能编辑器，通过预先将NPC(Non‑Player Character，非玩家角色)的所有AI行为进行拆分，提取组成AI行为的多个共同规则，并分别封装成多个组件，形成AI行为库，实现在需要根据新的AI任务编辑AI行为时，策划人员能够直接从AI行为库中调用相应的组件，而不需要从零开始构建整个AI行为设置，更不需要编辑代码，使得AI行为的配置更加方便和灵活装配，具有更好地拓展性和可维护性，并缩短了AI行为的开发周期。</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>[发明公布]机械手臂</v>
+      </c>
+      <c r="B97" t="str">
+        <v>CN107877501A</v>
+      </c>
+      <c r="C97" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D97" t="str">
+        <v>2017113808509</v>
+      </c>
+      <c r="E97" t="str">
+        <v>2017.12.20</v>
+      </c>
+      <c r="F97" t="str">
+        <v>万博宣</v>
+      </c>
+      <c r="G97" t="str">
+        <v>万博宣</v>
+      </c>
+      <c r="H97" t="str">
+        <v>102600北京市大兴区三合南里34号楼7单元401</v>
+      </c>
+      <c r="I97" t="str" xml:space="preserve">
+        <v xml:space="preserve">B25J9/08(2006.01)I;B25J13/00(2006.01)I_x000d_
+						专利代理机构：北京轻创知识产权代理有限公司11212代理人：谈杰</v>
+      </c>
+      <c r="J97" t="str">
+        <v>本发明涉及人工智能技术领域，尤其是涉及一种机械手臂。该机械手臂包括：机械部分和控制部分；所述机械部分包括：机械前臂结构、机械手腕结构、机械手掌结构以及机械手指结构；所述机械前臂结构与所述机械手腕结构转动连接，所述机械手掌结构与所述机械手腕结构转动连接，所述机械手指结构包括依次排列在所述机械手掌结构上的五个手指单元，每个手指单元对应连接有一个手指驱动单元，所述手指驱动单元通过手指联动件带动对应的手指单元进行伸展和弯曲；所述控制部分包括：脑电波检测装置、传感器检测装置和控制器；本发明通过采集使用者的脑电波来完成智能抓取，整个过程更为智能简便，无需专业人员来完成，使用范围广泛，使用非常方便。</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>[发明公布]一种基于人工智能的驾驶辅助系统</v>
+      </c>
+      <c r="B98" t="str">
+        <v>CN107878329A</v>
+      </c>
+      <c r="C98" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2017111909628</v>
+      </c>
+      <c r="E98" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F98" t="str">
+        <v>南京视莱尔汽车电子有限公司</v>
+      </c>
+      <c r="G98" t="str">
+        <v>张春华</v>
+      </c>
+      <c r="H98" t="str">
+        <v>211100江苏省南京市江宁区麒麟科技创新园智汇路300号B单元二楼</v>
+      </c>
+      <c r="I98" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60R1/00(2006.01)I;_x000d_
+						B60Q9/00(2006.01)I;B62D1/04(2006.01)I;B60R16/023(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J98" t="str">
+        <v>本发明公开了一种基于人工智能的驾驶辅助系统，包括汽车壳体，汽车壳体内设有若干滚轮，每两个滚轮之间通过第一活动轴连接，汽车壳体上设有大灯和转向灯，转向灯底部设有颜色传感器，颜色传感器一侧设有控制器，颜色传感器一侧设有图像采集装置，图像采集装置包括开口，开口内设有采像杆，采像杆通过第二活动轴与汽车壳体活动连接，采像杆的一侧设有挡杆，采像杆的一端设有扇形齿轮，扇形齿轮上啮合设有齿轮，齿轮中部设有连杆，连杆固定在电机的输出端。有益效果：大大的减少了由于违规变道带来的交通事故的发生，令驾驶员能够在规定的车道内驾驶，增加了相关人员的人身的安全系数。</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>[发明公布]智能无人机定位停放系统及其工作方法</v>
+      </c>
+      <c r="B99" t="str">
+        <v>CN107878751A</v>
+      </c>
+      <c r="C99" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D99" t="str">
+        <v>2017111186436</v>
+      </c>
+      <c r="E99" t="str">
+        <v>2017.11.14</v>
+      </c>
+      <c r="F99" t="str">
+        <v>重庆大学</v>
+      </c>
+      <c r="G99" t="str" xml:space="preserve">
+        <v xml:space="preserve">汪成亮;吴杰;马飞;曾卓_x000d_
+				</v>
+      </c>
+      <c r="H99" t="str">
+        <v>400030重庆市沙坪坝区沙正街174号</v>
+      </c>
+      <c r="I99" t="str" xml:space="preserve">
+        <v xml:space="preserve">B64C39/02(2006.01)I;_x000d_
+						B64F1/00(2006.01)I;H02J50/10(2016.01)I_x000d_
+						专利代理机构：重庆乐泰知识产权代理事务所(普通合伙)50221代理人：刘佳</v>
+      </c>
+      <c r="J99" t="str">
+        <v>本发明提出了一种智能无人机定位停放系统及其工作方法，包括：定位块设置在无人机停机坪中心部位，定位块和无人机底部的起落架的凹陷部相配合，从而保证无人机能够稳固停靠在无人机停机坪上，在定位块四周设置限位环，限位环每隔一定距离开设限位凹槽，用于固定无人机，无人机停机坪与基座通过立柱相互连接。本发明为人工智能环境下无人机的使用提供了创新的可行的解决方案。</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>[发明公布]脱硫值测定加热炉自控装置</v>
+      </c>
+      <c r="B100" t="str">
+        <v>CN107883767A</v>
+      </c>
+      <c r="C100" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D100" t="str">
+        <v>201711087515X</v>
+      </c>
+      <c r="E100" t="str">
+        <v>2017.11.08</v>
+      </c>
+      <c r="F100" t="str">
+        <v>山西新华化工有限责任公司</v>
+      </c>
+      <c r="G100" t="str" xml:space="preserve">
+        <v xml:space="preserve">乔学明;张建国;李彦彬;梁亚玲;王勇;王晶;郭凤珍_x000d_
+				</v>
+      </c>
+      <c r="H100" t="str">
+        <v>030008山西省太原市新兰路33号</v>
+      </c>
+      <c r="I100" t="str" xml:space="preserve">
+        <v xml:space="preserve">F27B17/02(2006.01)I;F27D19/00(2006.01)I_x000d_
+						专利代理机构：太原科卫专利事务所(普通合伙)14100代理人：朱源;武建云</v>
+      </c>
+      <c r="J100" t="str">
+        <v>本发明公开了一种脱硫值测定加热炉自控装置，包括可控硅SCR1、SCR2、SCR3，用于加热的3组炉丝EE1、EE2、EE3，用于测量温度的铂电阻ST1、ST2、ST3，用于显示和控制温度的人工智能温度控制器IC1、IC2、IC3，熔断器FU1、FU2、FU3，接触器KM1、KM2、KM3等。可控硅SCR1、SCR2、SCR3的输入端分别与电源连接，可控硅SCR1、SCR2、SCR3的输出端依次分别与熔断器FU1、FU2、FU3、接触器KM1、KM2、KM3和加热炉丝EE1、EE2、EE3对应连接，热电阻ST1、ST2、ST3依次插入加热炉的相应位置，通过线缆依次与人工智能温度控制器IC1、IC2、IC3对应连接。</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>[发明公布]高压断路器分合闸时间在线监测装置和方法</v>
+      </c>
+      <c r="B101" t="str">
+        <v>CN107884707A</v>
+      </c>
+      <c r="C101" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D101" t="str">
+        <v>2017109271286</v>
+      </c>
+      <c r="E101" t="str">
+        <v>2017.09.30</v>
+      </c>
+      <c r="F101" t="str">
+        <v>杨启蓓</v>
+      </c>
+      <c r="G101" t="str">
+        <v>杨启蓓</v>
+      </c>
+      <c r="H101" t="str">
+        <v>530000广西壮族自治区南宁市青秀区云景路8号2栋2单元B11-4号房</v>
+      </c>
+      <c r="I101" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01R31/327(2006.01)I_x000d_
+						专利代理机构：北京超凡志成知识产权代理事务所(普通合伙)11371代理人：宋南</v>
+      </c>
+      <c r="J101" t="str">
+        <v>本发明公开了一种高压断路器分合闸时间在线监测装置和方法，由断路器分合闸事件数据库、断路器分合闸时间在线监测模块和人机交互界面组成。断路器分合闸事件数据库的数据来源于变电站和换流站的SCADA及其测控装置、断路器选相分合闸装置、继电保护装置及继电保护信息系统、故障录波装置及故障录波系统。断路器分合闸时间在线监测模块，由分合闸智能策略分析模块、分合闸时间监测模块、合分时间监测模块、分合闸辅助接点切换时间监测等模块组成，可通过专用网络连接形成不同层级的高压断路器分合闸时间在线监测云数据库，依托大数据、云计算和人工智能技术实现更高精度的在线监测，为断路器设备全生命周期管理提供更准确的数据。</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>[发明公布]适用于任意结构声音阵列的波达方向智能估计方法</v>
+      </c>
+      <c r="B102" t="str">
+        <v>CN107884743A</v>
+      </c>
+      <c r="C102" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D102" t="str">
+        <v>2017110690115</v>
+      </c>
+      <c r="E102" t="str">
+        <v>2017.11.03</v>
+      </c>
+      <c r="F102" t="str">
+        <v>中国人民解放军陆军炮兵防空兵学院</v>
+      </c>
+      <c r="G102" t="str" xml:space="preserve">
+        <v xml:space="preserve">崔逊学;左从菊;汪海;顾国华;汪玉美;范希辉;朱静;侯东升_x000d_
+				</v>
+      </c>
+      <c r="H102" t="str">
+        <v>230031安徽省合肥市蜀山区黄山路451号</v>
+      </c>
+      <c r="I102" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01S3/802(2006.01)I_x000d_
+						专利代理机构：合肥金安专利事务所34114代理人：彭超</v>
+      </c>
+      <c r="J102" t="str">
+        <v>本发明提供一种适用于任意结构声音阵列的波达方向智能估计方法，本发明针对任意结构的传感器阵列，采用人工智能领域的粒子群优化来实现任意结构阵列的时差测向，利用智能优化方式搜索出最优的信源方位角和俯仰角估计值。为了快速收敛和避免陷入局部最优解，本发明采用线性最小二乘法提供粒子群体方位角与俯仰角的初始估计值，并以三维阵列测向误差平方的累加代价值作为评估准则的适应度函数。该方法的特点在于即使任意结构的传感器阵列也能获得很高的波达方向估计精度。本发明也适用于其他类型的阵列对信源的波达方向估计问题，实现对三维空间信源方位角和俯仰角的精确估计。</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>[发明公布]基于人工智能的词汇类别挖掘方法、装置及存储介质</v>
+      </c>
+      <c r="B103" t="str">
+        <v>CN107885719A</v>
+      </c>
+      <c r="C103" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D103" t="str">
+        <v>2017108544286</v>
+      </c>
+      <c r="E103" t="str">
+        <v>2017.09.20</v>
+      </c>
+      <c r="F103" t="str">
+        <v>北京百度网讯科技有限公司</v>
+      </c>
+      <c r="G103" t="str">
+        <v>赵岷</v>
+      </c>
+      <c r="H103" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦2层</v>
+      </c>
+      <c r="I103" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/27(2006.01)I;_x000d_
+						G06K9/62(2006.01)I;G06N3/08(2006.01)I_x000d_
+						专利代理机构：北京鸿德海业知识产权代理事务所(普通合伙)11412代理人：袁媛</v>
+      </c>
+      <c r="J103" t="str">
+        <v>本发明公开了基于人工智能的词汇类别挖掘方法、装置及存储介质，其中方法包括：从待挖掘语料中挖掘出包含主语的主语句，并将每个主语句中的主语分别作为一个词汇，建立词汇与其所在主语句之间的对应关系；从挖掘出的主语句中筛选出主语描述句，主语描述句为能够体现其对应的词汇所属类别的主语句；针对每个词汇，分别通过对词汇对应的主语描述句进行分析，确定出词汇所属的类别。应用本发明所述方案，能够节省人力成本，提高挖掘效率，并具有普遍适用性。</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>[发明公布]基于深度学习的对话方法、装置及设备</v>
+      </c>
+      <c r="B104" t="str">
+        <v>CN107885756A</v>
+      </c>
+      <c r="C104" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D104" t="str">
+        <v>2016108769410</v>
+      </c>
+      <c r="E104" t="str">
+        <v>2016.09.30</v>
+      </c>
+      <c r="F104" t="str">
+        <v>华为技术有限公司</v>
+      </c>
+      <c r="G104" t="str">
+        <v>吕正东;何山;江强</v>
+      </c>
+      <c r="H104" t="str">
+        <v>518129广东省深圳市龙岗区坂田华为总部办公楼</v>
+      </c>
+      <c r="I104" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06N99/00(2010.01)I_x000d_
+						专利代理机构：北京三高永信知识产权代理有限责任公司11138代理人：罗振安</v>
+      </c>
+      <c r="J104" t="str">
+        <v>本发明公开了一种基于深度学习的对话方法、装置及设备，属于人工智能领域。所述方法包括：获取待回复语句；对待回复语句进行编码，得到第一向量，第一向量为待回复语句的表示；获取待回复语句对应的对话历史信息，对话历史信息包括至少一轮对话语句，每轮对话语句包括两个对话语句；采用第一向量和解码状态向量合成注意向量，解码状态向量用于表示输出回复语句中最近一个词时解码器的状态，注意向量用于表示搜索意图；将每个对话语句分别与注意向量相互作用，以在每个对话语句中提取与搜索意图相关的信息，得到多个结果向量；基于多个结果向量生成待解码向量；对待解码向量进行解码，得到回复语句中的下一个词，本发明回复语句参考了对话历史。</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>[发明公布]一种混合字体的数字序列识别方法</v>
+      </c>
+      <c r="B105" t="str">
+        <v>CN107886065A</v>
+      </c>
+      <c r="C105" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2017110791794</v>
+      </c>
+      <c r="E105" t="str">
+        <v>2017.11.06</v>
+      </c>
+      <c r="F105" t="str">
+        <v>哈尔滨工程大学</v>
+      </c>
+      <c r="G105" t="str" xml:space="preserve">
+        <v xml:space="preserve">马忠丽;李倩倩;佘静;李帅阳;何江达_x000d_
+				</v>
+      </c>
+      <c r="H105" t="str">
+        <v>150001黑龙江省哈尔滨市南岗区南通大街145号哈尔滨工程大学科技处知识产权办公室</v>
+      </c>
+      <c r="I105" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;_x000d_
+						G06K9/20(2006.01)I;G06K9/32(2006.01)I;G06K9/62(2006.01)I;G06N3/04(2006.01)I;G06N3/08(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J105" t="str">
+        <v>本发明为一种混合字体的数字序列识别方法，是在卷积神经网络应用的基础上，设计的一个网络结构，使用滑动窗口，建立同一个图像的不同分辨率的金字塔结构，使用NMS非极大值抑制去除重复的检测。待识别图像中包含印刷字体和手写字体的数字序列，用神经网络分类器进行数字检测，再进行数字识别，得到识别结果。步骤包括输入图像、得到候选目标区域、滑动窗口对候选目标区域进行特征提取、用机器学习的方法判断候选目标区域是否是目标、对候选目标区域进行定位校正。本发明能检测出混合字体的数字序列，识别准确率非常高，适用于所有的视觉系统，在人工智能的发展道路上有极大的意义。</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
+        <v>[发明公布]一种基于云管理平台的人工智能废品回收系统及方法</v>
+      </c>
+      <c r="B106" t="str">
+        <v>CN107886122A</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2017110803170</v>
+      </c>
+      <c r="E106" t="str">
+        <v>2017.11.06</v>
+      </c>
+      <c r="F106" t="str">
+        <v>郑州云海信息技术有限公司</v>
+      </c>
+      <c r="G106" t="str">
+        <v>吴祖顺</v>
+      </c>
+      <c r="H106" t="str">
+        <v>450000河南省郑州市郑东新区心怡路278号16层1601室</v>
+      </c>
+      <c r="I106" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I;_x000d_
+						G07F7/06(2006.01)I;H04L29/08(2006.01)I;B09B3/00(2006.01)I_x000d_
+						专利代理机构：济南舜源专利事务所有限公司37205代理人：张亮</v>
+      </c>
+      <c r="J106" t="str">
+        <v>本发明涉及一种基于云管理平台的人工智能废品回收系统及方法，其特征在于，包括如下步骤：用户通过智能型废品处理装置进行与云管理平台的交互，用户选择废品种类；智能废品处理箱打开识别区域，用户放入废品；扫描采集模块进行信息采集，并将采集信息上传云端，由云平台调用人工智能模块对废品进行识别；返回废品种类及单价信息到用户平台触摸屏进行显示；用户确认是否进行交易，若确认交易，计重模块进行计重，并上传重量信息到云管理平台的计算调度模块进行计量议价，返回数据用户确认后，用户通过用户平台输入用户信息到云管理平台，由平台将资金打入用户账户。</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
+        <v>[发明公布]基于固定式与移动式车辆检测数据的数据与信息融合方法</v>
+      </c>
+      <c r="B107" t="str">
+        <v>CN107886192A</v>
+      </c>
+      <c r="C107" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D107" t="str">
+        <v>2017110115043</v>
+      </c>
+      <c r="E107" t="str">
+        <v>2017.10.26</v>
+      </c>
+      <c r="F107" t="str">
+        <v>西南交通大学</v>
+      </c>
+      <c r="G107" t="str">
+        <v>孙湛博;黄添钰</v>
+      </c>
+      <c r="H107" t="str">
+        <v>610031四川省成都市高新西区西部园区西南交通大学科学技术发展研究院</v>
+      </c>
+      <c r="I107" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/04(2012.01)I;G06Q50/30(2012.01)I_x000d_
+						专利代理机构：成都盈信专利代理事务所(普通合伙)51245代理人：崔建中</v>
+      </c>
+      <c r="J107" t="str">
+        <v>本发明公开了一种基于固定式与移动式车辆检测数据的数据与信息融合方法，包括将交通运输系统系统分解成若干个输入与输出子系统，获取各个子系统的多源检测器数据；使用历史交通数据集对所获取的数据进行校准；建立组合优化模型；据组合优化模型寻求上下游固定检测数据的最可能的匹配，将被标定的固定检测数据直接逐一匹配；利用基于人工智能的启发式禁忌搜索算法，对未被标定的固定检测数据进行逐一匹配。本发明的有益效果在于，匹配精度明显优于基于单一数据源的匹配精度，数值实验表明精度提高15％‑20％。同时，能够更好的描述个体出行状况(如通行时间)，实验表明该方法得到的个体通行时间均方根差和基于平均通行时间的估算结果相比提高15％‑21％。</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>[发明公布]一种基于民航旅客运输共享座位运营管理系统及方法</v>
+      </c>
+      <c r="B108" t="str">
+        <v>CN107886211A</v>
+      </c>
+      <c r="C108" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D108" t="str">
+        <v>2017108385222</v>
+      </c>
+      <c r="E108" t="str">
+        <v>2017.09.15</v>
+      </c>
+      <c r="F108" t="str">
+        <v>中北航空股份有限公司;赵云</v>
+      </c>
+      <c r="G108" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H108" t="str">
+        <v>610016四川省成都市锦江区永兴巷15号2号楼</v>
+      </c>
+      <c r="I108" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/06(2012.01)I;_x000d_
+						G06Q10/02(2012.01)I;G06Q30/02(2012.01)I;G06Q50/14(2012.01)I;G06Q50/30(2012.01)I_x000d_
+						</v>
+      </c>
+      <c r="J108" t="str">
+        <v>一种基于民航旅客运输共享座位运营管理系统及方法是共享经济领域创新发明成果；是为解决民航客运存量、盈利能力和运价‑客座率背离问题；创新民航旅客运输座位共享出行座位所有权、经营权、使用权分离，构建民航座位共享互联网航空公司：民航共享座位出行、人工智能刷脸验证出行、到达客公里付费、全服务航空公司承运、物有所值共享平台运营；刷脸验证是集身份信息验证、机票/座位预定(行程单)、值机/选座/中转签证(登机牌)、支付(信用/预授权等银行功能)、数据处理存储及出行预定服务功能为一体加密人工智能技术，开放式数据接口设计；建立运价‑时间数学模型开发民航座位共享收益管理系统；本成果主要应用于民航旅客运输收益管理。</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
+        <v>[发明公布]一种基于网络超市系统的物流配送方法</v>
+      </c>
+      <c r="B109" t="str">
+        <v>CN107886263A</v>
+      </c>
+      <c r="C109" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2016108638607</v>
+      </c>
+      <c r="E109" t="str">
+        <v>2016.09.30</v>
+      </c>
+      <c r="F109" t="str">
+        <v>长沙湘佩网络技术有限公司</v>
+      </c>
+      <c r="G109" t="str">
+        <v>欧阳武</v>
+      </c>
+      <c r="H109" t="str">
+        <v>410000湖南省长沙市长沙县泉塘街道东六线东小塘西规划道路北中国铁建国际城3号栋2302房</v>
+      </c>
+      <c r="I109" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/08(2012.01)I;G06Q30/06(2012.01)I_x000d_
+				</v>
+      </c>
+      <c r="J109" t="str">
+        <v>一种基于网络超市系统的物流配送方法，其内容包括，针对网上超市一地多仓环境下的物流配送方式环节，以物流配送成本的最小化为目标，构建一套非线性混合整数规划模型，并设计一种基于缩减问題求解空间的思想的启发式算法进行求解。在此种算法中，加入人工智能状态空间搜索功能，并且通过将物流配送阶段对配送成本影响的关键因素作为订单分配的规则，从而使得经过改进的广度优先搜索算法能够运用于订单分配方案集合的生成。</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
+        <v>[发明公布]一种人工智能点餐方法及系统</v>
+      </c>
+      <c r="B110" t="str">
+        <v>CN107886348A</v>
+      </c>
+      <c r="C110" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D110" t="str">
+        <v>2017109234164</v>
+      </c>
+      <c r="E110" t="str">
+        <v>2017.09.30</v>
+      </c>
+      <c r="F110" t="str">
+        <v>厦门快商通信息技术有限公司</v>
+      </c>
+      <c r="G110" t="str" xml:space="preserve">
+        <v xml:space="preserve">朱睿婷;肖龙源;刘晓葳;李稀敏;谭玉坤_x000d_
+				</v>
+      </c>
+      <c r="H110" t="str">
+        <v>361007福建省厦门市思明区嘉禾路267号9楼902室B区</v>
+      </c>
+      <c r="I110" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/02(2012.01)I;G06Q50/12(2012.01)I_x000d_
+						专利代理机构：厦门果汁知识产权代理事务所(普通合伙)35227代理人：乐珠秀</v>
+      </c>
+      <c r="J110" t="str">
+        <v>本发明公开了一种人工智能点餐方法及系统，智能识别点餐用户的性别信息、年龄信息、口音信息中的两种或两种及其以上信息的组合，通过识别点餐用户是否为新用户，并根据新用户或回头客及点餐用户的个人信息，是否进行点餐推荐，方便客户个性化点餐，同时节约了点餐时间，提高客户用餐体验。</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
+        <v>[发明公布]一种超市优惠券面额的动态生成方法</v>
+      </c>
+      <c r="B111" t="str">
+        <v>CN107886356A</v>
+      </c>
+      <c r="C111" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2017110712044</v>
+      </c>
+      <c r="E111" t="str">
+        <v>2017.11.03</v>
+      </c>
+      <c r="F111" t="str">
+        <v>北京翰宁智能科技有限责任公司</v>
+      </c>
+      <c r="G111" t="str">
+        <v>李瀚懿</v>
+      </c>
+      <c r="H111" t="str">
+        <v>100070北京市丰台区科兴路9号108室</v>
+      </c>
+      <c r="I111" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/02(2012.01)I_x000d_
+						专利代理机构：北京捷诚信通专利事务所(普通合伙)11221代理人：王卫东</v>
+      </c>
+      <c r="J111" t="str">
+        <v>本发明公开了一种超市优惠券面额的动态生成方法，包括：商家根据营销策略制定要分发的优惠券数量和优惠券总额度；实时统计已发放优惠券数量、已发放优惠券总额度以及已发放优惠券的历史使用率，并统计销售额和根据销售额计算当前优惠力度下的收益情况；根据已发放优惠券数量、已发放优惠券总额度、已发放优惠券的历史使用率以及销售额和收益情况，利用大数据算法重新计算每张优惠券面额的取值范围；通过人工智能算法对该消费者近期消费行为进行分析，在重新计算得到的每张优惠券面额的取值范围内，自动匹配计算出来最适合该消费者的优惠券面额。本发明根据市场反应和收益情况自动改变优惠券面额，确保收益的最大化。</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>[发明公布]基于大数据和人工智能的金融风控系统</v>
+      </c>
+      <c r="B112" t="str">
+        <v>CN107886431A</v>
+      </c>
+      <c r="C112" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2017109726510</v>
+      </c>
+      <c r="E112" t="str">
+        <v>2017.10.18</v>
+      </c>
+      <c r="F112" t="str">
+        <v>上海瀚银信息技术有限公司</v>
+      </c>
+      <c r="G112" t="str">
+        <v>王建国</v>
+      </c>
+      <c r="H112" t="str">
+        <v>200001上海市黄浦区蒙自路763号丰盛创建大厦4楼</v>
+      </c>
+      <c r="I112" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q40/04(2012.01)I;G06Q10/06(2012.01)I_x000d_
+						专利代理机构：上海申新律师事务所31272代理人：俞涤炯</v>
+      </c>
+      <c r="J112" t="str">
+        <v>本发明公开了基于大数据和人工智能的金融风控系统，属于交易业务技术领域；系统包括获取单元，用于获取外部系统根据不同的业务流程中产生的交易数据；分发单元，用于将交易数据按照所属的业务流程分发到部署有对应的规则集的处理节点中进行匹配处理；统计单元，用于获取每个处理节点对交易数据进行匹配处理得到的匹配结果；生成单元，用于根据匹配结果生成新的组合风控规则；被生成的新的组合风控规则按照所属的业务流程同样被部署到不同的规则集所在的处理节点中。上述技术方案的有益效果是：实时改进和更新风控规则，使得对交易进程的风险控制更全面，并且节省人力资源。</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>[发明公布]一种基于表情和语音识别的婴儿哭声翻译系统</v>
+      </c>
+      <c r="B113" t="str">
+        <v>CN107886953A</v>
+      </c>
+      <c r="C113" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D113" t="str">
+        <v>2017112089645</v>
+      </c>
+      <c r="E113" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F113" t="str">
+        <v>四川长虹电器股份有限公司</v>
+      </c>
+      <c r="G113" t="str" xml:space="preserve">
+        <v xml:space="preserve">钟译漫;张科;张旭;王莹;杨超_x000d_
+				</v>
+      </c>
+      <c r="H113" t="str">
+        <v>621000四川省绵阳市高新区绵兴东路35号</v>
+      </c>
+      <c r="I113" t="str" xml:space="preserve">
+        <v xml:space="preserve">G10L15/26(2006.01)I;_x000d_
+						G10L15/25(2013.01)I;G10L15/18(2013.01)I;G10L25/63(2013.01)I_x000d_
+						专利代理机构：成都虹桥专利事务所(普通合伙)51124代理人：吴中伟</v>
+      </c>
+      <c r="J113" t="str">
+        <v>本发明涉及语音、图像识别和人工智能领域，其公开了一种基于表情和语音识别的婴儿哭声翻译系统，准确的翻译婴儿所传递的信号，以便为婴儿提供更好的照顾。该系统包括哭声采集装置、哭声微处理器、样本哭声数据库、表情采集装置、表情处理器、样本表情数据库和哭声翻译模块；本发明通过同时采集婴儿啼哭时的哭声信号和表情信号，分别与数据库中的哭声样本特征和表情样本特征进行比对分析，获得可能性的哭声诊断结果和表情对应的意愿表达结果，然后进行融合分析判断，最终翻译出婴儿哭声表达的准确意思。</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>[发明公布]一种心血管疾病数据采集与分诊平台</v>
+      </c>
+      <c r="B114" t="str">
+        <v>CN107887010A</v>
+      </c>
+      <c r="C114" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D114" t="str">
+        <v>2017112220608</v>
+      </c>
+      <c r="E114" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F114" t="str">
+        <v>天津中科爱乐芙医疗科技有限公司</v>
+      </c>
+      <c r="G114" t="str">
+        <v>顾沂晖;林倞夷;陈援非</v>
+      </c>
+      <c r="H114" t="str">
+        <v>300000天津市西青区汽车工业区中联产业园11号楼8层820</v>
+      </c>
+      <c r="I114" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H40/20(2018.01)I;_x000d_
+						A61B5/0402(2006.01)I;A61B5/00(2006.01)I_x000d_
+						专利代理机构：天津津专知识产权代理事务所(特殊普通合伙)12220代理人：胡翠</v>
+      </c>
+      <c r="J114" t="str">
+        <v>本发明公开了一种心血管疾病数据采集与分诊平台，包括数据库服务器以及与该数据库服务器连接的数据采集系统和患者疾病分类系统；所述数据采集系统，用于采集患者端心血管症状数据，其包括可穿戴心电采集终端和患者症状信息采集终端；所述患者症状信息采集终端设有基于患者数据采集模型的人机对话系统；所述患者数据采集模型为树形结构的层次模型；所述患者疾病分类系统，用于对采集的心血管症状数据进行患者分类分析，其包括卷积神经网络数据分析单元和长短记忆神经网络数据分析单元，所述卷积神经网络数据分析单元输入波形图，所述长短记忆神经网络数据分析单元输入文本信息。本发明应用人工智能分类技术，分诊准确性得到提升。</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>[发明公布]一种供电装置</v>
+      </c>
+      <c r="B115" t="str">
+        <v>CN107887770A</v>
+      </c>
+      <c r="C115" t="str">
+        <v>2018.04.06</v>
+      </c>
+      <c r="D115" t="str">
+        <v>2017109920440</v>
+      </c>
+      <c r="E115" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F115" t="str">
+        <v>深圳市屯奇尔科技有限公司</v>
+      </c>
+      <c r="G115" t="str">
+        <v>曾荣跃</v>
+      </c>
+      <c r="H115" t="str">
+        <v>518000广东省深圳市宝安区宝安大道4018号华丰国际商务大厦1203室</v>
+      </c>
+      <c r="I115" t="str" xml:space="preserve">
+        <v xml:space="preserve">H01R39/08(2006.01)I;_x000d_
+						H01R39/14(2006.01)I;H01R39/26(2006.01)I_x000d_
+						专利代理机构：深圳中一专利商标事务所44237代理人：官建红</v>
+      </c>
+      <c r="J115" t="str">
+        <v>本发明适用于供电技术领域，提供了一种供电装置，包括一端固定连接在外部旋转部件上的旋转轴、套设在所述旋转轴上的绝缘隔套、套设在所述绝缘隔套上且间隔设置的多个导电环、分别与多个所述导电环一一对应的多个碳刷单元，以及用于固定所述碳刷单元且用于接入所述旋转部件的电源和/或通信信号的定子部分，每一所述碳刷单元均和与其对应的所述导电环旋转接触，所述导电环与所述旋转部件电性连接。本发明实现了对旋转部件提供大电流过电，以及对定子部分与旋转部件相互间可靠通信提供一种低成本、易维护的装置，可以普及人工智能领域需要采用机电一体化应用的各种产品上。</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>[发明公布]基于人工智能的机器人竞赛场地</v>
+      </c>
+      <c r="B116" t="str">
+        <v>CN107866062A</v>
+      </c>
+      <c r="C116" t="str">
+        <v>2018.04.03</v>
+      </c>
+      <c r="D116" t="str">
+        <v>2017114088685</v>
+      </c>
+      <c r="E116" t="str">
+        <v>2017.12.22</v>
+      </c>
+      <c r="F116" t="str">
+        <v>重庆友恒电脑科技有限责任公司</v>
+      </c>
+      <c r="G116" t="str">
+        <v>江渝</v>
+      </c>
+      <c r="H116" t="str">
+        <v>400000重庆市九龙坡区渝州路4号25-4号</v>
+      </c>
+      <c r="I116" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63C19/06(2006.01)I_x000d_
+						专利代理机构：成都行之专利代理事务所(普通合伙)51220代理人：王记明</v>
+      </c>
+      <c r="J116" t="str">
+        <v>本发明公开了基于人工智能的机器人竞赛场地，包括平行设置的内围板与外围板，内围板与外围板之间形成比赛环道，外围板上开设有入口，入口处设有闭合板；比赛环道的底部铺设有橡胶底板；外围板的内侧壁上均匀设有缓冲块，缓冲块采用橡胶材料制得；内围板的内部设有固定柱，固定柱的侧壁上垂直连有多个固定杆，固定杆与内围板的内侧壁相连，固定柱的下方设有插入杆；外围板的外侧壁上均匀连有加强肋板。本发明的机器人对战场地，能够避免在场地中进行项目的机器人在受到撞击时损坏，提高机器人的安全性能，同时通过固定柱提高整个场地的稳定性，避免在机器人进行项目时围板受到撞击或者外力发生位移，提高场地使用的安全性。</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>[发明公布]一种社交化的客户服务智能管理系统</v>
+      </c>
+      <c r="B117" t="str">
+        <v>CN107871233A</v>
+      </c>
+      <c r="C117" t="str">
+        <v>2018.04.03</v>
+      </c>
+      <c r="D117" t="str">
+        <v>2017111866923</v>
+      </c>
+      <c r="E117" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F117" t="str">
+        <v>林伟文</v>
+      </c>
+      <c r="G117" t="str">
+        <v>林伟文</v>
+      </c>
+      <c r="H117" t="str">
+        <v>325000浙江省温州市鹿城区南浦街道桥儿头木兰4幢504室</v>
+      </c>
+      <c r="I117" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/10(2012.01)I;G06Q50/00(2012.01)I_x000d_
+				</v>
+      </c>
+      <c r="J117" t="str">
+        <v>本发明公开了一种社交化的客户服务智能管理系统，包括社交软件平台，社交软件平台上设有虚拟智能角色单元、用户注册单元、用户登录单元、二维码扫描单元、客户信息管理单元以及数据库管理单元，本发明不需要特定项目管理软件来实施项目管理，只要在自己熟悉或主流的社交软件上对特定虚拟智能角色进行聊天即可，大大提升用户体验；不需要为特定的项目建立管理流程，一切管理内容随着项目参与者的聊天内容的增加和时间的沉淀自动积累，并在大数据和人工智能分析产生项目管理报告和数据。</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str">
+        <v>[发明公布]基于人工智能的多用户动态调温中央空调系统及方法</v>
+      </c>
+      <c r="B118" t="str">
+        <v>CN107860076A</v>
+      </c>
+      <c r="C118" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2017111579806</v>
+      </c>
+      <c r="E118" t="str">
+        <v>2017.11.20</v>
+      </c>
+      <c r="F118" t="str">
+        <v>宋彦震</v>
+      </c>
+      <c r="G118" t="str">
+        <v>宋彦震;郑守鹏</v>
+      </c>
+      <c r="H118" t="str">
+        <v>065201河北省廊坊市三河市燕郊经济技术开发区华北科技学院电子信息工程学院</v>
+      </c>
+      <c r="I118" t="str" xml:space="preserve">
+        <v xml:space="preserve">F24F3/00(2006.01)I;_x000d_
+						F24F11/64(2018.01)I;F24F11/74(2018.01)I;F24F11/83(2018.01)I;F24F120/10(2018.01)N_x000d_
+						</v>
+      </c>
+      <c r="J118" t="str">
+        <v>基于人工智能的多用户动态调温中央空调系统根据性别、年龄段、职业和工作部门作为检索温度曲线模型的条件，通过信息检索单元得到符合不同年龄段、不同职业、不同部门和性别的温度曲线模型，然后根据办公区域中所有办公人员的个人信息情况，对检索单元检索得到的不同年龄段、不同职业、不同部门和性别的温度曲线模型进行加权平均，得到最优温度曲线模型；温控器根据当前最优温度曲线模型来控制风机盘管的水流或风量，以此通过大量的数据对一天中不同时间段的办公区域温度进行最适合的调整，提升办公环境温度的舒适度；本发明同时提出了一种基于人工智能的多用户动态调温中央空调方法。</v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
+      <c r="A119" t="str">
+        <v>[发明公布]基于人工智能的信息输出方法和装置</v>
+      </c>
+      <c r="B119" t="str">
+        <v>CN107861954A</v>
+      </c>
+      <c r="C119" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D119" t="str">
+        <v>2017110786809</v>
+      </c>
+      <c r="E119" t="str">
+        <v>2017.11.06</v>
+      </c>
+      <c r="F119" t="str">
+        <v>北京百度网讯科技有限公司</v>
+      </c>
+      <c r="G119" t="str" xml:space="preserve">
+        <v xml:space="preserve">朱晓宁;何中军;吴华;王海峰_x000d_
+				</v>
+      </c>
+      <c r="H119" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦2层</v>
+      </c>
+      <c r="I119" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/28(2006.01)I_x000d_
+						专利代理机构：北京英赛嘉华知识产权代理有限责任公司11204代理人：王达佐;马晓亚</v>
+      </c>
+      <c r="J119" t="str">
+        <v>本申请公开了基于人工智能的信息输出方法和装置。该方法的一具体实施方式包括：接收待翻译的源语句并输入第一机器翻译模型，得到目标语句，第一机器翻译模型用于表征第一自然语言的源语句与第二自然语言的目标语句的对应关系；将源语句和目标语句输入改写判定模型，输出源语句的类别，改写判定模型用于表征源语句、目标语句以及源语句的类别的对应关系，类别包括改写和不改写；若类别为改写，则通过源语句查询改写规则表，得到改写后的源语句，改写规则表用于表征源语句与改写后的源语句的对应关系，再将改写后的源语句输入第一机器翻译模型，得到与改写后的源语句对应的最终目标语句作为翻译结果输出。该实施方式提高了机器翻译的准确率。</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str">
+        <v>[发明公布]一种基于实体连通图的事件模版构造方法</v>
+      </c>
+      <c r="B120" t="str">
+        <v>CN107862037A</v>
+      </c>
+      <c r="C120" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2017110719876</v>
+      </c>
+      <c r="E120" t="str">
+        <v>2017.11.03</v>
+      </c>
+      <c r="F120" t="str">
+        <v>哈尔滨工业大学</v>
+      </c>
+      <c r="G120" t="str" xml:space="preserve">
+        <v xml:space="preserve">秦兵;刘铭;刘挺;刘一仝;李嘉伟_x000d_
+				</v>
+      </c>
+      <c r="H120" t="str">
+        <v>150001黑龙江省哈尔滨市南岗区西大直街92号</v>
+      </c>
+      <c r="I120" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+						专利代理机构：哈尔滨市松花江专利商标事务所23109代理人：岳泉清</v>
+      </c>
+      <c r="J120" t="str">
+        <v>一种基于实体连通图的事件模版构造方法，本发明涉及事件模板的构造方法。本发明的目的是为了解决现有技术在针对特定事件的“检索”、“问答”等人工智能应用中识别结果及提取特定信息不准确；基于事件的篇章相似度难以定量计算以及篇章关键信息难以提取的问题。过程为：一、对每一句抽取三元组；二、视三元组中的三个元素为三个结点；三、将从文本中抽取到的结点均放入到集合S&lt;sub&gt;1</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="A121" t="str">
+        <v>[发明公布]基于人工智能的智慧化教学结果获取方法及系统</v>
+      </c>
+      <c r="B121" t="str">
+        <v>CN107862088A</v>
+      </c>
+      <c r="C121" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D121" t="str">
+        <v>2017112525644</v>
+      </c>
+      <c r="E121" t="str">
+        <v>2017.12.01</v>
+      </c>
+      <c r="F121" t="str">
+        <v>广州摩翼信息科技有限公司</v>
+      </c>
+      <c r="G121" t="str">
+        <v>孙毅</v>
+      </c>
+      <c r="H121" t="str">
+        <v>510000广东省广州市钟村街汉溪大道南国奥林匹克花园北奥一路4区1座3层21号</v>
+      </c>
+      <c r="I121" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06Q50/20(2012.01)I_x000d_
+						专利代理机构：北京超凡志成知识产权代理事务所(普通合伙)11371代理人：徐彦圣</v>
+      </c>
+      <c r="J121" t="str">
+        <v>本发明提供了一种基于人工智能的智慧化教学结果获取方法及系统，涉及数据筛选技术领域，包括：通过教学数据的集合建立第一教学数据库；根据第一用户在第一教学数据库中输入的数据，得到第一目标数据；对第一目标数据进行加权处理，得到第一结果数据；根据第一结果数据设置第一教学数据库中数据的顺序；根据第一结果数据与数据的顺序建立第二教学数据库；根据第二用户在第二教学数据库中输入的数据得到第二目标数据；根据筛选规则对第二目标数据进行筛选与处理，得到第二结果数据；根据第二结果数据进行数据表达，得到教学结果数据。解决了教学平台内的数据僵化，只能解决静态数据或局部时间内数据，无法做到实时给出教学结果数据的技术问题。</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
+        <v>[发明公布]一种基于人工智能实现枸杞高效采摘的方法</v>
+      </c>
+      <c r="B122" t="str">
+        <v>CN107862254A</v>
+      </c>
+      <c r="C122" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D122" t="str">
+        <v>2017109857841</v>
+      </c>
+      <c r="E122" t="str">
+        <v>2017.10.20</v>
+      </c>
+      <c r="F122" t="str">
+        <v>武汉科技大学</v>
+      </c>
+      <c r="G122" t="str" xml:space="preserve">
+        <v xml:space="preserve">王瑞平;伍世虔;曾良才;富显德_x000d_
+				</v>
+      </c>
+      <c r="H122" t="str">
+        <v>430081湖北省武汉市青山区和平大道947号</v>
+      </c>
+      <c r="I122" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;_x000d_
+						G06N3/08(2006.01)I;A01D46/26(2006.01)I_x000d_
+						专利代理机构：武汉科皓知识产权代理事务所(特殊普通合伙)42222代理人：张火春</v>
+      </c>
+      <c r="J122" t="str">
+        <v>本发明公开了一种基于人工智能实现枸杞高效采摘的方法，实现该方法的枸杞采摘系统包括枸杞采摘车、车辆无人驾驶系统、人工智能控制系统以及GPS定位系统，人工智能控制系统包括模式识别系统和深度学习系统，深度学习系统用于自动记录和学习行驶速度、振摇角度、振幅和振摇频率对采摘效果的影响，首先通过模式识别系统记录采摘前成熟枸杞数量作为母样本，采摘过程中不断的通过模式识别系统记录成熟枸杞数量并与母样本作为对比，如果达到预期则按照此时各项参数继续采集，如果没有达到预期则通过人工智能控制系统调整各项采集参数并记录下来，从而达到高效采摘的目的，本发明能完全自动化作业，高效而且彻底解放了人工劳动力。</v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
+      <c r="A123" t="str">
+        <v>[发明公布]基于对抗生成网络的雷达生成彩色语义图像系统及方法</v>
+      </c>
+      <c r="B123" t="str">
+        <v>CN107862293A</v>
+      </c>
+      <c r="C123" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D123" t="str">
+        <v>2017111306531</v>
+      </c>
+      <c r="E123" t="str">
+        <v>2017.11.15</v>
+      </c>
+      <c r="F123" t="str">
+        <v>北京航空航天大学</v>
+      </c>
+      <c r="G123" t="str">
+        <v>牛建伟;欧阳真超;齐之平</v>
+      </c>
+      <c r="H123" t="str">
+        <v>100191北京市海淀区学院路37号</v>
+      </c>
+      <c r="I123" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;_x000d_
+						G06K9/62(2006.01)I;G06N3/04(2006.01)I;G01S13/89(2006.01)I_x000d_
+						专利代理机构：北京永创新实专利事务所11121代理人：祗志洁本国优先权：2017108268568 2017.09.14 CN</v>
+      </c>
+      <c r="J123" t="str">
+        <v>本发明公开了一种基于条件对抗生成网络的雷达生成彩色语义图像系统及方法，属于传感器和人工智能技术领域。所述的系统包括基于雷达点云和摄像头的数据采集模块，原始雷达点云上采样模块，基于条件对抗生成网络的模型训练模块和基于条件对抗生成网络的模型使用模块。本发明提供的方法，首先构建雷达点云‑RGB图像训练集，构建基于卷积神经网络的条件对抗生成网络进行模型训练，最终使得模型在仅利用稀疏的雷达点云数据和训练好的条件对抗生成网络模型实时的在车载环境下生成带有语义的彩色道路场景图像，并用于自动驾驶和辅助驾驶分析。本发明网络效率更高，能加速网络参数调整趋向更优结果，保证准确性和稳定性都相对较高。</v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
+      <c r="A124" t="str">
+        <v>[发明公布]一种自动定位报警的取现方法及系统</v>
+      </c>
+      <c r="B124" t="str">
+        <v>CN107862601A</v>
+      </c>
+      <c r="C124" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D124" t="str">
+        <v>2017110593401</v>
+      </c>
+      <c r="E124" t="str">
+        <v>2017.11.01</v>
+      </c>
+      <c r="F124" t="str">
+        <v>深圳位置网科技有限公司</v>
+      </c>
+      <c r="G124" t="str">
+        <v>桂文强</v>
+      </c>
+      <c r="H124" t="str">
+        <v>518000广东省深圳市南山区南海大道1031号蛇口网谷万海大厦C座502</v>
+      </c>
+      <c r="I124" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q40/02(2012.01)I;G06Q20/40(2012.01)I_x000d_
+						专利代理机构：北京慕达星云知识产权代理事务所(特殊普通合伙)11465代理人：崔自京</v>
+      </c>
+      <c r="J124" t="str">
+        <v>本发明公开了一种自动定位报警的取现方法及系统，所述方法包括如下步骤：获取取现终端的地理位置信息，并与银行卡绑定的手机卡所在具体地理位置进行位置匹配；判断若二者之间的距离是否大于阈值一；判断二者之间的距离是否大于阈值二；判断用户是否连续多次输错密码；自动抓拍取现操作用户的照片与公安机关网上追逃和重点关注人群进行人工智能识别；识别结果一致，则提示取现操作失败并自动向公安机关报警；识别结果不一致，则提示取现操作失败。本发明验证方式严谨，可有效防止银行卡盗刷不法分子流动作案的违法行为。</v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
+      <c r="A125" t="str">
+        <v>[发明公布]一种基于人工智能的汇票撮合交易机器人</v>
+      </c>
+      <c r="B125" t="str">
+        <v>CN107862608A</v>
+      </c>
+      <c r="C125" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D125" t="str">
+        <v>2017112077120</v>
+      </c>
+      <c r="E125" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F125" t="str">
+        <v>田标</v>
+      </c>
+      <c r="G125" t="str">
+        <v>田标</v>
+      </c>
+      <c r="H125" t="str">
+        <v>300450天津市滨海新区中新生态城景杉园</v>
+      </c>
+      <c r="I125" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q40/04(2012.01)I;_x000d_
+						G06F17/30(2006.01)I;G06N99/00(2010.01)I_x000d_
+						专利代理机构：济南鼎信专利商标代理事务所(普通合伙)37245代理人：曹玉琳</v>
+      </c>
+      <c r="J125" t="str">
+        <v>本发明提供一种基于人工智能的汇票撮合交易机器人，包括发布器，用于接收汇票相关信息，并将信息转发到识别器；识别器用于识别汇票相关信息并整理成文本信息发送到分析器；分析器，对文本信息进行处理和分类，分类后将买票信息推送到存储器上存储，将卖票信息和计算指令发送到计算器，计算器依据存储的数据，跟接收到的卖票信息进行计算；匹配器，将计算器计算结果进行汇总，进而筛选最优报价向买卖双方推送；交互器，卖方通过交互器向票据机器人或者对应价格的买方进行再沟通，将最优匹配方结果推送至撮合器；撮合器，生成标准交易合约。通过该交易机器人可以代替传统方式实现买方、卖方信息快速识别和计算、存储、匹配、撮合、签约和交易。</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="A126" t="str">
+        <v>[发明公布]一种人工智能学习和识别蓝牙钱箱纸币张数的系统和方法</v>
+      </c>
+      <c r="B126" t="str">
+        <v>CN107862685A</v>
+      </c>
+      <c r="C126" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D126" t="str">
+        <v>2017110718958</v>
+      </c>
+      <c r="E126" t="str">
+        <v>2017.11.03</v>
+      </c>
+      <c r="F126" t="str">
+        <v>王美金</v>
+      </c>
+      <c r="G126" t="str">
+        <v>王美金</v>
+      </c>
+      <c r="H126" t="str">
+        <v>528100广东省佛山市三水区城区西河路1号北江明珠13座1404</v>
+      </c>
+      <c r="I126" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06T7/00(2017.01)I;_x000d_
+						G06T7/13(2017.01)I;G06N3/08(2006.01)I;G06K9/00(2006.01)I;G06K9/20(2006.01)I;G06Q40/02(2012.01)I;G07D11/00(2006.01)I;A47B81/00(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J126" t="str">
+        <v>一种人工智能学习和识别蓝牙钱箱纸币张数的系统，包括存取款凭证、办公台、柜箱、脚箱、外摄像系统、减震键盘、文字识别系统和人工智能金融服务器。人工智能金融服务器包括人工智能装置、金融服务器、避振调度装置。人工智能装置对从定焦微距摄像装置取得的，经分光三图重叠处理的每个柜位内的图像，用Canny边缘检测算子进行图像边缘检测，再用反向传递神经网络处理边缘检测后的图像，得到柜位内纸币的实物张数，再从金融服务器取得图像对应柜位内应有的纸币的帐务张数，将实物张数与帐务张数相核对，如果不符，通过金融服务器提出警告信息，由使用人即时人工复核，使用人将复核结果输入人工智能服务器。</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
+      <c r="A127" t="str">
+        <v>[发明公布]一种基于人工智能的超市商品防盗预警系统及方法</v>
+      </c>
+      <c r="B127" t="str">
+        <v>CN107862775A</v>
+      </c>
+      <c r="C127" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D127" t="str">
+        <v>2017112297347</v>
+      </c>
+      <c r="E127" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F127" t="str">
+        <v>深圳易伙科技有限责任公司</v>
+      </c>
+      <c r="G127" t="str" xml:space="preserve">
+        <v xml:space="preserve">胡博;马于涛;王尚广;邓水光_x000d_
+				</v>
+      </c>
+      <c r="H127" t="str">
+        <v>518000广东省深圳市南山区桃源街道学苑大道1099号科大雅苑4栋A座26A室</v>
+      </c>
+      <c r="I127" t="str" xml:space="preserve">
+        <v xml:space="preserve">G07C9/00(2006.01)I;_x000d_
+						G07G1/00(2006.01)I;G08B13/24(2006.01)I_x000d_
+						专利代理机构：北京酷爱智慧知识产权代理有限公司11514代理人：安娜</v>
+      </c>
+      <c r="J127" t="str">
+        <v>本发明属于商品防盗技术领域，具体涉及一种基于人工智能的超市商品防盗预警系统及方法，包括以下步骤：用户选购商品时获取购物车标识和商品图像；应用人工智能学习算法对商品图像进行图像识别，统计选购商品数量；用户结算商品时获取购物车标识和结算商品条形码信息，统计结算商品数量；将选购商品数量和结算商品数量进行核对，若核对不一致，将购物车标识设为异常购物车标识；用户通过门禁终端时若检测到异常购物车，则进行报警。本发明对放入同一购物车的选购商品数量和结算商品数量进行核对，对核对异常的购物车通过门禁终端时进行报警，达到防盗目的。</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
+      <c r="A128" t="str">
+        <v>[发明公布]一种可编程漏波天线</v>
+      </c>
+      <c r="B128" t="str">
+        <v>CN107863601A</v>
+      </c>
+      <c r="C128" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D128" t="str">
+        <v>2017112318767</v>
+      </c>
+      <c r="E128" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F128" t="str">
+        <v>浙江喆尊信息科技有限公司</v>
+      </c>
+      <c r="G128" t="str">
+        <v>罗勇</v>
+      </c>
+      <c r="H128" t="str">
+        <v>310006浙江省杭州市下城区华丰路2号20幢540室</v>
+      </c>
+      <c r="I128" t="str" xml:space="preserve">
+        <v xml:space="preserve">H01Q1/38(2006.01)I;H01Q1/50(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J128" t="str">
+        <v>本发明公开了一种可编程漏波天线，包括漏波波导，所述漏波波导由介质板、微机械开关和N个单元周期性阵列结构(N为正整数)组成，所述微机械开关和单元周期性阵列结构设置于介质板上，所述单元周期性阵列结构由对称设置的J型超材料子结构组成。介质板前端为射频输入，后端为匹配阻抗。本发明通过控制微机械开关(MEMS)来获得所需要辐射方向，满足于机械学习多状态的需求，进而实现智能选择辐射方向的功能。相比已有的可扫描天线具有较大体积，庞大的开关，复杂的馈电结构，本发明漏波天线具有可编程，适用于机械学习以及人工智能，控制方便，结构简单，体积小，实用性高，适用范围广的优点。</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" t="str">
+        <v>[发明公布]一种基于深度学习训练任务的区块链共识方法</v>
+      </c>
+      <c r="B129" t="str">
+        <v>CN107864198A</v>
+      </c>
+      <c r="C129" t="str">
+        <v>2018.03.30</v>
+      </c>
+      <c r="D129" t="str">
+        <v>2017110844486</v>
+      </c>
+      <c r="E129" t="str">
+        <v>2017.11.07</v>
+      </c>
+      <c r="F129" t="str">
+        <v>济南浪潮高新科技投资发展有限公司</v>
+      </c>
+      <c r="G129" t="str">
+        <v>孙善宝;于治楼;徐驰</v>
+      </c>
+      <c r="H129" t="str">
+        <v>250100山东省济南市高新区孙村镇科航路2877号研发楼一楼</v>
+      </c>
+      <c r="I129" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/08(2006.01)I;_x000d_
+						H04L12/18(2006.01)I;G06Q40/00(2012.01)I;G06Q40/04(2012.01)I;G06Q20/38(2012.01)I;G06N3/04(2006.01)I_x000d_
+						专利代理机构：济南信达专利事务所有限公司37100代理人：刘继枝</v>
+      </c>
+      <c r="J129" t="str">
+        <v>本发明公开了一种基于深度学习训练任务的区块链共识方法，包括，所有区块链参与节点共同维护一份账本记录，任何节点都可以发布交易，并通过P2P共识网络分发到各个节点，P2P共识网络中会存在深度学习任务节点，会将深度学习任务分发给所有的参与节点，记账节点结合深度学习任务通过节点间共识机制达成共识，完成交易确认。本发明结合人工智能和深度学习技术，将区块链共有链挖矿过程的工作量证明加入深度学习任务，有效的解决传统以哈希挑战方式获得记账权的能源浪费问题，并且一定程度上解决了深度学习模型训练问题；同时挖矿过程的工作量证明保留了部分利用哈希算法SHA256的挑战部分，这保证了挖矿过程的随机性，避免深度学习的巨头垄断记账权。</v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
+      <c r="A130" t="str">
+        <v>[发明公布]一种智能自动加水型花盆</v>
+      </c>
+      <c r="B130" t="str">
+        <v>CN107836241A</v>
+      </c>
+      <c r="C130" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D130" t="str">
+        <v>2017112220097</v>
+      </c>
+      <c r="E130" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F130" t="str">
+        <v>郑州永静智能科技有限公司</v>
+      </c>
+      <c r="G130" t="str">
+        <v>朱杰</v>
+      </c>
+      <c r="H130" t="str">
+        <v>450001河南省郑州市郑东新区七里河南路华丰灯饰界D区1402室</v>
+      </c>
+      <c r="I130" t="str" xml:space="preserve">
+        <v xml:space="preserve">A01G9/02(2018.01)I;_x000d_
+						A01G27/02(2006.01)I;A01G27/00(2006.01)I_x000d_
+						专利代理机构：河南大象律师事务所41129代理人：张继锋</v>
+      </c>
+      <c r="J130" t="str">
+        <v>本发明公开了一种智能自动加水型花盆，包括安装底座，所述安装底座的上表面分别固定连接有支撑脚和水箱，支撑脚的上表面固定连接有花盆托板，花盆托板的上表面滑动连接有垫块，垫块的上表面固定连接有盆栽花盆体，盆栽花盆体的内壁分别固定连接有喷水管和土壤湿度传感器。该智能自动加水型花盆，达到了对盆栽花盆体内的土壤湿度进行实时检测的效果，达到了对盆栽花盆体进行适时加水的效果，当土壤湿度传感器达到启动值时，通过变速模块和单路继电器模块控制微型水泵启动抽水，进行自动加水，从而达到了人工智能的效果，从而有效的解决了使用花盆养花时会经常忘记加水或外出时间长，从而导致花盆内的植物枯死的问题。</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
+      <c r="A131" t="str">
+        <v>[发明公布]一种新型人工智能园林喷药装置</v>
+      </c>
+      <c r="B131" t="str">
+        <v>CN107836440A</v>
+      </c>
+      <c r="C131" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D131" t="str">
+        <v>2017113546328</v>
+      </c>
+      <c r="E131" t="str">
+        <v>2017.12.15</v>
+      </c>
+      <c r="F131" t="str">
+        <v>大连理工常州研究院有限公司</v>
+      </c>
+      <c r="G131" t="str">
+        <v>李强</v>
+      </c>
+      <c r="H131" t="str">
+        <v>213100江苏省常州市武进区常武中路801号常州科教城大连理工大学常州研究院A座201室</v>
+      </c>
+      <c r="I131" t="str" xml:space="preserve">
+        <v xml:space="preserve">A01M7/00(2006.01)I_x000d_
+						专利代理机构：大连理工大学专利中心21200代理人：梅洪玉</v>
+      </c>
+      <c r="J131" t="str">
+        <v>本发明公开了园林绿化技术领域的一种新型人工智能园林喷药装置，包括牵引车头，所述牵引车头的右侧底部设置有货架板，所述牵引车头与货架板的底部均设置有车轮，所述药水箱的左侧设置有A类药水箱，所述药水箱的右侧设置有B类药水箱，所述A类药水箱与B类药水箱的内腔均设置有高压水泵，所述电机轴的顶部左右两侧均设置有横杆，所述挡板的右侧底部设置有药水槽，通过增加设置的电机，电机带动电机轴转动，从而使整个药水箱进行转动，电机轴的顶部通过横杆与固定栓与药水箱连接固定，从而使药水箱随着电机轴转动，撒药水时，设置了挡板将撒过来的药水挡住，并在挡板的底部设置了药水槽，来进行收集药水，进行药水的二次回收利用。</v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
+        <v>[发明公布]基于人工智能自学习的心电图自动分析方法和装置</v>
+      </c>
+      <c r="B132" t="str">
+        <v>CN107837082A</v>
+      </c>
+      <c r="C132" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D132" t="str">
+        <v>2017112032596</v>
+      </c>
+      <c r="E132" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F132" t="str">
+        <v>乐普（北京）医疗器械股份有限公司</v>
+      </c>
+      <c r="G132" t="str" xml:space="preserve">
+        <v xml:space="preserve">曹君;姜艳;刘涛;臧凯丰;胡传言;刘畅_x000d_
+				</v>
+      </c>
+      <c r="H132" t="str">
+        <v>102200北京市昌平区昌平科技园区超前路37号3号楼</v>
+      </c>
+      <c r="I132" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61B5/0402(2006.01)I_x000d_
+						专利代理机构：北京慧诚智道知识产权代理事务所(特殊普通合伙)11539代理人：李楠</v>
+      </c>
+      <c r="J132" t="str">
+        <v>本发明实施例涉及一种基于人工智能自学习的心电图自动分析方法和装置,所述方法包括数据的预处理，心搏特征检测，基于深度学习方法的干扰信号检测和心搏分类，信号质量评估与导联合并，心搏的审核，心电图事件和参数的分析计算，最终自动输出报告数据，实现了一个完整快速流程的自动化分析方法。本发明的心电图自动分析方法，还可以记录对自动分析结果的修改信息，并收集这些修改的数据反馈给深度学习模型继续训练，不断地改进和提升自动分析方法的准确率。</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
+      <c r="A133" t="str">
+        <v>[发明公布]一种人工智能反冲击阻挡反恐打击型安全桩</v>
+      </c>
+      <c r="B133" t="str">
+        <v>CN107841974A</v>
+      </c>
+      <c r="C133" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D133" t="str">
+        <v>201711371380X</v>
+      </c>
+      <c r="E133" t="str">
+        <v>2017.12.19</v>
+      </c>
+      <c r="F133" t="str">
+        <v>贺磊</v>
+      </c>
+      <c r="G133" t="str">
+        <v>贺磊</v>
+      </c>
+      <c r="H133" t="str">
+        <v>250000山东省济南市历下区燕子山小区东区8号楼1单元202号</v>
+      </c>
+      <c r="I133" t="str" xml:space="preserve">
+        <v xml:space="preserve">E01F15/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J133" t="str">
+        <v>本发明公开了一种人工智能反冲击阻挡反恐打击型安全桩，包括安全桩壳体，所述安全桩壳体顶部位置，设置电子智能系统，所述电子智能系统包括：摄录、LED警示灯光、补光闪光灯、警报音响、电子转换输入输出控制板，所述安全桩壳体的中部位置，设置尖端能量吸收装置或多层弹性缓冲板，所述安全桩壳体的下部位置，设置有市场公知安全桩升降系统装置，该产品设置在公路场所，遇车辆靠近预通过时摄录系统进行联网检索，检索属正常车辆系统输出指令降下安全桩准许车辆通过，如检索属不正常需要拦截车辆时，系统输出指令启动声光警告，安全桩竖立不动禁止车辆通过，如强行闯关尖端能量吸收装置或多层弹性缓冲板将安全有效的迫使车辆停止。</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
+      <c r="A134" t="str">
+        <v>[发明公布]一种网络舆情搜集与分析方法</v>
+      </c>
+      <c r="B134" t="str">
+        <v>CN107844504A</v>
+      </c>
+      <c r="C134" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D134" t="str">
+        <v>2016108362423</v>
+      </c>
+      <c r="E134" t="str">
+        <v>2016.09.21</v>
+      </c>
+      <c r="F134" t="str">
+        <v>北京航天长峰科技工业集团有限公司</v>
+      </c>
+      <c r="G134" t="str">
+        <v>宁勇</v>
+      </c>
+      <c r="H134" t="str">
+        <v>100854北京市海淀区永定路50号</v>
+      </c>
+      <c r="I134" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J134" t="str">
+        <v>一种网络舆情搜集与分析方法，采用基于云计算的分布式爬虫设计，将监控的网站分担到各个下载服务器上进行分布式下载，然后将数据汇总在数据服务器上；对网络数据进行去重、去噪处理，即对同一网站上基本内容相同的数据进行去重，同时进行广告、不相关信息的去噪；海量数据的高速检索，即对数据服务器上的海量数据内容，采用高速分布式检索算法，利用云计算资源对数据进行快速的查询和检索，并建立索引；建立海量数据管理系统，对海量数据依托时间轴进行读写管理；采用人工智能技术，对海量数据进行自动处理，然后经过分析，得出准确的监控内容，并提出预警信息。</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
+      <c r="A135" t="str">
+        <v>[发明公布]基于人工智能的大型医疗设备能耗预测方法和终端设备</v>
+      </c>
+      <c r="B135" t="str">
+        <v>CN107844859A</v>
+      </c>
+      <c r="C135" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D135" t="str">
+        <v>2017110474898</v>
+      </c>
+      <c r="E135" t="str">
+        <v>2017.10.31</v>
+      </c>
+      <c r="F135" t="str">
+        <v>深圳达实智能股份有限公司</v>
+      </c>
+      <c r="G135" t="str" xml:space="preserve">
+        <v xml:space="preserve">孙天;赵娜;张芬;匡付华;肖珊_x000d_
+				</v>
+      </c>
+      <c r="H135" t="str">
+        <v>518057广东省深圳市南山区高新技术产业园高科技南三道7号达实智能大厦</v>
+      </c>
+      <c r="I135" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/04(2012.01)I;_x000d_
+						G06N3/04(2006.01)I;G16H40/20(2018.01)I_x000d_
+						专利代理机构：深圳市瑞方达知识产权事务所(普通合伙)44314代理人：冯小梅;郭方伟</v>
+      </c>
+      <c r="J135" t="str">
+        <v>本发明涉及基于人工智能的大型医疗设备能耗预测方法和终端设备，包括以下步骤：S11：获取大型医疗设备的运行时间和医院的工作时间，并确定所述大型医疗设备开启的台数；S12：基于所述大型医疗设备的运行时间、医院的工作时间以及所述大型医疗设备开启的台数，计算所述大型医疗设备的第一负荷率；S13：根据所述第一负荷率，采用BP神经网络算法进行训练，以预测所述大型医疗设备的第二负荷率。本发明通过利用人工智能技术对大型医疗设备的能耗负荷率进行预测，根据预测值控制设备的开关机，减少设备待机时间，节约能源。</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
+      <c r="A136" t="str">
+        <v>[发明公布]一种电站发电效益优化方法</v>
+      </c>
+      <c r="B136" t="str">
+        <v>CN107844871A</v>
+      </c>
+      <c r="C136" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D136" t="str">
+        <v>2017113569599</v>
+      </c>
+      <c r="E136" t="str">
+        <v>2017.12.16</v>
+      </c>
+      <c r="F136" t="str">
+        <v>博维恩冷冻科技（苏州）有限公司</v>
+      </c>
+      <c r="G136" t="str">
+        <v>唐建明;唐荣;陆荣晓</v>
+      </c>
+      <c r="H136" t="str">
+        <v>215100江苏省苏州市吴中经济开发区横泾街道东太湖路2266号</v>
+      </c>
+      <c r="I136" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/04(2012.01)I;G06Q50/06(2012.01)I_x000d_
+						专利代理机构：南京利丰知识产权代理事务所(特殊普通合伙)32256代理人：任立</v>
+      </c>
+      <c r="J136" t="str">
+        <v>本发是一种电站发电效益优化方法，步骤为：分时段优化：将遗传算法的个体基因按时段分为三段，即汛前期、汛期和汛后期；对时段间耦合：第一分段，读入前一天坝前水位作为初始库水位，以防洪汛限水位变幅上限为时段末上库水位，以坝前平均水位为时段末下库水位；第二和三分段以防洪汛限水位变幅上限为初始上库水位，以下库平均库水位为初始下库水位，以实际库水位作为时段末库水位；对人工智能水位引导与时段划分相对应分为汛前消落模块、汛期拦蓄小洪水模块和汛后蓄水模块。本发明较好的解决了遗传算法表现出收敛速度慢、局部寻优能力不强等问题，在收敛速度和效果上明显优于基于传统遗传算法的评估模型，为梯级电站多目标的优化调度效益评估的实现提供了更好的方法。</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str">
+        <v>[发明公布]一种自动化工厂的人工智能系统方法</v>
+      </c>
+      <c r="B137" t="str">
+        <v>CN107844954A</v>
+      </c>
+      <c r="C137" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D137" t="str">
+        <v>2017110747931</v>
+      </c>
+      <c r="E137" t="str">
+        <v>2017.10.27</v>
+      </c>
+      <c r="F137" t="str">
+        <v>刘美昌</v>
+      </c>
+      <c r="G137" t="str">
+        <v>刘美昌</v>
+      </c>
+      <c r="H137" t="str">
+        <v>518000广东省深圳市南山区桃源村龙珠军苑A座19E</v>
+      </c>
+      <c r="I137" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/10(2012.01)I;G06Q10/06(2012.01)I_x000d_
+				</v>
+      </c>
+      <c r="J137" t="str">
+        <v>本发明公开了一种自动化工厂的人工智能系统方法，是一种集硬件、设备、系统软件、人工智能服务、市场商城服务以及互联网资讯服务等结合为一体的一种新型的生态链系统方法。它为企业在生产管理、设备管理与维护、品质管控以及智慧工厂方面提供了一种高效的解决方案，使得企业在自动化设备出现问题时避免浪费不必要的时间，在智能管控方面可以提供快速高效的支持，在数据化方面可以得到系统的报表和对应的分析报告，提升了企业的生产管理效率，降低了企业的运营成本。</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
+      <c r="A138" t="str">
+        <v>[发明公布]一种基于人工智能的学习管理系统</v>
+      </c>
+      <c r="B138" t="str">
+        <v>CN107845048A</v>
+      </c>
+      <c r="C138" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D138" t="str">
+        <v>2017111928506</v>
+      </c>
+      <c r="E138" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F138" t="str">
+        <v>合肥立腾信息科技有限责任公司</v>
+      </c>
+      <c r="G138" t="str">
+        <v>徐文进;李伟</v>
+      </c>
+      <c r="H138" t="str">
+        <v>230088安徽省合肥市高新区望江西路800号A-3研发楼</v>
+      </c>
+      <c r="I138" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q50/20(2012.01)I;_x000d_
+						G06F17/30(2006.01)I;G09B5/02(2006.01)I_x000d_
+						专利代理机构：北京和信华成知识产权代理事务所(普通合伙)11390代理人：胡剑辉</v>
+      </c>
+      <c r="J138" t="str">
+        <v>本发明公开一种基于人工智能的学习管理系统，包括知识读取单元、中央控制单元、网络连接单元、知识解析单元、课本数据库、微提取器和显示端；通过知识读取单元获取需要解析的文字和图片信息，根据用户录入的自身学习信息和理解程度，规整解析过程，并提取出课本中的知识点，使得用户在学习过程中更易理解和记忆。中央控制单元采用MTK6582处理器，用于对学习管理系统各个单元进行管理和控制；网络连接单元，采用WIFI通信模块，用于连接互联网，获取互联网上的学习资料，在知识读取单元和知识解析单元可以更加顺畅的进行。</v>
+      </c>
+    </row>
+    <row r="139" xml:space="preserve">
+      <c r="A139" t="str">
+        <v>[发明公布]一种人工智能太阳能广告灯箱</v>
+      </c>
+      <c r="B139" t="str">
+        <v>CN107845347A</v>
+      </c>
+      <c r="C139" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D139" t="str">
+        <v>2017111764756</v>
+      </c>
+      <c r="E139" t="str">
+        <v>2017.11.22</v>
+      </c>
+      <c r="F139" t="str">
+        <v>俞广火</v>
+      </c>
+      <c r="G139" t="str">
+        <v>俞广火</v>
+      </c>
+      <c r="H139" t="str">
+        <v>311800浙江省绍兴市诸暨市枫桥镇唐山村禾丰8号</v>
+      </c>
+      <c r="I139" t="str" xml:space="preserve">
+        <v xml:space="preserve">G09F13/04(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J139" t="str">
+        <v>本发明涉及灯箱技术领域，且公开了一种人工智能太阳能广告灯箱，包括底座和箱体，所述底座为中空结构，且底座内腔的底面固定连接有减震弹簧，所述减震弹簧的顶端固定连接有平衡板，所述平衡板的上表面固定连接有支撑杆，且支撑杆的顶端穿出底座的内腔并与位于底座上方箱体的底面固定连接。该人工智能太阳能广告灯箱，通过设置蓄电池、控制器、太阳能控制器、电机控制器、灯管控制器和时间设定器，对广告灯箱的灯管、供电和广告的旋转进行智能控制，使用更加方便，同时通过设置光敏传感器，用来感应光线的强弱，从而通过灯管控制器对灯管的亮度进行调节，从而使其更加适应周围的环境，同时节省电量，控制更加方便。</v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
+      <c r="A140" t="str">
+        <v>[发明公布]临床用药决策支持系统</v>
+      </c>
+      <c r="B140" t="str">
+        <v>CN107845411A</v>
+      </c>
+      <c r="C140" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D140" t="str">
+        <v>2017112568599</v>
+      </c>
+      <c r="E140" t="str">
+        <v>2017.12.04</v>
+      </c>
+      <c r="F140" t="str">
+        <v>青岛大学附属医院</v>
+      </c>
+      <c r="G140" t="str" xml:space="preserve">
+        <v xml:space="preserve">荆凡波;徐文;李祥鹏;孙加琳;全香花;曲海军_x000d_
+				</v>
+      </c>
+      <c r="H140" t="str">
+        <v>266000山东省青岛市市南区江苏路16号</v>
+      </c>
+      <c r="I140" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H20/10(2018.01)I;G16H50/20(2018.01)I_x000d_
+						专利代理机构：北京华仁联合知识产权代理有限公司11588代理人：彭淋</v>
+      </c>
+      <c r="J140" t="str">
+        <v>本发明提供了一种临床用药决策支持系统，包括患者基本信息预处理模块，用于需要决策系统调整用药方案的患者生物学基本信息的收集和预处理；常规给药方案模块，用于一般患者给药方案的制定和调整；公式计算模块，用于符合公式计算条件的药物、人群给药方案的制定和调整；模型预测模块，用于特殊患者的初始方案的设定，治疗效果或血药浓度的预测；人工智能模块，为高级功能，用于个别关注患者整体治疗方案的预测。以上各功能模块级别从低到高，复杂度也逐渐提高，对参数的要求也逐渐增多，对于大多数患者使用低级别模块就可以达到预期的治疗目的，而对于复杂的、需特殊关注的患者则需要高级模块的支持。</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
+      <c r="A141" t="str">
+        <v>[发明公布]一种智能音响的点播方法、电子设备和存储介质</v>
+      </c>
+      <c r="B141" t="str">
+        <v>CN107846712A</v>
+      </c>
+      <c r="C141" t="str">
+        <v>2018.03.27</v>
+      </c>
+      <c r="D141" t="str">
+        <v>2017105426540</v>
+      </c>
+      <c r="E141" t="str">
+        <v>2017.07.05</v>
+      </c>
+      <c r="F141" t="str">
+        <v>广州安望信息科技有限公司</v>
+      </c>
+      <c r="G141" t="str">
+        <v>荆继远;王太权;陈翰</v>
+      </c>
+      <c r="H141" t="str">
+        <v>510620广东省广州市天河区体育东路122号之二3304室</v>
+      </c>
+      <c r="I141" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04W36/00(2009.01)I;_x000d_
+						H04W36/30(2009.01)I;H04R1/20(2006.01)I_x000d_
+						专利代理机构：广州市越秀区哲力专利商标事务所(普通合伙)44288代理人：陈振楔;李悦</v>
+      </c>
+      <c r="J141" t="str">
+        <v>本发明公开了一种智能音响的点播方法，包括以下步骤：画像标签判断步骤：判断用户画像标签是否存在，如果存在，则执行歌曲识别步骤，如果不存在，则获取用户画像标签，所述用户画像标签包括静态信息和动态信息；歌曲识别步骤：识别用户点播歌曲；信号切换步骤：根据外部环境数据进行无线信号切换，所述外部环境数据包括使用环境数据和网络质量数据；音质切换步骤：根据用户画像标签对点播歌曲进行音质切换。本发明还公开了一种电子设备和计算机可读存储介质。本发明的智能音响的点播方法能够根据用户画像标签、网络质量数据和使用环境数据来自适应分级控制输出的音质表现，更好地满足人工智能交互的体验要求。</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str">
+        <v>[发明公布]人工智能蒸煮蛋机及其工作方法</v>
+      </c>
+      <c r="B142" t="str">
+        <v>CN107822504A</v>
+      </c>
+      <c r="C142" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D142" t="str">
+        <v>2017110784131</v>
+      </c>
+      <c r="E142" t="str">
+        <v>2017.11.06</v>
+      </c>
+      <c r="F142" t="str">
+        <v>四川长虹电器股份有限公司</v>
+      </c>
+      <c r="G142" t="str" xml:space="preserve">
+        <v xml:space="preserve">刘柏良;刘桥;叶根军;吴凡_x000d_
+				</v>
+      </c>
+      <c r="H142" t="str">
+        <v>621000四川省绵阳市高新区绵兴东路35号</v>
+      </c>
+      <c r="I142" t="str" xml:space="preserve">
+        <v xml:space="preserve">A47J29/06(2006.01)I;_x000d_
+						A47J29/02(2006.01)I;A47J29/00(2006.01)I;A47J27/04(2006.01)I_x000d_
+						专利代理机构：四川省成都市天策商标专利事务所51213代理人：袁辰亮;李洁</v>
+      </c>
+      <c r="J142" t="str">
+        <v>本发明公开了一种人工智能蒸煮蛋机及其工作方法，该人工智能蒸煮蛋机包括：本体、外盖、下壳、内锅以及发热盘，外盖与本体通过可拆卸方法连接；内锅以及发热盘设置在于本体内部；下壳设置在本体底部；发热盘位于内锅底部；还包括：控制系统和蛋架；控制系统位于下壳内部；蛋架包括蛋托和提手，控制系统包括：控制模块、网络通信模块、人机交互模块以及传感器。本发明为用户提供最好的煮蛋方式，最佳实用口感。自动判断用户加入的水量多、水量少、未加水来进行烹煮，默认水量多时烹煮温泉蛋，水量少时烹煮溏心蛋，未加水时及时结束并提醒。不仅节约了用水、用电，还减少了用户烹煮模式的操控。</v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
+      <c r="A143" t="str">
+        <v>[发明公布]一种人工智能颈椎关节突关节假体</v>
+      </c>
+      <c r="B143" t="str">
+        <v>CN107822748A</v>
+      </c>
+      <c r="C143" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D143" t="str">
+        <v>2017109934320</v>
+      </c>
+      <c r="E143" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F143" t="str">
+        <v>四川大学华西医院</v>
+      </c>
+      <c r="G143" t="str" xml:space="preserve">
+        <v xml:space="preserve">吴廷奎;王贝宇;刘浩;刘晨璐_x000d_
+				</v>
+      </c>
+      <c r="H143" t="str">
+        <v>610000四川省成都市武侯区国学巷37号</v>
+      </c>
+      <c r="I143" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61F2/44(2006.01)I_x000d_
+						专利代理机构：成都高远知识产权代理事务所(普通合伙)51222代理人：曾克;李晓英本国优先权：2017213025294 2017.09.30 CN</v>
+      </c>
+      <c r="J143" t="str">
+        <v>本发明涉及一种人工智能颈椎关节突关节假体，包括上金属板、内支撑体、外环、下金属板、至少一个压力传感器、无线通讯模块以及微型电池，压力传感器与无线通讯模块电联接，内支撑体和外环为高分子材料，压力传感器、无线通讯模块和微型电池均设于内支撑体内；外环的两端分别与上金属板和下金属板连接，内支撑体位于外环内侧，内支撑体的两端分别与上金属板和下金属板转动连接。本发明可达到颈椎关节突关节稳定且保留一定活动度，以配合整个椎体的稳定和运动，使退变或者功能异常的关节突关节得以重建，可实时记录术后假体在体内真实的压力变化，无损无害、实时监测假体的功能和状态，从而评估患者在置换术后近期及远期风险、指导康训练。</v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
+      <c r="A144" t="str">
+        <v>[发明公布]半透明自动驾驶人工智能系统及车辆</v>
+      </c>
+      <c r="B144" t="str">
+        <v>CN107826105A</v>
+      </c>
+      <c r="C144" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D144" t="str">
+        <v>2017110476037</v>
+      </c>
+      <c r="E144" t="str">
+        <v>2017.10.31</v>
+      </c>
+      <c r="F144" t="str">
+        <v>清华大学</v>
+      </c>
+      <c r="G144" t="str" xml:space="preserve">
+        <v xml:space="preserve">赵雪轩;朱子霖;施炯明;郑钢铁_x000d_
+				</v>
+      </c>
+      <c r="H144" t="str">
+        <v>100084北京市海淀区清华园</v>
+      </c>
+      <c r="I144" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60W30/09(2012.01)I;_x000d_
+						B60W40/06(2012.01)I;B60W50/14(2012.01)I_x000d_
+						专利代理机构：北京清亦华知识产权代理事务所(普通合伙)11201代理人：张润</v>
+      </c>
+      <c r="J144" t="str">
+        <v>本发明公开了一种半透明自动驾驶人工智能系统及车辆，其中系统包括：传感器模块，用于采集多种环境信息，其中，传感器模块包括直接传感器模块和间接传感器模块，多个直接传感器模块采集多种环境信息中当前车辆信息，间接传感器模块获取多种环境信息中当前道路信息及其他车辆信息；决策模块，用于根据多种环境信息通过添加人类专业知识的深度学习网络使得车辆的决策半透明化。该系统可以通过添加人类专业知识的深度学习网络使得车辆的决策半透明化，不仅降低自动驾驶所需的硬件条件，而且提高训练效率，进而有效保证车辆的安全性和可靠性，增强车辆的鲁棒性。</v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
+      <c r="A145" t="str">
+        <v>[发明公布]一种主控基于ARM的新型气泵型节能喷气织机的控制系统</v>
+      </c>
+      <c r="B145" t="str">
+        <v>CN107831698A</v>
+      </c>
+      <c r="C145" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D145" t="str">
+        <v>2017111385054</v>
+      </c>
+      <c r="E145" t="str">
+        <v>2017.11.16</v>
+      </c>
+      <c r="F145" t="str">
+        <v>南京百纳自动化系统有限公司</v>
+      </c>
+      <c r="G145" t="str">
+        <v>鲍文成;朱锦诚</v>
+      </c>
+      <c r="H145" t="str">
+        <v>210039江苏省南京市雨花经济开发区凤集大道15号南莓02座</v>
+      </c>
+      <c r="I145" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B19/042(2006.01)I;D03D47/30(2006.01)I_x000d_
+						专利代理机构：南京众联专利代理有限公司32206代理人：顾进</v>
+      </c>
+      <c r="J145" t="str">
+        <v>本发明公开了一种主控基于ARM的新型气泵型节能喷气织机的控制系统，所述控制系统包括主控板和探纬控制板，所述主控板上设有主控单元，所述主控单元通过RS232通讯口与显示器连接，所述显示器通过RS485通讯口与储纬器连接，所述主控单元包括CPU模块、数据存储模块、引纬控制单元模块、开关量输入模块、开关量输出模块、刹车模块以及储纬器电源控制模块，所述CPU模块采用STM32F107处理器，所述数据存储模块采用FM22L64铁电存储芯片，所述探纬控制板上设有探纬控制单元，所述探纬控制单元包括光电高速探头装置；具有系统结构简单，人工智能显示，自动控制，效率高，系统稳定的特点。</v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
+      <c r="A146" t="str">
+        <v>[发明公布]具有自适应功能的机器人装置</v>
+      </c>
+      <c r="B146" t="str">
+        <v>CN107831758A</v>
+      </c>
+      <c r="C146" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D146" t="str">
+        <v>2016108238568</v>
+      </c>
+      <c r="E146" t="str">
+        <v>2016.09.16</v>
+      </c>
+      <c r="F146" t="str">
+        <v>天津思博科科技发展有限公司</v>
+      </c>
+      <c r="G146" t="str">
+        <v>尚佐旭</v>
+      </c>
+      <c r="H146" t="str">
+        <v>300384天津市滨海新区华苑产业区华天道6号海泰大厦503室-17</v>
+      </c>
+      <c r="I146" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05D1/02(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J146" t="str">
+        <v>本装置公开了具有自适应功能的机器人装置，包括机器人路径记忆模块，机器人路径优化模块，路面高度探测模块，自适应优化模块；机器人路径记忆模块的信号输出端连接机器人路径优化模块的信号输入端，机器人路径优化模块的信号输出端连接路面高度探测模块的信号输入端，路面高度探测模块的信号输出端连接自适应优化模块的信号输入端；机器人路径记忆模块由处理器及阵列存储器构成，机器人路径优化模块由人工神经网路最优化模组构成，路面高度探测模块由三维激光扫描模组构成，自适应优化模块由人工智能模组构成。</v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
+      <c r="A147" t="str">
+        <v>[发明公布]基于人工智能的技术预见方法</v>
+      </c>
+      <c r="B147" t="str">
+        <v>CN107832123A</v>
+      </c>
+      <c r="C147" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D147" t="str">
+        <v>2017108289136</v>
+      </c>
+      <c r="E147" t="str">
+        <v>2017.09.14</v>
+      </c>
+      <c r="F147" t="str">
+        <v>华中科技大学;清华大学</v>
+      </c>
+      <c r="G147" t="str" xml:space="preserve">
+        <v xml:space="preserve">陈吉红;张凯;周源;杨建中;刘宇飞;陈峥;董放;林亨_x000d_
+				</v>
+      </c>
+      <c r="H147" t="str">
+        <v>430070湖北省武汉市洪山区珞喻路1037号</v>
+      </c>
+      <c r="I147" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F9/48(2006.01)I;_x000d_
+						G06F9/50(2006.01)I;G06N5/04(2006.01)I_x000d_
+						专利代理机构：北京市汉坤律师事务所11602代理人：段志超本国优先权：2017105696075 2017.07.13 CN</v>
+      </c>
+      <c r="J147" t="str">
+        <v>本发明提供了一种技术预见方法。该方法包括：接收任务发布者定义的技术预见任务，所述技术预见任务被划分为一个或多个技术预见子任务；给所述一个或多个技术预见子任务中的每个子任务赋予唯一的任务标识码，所述任务标识码指示任务类型；针对所述一个或多个技术预见子任务中的每个子任务，确定与所述子任务的任务标识码匹配的资源标识码所标识的资源，其中所述资源标识码指示资源适用的子任务类型；调用所确定的资源来求解所述子任务；以及根据所述一个或多个技术预见子任务中的每个子任务的求解结果，确定所述技术预见任务的技术预见结果。</v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
+      <c r="A148" t="str">
+        <v>[发明公布]一种面向非自由谈话式汉语口语的对话行为分析方法</v>
+      </c>
+      <c r="B148" t="str">
+        <v>CN107832293A</v>
+      </c>
+      <c r="C148" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D148" t="str">
+        <v>2017110870122</v>
+      </c>
+      <c r="E148" t="str">
+        <v>2017.11.07</v>
+      </c>
+      <c r="F148" t="str">
+        <v>北京灵伴即时智能科技有限公司</v>
+      </c>
+      <c r="G148" t="str" xml:space="preserve">
+        <v xml:space="preserve">季竞;庞在虎;朱风云;吴昊_x000d_
+				</v>
+      </c>
+      <c r="H148" t="str">
+        <v>100083北京市海淀区王庄路1号院2号楼七层E2号</v>
+      </c>
+      <c r="I148" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/27(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J148" t="str">
+        <v>本发明属于人工智能领域，具体涉及一种面向非自由谈话式汉语口语的对话行为分析方法。该方法包括对文本或语音识别的文本进行分词和词性标注；对分词及词性标注后的文本句子进行句法分析；对分词及词性标注后的文本句子进行信息结构分析；对文本句子进行话轮和话段的划分；对各个话轮进行对答类型分析；对话段进行对答结构分析；对话轮进行交际功能分析。该方法将信息意图和交际意图的分析结合起来，提升自然语言理解与生成的效果，提高智能对话系统的用户体验。</v>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
+      <c r="A149" t="str">
+        <v>[发明公布]基于人工智能的标题的改写处理方法、装置及可读介质</v>
+      </c>
+      <c r="B149" t="str">
+        <v>CN107832299A</v>
+      </c>
+      <c r="C149" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D149" t="str">
+        <v>2017111478152</v>
+      </c>
+      <c r="E149" t="str">
+        <v>2017.11.17</v>
+      </c>
+      <c r="F149" t="str">
+        <v>北京百度网讯科技有限公司</v>
+      </c>
+      <c r="G149" t="str" xml:space="preserve">
+        <v xml:space="preserve">陈笑;何径舟;周古月;付志宏;袁德璋_x000d_
+				</v>
+      </c>
+      <c r="H149" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦2层</v>
+      </c>
+      <c r="I149" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/27(2006.01)I_x000d_
+						专利代理机构：北京鸿德海业知识产权代理事务所(普通合伙)11412代理人：袁媛</v>
+      </c>
+      <c r="J149" t="str">
+        <v>本发明提供一种基于人工智能的标题的改写处理方法、装置及可读介质。其方法包括：获取文章中各句子的特征表达，该句子的特征表达包括句子的信息特征以及句子与文章的原始标题的相似性特征；根据各句子的特征表达和预先训练的支撑句提取模型，从文章的各句子中提取文章的支撑句；根据文章的支撑句和预先训练的标题生成模型，生成文章的支撑句对应的候选标题；根据文章的原始标题、候选标题和预先训练的点击率预估模型，确定是否利用候选标题对文章的原始标题进行改写处理。采用本发明的技术方案，可以保证在文章的标题只要被改写，就可以提高改写后的标题的质量，提高改写标题后的文章的召回率，从而满足真正的标题改写需求。</v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
+      <c r="A150" t="str">
+        <v>[发明公布]基于对话交互的信息推荐方法、装置、服务器和存储介质</v>
+      </c>
+      <c r="B150" t="str">
+        <v>CN107832433A</v>
+      </c>
+      <c r="C150" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D150" t="str">
+        <v>2017111298427</v>
+      </c>
+      <c r="E150" t="str">
+        <v>2017.11.15</v>
+      </c>
+      <c r="F150" t="str">
+        <v>北京百度网讯科技有限公司</v>
+      </c>
+      <c r="G150" t="str" xml:space="preserve">
+        <v xml:space="preserve">戴岱;田浩;李大任;高原;黄波;乔超_x000d_
+				</v>
+      </c>
+      <c r="H150" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦2层</v>
+      </c>
+      <c r="I150" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;_x000d_
+						G06F17/27(2006.01)I;H04L29/08(2006.01)I_x000d_
+						专利代理机构：北京品源专利代理有限公司11332代理人：孟金喆</v>
+      </c>
+      <c r="J150" t="str">
+        <v>本发明实施例公开了基于对话交互的信息推荐方法、装置、服务器和存储介质。所述方法包括：依据历史阅读界面的用户行为特征和/或用户模型，生成阅读主题问询信息，所述用户模型包括如下至少一种：用户兴趣、用户关注话题和用户关注作者；依据生成的阅读主题问询信息与用户进行对话交互；依据对话交互内容确定所述用户的阅读主题；将与所述阅读主题匹配的资讯推送给所述用户。本发明实施例通过自然语言理解和基于对话交互等人工智能技术，将不同的话题信息流连接起来，帮助用户探索潜在兴趣，提高用户时长和粘性，同时更准确的构建和控制用户模型，提高用户体验。</v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
+      <c r="A151" t="str">
+        <v>[发明公布]基于人工智能的信息处理方法和装置</v>
+      </c>
+      <c r="B151" t="str">
+        <v>CN107832720A</v>
+      </c>
+      <c r="C151" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D151" t="str">
+        <v>2017111382408</v>
+      </c>
+      <c r="E151" t="str">
+        <v>2017.11.16</v>
+      </c>
+      <c r="F151" t="str">
+        <v>北京百度网讯科技有限公司</v>
+      </c>
+      <c r="G151" t="str" xml:space="preserve">
+        <v xml:space="preserve">纪友升;王文敏;徐威;周光富;叶路;凌光;周超_x000d_
+				</v>
+      </c>
+      <c r="H151" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦2层</v>
+      </c>
+      <c r="I151" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;G06F17/30(2006.01)I_x000d_
+						专利代理机构：北京英赛嘉华知识产权代理有限责任公司11204代理人：王达佐;马晓亚</v>
+      </c>
+      <c r="J151" t="str">
+        <v>本申请实施例公开了基于人工智能的信息处理方法和装置。该方法用于服务器，该方法的一具体实施方式包括：服务器与终端设备通信连接，包括：接收终端设备发送的用户的输入信息，并接收终端设备发送的终端设备采集的用户的脸部图像；对脸部图像进行人脸识别，确定用户的用户信息，其中，用户信息包括属性信息；基于用户信息，确定输入信息的回复信息；将回复信息发送给终端设备。该方法使机器设备在信息处理中为用户提供了个性化的内容。</v>
+      </c>
+    </row>
+    <row r="152" xml:space="preserve">
+      <c r="A152" t="str">
+        <v>[发明公布]基于人工智能的心电图干扰识别方法</v>
+      </c>
+      <c r="B152" t="str">
+        <v>CN107832737A</v>
+      </c>
+      <c r="C152" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D152" t="str">
+        <v>2017112030694</v>
+      </c>
+      <c r="E152" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F152" t="str">
+        <v>乐普（北京）医疗器械股份有限公司</v>
+      </c>
+      <c r="G152" t="str" xml:space="preserve">
+        <v xml:space="preserve">田亮;张雪;张玥;赵子方;苏志强;曹君_x000d_
+				</v>
+      </c>
+      <c r="H152" t="str">
+        <v>102200北京市昌平区昌平科技园区超前路37号3号楼</v>
+      </c>
+      <c r="I152" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京慧诚智道知识产权代理事务所(特殊普通合伙)11539代理人：李楠</v>
+      </c>
+      <c r="J152" t="str">
+        <v>本发明实施例涉及一种基于人工智能的心电图干扰识别方法,包括：以第一数据量对心搏数据进行切割采样，并将切割采样得到的待识别心搏数据输入到干扰识别二分类模型进行干扰识别；对心搏数据的序列中，心搏间期大于等于预设间期判定阈值的心搏数据片段进行信号异常判断，确定是否为异常信号；如果不是异常信号，则以预设时间宽度，根据设定时值确定心搏数据片段中滑动取样的起始数据点和终止数据点，并由起始数据点开始对数据片段进行滑动取样，至终止数据点为止，得到多个取样数据段；将每个取样数据段作为待识别心搏数据进行干扰识别。</v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
+      <c r="A153" t="str">
+        <v>[发明公布]基于人工智能木板分选低置信度样本处理方法及系统</v>
+      </c>
+      <c r="B153" t="str">
+        <v>CN107832780A</v>
+      </c>
+      <c r="C153" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D153" t="str">
+        <v>2017109669096</v>
+      </c>
+      <c r="E153" t="str">
+        <v>2017.10.17</v>
+      </c>
+      <c r="F153" t="str">
+        <v>北京木业邦科技有限公司</v>
+      </c>
+      <c r="G153" t="str">
+        <v>丁磊</v>
+      </c>
+      <c r="H153" t="str">
+        <v>100040北京市石景山区实兴大街30号院5号楼3层14号</v>
+      </c>
+      <c r="I153" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京辰权知识产权代理有限公司11619代理人：郝雅娟</v>
+      </c>
+      <c r="J153" t="str">
+        <v>本发明提供了一种基于人工智能木板分选低置信度样本处理方法及系统，首先获取低置信度样本的至少一种格式的图像数据；将所述低置信度样本的至少一种格式的图像呈现在显示装置中；获取所述低置信度样本标注的新分类；将标注后的所述低置信度样本被输入训练方法，重新训练得到新的分类模型。本发明的方法及系统，能够不断的发现低置信度的样本并加以利用，可以使得机器学习方法逐渐的提高其分类精度。</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
+      <c r="A154" t="str">
+        <v>[发明公布]一种与天网系统对接记录卡交易违法行为的方法</v>
+      </c>
+      <c r="B154" t="str">
+        <v>CN107833033A</v>
+      </c>
+      <c r="C154" t="str">
+        <v>2018.03.23</v>
+      </c>
+      <c r="D154" t="str">
+        <v>2017110593543</v>
+      </c>
+      <c r="E154" t="str">
+        <v>2017.11.01</v>
+      </c>
+      <c r="F154" t="str">
+        <v>深圳位置网科技有限公司</v>
+      </c>
+      <c r="G154" t="str">
+        <v>桂文强</v>
+      </c>
+      <c r="H154" t="str">
+        <v>518000广东省深圳市南山区南海大道1031号蛇口网谷万海大厦C座502</v>
+      </c>
+      <c r="I154" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q20/10(2012.01)I;_x000d_
+						G06Q20/38(2012.01)I;G06Q20/40(2012.01)I_x000d_
+						专利代理机构：北京慕达星云知识产权代理事务所(特殊普通合伙)11465代理人：崔自京</v>
+      </c>
+      <c r="J154" t="str">
+        <v>本发明公开了一种与天网系统对接记录卡交易违法行为的方法，所述方法至少包括如下步骤：获取支付终端的地理位置信息，并与银行卡绑定的手机卡所在具体地理位置进行位置匹配；判断二者是否属于同一区域；判断用户是否连续多次输错密码；自动抓拍刷卡嫌疑人照片与公安机关网上追逃和重点关注人群进行人工智能识别；识别结果不一致，则提示刷卡操作失败；识别结果一致，则提示刷卡操作失败并自动向公安机关报警；公安部天网系统调动天网摄像头拍摄逃跑照片，并与嫌疑人照片比对；比对一致，定位系统定位，识别地理位置并描绘逃跑路径。本发明不仅能够改善警民关系，有效地保证持卡人的资金安全，而且有助于维护社会和谐稳定。</v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
+      <c r="A155" t="str">
+        <v>[发明公布]一种智能安全防护设备</v>
+      </c>
+      <c r="B155" t="str">
+        <v>CN107811345A</v>
+      </c>
+      <c r="C155" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D155" t="str">
+        <v>2017111244728</v>
+      </c>
+      <c r="E155" t="str">
+        <v>2017.11.14</v>
+      </c>
+      <c r="F155" t="str">
+        <v>四川联众防务科技有限责任公司</v>
+      </c>
+      <c r="G155" t="str">
+        <v>廖勇</v>
+      </c>
+      <c r="H155" t="str">
+        <v>618300四川省德阳市广汉市台中路74号</v>
+      </c>
+      <c r="I155" t="str" xml:space="preserve">
+        <v xml:space="preserve">A42B3/04(2006.01)I_x000d_
+						专利代理机构：成都华风专利事务所(普通合伙)51223代理人：梁菊兰</v>
+      </c>
+      <c r="J155" t="str">
+        <v>本发明涉及人工智能技术领域，具体涉及一种智能安全防护设备，包括头盔，头盔正前方设置有可以调节倾角的LED矿灯，LED矿灯旁安装有摄像头；沿头盔周向设置有检测部件，头盔顶上设置有控制部件，检测部件包括瓦斯感应器、CO感应器、CO&lt;sub&gt;2</v>
+      </c>
+    </row>
+    <row r="156" xml:space="preserve">
+      <c r="A156" t="str">
+        <v>[发明公布]一种新型喷气毛巾织机控制系统</v>
+      </c>
+      <c r="B156" t="str">
+        <v>CN107815779A</v>
+      </c>
+      <c r="C156" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D156" t="str">
+        <v>2017111407227</v>
+      </c>
+      <c r="E156" t="str">
+        <v>2017.11.16</v>
+      </c>
+      <c r="F156" t="str">
+        <v>南京百纳自动化系统有限公司</v>
+      </c>
+      <c r="G156" t="str">
+        <v>陈信立;宋燕;朱锦诚</v>
+      </c>
+      <c r="H156" t="str">
+        <v>210039江苏省南京市雨花经济开发区凤集大道15号南莓02座</v>
+      </c>
+      <c r="I156" t="str" xml:space="preserve">
+        <v xml:space="preserve">D03D47/30(2006.01)I;D03D51/18(2006.01)I_x000d_
+						专利代理机构：南京众联专利代理有限公司32206代理人：顾进</v>
+      </c>
+      <c r="J156" t="str">
+        <v>本发明公开了一种新型喷气毛巾织机控制系统，包括主控单元，所述主控单元通过RS232通讯接口与显示器连接，通过CAN BUS通讯接口与起毛伺服控制单元连接，通过485通讯接口与变频器连接，所述主控单元包括CPU模块、数据存储模块、电磁阀控制输出模块、张力采集模拟量信号模块、模拟量输入接口、开关量输入接口以及开关量输出接口，所述CPU模块采用STM32F215型，所述数据存储模块采用FM22L16铁电存储芯片，所述张力采集模拟量信号模块采用HCN201光电隔离芯片，所述电磁阀控制输出模块包括挡纱针、主喷电磁阀、剪切喷电磁阀、助力喷电磁阀、辅喷电磁阀、牵伸喷电磁阀、折入边电磁阀和频闪仪；本控制系统具有结构简单，人工智能显示，自动控制，效率高，系统稳定的特点。</v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
+      <c r="A157" t="str">
+        <v>[发明公布]一种基于人工智能的室内环境控制系统</v>
+      </c>
+      <c r="B157" t="str">
+        <v>CN107816777A</v>
+      </c>
+      <c r="C157" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D157" t="str">
+        <v>2017110908401</v>
+      </c>
+      <c r="E157" t="str">
+        <v>2017.11.08</v>
+      </c>
+      <c r="F157" t="str">
+        <v>嘉兴禾择企业管理服务有限公司</v>
+      </c>
+      <c r="G157" t="str">
+        <v>王怡</v>
+      </c>
+      <c r="H157" t="str">
+        <v>314000浙江省嘉兴市中环南路南中核大楼1幢302室-10</v>
+      </c>
+      <c r="I157" t="str" xml:space="preserve">
+        <v xml:space="preserve">F24F11/526(2018.01)I;_x000d_
+						F24F11/63(2018.01)I;F24F11/70(2018.01)I_x000d_
+						</v>
+      </c>
+      <c r="J157" t="str">
+        <v>本发明涉及人工智能技术领域，且公开了一种基于人工智能的室内环境控制系统，包括中央处理器，所述中央处理器的输入端电连接有语音处理器的输出端，语音处理器的输入端信号连接有A/D转换器的输出端，A/D转换器的输入端信号连接有语音识别模块的输出端，语音识别模块的输入端信号连接有语音采集模块。该发明，通过语音采集模块、语音识别模块、A/D转换器、语音处理器和中央处理器的设置，让语音采集模块在采用到室内主人的语音命令后能通过A/D转换器而传递给语音处理器，这样就使得语音处理器能将得到的命令信息传递给中央处理器而让中央处理器进行相对应的处理，从而达到能人工智能的将室内各种环境因素进行控制和调节的效果。</v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
+      <c r="A158" t="str">
+        <v>[发明公布]一种用于抓斗式挖泥船的浚测一体化水深测量方法</v>
+      </c>
+      <c r="B158" t="str">
+        <v>CN107816978A</v>
+      </c>
+      <c r="C158" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D158" t="str">
+        <v>2017109879427</v>
+      </c>
+      <c r="E158" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F158" t="str">
+        <v>武汉德尔达科技有限公司</v>
+      </c>
+      <c r="G158" t="str" xml:space="preserve">
+        <v xml:space="preserve">李文强;王勇;阮景;彭浩钊;唐磊_x000d_
+				</v>
+      </c>
+      <c r="H158" t="str">
+        <v>430062湖北省武汉市武昌区徐东二路2号SBI创意园1栋503</v>
+      </c>
+      <c r="I158" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01C13/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J158" t="str">
+        <v>本发明提供了一种用于抓斗式挖泥船的浚测一体化水深测量方法，用于解决传统测量方法带来的海况限制、测量数据时效性差、成本高的问题。本发明充分利用抓斗式挖泥船的施工特性，提供一种疏浚施工和水深测量交替进行的浚测一体化方法，在船舶抓斗施工与卸泥间隙中完成相应施工区域水下地形的扫测，从而实现施工区域的水深测量。本发明可在抓斗船施工工况条件下进行测量工作，测量精度及覆盖范围满足施工测量要求，实现施工过程同步测量。本发明对施工区域测量网格化，网格数据多维存储，采用人工智能算法对多维数据进行处理，获得施工区域的浚前、浚中、浚后测量数据。因此，本发明提升了疏浚的施工效率和质量，节省了测量工作的运营成本。铲斗式挖泥船船体结构及施工方法与抓斗式挖泥船类似，故本发明也可用于铲斗式挖泥船。</v>
+      </c>
+    </row>
+    <row r="159" xml:space="preserve">
+      <c r="A159" t="str">
+        <v>[发明公布]基于人工智能技术的自动装配装置</v>
+      </c>
+      <c r="B159" t="str">
+        <v>CN107817766A</v>
+      </c>
+      <c r="C159" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D159" t="str">
+        <v>2016108235466</v>
+      </c>
+      <c r="E159" t="str">
+        <v>2016.09.14</v>
+      </c>
+      <c r="F159" t="str">
+        <v>天津思博科科技发展有限公司</v>
+      </c>
+      <c r="G159" t="str">
+        <v>牛晓芳</v>
+      </c>
+      <c r="H159" t="str">
+        <v>300384天津市滨海新区华苑产业区华天道6号海泰大厦503室-17</v>
+      </c>
+      <c r="I159" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B19/418(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J159" t="str">
+        <v>本装置公开了基于人工智能技术的自动装配装置，包括机器视觉模块，精密定位模块，精密抓取模块，精密锁定模块；机器视觉模块的信号输出端连接精密定位模块,的信号输入端，精密定位模块,的信号输出端连接精密抓取模块的信号输入端，精密抓取模块的信号输出端连接精密锁定模块的信号输入端；机器视觉模块由摄像机模组构成，精密定位模块,由激光定位模组构成，精密抓取模块由智能机器手构成，精密锁定模块由智能旋转紧固组件构成。本装置可以用人工智能技术来完成自动装配。</v>
+      </c>
+    </row>
+    <row r="160" xml:space="preserve">
+      <c r="A160" t="str">
+        <v>[发明公布]一种基于大数据环境下O2O电商用户数据挖掘方法</v>
+      </c>
+      <c r="B160" t="str">
+        <v>CN107818471A</v>
+      </c>
+      <c r="C160" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D160" t="str">
+        <v>201610817000X</v>
+      </c>
+      <c r="E160" t="str">
+        <v>2016.09.12</v>
+      </c>
+      <c r="F160" t="str">
+        <v>湖南移商动力网络技术有限公司</v>
+      </c>
+      <c r="G160" t="str">
+        <v>余漫游</v>
+      </c>
+      <c r="H160" t="str">
+        <v>410011湖南省长沙市芙蓉区朝阳街街道韶山北路139号文化大厦19楼1914房</v>
+      </c>
+      <c r="I160" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/02(2012.01)I_x000d_
+				</v>
+      </c>
+      <c r="J160" t="str">
+        <v>一种基于大数据环境下O2O电商用户数据挖掘方法，其内容包括，数据通常以文件或数据库中元数据的形式组织，然后对其进行抽样选择，并利用分类算法和预测算法来预测数据对象的离散类别和连续取值．不同于传统数据分析，大数据挖掘是一个知识自动发现的过程，在无明确的目标下从不同数据源获取数据，对数据进行预处理，并大量使用机器学习与人工智能算法对庞大的观测数据进行挖掘分析，并分析各用户群体的特点，进而分析用户个人特点，获得有价值的知识，从而获取商业价值。</v>
+      </c>
+    </row>
+    <row r="161" xml:space="preserve">
+      <c r="A161" t="str">
+        <v>[发明公布]图像轮廓数据结构的转换模版、指纹识别或计算机视觉或人工智能或产品质量检测系统</v>
+      </c>
+      <c r="B161" t="str">
+        <v>CN107818539A</v>
+      </c>
+      <c r="C161" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D161" t="str">
+        <v>2017109953092</v>
+      </c>
+      <c r="E161" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F161" t="str">
+        <v>湖南轻创科技有限公司</v>
+      </c>
+      <c r="G161" t="str">
+        <v>刘伟</v>
+      </c>
+      <c r="H161" t="str">
+        <v>410200湖南省长沙市望城区丁字湾街道湾田国际商贸物流园陶瓷区B1区4楼4100号</v>
+      </c>
+      <c r="I161" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06T1/60(2006.01)I;G06K9/46(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J161" t="str">
+        <v>图像轮廓数据结构的转换模版，为将点阵图中有序轮廓点集转换成图像轮廓数据结构而构造；该图像轮廓数据结构的数据集至少有一个数据包含偏转值，该图像轮廓数据结构的数据的成员所包含的偏转值可能是正值、零、负值三种情况中的一种，该图像轮廓数据结构的数据的成员所包含的偏转值的表述是本点的上个点和本点的上上个点的第一连线与本点和本点的上个点的第二连线这两条连线之间的偏转度;构造查询表数组int M[a1][a2][b1][b2]用于预先储存需要被计算的本点的偏转值，a1、a2、b1、b2的数值均为3，假设有轮廓有序点集{P0,P1,P2}，则P2的偏转值等于 M[P0.X‑P1.X+1][ P0.Y‑P1.Y+1][ P2.X‑P1.X+1][ P2.Y‑P1.Y+1] D所储存的值。本发明能够极大的提高运算效率、降低成本、更加适合并行运算、提高识别速度，提供了新思路。</v>
+      </c>
+    </row>
+    <row r="162" xml:space="preserve">
+      <c r="A162" t="str">
+        <v>[发明公布]基于人工智能学习的医生电子病历自动生成系统</v>
+      </c>
+      <c r="B162" t="str">
+        <v>CN107818816A</v>
+      </c>
+      <c r="C162" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D162" t="str">
+        <v>2017113198832</v>
+      </c>
+      <c r="E162" t="str">
+        <v>2017.12.12</v>
+      </c>
+      <c r="F162" t="str">
+        <v>刘忠于</v>
+      </c>
+      <c r="G162" t="str">
+        <v>刘忠于</v>
+      </c>
+      <c r="H162" t="str">
+        <v>100036北京市海淀区复兴路28号解放军总医院</v>
+      </c>
+      <c r="I162" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H10/60(2018.01)I_x000d_
+						专利代理机构：北京爱普纳杰专利代理事务所(特殊普通合伙)11419代理人：王玉松</v>
+      </c>
+      <c r="J162" t="str">
+        <v>本发明属于电子病历技术领域，特别涉及一种基于人工智能学习的医生电子病历自动生成系统。本发明提供一种新的基于人工智能学习的医生电子病历自动生成系统，可以实现专病或专科中文医学输入词库，可以大大减少医生花在电子病历撰写上的时间，并且可以自动纠错且至少可以减少90％以上的错误，可以提高新入行医生或者医疗水平相对较低地区的整体医疗水平；并且随着电子病历预处理单元中新电子病历的增加，大数据拟合和深度学习出来的病历和处方更精准、更完善、需要医生手工修改的地方会更少；运用范围广，几乎每个医生都可以用得上。</v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
+      <c r="A163" t="str">
+        <v>[发明公布]一种人工智能问诊方法</v>
+      </c>
+      <c r="B163" t="str">
+        <v>CN107818823A</v>
+      </c>
+      <c r="C163" t="str">
+        <v>2018.03.20</v>
+      </c>
+      <c r="D163" t="str">
+        <v>2017112699082</v>
+      </c>
+      <c r="E163" t="str">
+        <v>2017.12.05</v>
+      </c>
+      <c r="F163" t="str">
+        <v>成都法线网络科技有限公司</v>
+      </c>
+      <c r="G163" t="str">
+        <v>李红;吴刚;王双</v>
+      </c>
+      <c r="H163" t="str">
+        <v>610000四川省成都市高新区天府大道中段1388号1栋4层453号</v>
+      </c>
+      <c r="I163" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H50/20(2018.01)I_x000d_
+						专利代理机构：成都华风专利事务所(普通合伙)51223代理人：梁菊兰</v>
+      </c>
+      <c r="J163" t="str">
+        <v>本发明涉及人工智能技术领域，具体涉及一种人工智能问诊方法，包括以下步骤：S1、自动抽取医患历史对话中患者的病症信息、治疗用药信息和诊断建议信息，根据提取到的各种信息进行语义表征，转化为数值向量，对数值向量进行训练学习，获得包含医患历史交互中存在的病症信息与医生诊断建议之间关系的诊断模型；S2、接收客户端获取到的问诊内容；S3、对问诊内容进行语义识别，提取关键词；S4、诊断模型根据提取的关键词匹配对应答案，并将所述答案发送至客户端。本方法可以减少患者就诊的时间和金钱花费，同时也减少医生的大量重复简单的问诊时间，提高了系统的通用性及诊断的准确性。</v>
+      </c>
+    </row>
+    <row r="164" xml:space="preserve">
+      <c r="A164" t="str">
+        <v>[发明公布]一种共享自行车智能存储装置及共享自行车智能管理方法</v>
+      </c>
+      <c r="B164" t="str">
+        <v>CN107806260A</v>
+      </c>
+      <c r="C164" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="D164" t="str">
+        <v>201710981310X</v>
+      </c>
+      <c r="E164" t="str">
+        <v>2017.10.20</v>
+      </c>
+      <c r="F164" t="str">
+        <v>陈福海</v>
+      </c>
+      <c r="G164" t="str">
+        <v>陈福海</v>
+      </c>
+      <c r="H164" t="str">
+        <v>100068北京市丰台区西罗园南里小区32楼1门306室</v>
+      </c>
+      <c r="I164" t="str" xml:space="preserve">
+        <v xml:space="preserve">E04H6/00(2006.01)I;G07C9/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J164" t="str">
+        <v>本发明公开了一种共享自行车智能存储装置及共享自行车智能管理方法，涉及一组由光伏发电模块供电的两层钢构库存装置，由共享自行车(以下简称单车)存放提拿入库单元，单车输递存储单元，单车投釋沉降取用单元，程序计算中心及其附属传感器的人工智能程控单元和电源单元组成，程序计算控制中心纳入市域共享自行车商业运营管理体系，实现对运营流转的单车无人值守绿色智能存放与分发管理，并因地制宜地与公交车站，地铁站亭等公共设施有机结合，最大限度地减少公共占地，有效地解决了共享经济便利与共享经济社会管理无序的矛盾。</v>
+      </c>
+    </row>
+    <row r="165" xml:space="preserve">
+      <c r="A165" t="str">
+        <v>[发明公布]一种基于人工智能的空调系统</v>
+      </c>
+      <c r="B165" t="str">
+        <v>CN107806662A</v>
+      </c>
+      <c r="C165" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="D165" t="str">
+        <v>2017110161111</v>
+      </c>
+      <c r="E165" t="str">
+        <v>2017.10.27</v>
+      </c>
+      <c r="F165" t="str">
+        <v>芜湖昌泰网络科技有限公司</v>
+      </c>
+      <c r="G165" t="str">
+        <v>刘瑞;万涛;张小亚</v>
+      </c>
+      <c r="H165" t="str">
+        <v>241200安徽省芜湖市繁昌县建筑公司4栋103室</v>
+      </c>
+      <c r="I165" t="str" xml:space="preserve">
+        <v xml:space="preserve">F24F1/00(2011.01)I;_x000d_
+						F24F13/20(2006.01)I;F24F13/08(2006.01)I;F24F11/52(2018.01)I;F24F11/89(2018.01)I;F24F11/58(2018.01)I;F24F11/63(2018.01)I;F24F120/12(2018.01)N;F24F120/14(2018.01)N;F24F110/10(2018.01)N;F24F110/20(2018.01)N_x000d_
+						</v>
+      </c>
+      <c r="J165" t="str">
+        <v>本发明公开了一种基于人工智能的空调系统，包括空调机箱，空调机箱的顶部设置有顶盖，顶盖与空调机箱之间通过卡扣固定连接，空调机箱的中部位置设有盖板，盖板与空调机箱之间通过转轴合页连接，盖板的内侧设有导风槽，导风槽与空调机箱之间通过滑轮滑动连接，盖板的左侧设置有显示屏幕，显示屏幕的顶部设置有信号接收装置，盖板的右侧设有控制区，控制区与空调机箱一体化成型，控制区内部安装有若干个控制按钮，控制按钮与控制区电性连接，空调机箱的底部设置有底座，底座采用铝合金材料制作而成，该种基于人工智能的空调系统，使用起来较为方便，具备自动学习功能，智能化程度较高，能够更好的为用户提供服务。</v>
+      </c>
+    </row>
+    <row r="166" xml:space="preserve">
+      <c r="A166" t="str">
+        <v>[发明公布]一种基于人工智能的电流检测装置及其检测方法</v>
+      </c>
+      <c r="B166" t="str">
+        <v>CN107807270A</v>
+      </c>
+      <c r="C166" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="D166" t="str">
+        <v>2017112299183</v>
+      </c>
+      <c r="E166" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F166" t="str">
+        <v>曲阜师范大学</v>
+      </c>
+      <c r="G166" t="str" xml:space="preserve">
+        <v xml:space="preserve">蔡彬;孙宗耀;褚晓广;刘振;邵长彬;崔国栋_x000d_
+				</v>
+      </c>
+      <c r="H166" t="str">
+        <v>273165山东省济宁市曲阜市静轩西路57号</v>
+      </c>
+      <c r="I166" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01R19/00(2006.01)I;_x000d_
+						G01J5/00(2006.01)I;G01J5/20(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J166" t="str">
+        <v>本发明涉及一种基于人工智能的电流检测装置及其检测方法，属电气工程领域。该电流检测装置包括红外图像采集模块、主控单元、样本图像存储模块；主控单元包括第一DSP、第二DSP；红外图像采集模块采集图像并送至第一DSP进行图像处理，处理后送至第二DSP与样本图像存储模块中的样本图像进行图像比对、计算：首先通过实验获取冷却装置启动和未启动时导体承载不同电流时的红外温度场图像，并进行图像处理作为样本图像，建立样本图像数据库；其次采集被测电流回路导体的红外温度场图像并处理得到采样图像，与样本图像比对及计算，得出电流值。本发明检测装置体积小、重量轻；计算量小、快速准确，尤其适合于高电压、大电流场合的电流检测。</v>
+      </c>
+    </row>
+    <row r="167" xml:space="preserve">
+      <c r="A167" t="str">
+        <v>[发明公布]一种人工智能电热水杯及其工作方法</v>
+      </c>
+      <c r="B167" t="str">
+        <v>CN107807570A</v>
+      </c>
+      <c r="C167" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="D167" t="str">
+        <v>2017110498394</v>
+      </c>
+      <c r="E167" t="str">
+        <v>2017.10.31</v>
+      </c>
+      <c r="F167" t="str">
+        <v>四川长虹电器股份有限公司</v>
+      </c>
+      <c r="G167" t="str" xml:space="preserve">
+        <v xml:space="preserve">刘柏良;叶根军;刘桥;吴凡_x000d_
+				</v>
+      </c>
+      <c r="H167" t="str">
+        <v>621000四川省绵阳市高新区绵兴东路35号</v>
+      </c>
+      <c r="I167" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B19/042(2006.01)I;_x000d_
+						G01D21/02(2006.01)I;G08C17/02(2006.01)I_x000d_
+						专利代理机构：四川省成都市天策商标专利事务所51213代理人：秦华云</v>
+      </c>
+      <c r="J167" t="str">
+        <v>本发明公开了一种人工智能电热水杯及其工作方法，其中人工智能电热水杯包括杯盖、杯体、电源线，杯盖与杯体为可拆卸连接，杯体的内部设有空腔、杯体内安装有内胆、加热模块、隔热固定盘、电路板；内胆安装于杯体的内部空腔中，内胆底部焊接有加热模块，加热模块底部设有隔热固定盘，隔热固定盘底部设有电路板；电路板上设有控制模块、通信模块、人机交互模块、传感器模块和电源模块，控制模块分别与加热模块通信模块、人机交互模块、传感器模块和电源模块电连接，且电源模块与电源线采用接插式结构连接。本发明的人工智能电热水杯及其工作方法，以达到人工智能电热水杯的自学习、自推荐功能，可起到帮助人们轻松喝对水、喝好水的效果。</v>
+      </c>
+    </row>
+    <row r="168" xml:space="preserve">
+      <c r="A168" t="str">
+        <v>[发明公布]一种人工智能无人餐厅服务系统及其服务方法</v>
+      </c>
+      <c r="B168" t="str">
+        <v>CN107808353A</v>
+      </c>
+      <c r="C168" t="str">
+        <v>2018.03.16</v>
+      </c>
+      <c r="D168" t="str">
+        <v>2017109043862</v>
+      </c>
+      <c r="E168" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F168" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G168" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H168" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I168" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q50/12(2012.01)I_x000d_
+				</v>
+      </c>
+      <c r="J168" t="str">
+        <v>本发明公开了一种人工智能无人餐厅服务系统及其服务方法，本发明包括点餐机器人和清理机器人，所述的点餐机器人包括点餐系统、厨房接收系统和结账系统，所述的点餐机器人用来清理顾客使用后的餐桌和餐具。本发明还涉及一种人工智能无人餐厅服务方法，本发明的人工智能餐厅服务系统，由点餐机器人和清洁机器人组成餐厅“服务员”，点餐机器人还能在厨师完成菜品后进行取餐和送餐的工作，在顾客完成就餐，结账完成后，点餐机器人发送指令给清洁机器人，清洁机器人接收指令到相应的餐桌进行清理餐桌和餐具，清洁机器人清理完成后反馈给点餐机器人，对应餐桌进入餐桌分配列表中，便于再来客人时分配相应的餐桌。</v>
+      </c>
+    </row>
+    <row r="169" xml:space="preserve">
+      <c r="A169" t="str">
+        <v>[发明公布]人工智能机器人分拣建筑垃圾中大尺寸有机轻质物的方法</v>
+      </c>
+      <c r="B169" t="str">
+        <v>CN107790402A</v>
+      </c>
+      <c r="C169" t="str">
+        <v>2018.03.13</v>
+      </c>
+      <c r="D169" t="str">
+        <v>2017106499040</v>
+      </c>
+      <c r="E169" t="str">
+        <v>2017.07.24</v>
+      </c>
+      <c r="F169" t="str">
+        <v>梁超</v>
+      </c>
+      <c r="G169" t="str">
+        <v>梁超</v>
+      </c>
+      <c r="H169" t="str">
+        <v>100000北京市海淀区双榆树南里二区6号楼9层904号</v>
+      </c>
+      <c r="I169" t="str" xml:space="preserve">
+        <v xml:space="preserve">B07C5/34(2006.01)I;_x000d_
+						B07C5/342(2006.01)I;B07C5/36(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J169" t="str">
+        <v>本发明公开了一种人工智能机器人分拣建筑垃圾中大尺寸有机轻质物的方法，涉及建筑垃圾分离分选装置领域，该人工智能机器人分拣建筑垃圾中大尺寸有机轻质物的方法在生产线的前端设置工业机器人和摄像头，工人在控制室内操作，通过视觉识别系统控制机器人分拣出轻质物。此方法可避免工人在厂房内工作遇到的噪音、粉尘、安全生产等职业卫生安全问题。从根本上解决了建筑垃圾资源化过程中有机轻质物分拣的瓶颈问题，保证了终端产品的质量；使用室内人工操作代替现场人工作业，规避了人员在现场所涉及的作业安全和职业健康问题；也为建立封闭式车间，集中处置室内粉尘提供了条件。</v>
+      </c>
+    </row>
+    <row r="170" xml:space="preserve">
+      <c r="A170" t="str">
+        <v>[发明公布]一种用于新型直流无刷驱动喷气型织机储纬器中的控制系统</v>
+      </c>
+      <c r="B170" t="str">
+        <v>CN107797495A</v>
+      </c>
+      <c r="C170" t="str">
+        <v>2018.03.13</v>
+      </c>
+      <c r="D170" t="str">
+        <v>2017111407180</v>
+      </c>
+      <c r="E170" t="str">
+        <v>2017.11.16</v>
+      </c>
+      <c r="F170" t="str">
+        <v>南京百纳自动化系统有限公司</v>
+      </c>
+      <c r="G170" t="str">
+        <v>黄正;朱锦诚</v>
+      </c>
+      <c r="H170" t="str">
+        <v>210039江苏省南京市雨花经济开发区凤集大道15号南莓02座</v>
+      </c>
+      <c r="I170" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B19/042(2006.01)I_x000d_
+						专利代理机构：南京众联专利代理有限公司32206代理人：顾进</v>
+      </c>
+      <c r="J170" t="str">
+        <v>本发明公开了一种用于新型直流无刷驱动喷气型织机储纬器中的控制系统，所述控制系统设置在一控制线路板上，所述控制系统包括主控单元，所述主控单元通过RS485通讯口与显示器连接，所述主控单元通过隔离电平信号与织机电控系统连接，所述主控单元包括CPU模块、数据存储模块、模拟量输入模块、开关量输入模块以及开关量输出模块，所述开关量输入模块包括预绕按钮、计圈单元、档纱针控制装置、电机过流保护装置，所述计圈单元包括出纱计圈和断纱计圈，所述出纱计圈、断纱计圈内均设有反射式光电传感器检测装置，所述反射式光电传感器检测装置与CPU模块连接；本控制系统具有系统结构简单，人工智能显示，自动控制，效率高，系统稳定的特点。</v>
+      </c>
+    </row>
+    <row r="171" xml:space="preserve">
+      <c r="A171" t="str">
+        <v>[发明公布]一种基于ECDIS的航线自动设计系统及其构建方法</v>
+      </c>
+      <c r="B171" t="str">
+        <v>CN107798185A</v>
+      </c>
+      <c r="C171" t="str">
+        <v>2018.03.13</v>
+      </c>
+      <c r="D171" t="str">
+        <v>2017109824797</v>
+      </c>
+      <c r="E171" t="str">
+        <v>2017.10.20</v>
+      </c>
+      <c r="F171" t="str">
+        <v>山东交通学院</v>
+      </c>
+      <c r="G171" t="str">
+        <v>郭绍义;张树豪</v>
+      </c>
+      <c r="H171" t="str">
+        <v>250357山东省济南市长清大学科技园海棠路5001号</v>
+      </c>
+      <c r="I171" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/50(2006.01)I;_x000d_
+						G06F17/30(2006.01)I;G06Q10/04(2012.01)I;G06Q50/30(2012.01)I_x000d_
+						</v>
+      </c>
+      <c r="J171" t="str">
+        <v>本发明公开了一种基于ECDIS的航线自动设计系统及其构建方法，采用空间数据库管理系统建立推荐航线及航线信息数据库，通过构建加权航路网络图，采用Dijkstra算法及推荐航线相结合求解最优航线，并运用Matlab进行建模仿真，对不同船舶进行航线优选仿真实验。本发明采用在推荐航线的基础上，利用人工智能及图论的方法以获得最优航线。基于ECDIS自动航线设计智能系统不仅可以实现计划航线自动生成，还具有极其方便的航线信息查询功能，最大限度地减少驾驶员的工作量，对保证船舶航行安全和节约船舶的航行运营成本具有重要的实际意义。</v>
+      </c>
+    </row>
+    <row r="172" xml:space="preserve">
+      <c r="A172" t="str">
+        <v>[发明公布]一种城市园林灌溉智能监测系统</v>
+      </c>
+      <c r="B172" t="str">
+        <v>CN107798643A</v>
+      </c>
+      <c r="C172" t="str">
+        <v>2018.03.13</v>
+      </c>
+      <c r="D172" t="str">
+        <v>2016107420756</v>
+      </c>
+      <c r="E172" t="str">
+        <v>2016.08.29</v>
+      </c>
+      <c r="F172" t="str">
+        <v>威海兴达信息科技有限公司</v>
+      </c>
+      <c r="G172" t="str">
+        <v>卢晓彦</v>
+      </c>
+      <c r="H172" t="str">
+        <v>264205山东省威海市海滨南路-28号417-418</v>
+      </c>
+      <c r="I172" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q50/26(2012.01)I_x000d_
+				</v>
+      </c>
+      <c r="J172" t="str">
+        <v>本发明提供了一种城市园林灌溉智能监测系统。城市园林灌溉智能监测系统为精细化灌溉提供详细的数据基础；为当前高效管理提供可靠的数据基础；投资少，一次设计，分批实施；根据不同植物需水性，分别告警、提示灌溉；一个监测点监测一个区域，区域大小根据管理设定；便携装置测试监测区域内其他绿化带与监测点蒸腾蒸发值（ET）的关系，做到动态模糊计算，以达到尽量少用监测点的目的；采用人工智能算法，预估一段时间内需维护的绿化带；增加灌溉设备，可扩展为自动灌溉系统。</v>
+      </c>
+    </row>
+    <row r="173" xml:space="preserve">
+      <c r="A173" t="str">
+        <v>[发明公布]一种基于虚拟现实技术的心理评估方法</v>
+      </c>
+      <c r="B173" t="str">
+        <v>CN107799165A</v>
+      </c>
+      <c r="C173" t="str">
+        <v>2018.03.13</v>
+      </c>
+      <c r="D173" t="str">
+        <v>2017108391863</v>
+      </c>
+      <c r="E173" t="str">
+        <v>2017.09.18</v>
+      </c>
+      <c r="F173" t="str">
+        <v>华南理工大学</v>
+      </c>
+      <c r="G173" t="str">
+        <v>徐向民</v>
+      </c>
+      <c r="H173" t="str">
+        <v>510640广东省广州市天河区五山路381号</v>
+      </c>
+      <c r="I173" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H20/70(2018.01)I;_x000d_
+						G06F3/01(2006.01)I;G06N3/04(2006.01)I_x000d_
+						专利代理机构：广州市华学知识产权代理有限公司44245代理人：林梅繁</v>
+      </c>
+      <c r="J173" t="str">
+        <v>本发明基于虚拟现实技术的心理评估方法，将心理量表虚拟场景化；实时采集受试者问答、行为和生理数据；基于受试者的问答选项，完成心理量表问题的智能跳转；对量表内容进行综合智能分析，将三类数据通过卷积神经网络、循环神经网络训练后进行特征融合，输入到softmax层，得出心理评估模型；采用心理评估模型对受试者心理评估结果与医生标签进行比对，通过计算损失函数和梯度反向传导，对受试者问答选项进行智能校正；再将生理、行为和经校正的问答数据由心理评估模型计算，得到最终评估结果。本发明将VR、智能传感、大数据分析、人工智能等技术与传统心理评估方法相结合，提升了心理评估的准确性，有效节约了医疗资源。</v>
+      </c>
+    </row>
+    <row r="174" xml:space="preserve">
+      <c r="A174" t="str">
+        <v>[发明公布]一种基于神经网络升级设备的方法和装置</v>
+      </c>
+      <c r="B174" t="str">
+        <v>CN107800572A</v>
+      </c>
+      <c r="C174" t="str">
+        <v>2018.03.13</v>
+      </c>
+      <c r="D174" t="str">
+        <v>2017110269198</v>
+      </c>
+      <c r="E174" t="str">
+        <v>2017.10.27</v>
+      </c>
+      <c r="F174" t="str">
+        <v>福州瑞芯微电子股份有限公司</v>
+      </c>
+      <c r="G174" t="str">
+        <v>廖裕民;陈丽君</v>
+      </c>
+      <c r="H174" t="str">
+        <v>350003福建省福州市鼓楼区软件大道89号18号楼</v>
+      </c>
+      <c r="I174" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L12/24(2006.01)I;G06N3/063(2006.01)I_x000d_
+						专利代理机构：福州市景弘专利代理事务所(普通合伙)35219代理人：林祥翔;徐剑兵</v>
+      </c>
+      <c r="J174" t="str">
+        <v>本发明公开了一种基于神经网络升级设备的方法和装置，所述装置包括第一接口，第一接口在与待升级设备的第二接口建立连接后，可以根据任务请求类型(如语音识别、人脸识别等)，从初始值配置查询单元查询对应的配置参数，并根据配置参数可重构网络矩阵单元，以组建对应的神经网络结构。可重构网络矩阵单元可以通过不断调整配置参数，对神经网络结构进行训练，直至训练完成，即测试的结果与预期结果的误差在预设误差范围内。本发明可以使得传统的本不具备人工智能功能的传统的家电产品能够转变为具有人工智能功能的产品，从而有效降低人工智能家电产品的成本，满足市场需求。</v>
+      </c>
+    </row>
+    <row r="175" xml:space="preserve">
+      <c r="A175" t="str">
+        <v>[发明公布]一种基于人工智能的安全帽</v>
+      </c>
+      <c r="B175" t="str">
+        <v>CN107772595A</v>
+      </c>
+      <c r="C175" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D175" t="str">
+        <v>2017111224230</v>
+      </c>
+      <c r="E175" t="str">
+        <v>2017.11.14</v>
+      </c>
+      <c r="F175" t="str">
+        <v>四川联众防务科技有限责任公司</v>
+      </c>
+      <c r="G175" t="str">
+        <v>廖勇</v>
+      </c>
+      <c r="H175" t="str">
+        <v>618300四川省德阳市广汉市台中路74号</v>
+      </c>
+      <c r="I175" t="str" xml:space="preserve">
+        <v xml:space="preserve">A42B1/10(2006.01)I;A42B1/24(2006.01)I_x000d_
+						专利代理机构：成都华风专利事务所(普通合伙)51223代理人：梁菊兰</v>
+      </c>
+      <c r="J175" t="str">
+        <v>本发明涉及人工智能技术领域，具体涉及一种基于人工智能的安全帽，包括安全帽本体，安全帽本体正前方设置有可以调节倾角的LED矿灯，LED矿灯旁安装有摄像头；沿安全帽本体周向设置有检测部件，安全帽本体顶上设置有控制部件，检测部件包括瓦斯感应器、CO感应器、CO&lt;sub&gt;2</v>
+      </c>
+    </row>
+    <row r="176" xml:space="preserve">
+      <c r="A176" t="str">
+        <v>[发明公布]具有佩戴监测的智能安全帽</v>
+      </c>
+      <c r="B176" t="str">
+        <v>CN107772602A</v>
+      </c>
+      <c r="C176" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D176" t="str">
+        <v>2017111244770</v>
+      </c>
+      <c r="E176" t="str">
+        <v>2017.11.14</v>
+      </c>
+      <c r="F176" t="str">
+        <v>四川联众防务科技有限责任公司</v>
+      </c>
+      <c r="G176" t="str">
+        <v>廖勇</v>
+      </c>
+      <c r="H176" t="str">
+        <v>618300四川省德阳市广汉市台中路74号</v>
+      </c>
+      <c r="I176" t="str" xml:space="preserve">
+        <v xml:space="preserve">A42B1/24(2006.01)I;A42B1/10(2006.01)I_x000d_
+						专利代理机构：成都华风专利事务所(普通合伙)51223代理人：梁菊兰</v>
+      </c>
+      <c r="J176" t="str">
+        <v>本发明涉及人工智能技术领域，具体涉及一种具有佩戴监测的智能安全帽，包括安全帽本体，安全帽本体正前方设置有可以调节倾角的LED矿灯，LED矿灯旁安装有摄像头；沿安全帽本体周向设置有检测部件，安全帽本体顶上设置有控制部件，检测部件包括瓦斯感应器、CO感应器、CO&lt;sub&gt;2</v>
+      </c>
+    </row>
+    <row r="177" xml:space="preserve">
+      <c r="A177" t="str">
+        <v>[发明公布]应用物联网及人工智能的平衡健康装置</v>
+      </c>
+      <c r="B177" t="str">
+        <v>CN107773309A</v>
+      </c>
+      <c r="C177" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D177" t="str">
+        <v>2016107685494</v>
+      </c>
+      <c r="E177" t="str">
+        <v>2016.08.30</v>
+      </c>
+      <c r="F177" t="str">
+        <v>天津森宇科技发展有限公司</v>
+      </c>
+      <c r="G177" t="str">
+        <v>杜海浩</v>
+      </c>
+      <c r="H177" t="str">
+        <v>300384天津市滨海新区华苑产业区华天道6号海泰信息广场G座501室-4</v>
+      </c>
+      <c r="I177" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61B90/00(2016.01)I_x000d_
+				</v>
+      </c>
+      <c r="J177" t="str">
+        <v>本装置公开了应用物联网及人工智能的平衡健康装置，包括压力检测模块，压力差分模块，差值放大模块，应力反馈模块；压力检测模块的信号输出端连接压力差分模块的信号输入端，压力差分模块的信号输出端连接差值放大模块的信号输入端，差值放大模块的信号输出端连接应力反馈模块的信号输入端；压力检测模块由压力传感器模组构成，压力差分模块由平衡处理模组构成，差值放大模块由应力变换模组构成，应力反馈模块由压力传送模组构成。本装置就可以使人们平衡健康。</v>
+      </c>
+    </row>
+    <row r="178" xml:space="preserve">
+      <c r="A178" t="str">
+        <v>[发明公布]人工智能牙科计算机辅助设计系统及方法</v>
+      </c>
+      <c r="B178" t="str">
+        <v>CN107773316A</v>
+      </c>
+      <c r="C178" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D178" t="str">
+        <v>2017108902572</v>
+      </c>
+      <c r="E178" t="str">
+        <v>2017.09.27</v>
+      </c>
+      <c r="F178" t="str">
+        <v>爱迪特（秦皇岛）科技股份有限公司</v>
+      </c>
+      <c r="G178" t="str" xml:space="preserve">
+        <v xml:space="preserve">李洪文;孙涛;王丁;杨洁_x000d_
+				</v>
+      </c>
+      <c r="H178" t="str">
+        <v>066004河北省秦皇岛市经济技术开发区都山路9号</v>
+      </c>
+      <c r="I178" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61C9/00(2006.01)I_x000d_
+						专利代理机构：北京志霖恒远知识产权代理事务所(普通合伙)11435代理人：郭栋梁</v>
+      </c>
+      <c r="J178" t="str">
+        <v>本申请公开了一种人工智能牙科计算机辅助设计系统及方法，数据输入模块用于输入患者口腔内的原始三维数据文件；计算机辅助设计模块用于根据原始三维数据文件计算患者牙齿的修复体三维数据文件；图形显示模块用于接收原始三维数据文件和修复体三维数据文件并进行三维图形显示；数据输出模块用于接收计算机辅助设计模块的修复体三维数据文件并输出为牙科数字化加工设备所需的三维数据文件。本申请实施例通过使用人工智能的方式由计算机完成牙齿设计，无需人工操作，省时省力，能够有效减少操作系统的时间，提高使用者的效率；同时能够有效降低不同水平操作人员操作系统设计牙齿修复体的误差，提高了患者佩戴修复体的舒适度等。</v>
+      </c>
+    </row>
+    <row r="179" xml:space="preserve">
+      <c r="A179" t="str">
+        <v>[发明公布]人工智能交通机器人</v>
+      </c>
+      <c r="B179" t="str">
+        <v>CN107775645A</v>
+      </c>
+      <c r="C179" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D179" t="str">
+        <v>2016107129455</v>
+      </c>
+      <c r="E179" t="str">
+        <v>2016.08.24</v>
+      </c>
+      <c r="F179" t="str">
+        <v>南京乐朋电子科技有限公司</v>
+      </c>
+      <c r="G179" t="str">
+        <v>娄保东</v>
+      </c>
+      <c r="H179" t="str">
+        <v>210019江苏省南京市建邺区奥体大街69号新城科技大厦01栋4层</v>
+      </c>
+      <c r="I179" t="str" xml:space="preserve">
+        <v xml:space="preserve">B25J11/00(2006.01)I;_x000d_
+						B25J9/16(2006.01)I;B25J19/02(2006.01)I;B25J5/00(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J179" t="str">
+        <v>本发明一种适用于人工智能交通机器人，由摄像头（1）、2个红外传感器（2）、扬声器（3）、智能电脑（4）、通信模块（5）、舵机（6）、手臂（7）、手掌（8）、轮子（9）、太阳能充电板（10）构成。摄像头（1）拍摄路面车辆行驶情况，如果遇到需要人工指挥的情况，智能电脑（4）判断需要做出哪种指挥，然后控制舵机（6）调整手臂与手掌的姿势，做出相应的指挥动作。如果某辆车违反了交通规则，机器人通过摄像头（1）拍摄下来，智能电脑（4）判断是哪种违章并记录到系统中，扬声器（3）发出警报声，同时通过通信模块（5）告知交警。本发明实现交通的指挥与违章的处理，减轻了交警工作量，利用太阳能充电，更加环保节能。</v>
+      </c>
+    </row>
+    <row r="180" xml:space="preserve">
+      <c r="A180" t="str">
+        <v>[发明公布]一种可折叠下棋机器人</v>
+      </c>
+      <c r="B180" t="str">
+        <v>CN107775655A</v>
+      </c>
+      <c r="C180" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D180" t="str">
+        <v>2017109708122</v>
+      </c>
+      <c r="E180" t="str">
+        <v>2017.10.18</v>
+      </c>
+      <c r="F180" t="str">
+        <v>北京甘为乐博科技有限公司</v>
+      </c>
+      <c r="G180" t="str" xml:space="preserve">
+        <v xml:space="preserve">杨剑;罗本坡;李子超;李晓彤;祝兴_x000d_
+				</v>
+      </c>
+      <c r="H180" t="str">
+        <v>100084北京市海淀区学研大厦B座105</v>
+      </c>
+      <c r="I180" t="str" xml:space="preserve">
+        <v xml:space="preserve">B25J11/00(2006.01)I;A63F3/00(2006.01)I_x000d_
+						专利代理机构：北京市广友专利事务所有限责任公司11237代理人：祁献民</v>
+      </c>
+      <c r="J180" t="str">
+        <v>本发明实施例公开了一种可折叠下棋机器人，涉及人工智能技术领域。该机器人包括：箱体，所述箱体的第一表面设置有放置棋子的棋盘；机械臂，所述机械臂用于将棋子放置所述棋盘的预定位置；摄像头支架，所述摄像头支架上设置有识别棋子的摄像头，用于识别所述棋盘上的棋子；收纳装置，所述收纳装置分别与所述机械臂及所述摄像头支架连接，使得当所述机械臂和所述摄像头支架处于收缩状态的时候，能够与所述收纳装置一起缩放在所述箱体的内部。通过本发明实施例的方案，提高了下棋机器人的便携性。</v>
+      </c>
+    </row>
+    <row r="181" xml:space="preserve">
+      <c r="A181" t="str">
+        <v>[发明公布]用于医疗废物的分类存放系统</v>
+      </c>
+      <c r="B181" t="str">
+        <v>CN107777173A</v>
+      </c>
+      <c r="C181" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D181" t="str">
+        <v>201710924602X</v>
+      </c>
+      <c r="E181" t="str">
+        <v>2017.09.30</v>
+      </c>
+      <c r="F181" t="str">
+        <v>天津万达鼎睿网络科技有限公司</v>
+      </c>
+      <c r="G181" t="str">
+        <v>刘丽丽</v>
+      </c>
+      <c r="H181" t="str">
+        <v>300000天津市北辰区天津医药医疗器械工业园辰寰大厦435室</v>
+      </c>
+      <c r="I181" t="str" xml:space="preserve">
+        <v xml:space="preserve">B65F1/00(2006.01)I;_x000d_
+						B65F1/08(2006.01)I;B65F1/14(2006.01)I;B65F1/16(2006.01)I_x000d_
+						专利代理机构：天津滨海科纬知识产权代理有限公司12211代理人：李成运</v>
+      </c>
+      <c r="J181" t="str">
+        <v>本发明提供了用于医疗废物的分类存放系统，属于医疗废物存放技术领域，包括微控制器、语音识别模块、多个电机和多个并排存放的垃圾桶，所述微控制器和语音识别模块安装在一个垃圾桶的侧壁上，每个所述垃圾桶均包括底座、外壳体、上盖和传动机构，所述底座设于外壳体底部，所述上盖位于外壳体上方且所述上盖一侧与外壳体铰连接，所述传动机构一端铰接于上盖，另一端与安装在底座内的电机连接，所述微控制器输入端连接语音识别模块，输出端连接多个电机。本发明有益效果：采用人工智能控制某一个垃圾桶的开启和闭合；满足不同医疗废物的单独存放，避免人体接触，提高医疗安全性。</v>
+      </c>
+    </row>
+    <row r="182" xml:space="preserve">
+      <c r="A182" t="str">
+        <v>[发明公布]基于人工智能的电梯运行优化装置</v>
+      </c>
+      <c r="B182" t="str">
+        <v>CN107777490A</v>
+      </c>
+      <c r="C182" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D182" t="str">
+        <v>2016107703878</v>
+      </c>
+      <c r="E182" t="str">
+        <v>2016.08.30</v>
+      </c>
+      <c r="F182" t="str">
+        <v>天津森宇科技发展有限公司</v>
+      </c>
+      <c r="G182" t="str">
+        <v>杜海浩</v>
+      </c>
+      <c r="H182" t="str">
+        <v>300384天津市滨海新区华苑产业区华天道6号海泰信息广场G座501室-4</v>
+      </c>
+      <c r="I182" t="str" xml:space="preserve">
+        <v xml:space="preserve">B66B1/06(2006.01)I;B66B5/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J182" t="str">
+        <v>本装置公开了基于人工智能的电梯运行优化装置，包括电梯呼叫接收模块，楼层人员检测模块，云计算平台，智能终端信息共享模块；电梯呼叫接收模块的信号输出端连接楼层人员检测模块的信号输入端，楼层人员检测模块的信号输出端连接云计算平台的信号输入端，云计算平台的信号输出端连接智能终端信息共享模块的信号输入端；电梯呼叫接收模块由短程无线通信模组构成，楼层人员检测模块由机器视觉识别模组构成，云计算平台由智能处理器构成，智能终端信息共享模块由移动电话及无线互联网模组构成。本装置可以对智能的对电梯运行进行优化。</v>
+      </c>
+    </row>
+    <row r="183" xml:space="preserve">
+      <c r="A183" t="str">
+        <v>[发明公布]一种人工智能型有机热载体锅炉</v>
+      </c>
+      <c r="B183" t="str">
+        <v>CN107782000A</v>
+      </c>
+      <c r="C183" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D183" t="str">
+        <v>2017112209609</v>
+      </c>
+      <c r="E183" t="str">
+        <v>2017.11.22</v>
+      </c>
+      <c r="F183" t="str">
+        <v>江苏瑞源加热设备科技有限公司</v>
+      </c>
+      <c r="G183" t="str">
+        <v>郭超;吴晓峰</v>
+      </c>
+      <c r="H183" t="str">
+        <v>224022江苏省盐城市盐都区大纵湖镇工业集中区</v>
+      </c>
+      <c r="I183" t="str" xml:space="preserve">
+        <v xml:space="preserve">F24H9/20(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J183" t="str">
+        <v>本发明公开了一种人工智能型有机热载体锅炉。该人工智能型有机热载体锅炉，把设备控制系统设计为智能化集成控制系统，系统中增加人机界面触摸屏，使设备操作集中、简单。把原来分立控制元件集成为CPU模块，触摸屏操控CPU模块，经过运算由CPU模块提供信号给触摸屏、控制电路，控制设备正常工作，使设备自动化程度提高。触目屏界面中设定油压显示、油压设定、欠压报警、欠压停机、温度显示、温度设定、超温报警、恒温控制、油量显示、欠油停机等功能，实现设备智能化运算操控和全自动安全保护，能使设备安全运行性能进一步提升。</v>
+      </c>
+    </row>
+    <row r="184" xml:space="preserve">
+      <c r="A184" t="str">
+        <v>[发明公布]应用人工智能运送物资的智能引导装置</v>
+      </c>
+      <c r="B184" t="str">
+        <v>CN107783534A</v>
+      </c>
+      <c r="C184" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D184" t="str">
+        <v>2016107703558</v>
+      </c>
+      <c r="E184" t="str">
+        <v>2016.08.30</v>
+      </c>
+      <c r="F184" t="str">
+        <v>天津思博科科技发展有限公司</v>
+      </c>
+      <c r="G184" t="str">
+        <v>牛晓芳</v>
+      </c>
+      <c r="H184" t="str">
+        <v>300384天津市滨海新区华苑产业区华天道6号海泰大厦503室-17</v>
+      </c>
+      <c r="I184" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05D1/02(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J184" t="str">
+        <v>本装置公开了应用人工智能运送物资的智能引导装置，包括机器视觉模块，通讯模块，物资分类定位模块，智能激光指引模块；机器视觉模块的信号输出端连接通讯模块的信号输入端，通讯模块的信号输出端连接物资分类定位模块的信号输入端，物资分类定位模块的信号输出端连接智能激光指引模块的信号输入端；机器视觉模块由摄像机构成，通讯模块由无线收发及天线构成，物资分类定位模块由无线跟踪定位模组构成，智能激光指引模块由激光器构成。本装置可以引导人工智能把东西运输到指定的位置。</v>
+      </c>
+    </row>
+    <row r="185" xml:space="preserve">
+      <c r="A185" t="str">
+        <v>[发明公布]人工智能聊天机器人</v>
+      </c>
+      <c r="B185" t="str">
+        <v>CN107783971A</v>
+      </c>
+      <c r="C185" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D185" t="str">
+        <v>2016107148390</v>
+      </c>
+      <c r="E185" t="str">
+        <v>2016.08.24</v>
+      </c>
+      <c r="F185" t="str">
+        <v>南京乐朋电子科技有限公司</v>
+      </c>
+      <c r="G185" t="str">
+        <v>娄保东</v>
+      </c>
+      <c r="H185" t="str">
+        <v>210019江苏省南京市建邺区奥体大街69号新城科技大厦01栋4层</v>
+      </c>
+      <c r="I185" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06N3/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J185" t="str">
+        <v>本发明一种适用于人工智能聊天机器人，包括：通信平台（1）、信息采集设备（2）、嗅觉传感器（3）、喷气设备（4）、知识库（5）、信息分析模块（6）、信息反馈模块（7）以及情绪判断模块（8）、后台学习模块（9）。其中：信息分析模块（7）包括拆分单元，中心词词汇库，词汇解析单元和语意整理单元；信息反馈模块（7）进一步包括语言库和判断与反馈单元。通过模拟人脑的理解—记忆—推演—判断—反馈的思维过程，使之能够针对各种语言逻辑做出准确的应答。并且在聊天机器人加入了情绪判断模块（8）和嗅觉传感器（3），使得机器人可以感知用户的情绪，并结合嗅觉传感器喷洒一些对人体有益的气体，舒缓用户的身心。</v>
+      </c>
+    </row>
+    <row r="186" xml:space="preserve">
+      <c r="A186" t="str">
+        <v>[发明公布]一种网络小说商业价值的评估方法及系统</v>
+      </c>
+      <c r="B186" t="str">
+        <v>CN107784109A</v>
+      </c>
+      <c r="C186" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D186" t="str">
+        <v>2017110495324</v>
+      </c>
+      <c r="E186" t="str">
+        <v>2017.10.31</v>
+      </c>
+      <c r="F186" t="str">
+        <v>任浩</v>
+      </c>
+      <c r="G186" t="str">
+        <v>任浩</v>
+      </c>
+      <c r="H186" t="str">
+        <v>611730四川省成都市郫都区梨园路一段529号</v>
+      </c>
+      <c r="I186" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+						专利代理机构：北京酷爱智慧知识产权代理有限公司11514代理人：安娜</v>
+      </c>
+      <c r="J186" t="str">
+        <v>本发明公开了一种网络小说商业价值的评估方法及系统，所述方法包括：获取网络小说的内容，识别网络小说的特征数据；根据所述特征数据和预设条件，对网络小说的五个模块进行判定；根据判定结果和预设评估规则，对网络小说的商业价值进行评估。本发明能够通过人工智能自动识别网络小说的内容，并对网络小说的商业价值进行评估，帮助小说购买者更好地做出购买选择。</v>
+      </c>
+    </row>
+    <row r="187" xml:space="preserve">
+      <c r="A187" t="str">
+        <v>[发明公布]一种基于人工智能的服务商推荐系统的算法</v>
+      </c>
+      <c r="B187" t="str">
+        <v>CN107784512A</v>
+      </c>
+      <c r="C187" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D187" t="str">
+        <v>2016107265591</v>
+      </c>
+      <c r="E187" t="str">
+        <v>2016.08.26</v>
+      </c>
+      <c r="F187" t="str">
+        <v>国高技术研究院（深圳）有限公司</v>
+      </c>
+      <c r="G187" t="str">
+        <v>陈宇;武国斌</v>
+      </c>
+      <c r="H187" t="str">
+        <v>518000广东省深圳市南山区粤海街道高新区粤兴三道9号华中科技大学深圳产学研基地大楼717室</v>
+      </c>
+      <c r="I187" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/02(2012.01)I;_x000d_
+						G06Q30/06(2012.01)I;G06N3/02(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J187" t="str">
+        <v>本发明涉及一种基于人工智能的服务商推荐系统的算法。本发明所属的技术领域为互联网技术，人工智能技术的融合。本发明研发了一种基于神经网络人工智能技术进行精准的智能化线上商务交易的管理系统。使得在互联网上进行可靠安全的高效率，低成本商务交易成为可能。</v>
+      </c>
+    </row>
+    <row r="188" xml:space="preserve">
+      <c r="A188" t="str">
+        <v>[发明公布]一种基于无线地磁检测的停车系统</v>
+      </c>
+      <c r="B188" t="str">
+        <v>CN107784859A</v>
+      </c>
+      <c r="C188" t="str">
+        <v>2018.03.09</v>
+      </c>
+      <c r="D188" t="str">
+        <v>2017110963061</v>
+      </c>
+      <c r="E188" t="str">
+        <v>2017.11.09</v>
+      </c>
+      <c r="F188" t="str">
+        <v>影响力技术有限公司</v>
+      </c>
+      <c r="G188" t="str" xml:space="preserve">
+        <v xml:space="preserve">赵飞;任晓娅;刘林;胡琰_x000d_
+				</v>
+      </c>
+      <c r="H188" t="str">
+        <v>518000广东省深圳市南山区西丽街道科技北一路15号凤凰城大厦六楼606</v>
+      </c>
+      <c r="I188" t="str" xml:space="preserve">
+        <v xml:space="preserve">G08G1/14(2006.01)I;_x000d_
+						G08G1/042(2006.01)I;G07B15/02(2011.01)I_x000d_
+						专利代理机构：深圳市远航专利商标事务所(普通合伙)44276代理人：田志远;张朝阳</v>
+      </c>
+      <c r="J188" t="str">
+        <v>本发明公开了移动通讯以及人工智能领域中的一种基于无线地磁检测的停车系统，包括数据采集层、数据管理层以及车位信息发布层，数据采集层包括停车场和信号接收机，停车场的停车位上设有地磁检测装置，地磁检测装置与信号接收机连接，数据管理层包括应用服务器，应用服务器接收信号接收基站上传的停车位状态基础数据，并通过互联网对停车位状态基础数据分析后，将形成的实时车位状态信息发送到车位信息发布层，车位信息发布层包括若干智能终端，智能终端接收应用服务器发布的实时车位状态信息并进行显示。本发明通过一种自动化程度高、低成本、高可靠性的停车管理方案，无需人工干预，能够自动化检测车辆停放情况。</v>
+      </c>
+    </row>
+    <row r="189" xml:space="preserve">
+      <c r="A189" t="str">
+        <v>[发明公布]结合人工智能的宠物盆栽系统</v>
+      </c>
+      <c r="B189" t="str">
+        <v>CN107750725A</v>
+      </c>
+      <c r="C189" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D189" t="str">
+        <v>2017110226099</v>
+      </c>
+      <c r="E189" t="str">
+        <v>2017.10.26</v>
+      </c>
+      <c r="F189" t="str">
+        <v>四川长虹电器股份有限公司</v>
+      </c>
+      <c r="G189" t="str" xml:space="preserve">
+        <v xml:space="preserve">刘舟;李节苓;何思明;张剑飞_x000d_
+				</v>
+      </c>
+      <c r="H189" t="str">
+        <v>621000四川省绵阳市高新区绵兴东路35号</v>
+      </c>
+      <c r="I189" t="str" xml:space="preserve">
+        <v xml:space="preserve">A01G9/02(2018.01)I;H04L29/08(2006.01)I_x000d_
+						专利代理机构：成都虹桥专利事务所(普通合伙)51124代理人：李凌峰</v>
+      </c>
+      <c r="J189" t="str">
+        <v>本发明涉及人工智能技术。本发明是要解决现有植物本身不能与用户进行互动的问题，提供了一种结合人工智能的宠物盆栽系统，其技术方案可概括为：宠物盆栽系统，包括分别与智能花盆及智能终端连接的云端服务器，智能花盆用于采集所种植的植物的各项数据，并上传至云端服务器；云端服务器用于获取当前智能花盆所处地区天气情况及空气质量，并判断得到当前智能花盆中所种植的植物的状态，并为每一个智能花盆中所种植的植物建立一个人工智能及对应的聊天机器人，用于将该植物进行拟人化从而根据该植物的状态与用户通过智能终端进行互动。本发明的有益效果是，提升用户体验，适用于智能花盆系统。</v>
+      </c>
+    </row>
+    <row r="190" xml:space="preserve">
+      <c r="A190" t="str">
+        <v>[发明公布]语音对话机器人的控制方法及终端设备</v>
+      </c>
+      <c r="B190" t="str">
+        <v>CN107756412A</v>
+      </c>
+      <c r="C190" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D190" t="str">
+        <v>2017108646612</v>
+      </c>
+      <c r="E190" t="str">
+        <v>2017.09.22</v>
+      </c>
+      <c r="F190" t="str">
+        <v>上海壹账通金融科技有限公司</v>
+      </c>
+      <c r="G190" t="str">
+        <v>黄伟淦</v>
+      </c>
+      <c r="H190" t="str">
+        <v>200000上海市徐汇区凯滨路166号9层、10层</v>
+      </c>
+      <c r="I190" t="str" xml:space="preserve">
+        <v xml:space="preserve">B25J11/00(2006.01)I;G10L15/22(2006.01)I_x000d_
+						专利代理机构：深圳中一专利商标事务所44237代理人：官建红</v>
+      </c>
+      <c r="J190" t="str">
+        <v>本发明适用于人工智能技术领域，提供了一种语音对话机器人的控制方法及终端设备，该方法包括：广播机器人搜索信号，并在接收到基于机器人搜索信号的响应信息时，从响应信息中，提取出远程的语音对话机器人的识别码；基于识别码，与语音对话机器人建立连接；获取用户发出的第一语音信息，并确定第一语音信息的控制模式；若控制模式为广播模式，则将第一语音信息同步至与识别码关联的所述语音对话机器人，以使语音对话机器人执行与第一语音信息匹配的控制指令。本发明使得用户能够基于一条语音信息，同时对位置相隔较远的多个语音对话机器人进行语音控制，无需再走到各个语音对话机器人所在的位置后才能执行语音控制，因此，提高了控制效率。</v>
+      </c>
+    </row>
+    <row r="191" xml:space="preserve">
+      <c r="A191" t="str">
+        <v>[发明公布]用于人工智能设备的全天候宽温域润滑油及其制备方法</v>
+      </c>
+      <c r="B191" t="str">
+        <v>CN107760421A</v>
+      </c>
+      <c r="C191" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D191" t="str">
+        <v>2017109833601</v>
+      </c>
+      <c r="E191" t="str">
+        <v>2017.10.20</v>
+      </c>
+      <c r="F191" t="str">
+        <v>湖北诚祥科技有限公司</v>
+      </c>
+      <c r="G191" t="str">
+        <v>吴昊;赵天祥;吴鹏</v>
+      </c>
+      <c r="H191" t="str">
+        <v>448124湖北省荆门市深圳大道63号</v>
+      </c>
+      <c r="I191" t="str" xml:space="preserve">
+        <v xml:space="preserve">C10M169/04(2006.01)I;_x000d_
+						C10N30/08(2006.01)N;C10N30/06(2006.01)N;C10N30/12(2006.01)N_x000d_
+						专利代理机构：北京海虹嘉诚知识产权代理有限公司11129代理人：谢殿武</v>
+      </c>
+      <c r="J191" t="str">
+        <v>本发明公开了一种用于人工智能设备的全天候宽温域润滑油，所述润滑油原料按重量百分比包括以下组分：硅油51.5‑90.7％、石墨烯2‑12％、润湿剂2‑10％、磷酸酯0.2‑1.5％、硼砂0.1‑10％和聚合酯5‑15％，各组分总量和为100％；具有良好的耐高温性能及热承载能力，优良的材料适应性及稳定性，并且能够在较宽的使用温域保持良好的性能，满足各种人工智能设备从‑60℃‑2000℃的全天候苛刻极端环境下的全面润滑要求，且具有优良的抗磨性和防锈性，运行周期长。其生产工艺简单，原材料易得，采用合理的配比，润滑油各组分形成的化学平衡稳定，性能更稳定。</v>
+      </c>
+    </row>
+    <row r="192" xml:space="preserve">
+      <c r="A192" t="str">
+        <v>[发明公布]一种相控阵识别方法及系统</v>
+      </c>
+      <c r="B192" t="str">
+        <v>CN107765237A</v>
+      </c>
+      <c r="C192" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D192" t="str">
+        <v>2017102650949</v>
+      </c>
+      <c r="E192" t="str">
+        <v>2017.04.20</v>
+      </c>
+      <c r="F192" t="str">
+        <v>丁贤根</v>
+      </c>
+      <c r="G192" t="str">
+        <v>丁贤根</v>
+      </c>
+      <c r="H192" t="str">
+        <v>214400江苏省无锡市江阴市环城北路85号金色阳光家园401</v>
+      </c>
+      <c r="I192" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01S13/02(2006.01)I_x000d_
+						专利代理机构：北京同立钧成知识产权代理有限公司11205代理人：杨文娟;刘芳</v>
+      </c>
+      <c r="J192" t="str">
+        <v>本发明提出一种相控阵识别方法及系统，来实现对于物体运动的识别，包括手势识别、汽车防撞识别、无人机防撞和防攻击识别、智慧飞弹以及船舶防撞识别。所述方法和系统由相控阵天线阵列、相控阵T/R组件阵列和信号处理系统构成，通过发射相控阵毫米波和接收被探测物体反射的毫米波，通过计算，确定被探测物体的空间坐标。所述计算包括人工智能算法，包括目标识别、矫正、搜索、跟踪、凝视等算法步骤，所述信号处理系统包括冯氏计算机、非冯氏计算机、神经网络和人工智能系统。所述系统可被制作成二合一的MMIC芯片和三合一SoC的MMIC芯片。</v>
+      </c>
+    </row>
+    <row r="193" xml:space="preserve">
+      <c r="A193" t="str">
+        <v>[发明公布]一种新型玻纤喷气织机专用功能控制板</v>
+      </c>
+      <c r="B193" t="str">
+        <v>CN107765599A</v>
+      </c>
+      <c r="C193" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D193" t="str">
+        <v>2017111398393</v>
+      </c>
+      <c r="E193" t="str">
+        <v>2017.11.16</v>
+      </c>
+      <c r="F193" t="str">
+        <v>南京百纳自动化系统有限公司</v>
+      </c>
+      <c r="G193" t="str">
+        <v>陈信立;朱锦诚</v>
+      </c>
+      <c r="H193" t="str">
+        <v>210039江苏省南京市雨花经济开发区凤集大道15号南莓02座</v>
+      </c>
+      <c r="I193" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B19/042(2006.01)I_x000d_
+						专利代理机构：南京众联专利代理有限公司32206代理人：顾进</v>
+      </c>
+      <c r="J193" t="str">
+        <v>本发明公开了一种新型玻纤喷气织机专用功能控制板，包括板体，所述板体上分别连接有电源模块、主控芯片、ITV1控制模块、ITV2控制模块、线性电位器、伺服力矩模式控制模块、CAN BUS通讯接口、485通讯接口、开关量输入模块以及开关量输出模块，所述主控芯片采用stm32F373处理器；本专业功能控制板具有结构简单，人工智能显示，自动控制，效率高，系统稳定的特点。</v>
+      </c>
+    </row>
+    <row r="194" xml:space="preserve">
+      <c r="A194" t="str">
+        <v>[发明公布]一种用于新型喷气织机中的专用功能板</v>
+      </c>
+      <c r="B194" t="str">
+        <v>CN107765635A</v>
+      </c>
+      <c r="C194" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D194" t="str">
+        <v>2017111398586</v>
+      </c>
+      <c r="E194" t="str">
+        <v>2017.11.16</v>
+      </c>
+      <c r="F194" t="str">
+        <v>南京百纳自动化系统有限公司</v>
+      </c>
+      <c r="G194" t="str">
+        <v>鲍文成;朱锦诚</v>
+      </c>
+      <c r="H194" t="str">
+        <v>210039江苏省南京市雨花经济开发区凤集大道15号南莓02座</v>
+      </c>
+      <c r="I194" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05B19/05(2006.01)I_x000d_
+						专利代理机构：南京众联专利代理有限公司32206代理人：顾进</v>
+      </c>
+      <c r="J194" t="str">
+        <v>本发明公开了一种用于新型喷气织机中的专用功能板，包括控制板，所述控制板通过RS232通讯口与显示器连接，所述控制板内设有控制喷气织机工作的主控系统，所述主控系统包括STM32F103型CPU和EMP570型可编程逻辑器件，所述STM32F103型CPU与EMP570型可编程逻辑器件之间通过FSMC总线连接进行连接，所述主控系统还包括数据存储模块、引纬控制单元模块、探纬控制单元模块、开关量输入模块以及开关量输出模块；本专用功能板内的主控系统具有结构简单，人工智能显示，自动控制，效率高，系统稳定的特点。</v>
+      </c>
+    </row>
+    <row r="195" xml:space="preserve">
+      <c r="A195" t="str">
+        <v>[发明公布]移动终端的使用辅助方法、系统及飞行器</v>
+      </c>
+      <c r="B195" t="str">
+        <v>CN107765700A</v>
+      </c>
+      <c r="C195" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D195" t="str">
+        <v>2017109246975</v>
+      </c>
+      <c r="E195" t="str">
+        <v>2017.10.01</v>
+      </c>
+      <c r="F195" t="str">
+        <v>上海量科电子科技有限公司</v>
+      </c>
+      <c r="G195" t="str">
+        <v>马宇尘</v>
+      </c>
+      <c r="H195" t="str">
+        <v>201203上海市浦东新区中国（上海）自由贸易试验区春晓路470号203-32信箱</v>
+      </c>
+      <c r="I195" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05D1/08(2006.01)I;G05D1/10(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J195" t="str">
+        <v>本发明提供了一种移动终端的使用辅助方法、系统及飞行器，涉及无人机技术领域。一种移动终端的人工智能系统，所述系统包括飞行器端和移动终端；所述移动终端，面向用户设置，并与用户建立关联关系；所述飞行器端，用以在采集移动终端发生新事件的信息或采集用户需要使用移动终端的事件信息时，飞至移动终端位置并对移动终端进行抓取，并基于前述关联关系携带移动终端飞至该移动终端对应的用户的位置。利用本发明，通过飞行器飞携带移动终端飞至对应的用户所在位置，以便用户使用该移动终端，提高了用户使用移动终端的自动化程度，提高了通讯效率和用户体验。</v>
+      </c>
+    </row>
+    <row r="196" xml:space="preserve">
+      <c r="A196" t="str">
+        <v>[发明公布]一种语言模板构建方法及装置</v>
+      </c>
+      <c r="B196" t="str">
+        <v>CN107766332A</v>
+      </c>
+      <c r="C196" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D196" t="str">
+        <v>2017112066484</v>
+      </c>
+      <c r="E196" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F196" t="str">
+        <v>北京深知无限人工智能科技有限公司</v>
+      </c>
+      <c r="G196" t="str" xml:space="preserve">
+        <v xml:space="preserve">汉斯·乌思克尔特;亚历山德拉·加布里斯萨克;徐飞玉;李宏;塞巴斯蒂安·克劳泽_x000d_
+				</v>
+      </c>
+      <c r="H196" t="str">
+        <v>100176北京市大兴区经济技术开发区科创十三街18号院5号楼1610室</v>
+      </c>
+      <c r="I196" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/27(2006.01)I_x000d_
+						专利代理机构：北京集佳知识产权代理有限公司11227代理人：王宝筠</v>
+      </c>
+      <c r="J196" t="str">
+        <v>本申请实施例公开了一种语言模板构建方法和装置，实现提高目标关系抽取准确率的目的。该方法包括：获取训练文本，并基于训练文本构建语法依存图，语法依存图包括训练文本中各顶点和各个顶点之间的语法关系，各顶点包括训练文本中的词和/或词组；从语法依存图的各顶点中确定与关系论元匹配的第一顶点以及确定与目标关系在语义上匹配的第二顶点；从语法依存图中抽取出至少一个第一语法子图，形成第一语法子图集合，第一语法子图为包含有第一顶点和第二顶点及其之间的语法关系的最小语法子图；根据第一语法子图集合中的第一语法子图，学习生成第一语言模板集合，第一语言模板集合中包括至少一个第一语言模板。</v>
+      </c>
+    </row>
+    <row r="197" xml:space="preserve">
+      <c r="A197" t="str">
+        <v>[发明公布]基于人工智能的资源更新提醒方法、装置及存储介质</v>
+      </c>
+      <c r="B197" t="str">
+        <v>CN107766441A</v>
+      </c>
+      <c r="C197" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D197" t="str">
+        <v>2017108619899</v>
+      </c>
+      <c r="E197" t="str">
+        <v>2017.09.21</v>
+      </c>
+      <c r="F197" t="str">
+        <v>北京百度网讯科技有限公司</v>
+      </c>
+      <c r="G197" t="str">
+        <v>陈文浩;郑宇宏;郑烨翰</v>
+      </c>
+      <c r="H197" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦2层</v>
+      </c>
+      <c r="I197" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+						专利代理机构：北京鸿德海业知识产权代理事务所(普通合伙)11412代理人：袁媛</v>
+      </c>
+      <c r="J197" t="str">
+        <v>本发明公开了基于人工智能的资源更新提醒方法、装置及存储介质，其中方法包括：对确定出的热门资源进行监控；当监控到任一热门资源发生更新时，获取该热门资源对应的感兴趣用户列表；分别向感兴趣用户列表中的用户发送该热门资源发生更新的提醒信息。应用本发明所述方案，能够简化用户操作等。</v>
+      </c>
+    </row>
+    <row r="198" xml:space="preserve">
+      <c r="A198" t="str">
+        <v>[发明公布]一种面部识别方法</v>
+      </c>
+      <c r="B198" t="str">
+        <v>CN107766785A</v>
+      </c>
+      <c r="C198" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D198" t="str">
+        <v>2017100612497</v>
+      </c>
+      <c r="E198" t="str">
+        <v>2017.01.25</v>
+      </c>
+      <c r="F198" t="str">
+        <v>丁贤根</v>
+      </c>
+      <c r="G198" t="str">
+        <v>丁贤根</v>
+      </c>
+      <c r="H198" t="str">
+        <v>214400江苏省无锡市江阴市环城北路85号金色阳光家园401</v>
+      </c>
+      <c r="I198" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I_x000d_
+						专利代理机构：北京同立钧成知识产权代理有限公司11205代理人：张娜;刘芳</v>
+      </c>
+      <c r="J198" t="str">
+        <v>一种面部识别方法，包括采集用户的人脸视频、图像序列和音频步骤，面部动作识别和访问对象身份识别步骤，输出动作指令和依据保密关系访问保密信息步骤，实现用面部动作来驱动宿主系统的指令和隐私保密，实现用户账户密码活体认证。可识别出无意识动作如眨眼睛；识别出有意识动作，如眨眼、皱眉、张嘴、点头等动作，同时还提出语义指令识别方法，用这些动作去驱动宿主子系统的各种功能。此外，在访问对象和被访问信息之间建立一一对应的保密关系，依据人脸识别，完成保密信息面向访问对象的保密。采用人工智能网络算法、模糊识别算法、遗传算法来完成面部动作的识别。用于保密社交、保密隐私、VR、AR、MR、头盔操作、金融支付、游戏和手机APP。</v>
+      </c>
+    </row>
+    <row r="199" xml:space="preserve">
+      <c r="A199" t="str">
+        <v>[发明公布]一种云端边缘计算融合的深度学习计算系统和方法</v>
+      </c>
+      <c r="B199" t="str">
+        <v>CN107766889A</v>
+      </c>
+      <c r="C199" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D199" t="str">
+        <v>2017110142816</v>
+      </c>
+      <c r="E199" t="str">
+        <v>2017.10.26</v>
+      </c>
+      <c r="F199" t="str">
+        <v>济南浪潮高新科技投资发展有限公司</v>
+      </c>
+      <c r="G199" t="str">
+        <v>孙善宝;于治楼;张爱成</v>
+      </c>
+      <c r="H199" t="str">
+        <v>250100山东省济南市高新区孙村镇科航路2877号研发楼一楼</v>
+      </c>
+      <c r="I199" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I;_x000d_
+						G06F9/46(2006.01)I;G06F9/54(2006.01)I_x000d_
+						专利代理机构：济南信达专利事务所有限公司37100代理人：韩月娥</v>
+      </c>
+      <c r="J199" t="str">
+        <v>本发明公开一种云端边缘计算融合的深度学习计算系统和方法，涉及云计算、边缘计算和人工智能技术领域，将深度学习计算分布到云端、管道和边缘侧，由云端负责历史数据大计算量的基础模型训练，根据边缘侧的需求进行个性化的模型分发，云端到边缘侧节点部署学习后的深度学习模型，用来完成推理，边缘侧持续进行推理结果的反馈，再上传到云端持续优化模型。相较于传统的训练和推理都在云端的方式，本发明整个深度学习计算过程，将持续优化计算模型，根据边缘侧的需求进行个性化的模型分发，有效的利用了带宽，保证了网络传输的效率，提高了实时业务执行效率。</v>
+      </c>
+    </row>
+    <row r="200" xml:space="preserve">
+      <c r="A200" t="str">
+        <v>[发明公布]一种自动报价方法及系统</v>
+      </c>
+      <c r="B200" t="str">
+        <v>CN107767209A</v>
+      </c>
+      <c r="C200" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D200" t="str">
+        <v>2017108614236</v>
+      </c>
+      <c r="E200" t="str">
+        <v>2017.09.21</v>
+      </c>
+      <c r="F200" t="str">
+        <v>武汉蜕变人工智能科技有限公司</v>
+      </c>
+      <c r="G200" t="str">
+        <v>柯贤训</v>
+      </c>
+      <c r="H200" t="str">
+        <v>430070湖北省武汉市洪山区南湖大道8号</v>
+      </c>
+      <c r="I200" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q30/06(2012.01)I;G06Q30/02(2012.01)I_x000d_
+						专利代理机构：北京轻创知识产权代理有限公司11212代理人：杨立;朱毅</v>
+      </c>
+      <c r="J200" t="str">
+        <v>本发明涉及一种自动报价方法及系统，包括：接收买家终端发送的商品求购信息；根据商品求购信息，从数据库中获取其预设的报价公式，并生成商品求购信息对应的报价信息；向买家终端返回报价信息。本发明通过报价公式实现对买家输入的商品求购信息的自动报价，并通过邮件，QQ，和第三方平台对接的形式，自动推送报价至买家，提高了自动报价的灵活性，节省人力、物力和财力，用户体验感。</v>
+      </c>
+    </row>
+    <row r="201" xml:space="preserve">
+      <c r="A201" t="str">
+        <v>[发明公布]一种智能物品回收装置、智能物品回收系统及回收方法</v>
+      </c>
+      <c r="B201" t="str">
+        <v>CN107767548A</v>
+      </c>
+      <c r="C201" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D201" t="str">
+        <v>2017112718789</v>
+      </c>
+      <c r="E201" t="str">
+        <v>2017.12.06</v>
+      </c>
+      <c r="F201" t="str">
+        <v>山东中公网络科技有限公司</v>
+      </c>
+      <c r="G201" t="str">
+        <v>周旭东</v>
+      </c>
+      <c r="H201" t="str">
+        <v>261000山东省潍坊市青年路428号金沙城市广场1号1-618</v>
+      </c>
+      <c r="I201" t="str" xml:space="preserve">
+        <v xml:space="preserve">G07F7/06(2006.01)I_x000d_
+						专利代理机构：青岛致嘉知识产权代理事务所(普通合伙)37236代理人：单虎本国优先权：2017106479757 2017.08.01 CN</v>
+      </c>
+      <c r="J201" t="str">
+        <v>本发明提供了一种智能物品回收装置、智能物品回收系统及回收方法，所述装置的回收箱主体上设置有投物口、显示屏，投物口处设置有感应器以及摄像头，回收箱主体内部设置有与显示屏连接的处理器，与处理器连接的用户识别模块、无线通信模块、回收机构，显示屏、感应器、摄像头分别与处理器连接，后台服务主体包括人工智能计算服务器、管理服务器，以及与管理服务器通信的移动数据终端，人工智能计算服务器和管理服务器分别通过无线通信模块和处理器通信；所述系统包括数据处理模块、人工智能图像识别模块、管理模块和移动终端APP；所述方法为使用所述装置和系统智能回收物品的方法。物品识别精度高，识别物品种类不受局限，成本低。</v>
+      </c>
+    </row>
+    <row r="202" xml:space="preserve">
+      <c r="A202" t="str">
+        <v>[发明公布]基于人工智能的医学影像报告生成系统及方法</v>
+      </c>
+      <c r="B202" t="str">
+        <v>CN107767928A</v>
+      </c>
+      <c r="C202" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D202" t="str">
+        <v>2017108502885</v>
+      </c>
+      <c r="E202" t="str">
+        <v>2017.09.15</v>
+      </c>
+      <c r="F202" t="str">
+        <v>深圳市前海安测信息技术有限公司</v>
+      </c>
+      <c r="G202" t="str" xml:space="preserve">
+        <v xml:space="preserve">姚育东;钱唯;郑斌;马贺;齐守良;赵明芳_x000d_
+				</v>
+      </c>
+      <c r="H202" t="str">
+        <v>518063广东省深圳市前海深港合作区前湾一路1号A栋201室(入驻深圳市前海商务秘书有限公司)</v>
+      </c>
+      <c r="I202" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H15/00(2018.01)I;_x000d_
+						G16H30/20(2018.01)I;G16H50/20(2018.01)I_x000d_
+						</v>
+      </c>
+      <c r="J202" t="str">
+        <v>本发明公开一种基于人工智能的医学影像报告生成系统及方法，该方法包括步骤：从医学影像信息库中获取医学影像信息；基于不同人体部位将医学影像信息分类处理；基于分类后的医学影像信息建立人体各部位的医学评估模型；对人体各部位的医学评估模型进行训练处理并保存医学模型参数；通过超声检查设备的身份证读卡器获取患者的身份信息；从超声检查设备对、获得患者的超声波影像；对超声波影像进行影像增强型处理得到医学检查影像；根据目标检查部位从存储单元中获取对应的医学模型参数；根据身份信息、医学检查影像及对应的医学模型参数生成患者的医学检查报告。本发明能够在医学检查报告中提供医学模型参数和提升医学检查影像的质量，有利于提高医学检查的效率和准确性。</v>
+      </c>
+    </row>
+    <row r="203" xml:space="preserve">
+      <c r="A203" t="str">
+        <v>[发明公布]基于人工智能的医学影像分类处理系统及方法</v>
+      </c>
+      <c r="B203" t="str">
+        <v>CN107767935A</v>
+      </c>
+      <c r="C203" t="str">
+        <v>2018.03.06</v>
+      </c>
+      <c r="D203" t="str">
+        <v>2017108461245</v>
+      </c>
+      <c r="E203" t="str">
+        <v>2017.09.15</v>
+      </c>
+      <c r="F203" t="str">
+        <v>深圳市前海安测信息技术有限公司</v>
+      </c>
+      <c r="G203" t="str" xml:space="preserve">
+        <v xml:space="preserve">姚育东;钱唯;郑斌;马贺;齐守良;赵明芳_x000d_
+				</v>
+      </c>
+      <c r="H203" t="str">
+        <v>518063广东省深圳市前海深港合作区前湾一路1号A栋201室(入驻深圳市前海商务秘书有限公司)</v>
+      </c>
+      <c r="I203" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H30/20(2018.01)I;_x000d_
+						G16H50/20(2018.01)I;G06K9/62(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J203" t="str">
+        <v>本发明公开一种基于人工智能的医学影像分类处理系统及方法，该方法包括步骤：从医学影像信息库中获取医学影像信息；基于不同人体部位将医学影像信息分类处理；基于分类后的医学影像信息建立人体各部位的医学评估模型；对人体各部位的医学评估模型进行训练处理并保存医学模型参数；从医学影像采集终端接收患者的医学检查影像；从患者的医学检查影像中识别出检查部位，并根据检查部位从存储单元中获取对应的医学模型参数；将患者的医学检查影像及对应的医学模型参数发送到医生工作站。本发明能够根据人体各个不同部位对医学影像进行特征分类并训练医学模型供医生进行医学检查参考，有利于提高医学检查的效率和准确性。</v>
+      </c>
+    </row>
+    <row r="204" xml:space="preserve">
+      <c r="A204" t="str">
+        <v>[发明公布]人工智能AI单位的寻路方法及装置</v>
+      </c>
+      <c r="B204" t="str">
+        <v>CN107744663A</v>
+      </c>
+      <c r="C204" t="str">
+        <v>2018.03.02</v>
+      </c>
+      <c r="D204" t="str">
+        <v>2017109785241</v>
+      </c>
+      <c r="E204" t="str">
+        <v>2017.10.19</v>
+      </c>
+      <c r="F204" t="str">
+        <v>广州爱九游信息技术有限公司</v>
+      </c>
+      <c r="G204" t="str">
+        <v>周贤军;李小勇</v>
+      </c>
+      <c r="H204" t="str">
+        <v>510000广东省广州市天河区黄埔大道西平云路163号广电平云广场B塔13层自编02单元</v>
+      </c>
+      <c r="I204" t="str" xml:space="preserve">
+        <v xml:space="preserve">A63F13/56(2014.01)I_x000d_
+						专利代理机构：北京同立钧成知识产权代理有限公司11205代理人：张子青;刘芳</v>
+      </c>
+      <c r="J204" t="str">
+        <v>本发明实施例提供一种人工智能AI单位的寻路方法及装置。该方法包括：分别获取多个AI单位中每个AI单位的起始位置和终点位置；根据每个AI单位的终点位置，生成终点位置对应的游戏地图的势场网格，其中，相同的终点位置对应相同的势场网格；根据每个AI单位对应的势场网格，分别确定每个AI单位从起始位置到终点位置的寻路路径。本发明实施例通过预先计算不同的终点位置对应的势场网格，在AI单位移动过程中不需要再进行寻路计算，当多个AI单位的终点位置相同时，使用同一个势场网格对多个AI单位进行寻路即可，从而节省了AI单位在移动过程中的计算量，从而避免了由于大量AI单位同时需要寻路而造成的游戏画面卡顿。</v>
+      </c>
+    </row>
+    <row r="205" xml:space="preserve">
+      <c r="A205" t="str">
+        <v>[发明公布]一种清除粘沾物的人工智能机器人</v>
+      </c>
+      <c r="B205" t="str">
+        <v>CN107747291A</v>
+      </c>
+      <c r="C205" t="str">
+        <v>2018.03.02</v>
+      </c>
+      <c r="D205" t="str">
+        <v>2017111491941</v>
+      </c>
+      <c r="E205" t="str">
+        <v>2017.11.18</v>
+      </c>
+      <c r="F205" t="str">
+        <v>王龙</v>
+      </c>
+      <c r="G205" t="str">
+        <v>王龙</v>
+      </c>
+      <c r="H205" t="str">
+        <v>652803云南省玉溪市华宁县青龙镇大村村委会者白村73号</v>
+      </c>
+      <c r="I205" t="str" xml:space="preserve">
+        <v xml:space="preserve">E01H1/10(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J205" t="str">
+        <v>本发明公开了一种清除粘沾物的人工智能机器人，包括底部固定吸盘、吸盘伸缩轴、铲头调节旋钮、机器人铲头、软化液储箱、机器人壳体、伺服变频电机，所述软化液喷嘴上方安装有所述软化液储箱，所述软化液储箱上方安装有所述机器人壳体，所述机器人壳体上方安装有所述伺服变频电机，所述伺服变频电机下方安装有纸张收取杆，所述纸张收取杆下方安装有垃圾储存箱，所述垃圾储存箱下方安装有增压泵,所述增压泵下方安装有操作控制箱，所述操作控制箱下方安装有液晶显示面板。有益效果在于：既能快速去除粘粘物，同时又不损坏墙面或者地面的装置，同时方便快捷，能够节省人力物力，同时能够对机器人进行远程控制，自动化、智能化程度高。</v>
+      </c>
+    </row>
+    <row r="206" xml:space="preserve">
+      <c r="A206" t="str">
+        <v>[发明公布]一种人工智能识别RFID钱箱内货币长短款的装置和方法</v>
+      </c>
+      <c r="B206" t="str">
+        <v>CN107748868A</v>
+      </c>
+      <c r="C206" t="str">
+        <v>2018.03.02</v>
+      </c>
+      <c r="D206" t="str">
+        <v>2017110005113</v>
+      </c>
+      <c r="E206" t="str">
+        <v>2017.10.24</v>
+      </c>
+      <c r="F206" t="str">
+        <v>王美金</v>
+      </c>
+      <c r="G206" t="str">
+        <v>王美金</v>
+      </c>
+      <c r="H206" t="str">
+        <v>528100广东省佛山市三水区城区西河路1号北江明珠13座1404</v>
+      </c>
+      <c r="I206" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;_x000d_
+						G06K9/20(2006.01)I;G06K9/62(2006.01)I;G06K17/00(2006.01)I;G06N3/08(2006.01)I;G06Q40/02(2012.01)I;G07D11/00(2006.01)I;A47F10/00(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J206" t="str">
+        <v>一种人工智能识别RFID钱箱内货币长短款的装置，包括存取款凭证、柜箱、柜位组、脚箱、摄像系统、减震键盘、文字识别系统和金融服务器；所述的柜箱用于放置柜位组；柜位组由多个柜位组成，用于放置散钞、整把钞票；柜位包括下面的电磁力平衡称重传感器、上面的柜位身；电磁力平衡称重传感器包括上面的承重台和下面的基座，基座底部有电路接口。人工智能模糊识别服务器使用神经网络图像识别算法，从摄像系统取得特定面值钞票的全部或部分图像，评估特定面值钞票的新旧程度；使用模糊k‑近邻算法，假设同一柜位每一张钞票面值相同，由于新旧，重量略有差异的情况下，对每一个柜位分别设立模糊规则库，根据重量、增加的重量判定里面的钞票数量。</v>
+      </c>
+    </row>
+    <row r="207" xml:space="preserve">
+      <c r="A207" t="str">
+        <v>[发明公布]一种乳腺肿瘤超声图像自动分类方法</v>
+      </c>
+      <c r="B207" t="str">
+        <v>CN107748889A</v>
+      </c>
+      <c r="C207" t="str">
+        <v>2018.03.02</v>
+      </c>
+      <c r="D207" t="str">
+        <v>2017109576528</v>
+      </c>
+      <c r="E207" t="str">
+        <v>2017.10.16</v>
+      </c>
+      <c r="F207" t="str">
+        <v>高东平</v>
+      </c>
+      <c r="G207" t="str">
+        <v>高东平</v>
+      </c>
+      <c r="H207" t="str">
+        <v>100081北京市海淀区学院南路8号院143</v>
+      </c>
+      <c r="I207" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/46(2006.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京理工正阳知识产权代理事务所(普通合伙)11639代理人：鲍文娟</v>
+      </c>
+      <c r="J207" t="str">
+        <v>本发明涉及一种乳腺超声图像自动分类方法，属于人工智能应用技术领域。本发明紧密结合乳腺超声图像量化特征，将乳腺肿瘤超声图像中的直方图特征、颜色特征、轮廓特征、边界特征、回声特征进行量化，选择决策树、朴素贝叶斯及随机森林方法做为机器学习方法，并提出了一种决策树、朴素贝叶斯及随机森林加权融合多维分类方法对乳腺图像进行识别。本发明可有效提高乳腺肿瘤超声图像自动分类准确率。</v>
+      </c>
+    </row>
+    <row r="208" xml:space="preserve">
+      <c r="A208" t="str">
+        <v>[发明公布]一种大数据人工智能分析系统</v>
+      </c>
+      <c r="B208" t="str">
+        <v>CN107749875A</v>
+      </c>
+      <c r="C208" t="str">
+        <v>2018.03.02</v>
+      </c>
+      <c r="D208" t="str">
+        <v>2017109416815</v>
+      </c>
+      <c r="E208" t="str">
+        <v>2017.10.11</v>
+      </c>
+      <c r="F208" t="str">
+        <v>四川省电科互联网加产业技术研究院有限公司</v>
+      </c>
+      <c r="G208" t="str">
+        <v>陆川;陈文军;张明</v>
+      </c>
+      <c r="H208" t="str">
+        <v>610015四川省成都市双流区西南航空港经济开发区公兴街道双兴大道</v>
+      </c>
+      <c r="I208" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/08(2006.01)I;H04L29/06(2006.01)I_x000d_
+						专利代理机构：成都玖和知识产权代理事务所(普通合伙)51238代理人：黎祖琴</v>
+      </c>
+      <c r="J208" t="str">
+        <v>本发明涉及一种大数据人工智能分析系统，解决的是实时性差的技术问题，通过采用包括依次并联的计算服务器、系统服务器、业务编排装置及大数据获取机构组合，大数据服务器组合包括多个并联的大数据获取机构；所述业务编排装置包括知识编排单元，与知识编排单元连接的编排执行单元及格式转换单元，所述格式转换单元还与编排执行单元连接，所述知识编排单元还与系统服务器连接；所述计算服务器包括至少2个计算服务器，所述系统服务器与计算服务器数量匹配的技术方案，较好的解决了该问题，可用于大数据智能分析中。</v>
+      </c>
+    </row>
+    <row r="209" xml:space="preserve">
+      <c r="A209" t="str">
+        <v>[发明公布]智能车灯控制系统</v>
+      </c>
+      <c r="B209" t="str">
+        <v>CN107750079A</v>
+      </c>
+      <c r="C209" t="str">
+        <v>2018.03.02</v>
+      </c>
+      <c r="D209" t="str">
+        <v>2017108760995</v>
+      </c>
+      <c r="E209" t="str">
+        <v>2017.09.25</v>
+      </c>
+      <c r="F209" t="str">
+        <v>韦建军</v>
+      </c>
+      <c r="G209" t="str">
+        <v>韦建军</v>
+      </c>
+      <c r="H209" t="str">
+        <v>072650河北省保定市定兴县李郁庄乡杨各庄村54号</v>
+      </c>
+      <c r="I209" t="str" xml:space="preserve">
+        <v xml:space="preserve">H05B37/02(2006.01)I_x000d_
+						专利代理机构：北京科亿知识产权代理事务所(普通合伙)11350代理人：肖平安</v>
+      </c>
+      <c r="J209" t="str">
+        <v>本发明公开了一种智能车灯控制系统。它包括第一子系统、第二子系统、第三子系统、第四子系统和后台监控服务器，后台监控服务器通过阿里云接收第一子系统、第二子系统、第三子系统、第四子系统采集的数据信息；所述的第一子系统、第二子系统、第三子系统、第四子系统均采用智能车灯控制板。本发明控制芯片采用SRM、CORTEX‑M3内核，高性能低成本嵌入式控制系统；能够实现人工智能与实时监控运行状况、数据采集和交换共享。</v>
+      </c>
+    </row>
+    <row r="210" xml:space="preserve">
+      <c r="A210" t="str">
+        <v>[发明公布]一种可记录压力和运动的人工智能颈椎间盘</v>
+      </c>
+      <c r="B210" t="str">
+        <v>CN107736956A</v>
+      </c>
+      <c r="C210" t="str">
+        <v>2018.02.27</v>
+      </c>
+      <c r="D210" t="str">
+        <v>2017109934087</v>
+      </c>
+      <c r="E210" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F210" t="str">
+        <v>四川大学华西医院</v>
+      </c>
+      <c r="G210" t="str">
+        <v>王贝宇;吴廷奎;刘浩</v>
+      </c>
+      <c r="H210" t="str">
+        <v>610000四川省成都市武侯区国学巷37号</v>
+      </c>
+      <c r="I210" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61F2/44(2006.01)I;A61F2/46(2006.01)I_x000d_
+						专利代理机构：成都高远知识产权代理事务所(普通合伙)51222代理人：曾克;李晓英本国优先权：201721302207X 2017.09.30 CN</v>
+      </c>
+      <c r="J210" t="str">
+        <v>本发明涉及一种可记录压力和运动的人工智能颈椎间盘，包括上板、支撑体、下板、至少一个压力传感器、角度位移感受器、无线通讯模块以及微型电池，支撑体与上板可相对活动，支撑体为高分子材料，支撑体内设有压力传感器、无线通讯模块和微型电池，上板和下板内均设有角度位移感受器、无线通讯模块和微型电池。本发明中支撑体可单独更换，可通过微创手术进行更换，避免板骨愈合界面的再次破坏；支撑体通过压力感受器可实时感应压力变化以及压力位置分布，角度位移感受器可独立实时记录三维空间的角度变化参数，可无创、不间断的实时监测假体的功能和状态，从而详细评估患者在颈椎人工椎间盘置换术后近期及中远期风险、指导康训练。</v>
+      </c>
+    </row>
+    <row r="211" xml:space="preserve">
+      <c r="A211" t="str">
+        <v>[发明公布]一种人工智能精确瞄准方法及系统</v>
+      </c>
+      <c r="B211" t="str">
+        <v>CN107741175A</v>
+      </c>
+      <c r="C211" t="str">
+        <v>2018.02.27</v>
+      </c>
+      <c r="D211" t="str">
+        <v>2017109881535</v>
+      </c>
+      <c r="E211" t="str">
+        <v>2017.10.21</v>
+      </c>
+      <c r="F211" t="str">
+        <v>聚鑫智能科技（武汉）股份有限公司</v>
+      </c>
+      <c r="G211" t="str">
+        <v>张宏鑫;其他发明人请求不公开姓名</v>
+      </c>
+      <c r="H211" t="str">
+        <v>430000湖北省武汉市光谷大道特一号国际企业中心3栋4层04</v>
+      </c>
+      <c r="I211" t="str" xml:space="preserve">
+        <v xml:space="preserve">F41G1/00(2006.01)I;_x000d_
+						G06T1/20(2006.01)I;G06T7/80(2017.01)I_x000d_
+						</v>
+      </c>
+      <c r="J211" t="str">
+        <v>本发明实施例针对生物体的自动识别、瞄准技术领域，具体是一种人工智能精确瞄准方法及系统。包括：采集图像信息并建立坐标系；记录目标点位的坐标参数以及获取目标的距离参数；进行第一次瞄准；向所述目标发射瞬时瞄准激光并进行计算模拟弹道；若所述瞬时瞄准激光命中所述目标，则根据所述目标的坐标参数进行第二次瞄准，并准备射击；若所述瞬时瞄准激光未命中所述目标，则重新进行上述步骤。与现有技术相比，本发明能够起到对目标的高精度识别及瞄准，还能够自动计算目标的重要程度而选择射击顺序，尤其是通过瞬时瞄准激光进行模拟弹道，能够大幅度提高现有技术中的自动射击命中率，从而大大提高了本发明实施例的实用性。</v>
+      </c>
+    </row>
+    <row r="212" xml:space="preserve">
+      <c r="A212" t="str">
+        <v>[发明公布]一种中医脉象的神经网络模型训练方法</v>
+      </c>
+      <c r="B212" t="str">
+        <v>CN107742151A</v>
+      </c>
+      <c r="C212" t="str">
+        <v>2018.02.27</v>
+      </c>
+      <c r="D212" t="str">
+        <v>201710764743X</v>
+      </c>
+      <c r="E212" t="str">
+        <v>2017.08.30</v>
+      </c>
+      <c r="F212" t="str">
+        <v>电子科技大学</v>
+      </c>
+      <c r="G212" t="str" xml:space="preserve">
+        <v xml:space="preserve">胡绍刚;詹稀童;钱堃;伍元聪;王俊杰;刘洋_x000d_
+				</v>
+      </c>
+      <c r="H212" t="str">
+        <v>610054四川省成都市建设北路二段四号</v>
+      </c>
+      <c r="I212" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06N3/04(2006.01)I;_x000d_
+						G06N3/06(2006.01)I;G06N3/08(2006.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：北京科亿知识产权代理事务所(普通合伙)11350代理人：汤东凤</v>
+      </c>
+      <c r="J212" t="str">
+        <v>本发明涉及中医脉象和人工智能领域，具体的说是一种中医脉象的神经网络模型训练方法。本发明包括以下步骤：通过传感器采集脉象信号的三种谱图：功率谱、倒谱和传递函数谱；根据谱图得到特征向量组data，并对特征向量组data进行归一化；将脉象信号进行分类，根据脉象种类的不同得到标签向量cbit，由此得到训练样本为Y＝(cbit，data)，其中cbit为目标输出，data作为神经网络的输入；建立神经网络模型，所述神经网络模型包括输入层、隐藏层和输出层；对神经网络进行训练。本发明基于神经网络，神经网络具有自适应的能力，对输入数据进行训练，更新权值和神经元数量，得到的神经网络模型可用于中医脉象的辅助诊断。</v>
+      </c>
+    </row>
+    <row r="213" xml:space="preserve">
+      <c r="A213" t="str">
+        <v>[发明公布]一种用于中餐宴会台面摆台智能评分的餐具识别方法</v>
+      </c>
+      <c r="B213" t="str">
+        <v>CN107742181A</v>
+      </c>
+      <c r="C213" t="str">
+        <v>2018.02.27</v>
+      </c>
+      <c r="D213" t="str">
+        <v>2017108975446</v>
+      </c>
+      <c r="E213" t="str">
+        <v>2017.09.28</v>
+      </c>
+      <c r="F213" t="str">
+        <v>湖北工业大学</v>
+      </c>
+      <c r="G213" t="str" xml:space="preserve">
+        <v xml:space="preserve">曾亮;常雨芳;王粟;付波;武明虎;朱飞;易梦云_x000d_
+				</v>
+      </c>
+      <c r="H213" t="str">
+        <v>430068湖北省武汉市洪山区南李路28号</v>
+      </c>
+      <c r="I213" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/06(2012.01)I;_x000d_
+						G06Q50/12(2012.01)I;G06Q50/20(2012.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：武汉帅丞知识产权代理有限公司42220代理人：朱必武;刘国斌</v>
+      </c>
+      <c r="J213" t="str">
+        <v>本发明涉及一种用于中餐宴会台面摆台智能评分的餐具识别方法，所述餐具识别方法包括圆形餐具识别方法、餐具分组归并和分类方法、台面中心识别和遴选方法，以及异形餐具识别方法。本发明所述的餐具识别方法解决了对中餐宴会台面摆台效果进行智能评判时存在的主要难题之一——图像识别问题，为人工智能等新技术在该领域的顺利应用扫清了障碍。本发明所述的餐具识别方法完全依据数字图像处理算法实现，既无需对餐具本身做任何改造，也无需增设其他任何硬件设施，硬件投入为零，因而具有低成本的先天优势，有利于其在旅游与酒店管理专业相关的实习实训课程和技能大赛推广应用。</v>
+      </c>
+    </row>
+    <row r="214" xml:space="preserve">
+      <c r="A214" t="str">
+        <v>[发明公布]一种用于电力服务领域的人工智能机器人系统</v>
+      </c>
+      <c r="B214" t="str">
+        <v>CN107742260A</v>
+      </c>
+      <c r="C214" t="str">
+        <v>2018.02.27</v>
+      </c>
+      <c r="D214" t="str">
+        <v>2017111931570</v>
+      </c>
+      <c r="E214" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F214" t="str" xml:space="preserve">
+        <v xml:space="preserve">福建网能科技开发有限责任公司;国家电网公司;国网信息通信产业集团有限公司;国网信通亿力科技有限责任公司_x000d_
+				</v>
+      </c>
+      <c r="G214" t="str" xml:space="preserve">
+        <v xml:space="preserve">罗义钊;林建林;陈彪;蒋海峰;俞煌;严琦;徐才林;林东_x000d_
+				</v>
+      </c>
+      <c r="H214" t="str">
+        <v>350000福建省福州市鼓楼区软件大道89号福州软件园B区13号</v>
+      </c>
+      <c r="I214" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q50/06(2012.01)I;G07F17/00(2006.01)I_x000d_
+						专利代理机构：福州智理专利代理有限公司35208代理人：康永辉</v>
+      </c>
+      <c r="J214" t="str">
+        <v>本发明公开了一种用于电力服务领域的人工智能机器人系统，所述的人工智能机器人系统包括人工智能交互系统模块1，运动控制系统模块16，智能输入输出系统模块15、网络及数据接口系统模块17、电源系统模块18；所述人工智能交互系统模块1包括微电脑主控模块；智能输入输出系统模块15包括语音语义识别模块2、人脸识别模块3、触摸显示屏模块4和打印模块5；运动控制系统模块16包括传感器模块8、自动避障模块10、红外循迹模块9、定位识别及导航模块；网络及数据接口系统模块17包括有线和无线融合的网络接口模块6、电力业务系统接口模块7；电源系统模块18包括低电量识别模块12、自动充电接口模块11。</v>
+      </c>
+    </row>
+    <row r="215" xml:space="preserve">
+      <c r="A215" t="str">
+        <v>[发明公布]一种基于食物营养素预测痛风的方法</v>
+      </c>
+      <c r="B215" t="str">
+        <v>CN107742533A</v>
+      </c>
+      <c r="C215" t="str">
+        <v>2018.02.27</v>
+      </c>
+      <c r="D215" t="str">
+        <v>2017108232496</v>
+      </c>
+      <c r="E215" t="str">
+        <v>2017.09.13</v>
+      </c>
+      <c r="F215" t="str">
+        <v>天津大学</v>
+      </c>
+      <c r="G215" t="str">
+        <v>刘昱;蒋淮*</v>
+      </c>
+      <c r="H215" t="str">
+        <v>300072天津市南开区卫津路92号</v>
+      </c>
+      <c r="I215" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H50/20(2018.01)I;G16H20/60(2018.01)I_x000d_
+						专利代理机构：天津市北洋有限责任专利代理事务所12201代理人：李素兰</v>
+      </c>
+      <c r="J215" t="str">
+        <v>本发明公开了一种基于食物营养素预测痛风的方法，步骤1、获取用户最近两个星期的饮食数据；步骤2、将用户的饮食数据通过食物数据库和食物营养素数据库转化为营养素数据；步骤3、将上述的营养素数据输入基于人工神经网络的痛风预测模型；步骤4、基于人工神经网络所建立的痛风预测模型对营养素数据进行处理，得出用户患痛风的危险系数。本发明结合用户的身体和饮食习惯，基于数据监测和人工智能分析，有针对性的进行痛风患病危险分析和预测，为用户调整饮食结构来避免痛风的危害提供科学参考。</v>
+      </c>
+    </row>
+    <row r="216" xml:space="preserve">
+      <c r="A216" t="str">
+        <v>[发明公布]一种基于无人机检测果园信息的人工智能喷药系统</v>
+      </c>
+      <c r="B216" t="str">
+        <v>CN107711799A</v>
+      </c>
+      <c r="C216" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D216" t="str">
+        <v>2017112282017</v>
+      </c>
+      <c r="E216" t="str">
+        <v>2017.11.29</v>
+      </c>
+      <c r="F216" t="str">
+        <v>西北农林科技大学</v>
+      </c>
+      <c r="G216" t="str">
+        <v>杨福增;王强</v>
+      </c>
+      <c r="H216" t="str">
+        <v>712100陕西省咸阳市杨凌示范区西农路22号西北农林科技大学机电学院16#信箱</v>
+      </c>
+      <c r="I216" t="str" xml:space="preserve">
+        <v xml:space="preserve">A01M7/00(2006.01)I;B64D1/18(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J216" t="str">
+        <v>本发明公开了一种基于无人机检测果园信息的人工智能喷药系统，该系统包含四旋翼无人机、远距离激光摄像机、遥控器、智能手机、牵引式果园弥雾机。远距离激光摄像机固定安装在GoPro karma智能航拍无人机上，通过遥控器同时操作无人机和摄像机，对果园的信息进行采集，并适时地将采集的信息反馈到操作人员的手机上，操作人员根据该信息，通过手机发送指令到牵引式果园弥雾机，控制弥雾机是否喷药和走停动作。该系统具有操作简单、高效快速、精细可靠、适应范围广，同时很大程度上降低了操作人员的劳动强度、减轻了农药对人身体的损伤，而且能够更好的适应郁闭型果园的作业环境，具有较强的实用性和推广价值。</v>
+      </c>
+    </row>
+    <row r="217" xml:space="preserve">
+      <c r="A217" t="str">
+        <v>[发明公布]基于人工智能自学习的静态心电图分析方法和装置</v>
+      </c>
+      <c r="B217" t="str">
+        <v>CN107714023A</v>
+      </c>
+      <c r="C217" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D217" t="str">
+        <v>2017112037585</v>
+      </c>
+      <c r="E217" t="str">
+        <v>2017.11.27</v>
+      </c>
+      <c r="F217" t="str">
+        <v>乐普（北京）医疗器械股份有限公司</v>
+      </c>
+      <c r="G217" t="str" xml:space="preserve">
+        <v xml:space="preserve">曹君;臧凯丰;吕友超;赵鹏飞;王二斌;刘畅_x000d_
+				</v>
+      </c>
+      <c r="H217" t="str">
+        <v>102200北京市昌平区昌平科技园区超前路37号3号楼</v>
+      </c>
+      <c r="I217" t="str" xml:space="preserve">
+        <v xml:space="preserve">A61B5/04(2006.01)I;A61B5/0402(2006.01)I_x000d_
+						专利代理机构：北京慧诚智道知识产权代理事务所(特殊普通合伙)11539代理人：李楠</v>
+      </c>
+      <c r="J217" t="str">
+        <v>本发明实施例涉及一种基于人工智能自学习的静态心电图分析方法和装置,包括数据预处理，心搏检测，基于深度学习方法的心搏分类，心搏的审核，心搏波形特征检测，心电图事件的测量与分析，最终自动输出报告数据，实现了一个完整快速流程的静态心电图的自动化分析方法。本发明的静态心电图分析方法，还可以记录对自动分析结果的修改信息，并收集这些修改的数据反馈给深度学习模型继续训练，不断地改进和提升自动分析方法的准确率。</v>
+      </c>
+    </row>
+    <row r="218" xml:space="preserve">
+      <c r="A218" t="str">
+        <v>[发明公布]人机混合增强智能驾驶系统及电动汽车</v>
+      </c>
+      <c r="B218" t="str">
+        <v>CN107719376A</v>
+      </c>
+      <c r="C218" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D218" t="str">
+        <v>2017108415707</v>
+      </c>
+      <c r="E218" t="str">
+        <v>2017.09.18</v>
+      </c>
+      <c r="F218" t="str">
+        <v>清华大学</v>
+      </c>
+      <c r="G218" t="str" xml:space="preserve">
+        <v xml:space="preserve">赵雪轩;朱子霖;施炯明;郑钢铁_x000d_
+				</v>
+      </c>
+      <c r="H218" t="str">
+        <v>100084北京市海淀区清华园</v>
+      </c>
+      <c r="I218" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60W50/08(2012.01)I_x000d_
+						专利代理机构：北京清亦华知识产权代理事务所(普通合伙)11201代理人：张润</v>
+      </c>
+      <c r="J218" t="str">
+        <v>本发明公开了人机混合增强智能驾驶系统及电动汽车，其中，该系统包括：设置在车辆上的多个传感器、与多个传感器连接的信息处理器、与信息处理器连接的人机交互显示器、与人机交互显示器连接的人类智能控制器、分别与信息处理器、人类智能控制器连接的人工智能控制器、分别与信息处理器、人类智能控制器、人工智能控制器连接的人机混合增强智能控制器；该人机混合增强智能驾驶系统兼具无人驾驶系统与有人驾驶系统的优势，在应对一般路面情况时以计算机控制为主，减轻驾驶员的驾驶负担，而在应对复杂路面情况时以驾驶员决策为主，提高系统应对复杂路面问题的可靠度，并且人工智能控制器具备学习人类驾驶员决策的能力。</v>
+      </c>
+    </row>
+    <row r="219" xml:space="preserve">
+      <c r="A219" t="str">
+        <v>[发明公布]铁路自动无动力驱动加水系统</v>
+      </c>
+      <c r="B219" t="str">
+        <v>CN107719414A</v>
+      </c>
+      <c r="C219" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D219" t="str">
+        <v>2017108794953</v>
+      </c>
+      <c r="E219" t="str">
+        <v>2017.09.16</v>
+      </c>
+      <c r="F219" t="str">
+        <v>李维斌</v>
+      </c>
+      <c r="G219" t="str">
+        <v>李维斌</v>
+      </c>
+      <c r="H219" t="str">
+        <v>746000甘肃省陇南市武都区东江镇东江水行政村一社125</v>
+      </c>
+      <c r="I219" t="str" xml:space="preserve">
+        <v xml:space="preserve">B61K11/00(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J219" t="str">
+        <v>铁路车厢加水是人工加水，人员安全和体力劳动消耗非常大也，人员上岗需要培训，浪费时间。人工加水工作效率太低，数字和人工智能，还要用电。怎样可不用电加水更快。通过机械加惯性同时上水的方式加水，还要在三分钟的时间给所以的车厢上水。怎样实现自动加水，而且不用电，怎样解决不用电，需要在轨道的俩边或中间修改，或者不修改。延长进水口，列车旁加一个移动上水平台。在列车在进站前要减速在减速中使用机械加惯性上水，通过列车运动，来提供动力，列车的加水管自动进入加水入口，由减震器和吸铁石供开关和封口，完成加水。列车出站通过惯性自动短接。以实际需求而定。可以使用电力驱动。</v>
+      </c>
+    </row>
+    <row r="220" xml:space="preserve">
+      <c r="A220" t="str">
+        <v>[发明公布]一种基于煤岩高光谱反射特性的煤岩界面识别方法</v>
+      </c>
+      <c r="B220" t="str">
+        <v>CN107727592A</v>
+      </c>
+      <c r="C220" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D220" t="str">
+        <v>2017109328015</v>
+      </c>
+      <c r="E220" t="str">
+        <v>2017.10.10</v>
+      </c>
+      <c r="F220" t="str">
+        <v>中国矿业大学</v>
+      </c>
+      <c r="G220" t="str" xml:space="preserve">
+        <v xml:space="preserve">葛世荣;杨恩;王世博;张昊_x000d_
+				</v>
+      </c>
+      <c r="H220" t="str">
+        <v>221008江苏省徐州市铜山区大学路中国矿业大学科研院</v>
+      </c>
+      <c r="I220" t="str" xml:space="preserve">
+        <v xml:space="preserve">G01N21/31(2006.01)I_x000d_
+						专利代理机构：南京瑞弘专利商标事务所(普通合伙)32249代理人：杨晓玲</v>
+      </c>
+      <c r="J220" t="str">
+        <v>本发明公开了一种基于煤岩高光谱反射特性的煤岩界面识别方法，此方法根据被测煤岩所含矿物的化学成分和组成结构不同，其在特定波长点处对相同光反射吸收的高光谱反射率特性不同，采用高光谱进行地下煤岩界面感知，对感知数据利用全波形、特征参量及人工智能识别等方法保证环境适用性和判别精度。通过建立我国主要煤岩的高光谱数据库，对包络线预处理后的光谱曲线全波形、差异吸收谷反射率曲线中提取的特征参数、差异吸收谷反射率曲线全波形数据，采用四种识别模型实现对未知类型试样的识别。本发明解决了在不同的煤系或煤田的煤层类型结构和顶底板沉积岩类型结构变化多样的情况下，快速高效地区分煤岩界面的问题。</v>
+      </c>
+    </row>
+    <row r="221" xml:space="preserve">
+      <c r="A221" t="str">
+        <v>[发明公布]一种智能化调整摄影角度的无人机系统</v>
+      </c>
+      <c r="B221" t="str">
+        <v>CN107728637A</v>
+      </c>
+      <c r="C221" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D221" t="str">
+        <v>2017112533246</v>
+      </c>
+      <c r="E221" t="str">
+        <v>2017.12.02</v>
+      </c>
+      <c r="F221" t="str">
+        <v>广东容祺智能科技有限公司</v>
+      </c>
+      <c r="G221" t="str">
+        <v>刘铭青;叶茂林;陈建伟</v>
+      </c>
+      <c r="H221" t="str">
+        <v>518131广东省深圳市龙华新区龙华办事处东环一路北侧东吴工业厂区厂房九栋2楼南分隔体（仅限办公）</v>
+      </c>
+      <c r="I221" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05D1/08(2006.01)I;_x000d_
+						G01C11/04(2006.01)I;H04N5/232(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J221" t="str">
+        <v>本发明公开了一种智能化调整摄影角度的无人机系统，涉及无人机技术领域，包括自主飞行系统、相机姿态调整模块、图像采集模块、角度位移分析模块、图像提取与侦测模块、姿态路径规划模块和图像存储与无线回传模块，该种无人机系统可应用于无人机消防救援、电力巡检、交通执法等领域，针对需要对目标物准确拍摄、高效采集实景影像的应用场景提出了一套行之有效的智能化解决方案，结合人工智能技术，实现全自主跟拍、对焦、构图等功能，有助于提高无人机综合应用水平。</v>
+      </c>
+    </row>
+    <row r="222" xml:space="preserve">
+      <c r="A222" t="str">
+        <v>[发明公布]一种球面型太阳方位自动追踪仪和控制太阳能板转动的方法</v>
+      </c>
+      <c r="B222" t="str">
+        <v>CN107728652A</v>
+      </c>
+      <c r="C222" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D222" t="str">
+        <v>2017111772095</v>
+      </c>
+      <c r="E222" t="str">
+        <v>2017.11.22</v>
+      </c>
+      <c r="F222" t="str">
+        <v>烟台大学</v>
+      </c>
+      <c r="G222" t="str" xml:space="preserve">
+        <v xml:space="preserve">王燕涛;邢毅飞;解传宁;姜稀膑_x000d_
+				</v>
+      </c>
+      <c r="H222" t="str">
+        <v>264005山东省烟台市莱山区清泉路32号</v>
+      </c>
+      <c r="I222" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05D3/12(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J222" t="str">
+        <v>本发明涉及一种球面型太阳方位自动追踪仪和控制太阳能板转动的方法，属于人工智能控制领域。一种球面型太阳方位自动追踪仪，包括光照检测模块、电机控制模块、基座、立柱，光照检测模块上分布着太阳能电池片。该装置设计简单，光照追踪效果好，并且不受外部天气条件影响、地理位置变化影响，能够实现实时的太阳光追踪。使用上述装置控制太阳能板转动的方法如下，电机控制模块根据光照检测模块传输来的电流信号的大小判断太阳方位，然后控制转向电机驱动外部太阳能发电板机组转向电流信号排在首位的太阳能电池片的预设的太阳朝向方位，该方法实现了外部太阳能发电板机组的实时转向和转向的角度控制。</v>
       </c>
     </row>
   </sheetData>

--- a/app/public/人工智能.xlsx
+++ b/app/public/人工智能.xlsx
@@ -427,7 +427,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="发明公布"/>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J263"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7920,6 +7920,1392 @@
         <v>本发明涉及一种球面型太阳方位自动追踪仪和控制太阳能板转动的方法，属于人工智能控制领域。一种球面型太阳方位自动追踪仪，包括光照检测模块、电机控制模块、基座、立柱，光照检测模块上分布着太阳能电池片。该装置设计简单，光照追踪效果好，并且不受外部天气条件影响、地理位置变化影响，能够实现实时的太阳光追踪。使用上述装置控制太阳能板转动的方法如下，电机控制模块根据光照检测模块传输来的电流信号的大小判断太阳方位，然后控制转向电机驱动外部太阳能发电板机组转向电流信号排在首位的太阳能电池片的预设的太阳朝向方位，该方法实现了外部太阳能发电板机组的实时转向和转向的角度控制。</v>
       </c>
     </row>
+    <row r="223" xml:space="preserve">
+      <c r="A223" t="str">
+        <v>[发明公布]一种球面型太阳方位自动追踪仪和控制太阳能板转动的方法</v>
+      </c>
+      <c r="B223" t="str">
+        <v>CN107728652A</v>
+      </c>
+      <c r="C223" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D223" t="str">
+        <v>2017111772095</v>
+      </c>
+      <c r="E223" t="str">
+        <v>2017.11.22</v>
+      </c>
+      <c r="F223" t="str">
+        <v>烟台大学</v>
+      </c>
+      <c r="G223" t="str" xml:space="preserve">
+        <v xml:space="preserve">王燕涛;邢毅飞;解传宁;姜稀膑_x000d_
+				</v>
+      </c>
+      <c r="H223" t="str">
+        <v>264005山东省烟台市莱山区清泉路32号</v>
+      </c>
+      <c r="I223" t="str" xml:space="preserve">
+        <v xml:space="preserve">G05D3/12(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J223" t="str">
+        <v>本发明涉及一种球面型太阳方位自动追踪仪和控制太阳能板转动的方法，属于人工智能控制领域。一种球面型太阳方位自动追踪仪，包括光照检测模块、电机控制模块、基座、立柱，光照检测模块上分布着太阳能电池片。该装置设计简单，光照追踪效果好，并且不受外部天气条件影响、地理位置变化影响，能够实现实时的太阳光追踪。使用上述装置控制太阳能板转动的方法如下，电机控制模块根据光照检测模块传输来的电流信号的大小判断太阳方位，然后控制转向电机驱动外部太阳能发电板机组转向电流信号排在首位的太阳能电池片的预设的太阳朝向方位，该方法实现了外部太阳能发电板机组的实时转向和转向的角度控制。</v>
+      </c>
+    </row>
+    <row r="224" xml:space="preserve">
+      <c r="A224" t="str">
+        <v>[发明公布]人工智能处理方法及其系统</v>
+      </c>
+      <c r="B224" t="str">
+        <v>CN107728783A</v>
+      </c>
+      <c r="C224" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D224" t="str">
+        <v>201710877689X</v>
+      </c>
+      <c r="E224" t="str">
+        <v>2017.09.25</v>
+      </c>
+      <c r="F224" t="str">
+        <v>联想（北京）有限公司</v>
+      </c>
+      <c r="G224" t="str" xml:space="preserve">
+        <v xml:space="preserve">王悦;苗涛;黄张青;赵成慧;卢本敏_x000d_
+				</v>
+      </c>
+      <c r="H224" t="str">
+        <v>100085北京市海淀区上地信息产业基地创业路6号</v>
+      </c>
+      <c r="I224" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F3/01(2006.01)I;_x000d_
+						G10L15/26(2006.01)I;G06F17/27(2006.01)I;G06F17/30(2006.01)I_x000d_
+						专利代理机构：中科专利商标代理有限责任公司11021代理人：吕雁葭</v>
+      </c>
+      <c r="J224" t="str">
+        <v>本公开提供了一种人工智能处理方法，应用于电子设备，该方法包括：获取用户的语音或文字输入信息；获取参考信息，其中，参考信息包括以下信息中的至少之一：电子设备的当前展示信息、电子设备的历史展示信息、用户的历史行为数据；以及基于参考信息，解析或修正输入信息的涵义或对应的指令。本公开还提供了一种人工智能处理系统。</v>
+      </c>
+    </row>
+    <row r="225" xml:space="preserve">
+      <c r="A225" t="str">
+        <v>[发明公布]基于人工智能的高质量文章挖掘方法、装置及存储介质</v>
+      </c>
+      <c r="B225" t="str">
+        <v>CN107729401A</v>
+      </c>
+      <c r="C225" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D225" t="str">
+        <v>2017108620133</v>
+      </c>
+      <c r="E225" t="str">
+        <v>2017.09.21</v>
+      </c>
+      <c r="F225" t="str">
+        <v>北京百度网讯科技有限公司</v>
+      </c>
+      <c r="G225" t="str">
+        <v>黄俊衡</v>
+      </c>
+      <c r="H225" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦2层</v>
+      </c>
+      <c r="I225" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06Q50/00(2012.01)I_x000d_
+						专利代理机构：北京鸿德海业知识产权代理事务所(普通合伙)11412代理人：袁媛</v>
+      </c>
+      <c r="J225" t="str">
+        <v>本发明公开了基于人工智能的高质量文章挖掘方法、装置及存储介质，其中方法包括：根据获取到的微博博文进行文章挖掘；过滤掉挖掘到的文章中不符合预定要求的文章；将剩余的文章划分为正样本和负样本；根据正样本和负样本训练得到高质量文章识别模型；根据高质量文章识别模型，对从微博博文中挖掘出的文章进行质量识别，得到识别出的高质量文章。应用本发明所述方案，能够有效地挖掘出大量的高质量文章，且成本低下，具备创新性。</v>
+      </c>
+    </row>
+    <row r="226" xml:space="preserve">
+      <c r="A226" t="str">
+        <v>[发明公布]一种人工智能学生辅导系统</v>
+      </c>
+      <c r="B226" t="str">
+        <v>CN107729574A</v>
+      </c>
+      <c r="C226" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D226" t="str">
+        <v>2017111952789</v>
+      </c>
+      <c r="E226" t="str">
+        <v>2017.11.24</v>
+      </c>
+      <c r="F226" t="str">
+        <v>合肥博焱智能科技有限公司</v>
+      </c>
+      <c r="G226" t="str" xml:space="preserve">
+        <v xml:space="preserve">钱波;张震;姚庆锋;鲁群_x000d_
+				</v>
+      </c>
+      <c r="H226" t="str">
+        <v>230000安徽省合肥市高新区云飞路6号赛普科技园4楼401室</v>
+      </c>
+      <c r="I226" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;_x000d_
+						G06Q50/20(2012.01)I;G09B5/14(2006.01)I_x000d_
+						专利代理机构：上海精晟知识产权代理有限公司31253代理人：冯子玲</v>
+      </c>
+      <c r="J226" t="str">
+        <v>本发明公开了一种人工智能学生辅导系统，涉及人工智能领域。本发明包括一用户；一客户端；一人工智能服务器；一知识库用来存储知识型数据信息；一用户库用来存储用户数据信息；人工智能服务器设置在客户端和知识库之间，人工智能服务器内创建学生家长单元和教师单元，学生家长单元给学生提供一个智能解答、测试、资料下载的平台，当知识库内没有解决问题答案时，系统留言方式发送给相关学科教师帮助解答并将答案存储至知识库。本发明通过使用该系统，提高学生的学习兴趣和学习效率，加强了学生、教师和家长之间的联系，方便家长了解学生学习情况。</v>
+      </c>
+    </row>
+    <row r="227" xml:space="preserve">
+      <c r="A227" t="str">
+        <v>[发明公布]一种基于多层约束体系的公路路线三维优化方法</v>
+      </c>
+      <c r="B227" t="str">
+        <v>CN107729663A</v>
+      </c>
+      <c r="C227" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D227" t="str">
+        <v>201710995632X</v>
+      </c>
+      <c r="E227" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F227" t="str">
+        <v>陈国</v>
+      </c>
+      <c r="G227" t="str">
+        <v>陈国</v>
+      </c>
+      <c r="H227" t="str">
+        <v>330000江西省南昌市井冈山大道657号江西省交通设计研究院</v>
+      </c>
+      <c r="I227" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/50(2006.01)I;_x000d_
+						G06T17/05(2011.01)I;G06N3/12(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J227" t="str">
+        <v>本发明公开了一种基于多层约束体系的公路路线三维优化方法，该方法针对已完成设计的公路方案，借助于三维地理信息技术和人工智能算法，精确分析公路三维模型在优化中的细微变化，在平、纵、横断面优化阶段引入不同层次的约束条件，建立多层约束体系，分析这些变化因素，在不同层次的约束条件下采用不同的淘汰机制，从而大幅度减少计算量；通过计算机海量运算，在不改变走廊带方案的情况下，该方法能寻找出提高道路线形指标、降低公路建设和运营费用的最优方案。</v>
+      </c>
+    </row>
+    <row r="228" xml:space="preserve">
+      <c r="A228" t="str">
+        <v>[发明公布]一种中餐宴会台面摆台智能评分方法与系统</v>
+      </c>
+      <c r="B228" t="str">
+        <v>CN107729851A</v>
+      </c>
+      <c r="C228" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D228" t="str">
+        <v>2017110007886</v>
+      </c>
+      <c r="E228" t="str">
+        <v>2017.10.24</v>
+      </c>
+      <c r="F228" t="str">
+        <v>湖北工业大学</v>
+      </c>
+      <c r="G228" t="str" xml:space="preserve">
+        <v xml:space="preserve">曾亮;常雨芳;王粟;付波;武明虎;朱飞;易梦云_x000d_
+				</v>
+      </c>
+      <c r="H228" t="str">
+        <v>430068湖北省武汉市洪山区南李路28号</v>
+      </c>
+      <c r="I228" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;_x000d_
+						G06T7/70(2017.01)I;G06Q10/06(2012.01)I;G06Q50/12(2012.01)I;G06Q50/14(2012.01)I;G06Q50/20(2012.01)I_x000d_
+						专利代理机构：武汉帅丞知识产权代理有限公司42220代理人：朱必武;李南平</v>
+      </c>
+      <c r="J228" t="str">
+        <v>本发明涉及一种中餐宴会台面摆台智能评分方法与系统，所述智能评分系统分为三个层次：底层摄像硬件子系统、中间层数字图像处理算法和表现层人机界面，所述底层摄像硬件子系统用于获取中餐宴会台面摆台图像，并送入中间层数据图像处理算法进行处理，所述中间层数字图像处理算法用于对获取的中餐宴会台面摆台图像进行图像预处理、餐具识别和台面摆台效果评分，所述表现层人机界面用于对所述智能评分系统进行系统设置以及对台面摆台评分结果进行展示。本发明应用机器视觉和人工智能理论与方法，实现给定布局下的中餐宴会台面摆台效果评分的自动化、快速化、客观化和智能化，彻底变革该细分领域内完全依靠人工评判的现状。</v>
+      </c>
+    </row>
+    <row r="229" xml:space="preserve">
+      <c r="A229" t="str">
+        <v>[发明公布]基于LBP和深度学习的人脸识别方法</v>
+      </c>
+      <c r="B229" t="str">
+        <v>CN107729890A</v>
+      </c>
+      <c r="C229" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D229" t="str">
+        <v>201711231662X</v>
+      </c>
+      <c r="E229" t="str">
+        <v>2017.11.30</v>
+      </c>
+      <c r="F229" t="str">
+        <v>华北理工大学</v>
+      </c>
+      <c r="G229" t="str" xml:space="preserve">
+        <v xml:space="preserve">任红格;史涛;王玮;李福进;赵传松;杜建;宫海洋_x000d_
+				</v>
+      </c>
+      <c r="H229" t="str">
+        <v>063000河北省唐山市曹妃甸区唐山湾生态城渤海大道21号</v>
+      </c>
+      <c r="I229" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/00(2006.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：唐山永和专利商标事务所13103代理人：张云和</v>
+      </c>
+      <c r="J229" t="str">
+        <v>本发明涉及了一种基于井字形LBP和深度学习相结合的人脸识别方法，属于人工智能技术领域，针对传统局部二值模式(LBP)特征提取不充分和分类器拟合的问题，提出一种基于局部纹理特征的井字形局部二值模式(LBP)和深度学习的人脸识别方法，利用改进的LBP算法提取人脸图像局部纹理特征，建立LBP直方图；然后构建基于深度信念网络的深度学习架构，将LBP直方图输入到深度信念网络中，采用无监督逐层训练法和有监督BP算法去训练网络，实现网络的自学习和自优化，得到网络参数；最后，利用DBN分类、识别人脸图像。本发明能够提取到具有区分性的人脸图像纹理特征，验证了该算法在识别率的优越性并且具有较强的鲁棒性。</v>
+      </c>
+    </row>
+    <row r="230" xml:space="preserve">
+      <c r="A230" t="str">
+        <v>[发明公布]网络办理自动转运快速送达货物包裹的装置和智能运营系统</v>
+      </c>
+      <c r="B230" t="str">
+        <v>CN107730183A</v>
+      </c>
+      <c r="C230" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D230" t="str">
+        <v>2017110530169</v>
+      </c>
+      <c r="E230" t="str">
+        <v>2017.10.31</v>
+      </c>
+      <c r="F230" t="str">
+        <v>于卫华</v>
+      </c>
+      <c r="G230" t="str">
+        <v>鲍硕;鲍根华</v>
+      </c>
+      <c r="H230" t="str">
+        <v>246000安徽省安庆市大观区纺织南路37号3栋2-304室</v>
+      </c>
+      <c r="I230" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/08(2012.01)I;_x000d_
+						G06F21/32(2013.01)I;G06Q30/02(2012.01)I_x000d_
+						</v>
+      </c>
+      <c r="J230" t="str">
+        <v>本发明创新设计一种基于深度学习算法的大数据人工智能管理的网络办理自动转运快速送达货物包裹的装置和智能运营系统，包括网格服务站点、智能机器群组、检测分拣存放装置系统、转运投送装置系统和网络运营系统，通过全城布点、便捷高效、智能化无人操作快递物流业务受理、货物包裹高效转运投送、智能机器投递交接，实现一种全新的智能化的快递物流运营方式，以适应物联网、人工智能技术的现代化发展趋势，推动人工智能技术在快递物流行业的技术应用，针对未来社会人口老龄化、劳动力减少和劳动力成本上升的社会状态和生活环境，更好地满足人们的购物消费等各种生活需求。</v>
+      </c>
+    </row>
+    <row r="231" xml:space="preserve">
+      <c r="A231" t="str">
+        <v>[发明公布]基于人工智能的道路拥堵预测系统及方法</v>
+      </c>
+      <c r="B231" t="str">
+        <v>CN107730882A</v>
+      </c>
+      <c r="C231" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D231" t="str">
+        <v>2017108095107</v>
+      </c>
+      <c r="E231" t="str">
+        <v>2017.09.08</v>
+      </c>
+      <c r="F231" t="str">
+        <v>上海电科市政工程有限公司</v>
+      </c>
+      <c r="G231" t="str" xml:space="preserve">
+        <v xml:space="preserve">薛小菁;陶勇刚;邱晓东;原良晓;徐力平;李培文_x000d_
+				</v>
+      </c>
+      <c r="H231" t="str">
+        <v>200333上海市普陀区中江路938号803室</v>
+      </c>
+      <c r="I231" t="str" xml:space="preserve">
+        <v xml:space="preserve">G08G1/01(2006.01)I_x000d_
+						专利代理机构：上海申汇专利代理有限公司31001代理人：翁若莹;柏子雵</v>
+      </c>
+      <c r="J231" t="str">
+        <v>本发明涉及一种基于人工智能的道路拥堵预测系统，其特征在于，包括以下模块：数据采集模块；拥堵模糊评级模块；样本生成模块；样本清洗模块；经过训练的BP网络。本发明的另一个技术方案是提供了一种基于人工智能的道路拥堵预测方法。本发明提供的一种基于人工智能的道路拥堵预测方法能够预测感兴趣道路将要发生拥堵的时间，预测的时间一方面可以在路况指示牌上显示出来，给司机预警，让司机能够在相应的时间绕开该路段，从而避免拥堵，另一方面也可以推送给相应的管理部门，让管理部门做出正确的规划，从而避免拥堵。</v>
+      </c>
+    </row>
+    <row r="232" xml:space="preserve">
+      <c r="A232" t="str">
+        <v>[发明公布]一种机器学习和人工智能应用一体机部署方法</v>
+      </c>
+      <c r="B232" t="str">
+        <v>CN107733696A</v>
+      </c>
+      <c r="C232" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D232" t="str">
+        <v>2017108811130</v>
+      </c>
+      <c r="E232" t="str">
+        <v>2017.09.26</v>
+      </c>
+      <c r="F232" t="str">
+        <v>南京天数信息科技有限公司</v>
+      </c>
+      <c r="G232" t="str" xml:space="preserve">
+        <v xml:space="preserve">李云鹏;倪岭;任义龙;张建;刘伟佳;赵志强_x000d_
+				</v>
+      </c>
+      <c r="H232" t="str">
+        <v>210000江苏省南京市雨花台区软件大道180号5栋4层</v>
+      </c>
+      <c r="I232" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L12/24(2006.01)I;_x000d_
+						H04L29/06(2006.01)I;H04L29/08(2006.01)I;G06F17/30(2006.01)I_x000d_
+						专利代理机构：南京钟山专利代理有限公司32252代理人：戴朝荣</v>
+      </c>
+      <c r="J232" t="str">
+        <v>本发明公开了一种机器学习和人工智能应用一体机部署方法，该方法是通过以下步骤实现的：(1)搭建系统构架，将所述系统架构在逻辑上分为应用层、计算层和存储层；(2)组建网络架构，将所述网络架构在逻辑上划分为外部网、管理网、计算网和存储网；(3)对系统的扩展性进行优化设计，采用横向扩展架构增加计算资源，提高性能，采用分层架构增加存储容量。本发明公开的一体机部署方法通过使用丰富的算法库、高性能计算引擎等，设计出功能集成的系统架构、灵活方便的组网拓扑以及优秀高效的系统可扩展性，从而使一体机加快大数据机器学习速度，提升了人工智能分析程序的运行效率。</v>
+      </c>
+    </row>
+    <row r="233" xml:space="preserve">
+      <c r="A233" t="str">
+        <v>[发明公布]语音调节方法、装置、终端及存储介质</v>
+      </c>
+      <c r="B233" t="str">
+        <v>CN107734126A</v>
+      </c>
+      <c r="C233" t="str">
+        <v>2018.02.23</v>
+      </c>
+      <c r="D233" t="str">
+        <v>2017111030697</v>
+      </c>
+      <c r="E233" t="str">
+        <v>2017.11.10</v>
+      </c>
+      <c r="F233" t="str">
+        <v>广东欧珀移动通信有限公司</v>
+      </c>
+      <c r="G233" t="str">
+        <v>陈岩</v>
+      </c>
+      <c r="H233" t="str">
+        <v>523860广东省东莞市长安镇乌沙海滨路18号</v>
+      </c>
+      <c r="I233" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04M1/60(2006.01)I;H04M1/725(2006.01)I_x000d_
+						专利代理机构：北京三高永信知识产权代理有限责任公司11138代理人：牟慧仙</v>
+      </c>
+      <c r="J233" t="str">
+        <v>本申请公开了一种语音调节方法、装置、终端及存储介质，属于人工智能领域。该方法包括：当启用通话进程时，获取通话信息，通话信息至少包括当前通话对象的对象标识；获取语音调节模型，语音调节模型是根据历史通话参数训练得到的模型，历史通话参数中包括与不同通话对象进行通话时的目标语音音量；将通话信息输入语音调节模型，并获取语音调节模型输出的目标通话音量；根据目标通话音量对采集到的本端语音进行语音调节。本申请实施例中，由于语音调节模型根据与不同通话对象进行通话时的目标语音音量训练得到，因此利用语音调节模型输出的目标语音音量进行语音调节后，本端语音的音量符合通话对象的语实际听力情况，从而保证通话质量。</v>
+      </c>
+    </row>
+    <row r="234" xml:space="preserve">
+      <c r="A234" t="str">
+        <v>[发明公布]一种人工智能婴儿陪护机器人及其陪护方法</v>
+      </c>
+      <c r="B234" t="str">
+        <v>CN107692669A</v>
+      </c>
+      <c r="C234" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D234" t="str">
+        <v>2017109043985</v>
+      </c>
+      <c r="E234" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F234" t="str">
+        <v>苏州花坞信息科技有限公司</v>
+      </c>
+      <c r="G234" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H234" t="str">
+        <v>215009江苏省苏州市高新区竹园路209号</v>
+      </c>
+      <c r="I234" t="str" xml:space="preserve">
+        <v xml:space="preserve">A47D13/00(2006.01)I;_x000d_
+						B25J11/00(2006.01)I;B25J9/16(2006.01)I;B25J19/02(2006.01)I;B25J19/04(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J234" t="str">
+        <v>本发明公开了一种人工智能婴儿陪护机器人及其陪护方法，本发明包括控制装置、储存装置、成像装置、声音收录装置和声音播放装置，所述的声音收录装置和声音播放装置均与控制装置连接，所述的控制装置包括学习模式、陪护模式和分析检测装置。本发明一种人工智能婴儿陪护方法，采用上述所述的人工智能婴儿陪护机器人，包括如下步骤：a、学习模式下，声音收录装置收集幼儿和家长对话的声音，成像装置收集婴儿的面部表情特征。本发明能够通过不断的学习，越来越智能，越来越更加的“了解”婴儿，能够越来越像父母一样的陪护婴儿，能够让家长在照看婴儿时还能够腾出时间去干自己的事情，也能够让婴儿在寓教于乐中学到更多的东西。</v>
+      </c>
+    </row>
+    <row r="235" xml:space="preserve">
+      <c r="A235" t="str">
+        <v>[发明公布]一种幕墙清洁剂喷洒装置的控制系统</v>
+      </c>
+      <c r="B235" t="str">
+        <v>CN107692934A</v>
+      </c>
+      <c r="C235" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D235" t="str">
+        <v>2017109021736</v>
+      </c>
+      <c r="E235" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F235" t="str">
+        <v>成都意町工业产品设计有限公司</v>
+      </c>
+      <c r="G235" t="str">
+        <v>丁伟</v>
+      </c>
+      <c r="H235" t="str">
+        <v>610041四川省成都市武侯区人民南路四段11号</v>
+      </c>
+      <c r="I235" t="str" xml:space="preserve">
+        <v xml:space="preserve">A47L11/38(2006.01)I;_x000d_
+						A47L11/40(2006.01)I;F04B49/06(2006.01)I_x000d_
+						专利代理机构：成都九鼎天元知识产权代理有限公司51214代理人：韩雪</v>
+      </c>
+      <c r="J235" t="str">
+        <v>本发明公开了一种幕墙清洁剂喷洒装置的控制系统，包括第一控制模块、电机驱动模块、判断模块和第二控制模块；通过设置两个液体容纳箱，避免机器人的清洁箱在移动过程中因重力因素晃动使两溶剂混合，同时将需要混合的溶剂分开放置，控制溶液的输送比例，避免因人工的各种因素造成混合溶剂的比例不正确，使清洁溶剂达到预期的清洁效果；提高了机器人的清洁效率，同时操作方便，结构简单，实现了人工智能化；通过控制喷洒装置的水泵喷射液体时的压力和转速，使清洁溶剂的喷洒面积最大化，提高了清洁剂的使用效率，避免清洁剂的浪费。</v>
+      </c>
+    </row>
+    <row r="236" xml:space="preserve">
+      <c r="A236" t="str">
+        <v>[发明公布]一种全自动插头注塑生产系统</v>
+      </c>
+      <c r="B236" t="str">
+        <v>CN107696391A</v>
+      </c>
+      <c r="C236" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D236" t="str">
+        <v>2017110927826</v>
+      </c>
+      <c r="E236" t="str">
+        <v>2017.11.08</v>
+      </c>
+      <c r="F236" t="str">
+        <v>杭州大禹机械有限公司</v>
+      </c>
+      <c r="G236" t="str">
+        <v>杨茂荣;吴余华;宋磊</v>
+      </c>
+      <c r="H236" t="str">
+        <v>311122浙江省杭州市余杭区闲林街道闲林工业区嘉企路29号</v>
+      </c>
+      <c r="I236" t="str" xml:space="preserve">
+        <v xml:space="preserve">B29C45/06(2006.01)I;_x000d_
+						B29C45/53(2006.01)I;B29C45/68(2006.01)I;B29C45/17(2006.01)I;B29C45/14(2006.01)I_x000d_
+						专利代理机构：杭州华知专利事务所33235代理人：龙湖浩</v>
+      </c>
+      <c r="J236" t="str">
+        <v>本发明公开了一种全自动插头注塑生产系统，包括多工位插头注塑机、六轴人工智能机器人、产品输送系统和镶件输送系统，所述产品输送系统、镶件输送系统均通过六轴人工智能机器人与多工位插头注塑机连接，所述多工位插头注塑机包括电控柜、射出组件、锁模组件和驱动组件，所述电控柜分别与射出组件、锁模组件、驱动组件电性连接。本发明提供了一种结构简单、设计合理、操作方便、生产效率高、人工成本低、占用空间小的全自动插头注塑生产系统。</v>
+      </c>
+    </row>
+    <row r="237" xml:space="preserve">
+      <c r="A237" t="str">
+        <v>[发明公布]一种电动车的智能加速及音效控制系统</v>
+      </c>
+      <c r="B237" t="str">
+        <v>CN107697000A</v>
+      </c>
+      <c r="C237" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D237" t="str">
+        <v>2017109058393</v>
+      </c>
+      <c r="E237" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F237" t="str">
+        <v>庄子平</v>
+      </c>
+      <c r="G237" t="str">
+        <v>庄子平</v>
+      </c>
+      <c r="H237" t="str">
+        <v>215126江苏省苏州市工业园区方达街33号</v>
+      </c>
+      <c r="I237" t="str" xml:space="preserve">
+        <v xml:space="preserve">B60R16/023(2006.01)I;B60Q5/00(2006.01)I_x000d_
+						专利代理机构：苏州翔远专利代理事务所(普通合伙)32251代理人：陆金星</v>
+      </c>
+      <c r="J237" t="str">
+        <v>本发明公开了一种电动车的智能加速及音效控制系统，包括主控单元，主控单元连接有加速操作装置，主控单元的每种控制模式下，电动车的加速特性和引擎声音分别模拟一种超跑的加速特性和引擎声音，主控单元还分别连接有控制面板和发声装置，主控单元接收控制模式选择信息后接收加速信息，然后控制电动车以匹配的加速特性进行加速和控制发声装置发出匹配的引擎声音。利用人工智能模拟各种超跑的加速特性及引擎声音效，一方面可以提醒路人及时发觉有车进而注意安全，另一方面使高阶电动车更具驾驶乐趣及提高市场吸引力。</v>
+      </c>
+    </row>
+    <row r="238" xml:space="preserve">
+      <c r="A238" t="str">
+        <v>[发明公布]一种向用户提供人工智能平台的方法及系统</v>
+      </c>
+      <c r="B238" t="str">
+        <v>CN107704252A</v>
+      </c>
+      <c r="C238" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D238" t="str">
+        <v>2017109831466</v>
+      </c>
+      <c r="E238" t="str">
+        <v>2017.10.20</v>
+      </c>
+      <c r="F238" t="str">
+        <v>北京百悟科技有限公司</v>
+      </c>
+      <c r="G238" t="str" xml:space="preserve">
+        <v xml:space="preserve">靳春孟;刘建;邓林青;朱新超_x000d_
+				</v>
+      </c>
+      <c r="H238" t="str">
+        <v>100102北京市朝阳区阜通东大街融科望京中心B座9层</v>
+      </c>
+      <c r="I238" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F8/61(2018.01)I;_x000d_
+						G06F8/71(2018.01)I;H04L12/24(2006.01)I_x000d_
+						专利代理机构：北京集佳知识产权代理有限公司11227代理人：王宝筠</v>
+      </c>
+      <c r="J238" t="str">
+        <v>本发明公开了一种向用户提供人工智能平台的方法及系统，该方法包括：创建docker镜像，并将所述docker镜像注册至云平台；接收用户的人工智能平台部署请求信息；解析所述部署请求信息，得到所述人工智能平台部署信息；根据所述人工智能平台部署信息调用所述云平台中的所述docker镜像，生成与所述部署请求对应的人工智能平台。由于将带有TensorFlow的docker镜像部署在了云平台上，解决了传统的TensorFlow平台需要部署安装在物理服务器上的安装门槛的问题。根据用户的部署请求调用相关的docker镜像进行人工智能平台的部署，极大地降低了使用成本和运行成本。</v>
+      </c>
+    </row>
+    <row r="239" xml:space="preserve">
+      <c r="A239" t="str">
+        <v>[发明公布]一种获取儿童教育资源内容的方法以及系统</v>
+      </c>
+      <c r="B239" t="str">
+        <v>CN107704448A</v>
+      </c>
+      <c r="C239" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D239" t="str">
+        <v>2017107708113</v>
+      </c>
+      <c r="E239" t="str">
+        <v>2017.08.31</v>
+      </c>
+      <c r="F239" t="str">
+        <v>北京光年无限科技有限公司</v>
+      </c>
+      <c r="G239" t="str">
+        <v>孙永超</v>
+      </c>
+      <c r="H239" t="str">
+        <v>100000北京市石景山区石景山路3号玉泉大厦四层常青藤青年创业工作室193号</v>
+      </c>
+      <c r="I239" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/27(2006.01)I;_x000d_
+						G06F17/24(2006.01)I;G09B19/00(2006.01)I_x000d_
+						专利代理机构：北京聿华联合知识产权代理有限公司11611代理人：朱绘;张文娟</v>
+      </c>
+      <c r="J239" t="str">
+        <v>本发明公开了一种获取儿童教育资源内容的方法以及系统。方法包括：获取用户上传的原创内容数据，所述原创内容数据携带所述用户的身份信息，对所述原创内容数据进行整理并保存为包含作者标识的儿童教育资源内容数据；和/或，利用人工智能自动生成儿童教育资源内容数据。根据本发明的方法，可以简单方便的获取儿童教育资源内容，从而避免在需要输出儿童教育资源内容时只能重复输出老旧儿童教育资源内容的情况的发生。</v>
+      </c>
+    </row>
+    <row r="240" xml:space="preserve">
+      <c r="A240" t="str">
+        <v>[发明公布]一种基于人工智能的图形商标可注册性判断的装置</v>
+      </c>
+      <c r="B240" t="str">
+        <v>CN107704486A</v>
+      </c>
+      <c r="C240" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D240" t="str">
+        <v>2017106668034</v>
+      </c>
+      <c r="E240" t="str">
+        <v>2017.08.07</v>
+      </c>
+      <c r="F240" t="str">
+        <v>深圳益强信息科技有限公司</v>
+      </c>
+      <c r="G240" t="str">
+        <v>万忠凯</v>
+      </c>
+      <c r="H240" t="str">
+        <v>518000广东省深圳市南山区西丽街道朗山路28号通产新材料产业园综合楼办公楼1楼</v>
+      </c>
+      <c r="I240" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06Q50/18(2012.01)I_x000d_
+						专利代理机构：北京轻创知识产权代理有限公司11212代理人：刘洵</v>
+      </c>
+      <c r="J240" t="str">
+        <v>本发明涉及一种基于人工智能的图形商标可注册性判断装置，其包括：接收模块，用于接收拟注册的图形商标信息；确认模块，用于根据所述图形商标信息，确定拟注册图形商标所在的商品或服务的分类组别；存储模块：用于存储在先公开的所有商标信息及审查信息；搜索模块，用于搜索数据库中所述分类组别中存在的在先图形商标及其相关信息；判断模块，用于基于影像重合判断逐一判断拟注册商标与在先图形商标是否相同或近似；输出模块，用于生成报告输出至用户终端。本发明通过采用人工智能的算法对拟注册的商标进行检索分析，不容易漏检，而且分析结果较为客观，可大大提高企业注册商标的成功率，并节省企业商标注册的成本，具有较高的参考价值。</v>
+      </c>
+    </row>
+    <row r="241" xml:space="preserve">
+      <c r="A241" t="str">
+        <v>[发明公布]一种基于人工智能算法的土体本构模型参数确定方法</v>
+      </c>
+      <c r="B241" t="str">
+        <v>CN107704642A</v>
+      </c>
+      <c r="C241" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D241" t="str">
+        <v>2017105520699</v>
+      </c>
+      <c r="E241" t="str">
+        <v>2017.07.07</v>
+      </c>
+      <c r="F241" t="str">
+        <v>水利部交通运输部国家能源局南京水利科学研究院</v>
+      </c>
+      <c r="G241" t="str" xml:space="preserve">
+        <v xml:space="preserve">魏匡民;邓曌;陈生水;李国英_x000d_
+				</v>
+      </c>
+      <c r="H241" t="str">
+        <v>210029江苏省南京市广州路223号</v>
+      </c>
+      <c r="I241" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/50(2006.01)I;G06N3/00(2006.01)I_x000d_
+						专利代理机构：江苏致邦律师事务所32230代理人：樊文红;尹妍</v>
+      </c>
+      <c r="J241" t="str">
+        <v>本发明涉及一种基于人工智能算法的土体本构模型参数确定方法，通过构建计算数据和试验数据之间的适应度函数，将本构模型参数取定转化为一个系统最优解求解问题，并采用了遗传算法获得该系统的最优解，克服了传统方法中人为经验的影响，并且可实现多个本构模型参数一次性获得，极大提高了本构模型参数取定效率。</v>
+      </c>
+    </row>
+    <row r="242" xml:space="preserve">
+      <c r="A242" t="str">
+        <v>[发明公布]图像轮廓数据结构、文字识别系统、计算机视觉系统、人工智能系统</v>
+      </c>
+      <c r="B242" t="str">
+        <v>CN107704861A</v>
+      </c>
+      <c r="C242" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D242" t="str">
+        <v>2017109961972</v>
+      </c>
+      <c r="E242" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F242" t="str">
+        <v>湖南轻创科技有限公司</v>
+      </c>
+      <c r="G242" t="str">
+        <v>刘伟</v>
+      </c>
+      <c r="H242" t="str">
+        <v>410200湖南省长沙市望城区丁字湾街道湾田国际商贸物流园陶瓷区B1区4楼4100号</v>
+      </c>
+      <c r="I242" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/34(2006.01)I;_x000d_
+						G06K9/46(2006.01)I;G06K9/62(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J242" t="str">
+        <v>图像轮廓数据结构，是一种有序数据集，该图像轮廓数据结构的数据集的成员数至少为3，该图像轮廓数据结构的数据集至少有一个数据包含偏转值，该图像轮廓数据结构的数据的成员所包含的偏转值可能是正值、零、负值三种情况中的一种，该图像轮廓数据结构的数据的成员所包含的偏转值的表述是本点的上个点和本点的上上个点的第一连线与本点和本点的上个点的第二连线这两条连线之间的偏转度；该图像轮廓数据结构的数据集的所有成员的所包含的偏转值的偏转方向的正负符号代表偏转方向，数值代表偏转度，数值越大偏转越大。本发明能够提高运算效率、降低成本、更加适合并行运算、提高识别速度，提供了一种新思路。</v>
+      </c>
+    </row>
+    <row r="243" xml:space="preserve">
+      <c r="A243" t="str">
+        <v>[发明公布]智能机器人及其识别方法以及计算机可读存储介质</v>
+      </c>
+      <c r="B243" t="str">
+        <v>CN107704874A</v>
+      </c>
+      <c r="C243" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D243" t="str">
+        <v>2017109120943</v>
+      </c>
+      <c r="E243" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F243" t="str">
+        <v>上海与德通讯技术有限公司</v>
+      </c>
+      <c r="G243" t="str" xml:space="preserve">
+        <v xml:space="preserve">李承敏;王文斌;包振毅;周金虎;禹杰;李亚军;林虎;安丽朋;黄俊岚;叶巧莉;余登武_x000d_
+				</v>
+      </c>
+      <c r="H243" t="str">
+        <v>201506上海市金山区通业路218号3幢2层</v>
+      </c>
+      <c r="I243" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I;G06K9/00(2006.01)I_x000d_
+						专利代理机构：上海晨皓知识产权代理事务所(普通合伙)31260代理人：胡丽莉</v>
+      </c>
+      <c r="J243" t="str">
+        <v>本发明实施例涉及人工智能领域，公开了一种智能机器人及其识别方法以及计算机可读存储介质。本发明中，智能机器人拍摄指令发出者的动作；判断指令发出者的动作与存储的动作模型的相似度是否高于预设阈值；如果指令发出者的动作与动作模型的相似度大于预设阈值，则判定指令发出者为机器人。这种识别方法使得智能机器人在接收到指令时，能判断发出指令的是人还是机器人，从而准确地执行人发出的指令。</v>
+      </c>
+    </row>
+    <row r="244" xml:space="preserve">
+      <c r="A244" t="str">
+        <v>[发明公布]超大规模抗阻塞个性化高速交通系统及其运行方法</v>
+      </c>
+      <c r="B244" t="str">
+        <v>CN107704964A</v>
+      </c>
+      <c r="C244" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D244" t="str">
+        <v>201710952682X</v>
+      </c>
+      <c r="E244" t="str">
+        <v>2017.10.13</v>
+      </c>
+      <c r="F244" t="str">
+        <v>刘鹏</v>
+      </c>
+      <c r="G244" t="str">
+        <v>刘鹏</v>
+      </c>
+      <c r="H244" t="str">
+        <v>210014江苏省南京市秦淮区白下高新技术产业园区中国云计算创新基地A栋9层</v>
+      </c>
+      <c r="I244" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q10/04(2012.01)I;_x000d_
+						G06Q10/02(2012.01)I;G06Q50/26(2012.01)I;G08G1/00(2006.01)I;E01C1/00(2006.01)I_x000d_
+						专利代理机构：南京钟山专利代理有限公司32252代理人：戴朝荣</v>
+      </c>
+      <c r="J244" t="str">
+        <v>一种超大规模抗阻塞个性化高速交通系统及其运行方法，该交通系统是由全立体高架轨道、无人驾驶电动智能车辆、高架车站、变轨装置、智能调度系统等组成的空中智慧交通控制系统。乘客在高架车站附近呼叫智能车辆，并在入口处进行确认上车，系统自主计算最优运行路径并对海量智能车辆运行数据的实时采集，通过大数据技术及人工智能算法对反馈的运行数据进行分析处理，形成个性化的端到端交通系统，依据智能调度算法动态调整车辆运行，能在超大规模运行下实现抗阻塞能力，使整个交通系统交通流畅整体最优，并通过控制平台实现软件定义交通的新型交通系统。本发明是由软件定义的交通，所有车辆都由智能调度系统总体调度，高效运作，避免拥堵。</v>
+      </c>
+    </row>
+    <row r="245" xml:space="preserve">
+      <c r="A245" t="str">
+        <v>[发明公布]一种自动化药品存储控制系统</v>
+      </c>
+      <c r="B245" t="str">
+        <v>CN107705451A</v>
+      </c>
+      <c r="C245" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D245" t="str">
+        <v>2017110155110</v>
+      </c>
+      <c r="E245" t="str">
+        <v>2017.10.26</v>
+      </c>
+      <c r="F245" t="str">
+        <v>陕西玉航电子有限公司</v>
+      </c>
+      <c r="G245" t="str">
+        <v>郝青</v>
+      </c>
+      <c r="H245" t="str">
+        <v>710065陕西省西安市高新区沣惠南路36号橡树街区1号楼10501室</v>
+      </c>
+      <c r="I245" t="str" xml:space="preserve">
+        <v xml:space="preserve">G07F17/00(2006.01)I_x000d_
+						专利代理机构：西安亿诺专利代理有限公司61220代理人：华长华</v>
+      </c>
+      <c r="J245" t="str">
+        <v>本发明涉及现代电子技术医药管理技术领域，具体涉及一种自动化药品存储控制系统。一种自动化药品存储控制系统，由工控机IPC、光电传感器、升降台伺服电机、零限位开关、PLC以及交流电机组成；其中，光电传感器设有两个，其中一个直接与工控机IPC相连，另一台通过PLC连接在工控机IPC的PS232接口上，另外，升降台伺服电机通过伺服驱动器连接工控机IPC，零限位开关直接与工控机IPC的PCI插槽相连；交流电机通过PLC连接工控机IPC的PS232接口。本发明通过人工智能和机电传输等手段，可以极大地提高药品在药房储运的效率，减少差错率，节约宝贵的存储面积，继而引发药房进出药流程的再造，带来管理方式的转变和运营模式的升级。</v>
+      </c>
+    </row>
+    <row r="246" xml:space="preserve">
+      <c r="A246" t="str">
+        <v>[发明公布]一种语音指令的校验方法及智能终端</v>
+      </c>
+      <c r="B246" t="str">
+        <v>CN107705788A</v>
+      </c>
+      <c r="C246" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D246" t="str">
+        <v>2017109090632</v>
+      </c>
+      <c r="E246" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F246" t="str">
+        <v>上海与德通讯技术有限公司</v>
+      </c>
+      <c r="G246" t="str" xml:space="preserve">
+        <v xml:space="preserve">王文斌;李承敏;包振毅;周金虎;禹杰;李亚军;林虎;安丽朋;黄俊岚;叶巧莉;余登武_x000d_
+				</v>
+      </c>
+      <c r="H246" t="str">
+        <v>201506上海市金山区通业路218号3幢2层</v>
+      </c>
+      <c r="I246" t="str" xml:space="preserve">
+        <v xml:space="preserve">G10L15/18(2013.01)I;_x000d_
+						G10L15/22(2006.01)I;G10L15/26(2006.01)I;G10L25/51(2013.01)I_x000d_
+						专利代理机构：上海晨皓知识产权代理事务所(普通合伙)31260代理人：胡丽莉</v>
+      </c>
+      <c r="J246" t="str">
+        <v>本发明实施例涉及人工智能领域，公开了一种语音指令的校验方法及智能终端。本发明中，语音指令的校验方法，应用于第一智能终端，包括：在接收到用户发出的用于指示第二智能终端的操作的语音指令后，对语音指令做出语音答复，语音答复携带有仅供设备识别的校验信息，校验信息用于供第二智能终端根据校验信息，检测对语音指令的识别是否正确，使得第二智能终端能够有效的检测对语音指令的识别是否正确，从而正确的执行语音指令所指示的操作。</v>
+      </c>
+    </row>
+    <row r="247" xml:space="preserve">
+      <c r="A247" t="str">
+        <v>[发明公布]一种医用电子内窥镜的实时病变智能识别方法及装置</v>
+      </c>
+      <c r="B247" t="str">
+        <v>CN107705852A</v>
+      </c>
+      <c r="C247" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D247" t="str">
+        <v>2017112725284</v>
+      </c>
+      <c r="E247" t="str">
+        <v>2017.12.06</v>
+      </c>
+      <c r="F247" t="str">
+        <v>北京华信佳音医疗科技发展有限责任公司</v>
+      </c>
+      <c r="G247" t="str">
+        <v>李洪涛;富勇</v>
+      </c>
+      <c r="H247" t="str">
+        <v>100070北京市丰台区科学城中核路1号01号楼赛欧科园科技孵化中心306（园区）</v>
+      </c>
+      <c r="I247" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H50/20(2018.01)I;_x000d_
+						G06K9/62(2006.01)I;A61B1/04(2006.01)I;A61B1/00(2006.01)I_x000d_
+						</v>
+      </c>
+      <c r="J247" t="str">
+        <v>本发明提供了一种医用电子内窥镜的实时病变智能识别方法及装置，其特征在于利用faster‑rcnn网络方式建立病变智能识别的模型，获取医用内窥镜的视频流并对视频流数据进行解码、抽样，得到抽样后的帧图片数据，利用建立好的病变智能识别模型，对抽样后的数据进行识别，得到病变标签，根据抽样前和抽样后的数据以及病变标签，按时间轴进行合并，得到实时的病变识别后的视频流。本发明提出的医用电子内窥镜的实时病变智能识别，利用人工智能方式建立的模型以及同步算法，借助计算机辅助诊断技术和医用内窥镜下视频进行对比，可以实时显示病变识别后的视频流与源视频流的对比，大大提升了普通医生对病变的检出率，为经验不足的医师提供辅助指导。</v>
+      </c>
+    </row>
+    <row r="248" xml:space="preserve">
+      <c r="A248" t="str">
+        <v>[发明公布]一种采用人工智能处理器的逆变器控制器及方法</v>
+      </c>
+      <c r="B248" t="str">
+        <v>CN107707141A</v>
+      </c>
+      <c r="C248" t="str">
+        <v>2018.02.16</v>
+      </c>
+      <c r="D248" t="str">
+        <v>201711030772X</v>
+      </c>
+      <c r="E248" t="str">
+        <v>2017.10.28</v>
+      </c>
+      <c r="F248" t="str">
+        <v>安徽工程大学</v>
+      </c>
+      <c r="G248" t="str" xml:space="preserve">
+        <v xml:space="preserve">高文根;季乐乐;何睿;桑康伟;吴浙勋;徐东;王坤_x000d_
+				</v>
+      </c>
+      <c r="H248" t="str">
+        <v>241000安徽省芜湖市鸠江区北京中路8号</v>
+      </c>
+      <c r="I248" t="str" xml:space="preserve">
+        <v xml:space="preserve">H02M7/48(2007.01)I_x000d_
+						专利代理机构：北京风雅颂专利代理有限公司11403代理人：杨红梅</v>
+      </c>
+      <c r="J248" t="str">
+        <v>本发明公开了一种采用人工智能处理器的逆变器控制器及方法，属于电力电子技术控制技术领域，DSP控制模块通过逆变交流电采样数据输入模块获得逆变器发电的实时数据，实时数据经过DSP的预处理，然后传递给人工智能处理模块作为智能算法控制程序的输入，人工智能处理器内部控制算法程序对数据处理运算后，生成新的PWM发生器配置与控制寄存器参数并发送至DSP控制模块，DSP控制模块根据得到的参数调整DPS芯片内部集成的PWM发生器的配置与控制寄存器，然后其发出的PWM控制信号，通过IGBT驱动模块控制逆变器的发电，使其发出的交流电的电能质量更好。</v>
+      </c>
+    </row>
+    <row r="249" xml:space="preserve">
+      <c r="A249" t="str">
+        <v>[发明公布]利用电参数实现螺杆泵和抽油机工况在线分析诊断和控制调整方法及装置</v>
+      </c>
+      <c r="B249" t="str">
+        <v>CN107687332A</v>
+      </c>
+      <c r="C249" t="str">
+        <v>2018.02.13</v>
+      </c>
+      <c r="D249" t="str">
+        <v>2017108064467</v>
+      </c>
+      <c r="E249" t="str">
+        <v>2017.09.08</v>
+      </c>
+      <c r="F249" t="str">
+        <v>张雅芝</v>
+      </c>
+      <c r="G249" t="str">
+        <v>徐厚岩;徐阅</v>
+      </c>
+      <c r="H249" t="str">
+        <v>163000黑龙江省大庆市高新区火炬新街40号新兴产业孵化器4号楼A座808室</v>
+      </c>
+      <c r="I249" t="str" xml:space="preserve">
+        <v xml:space="preserve">E21B47/00(2012.01)I;_x000d_
+						E21B47/008(2012.01)I;E21B43/12(2006.01)I_x000d_
+						专利代理机构：大庆市远东专利商标事务所23202代理人：周英华</v>
+      </c>
+      <c r="J249" t="str">
+        <v>本发明的利用电参数实现螺杆泵和抽油机工况在线分析诊断和控制调整方法及装置，涉及，尤其涉及石油开采监控设备技术领域，是由主机板、电参测量模块、设备控制模块和电源模块构成，电参测量模块与设备控制模块均与主机板电路连接，主机板分别与显示屏、键盘、蓝牙通讯模块和电源模块电路连接。本发明通过测取采油井工作的电参数据，依据历史及当前电参数据，通过人工智能分析系统对采油井的工况进行实时准确的分析诊断，依据分析诊断的结果，可对变频器等执行机构发出不同的控制指令，实现对采油井工况的智能调节以及杆断、卡泵等异常工况的停机控制并通过语音等方式给出报警提示，从而达到延长检泵周期、实现采油安全、高效运行的目的。</v>
+      </c>
+    </row>
+    <row r="250" xml:space="preserve">
+      <c r="A250" t="str">
+        <v>[发明公布]一种无轴突全传递人工神经元的设计方法</v>
+      </c>
+      <c r="B250" t="str">
+        <v>CN107688851A</v>
+      </c>
+      <c r="C250" t="str">
+        <v>2018.02.13</v>
+      </c>
+      <c r="D250" t="str">
+        <v>2017107454278</v>
+      </c>
+      <c r="E250" t="str">
+        <v>2017.08.26</v>
+      </c>
+      <c r="F250" t="str">
+        <v>胡明建</v>
+      </c>
+      <c r="G250" t="str">
+        <v>胡明建</v>
+      </c>
+      <c r="H250" t="str">
+        <v>325100浙江省温州市永嘉县上塘镇中兴村中心路35号</v>
+      </c>
+      <c r="I250" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06N3/04(2006.01)I;G06N3/06(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J250" t="str">
+        <v>一种无轴突全传递人工神经元的设计方法的技术领域，是属于人工智能，仿生学，电路设计的技术领域，主要技术是人工神经元通过双通道输入输出端输入，当累加值低于最小阀值时，人工神经元，不会被激活，当累加的值超过设定的阀值，人工神经元被激活，然后传递给激活函数，激活函数输出对应的强度，再由连接器把信息传递给每一个双通道输入输出端。</v>
+      </c>
+    </row>
+    <row r="251" xml:space="preserve">
+      <c r="A251" t="str">
+        <v>[发明公布]一种新型违规占道车载抓拍系统与方法</v>
+      </c>
+      <c r="B251" t="str">
+        <v>CN107689156A</v>
+      </c>
+      <c r="C251" t="str">
+        <v>2018.02.13</v>
+      </c>
+      <c r="D251" t="str">
+        <v>2017109900080</v>
+      </c>
+      <c r="E251" t="str">
+        <v>2017.10.23</v>
+      </c>
+      <c r="F251" t="str">
+        <v>珠海汇迪科技有限公司</v>
+      </c>
+      <c r="G251" t="str">
+        <v>黄杨明</v>
+      </c>
+      <c r="H251" t="str">
+        <v>519080广东省珠海市高新区唐家湾镇哈工大路1号1栋C105</v>
+      </c>
+      <c r="I251" t="str" xml:space="preserve">
+        <v xml:space="preserve">G08G1/017(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J251" t="str">
+        <v>本发明公开了一种新型违规占道车载抓拍系统与方法。适用于在交通管制或公交限行路段，对违规占道车辆完成录像，拍照，识别车牌并上传到后台管理系统的一系列全智能自主采集过程，其实质是一种移动式智能图像采集并自主识别的联网设备。其人工智能算法包括：1）车辆检测算法，实现对前车进行自动定位跟踪；2）车牌识别算法，实现对前车车牌的自主识别。实现功能包括：1）违规占道录像；2）违规占道抓拍；3)上传后台管理系统。相比于传统的抓拍仪器，本设备无需人工干预，可实现全智能自主完成违规占道的采集过程。离线状态下，可实现车辆跟踪，车牌识别功能。无人工干预增加了执法过程安全性和执法透明度，离线状态可正常工作使设备更贴近现实应用场景，增强了设备的实用性。</v>
+      </c>
+    </row>
+    <row r="252" xml:space="preserve">
+      <c r="A252" t="str">
+        <v>[发明公布]人工智能比例调节燃气灶</v>
+      </c>
+      <c r="B252" t="str">
+        <v>CN107676825A</v>
+      </c>
+      <c r="C252" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D252" t="str">
+        <v>2017111255915</v>
+      </c>
+      <c r="E252" t="str">
+        <v>2017.11.14</v>
+      </c>
+      <c r="F252" t="str">
+        <v>成都才智圣有科技有限责任公司</v>
+      </c>
+      <c r="G252" t="str">
+        <v>不公告发明人</v>
+      </c>
+      <c r="H252" t="str">
+        <v>610000四川省成都市高新区老成仁路6号6栋1层126号</v>
+      </c>
+      <c r="I252" t="str" xml:space="preserve">
+        <v xml:space="preserve">F24C3/12(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J252" t="str">
+        <v>本发明提供一种人工智能比例调节燃气灶，包括壳体、用户操作面板、进气管、燃烧器、燃气管道、感温探头和脉冲点火针，燃烧器中设置有内、外火环，其特征在于，所述内、外火环的进气端设置有流量调控阀，该流量调控阀由中央控制器连接控制，中央控制器连接有用户操作面板控制电路和供电电路。本发明可实现火力自动精准控制，程序化控制，安全，节能，具有良好的推广价值。</v>
+      </c>
+    </row>
+    <row r="253" xml:space="preserve">
+      <c r="A253" t="str">
+        <v>[发明公布]基于人工智能的语音输入纠错方法及装置</v>
+      </c>
+      <c r="B253" t="str">
+        <v>CN107678561A</v>
+      </c>
+      <c r="C253" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D253" t="str">
+        <v>2017109094667</v>
+      </c>
+      <c r="E253" t="str">
+        <v>2017.09.29</v>
+      </c>
+      <c r="F253" t="str">
+        <v>百度在线网络技术（北京）有限公司</v>
+      </c>
+      <c r="G253" t="str">
+        <v>李快</v>
+      </c>
+      <c r="H253" t="str">
+        <v>100085北京市海淀区上地十街10号百度大厦三层</v>
+      </c>
+      <c r="I253" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F3/023(2006.01)I;G06F3/16(2006.01)I_x000d_
+						专利代理机构：北京清亦华知识产权代理事务所(普通合伙)11201代理人：宋合成</v>
+      </c>
+      <c r="J253" t="str">
+        <v>本发明提出一种基于人工智能的语音输入纠错方法及装置，其中，方法包括：接收当前用户输入的语音，对语音进行识别获取当前识别文本；获取当前识别文本中需要修改的第一短语的至少一个候选短语并展示给当前用户；探测当前用户的选取操作；其中，选取操作用于从所有的候选短语中选取出一个作为目标候选短语；利用目标候选短语修正当前识别文本中的第一短语，获取到目标识别文本。通过本方法，能够针对识别结果中可能存在的错误自动为用户提供相应的修改候选项，根据用户选取的内容对识别结果中的错误进行修正，使语音输入具备纠错能力，提高语音输入的准确性，提升用户体验，解决现有技术中用户手动修改识别错误的内容操作时间长的技术问题。</v>
+      </c>
+    </row>
+    <row r="254" xml:space="preserve">
+      <c r="A254" t="str">
+        <v>[发明公布]一种虚拟化异构迁移系统</v>
+      </c>
+      <c r="B254" t="str">
+        <v>CN107678837A</v>
+      </c>
+      <c r="C254" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D254" t="str">
+        <v>2017109813186</v>
+      </c>
+      <c r="E254" t="str">
+        <v>2017.10.20</v>
+      </c>
+      <c r="F254" t="str">
+        <v>北京易思捷信息技术有限公司</v>
+      </c>
+      <c r="G254" t="str" xml:space="preserve">
+        <v xml:space="preserve">杨炳富;蒋若曦;姚永锋;杨炳栓_x000d_
+				</v>
+      </c>
+      <c r="H254" t="str">
+        <v>100000北京市海淀区上地东路25号2层9单元207</v>
+      </c>
+      <c r="I254" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F9/455(2006.01)I_x000d_
+						专利代理机构：北京汇众通达知识产权代理事务所(普通合伙)11622代理人：梁明升</v>
+      </c>
+      <c r="J254" t="str">
+        <v>本发明公开了一种虚拟化异构迁移系统，包括自动发现、封装模拟机成模板、模板转化、进行部署和迁移完成，还包括人工智能部署可以快速的将某个Hypervisor类型的虚拟机镜像格式转换为另一个Hypervisor类型支持的镜像格式，其转换完全由后台自动检测和自动转换，无需人工干预；本发明可以进行多虚拟化平台管理；支持无共享存储迁移；能够人工智能部署；可以不借助主机自己的管理平台，可实现异构主机间虚拟机迁移；将服务器、存储和网络设备完全虚拟化，使得正在运行的整个虚拟机能够在瞬间从一台服务器移到另一台服务器上，实现异构Hypervisor间执行虚拟机迁移；可弹性优化资源池中的虚拟机；主动将虚拟机从出故障或运行不正常的服务器中移出。</v>
+      </c>
+    </row>
+    <row r="255" xml:space="preserve">
+      <c r="A255" t="str">
+        <v>[发明公布]一种面向智能语音对话系统的多层级对话分析方法</v>
+      </c>
+      <c r="B255" t="str">
+        <v>CN107679042A</v>
+      </c>
+      <c r="C255" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D255" t="str">
+        <v>2017111308005</v>
+      </c>
+      <c r="E255" t="str">
+        <v>2017.11.15</v>
+      </c>
+      <c r="F255" t="str">
+        <v>北京灵伴即时智能科技有限公司</v>
+      </c>
+      <c r="G255" t="str" xml:space="preserve">
+        <v xml:space="preserve">季竞;庞在虎;朱风云;范梓野_x000d_
+				</v>
+      </c>
+      <c r="H255" t="str">
+        <v>100083北京市海淀区王庄路1号院2号楼七层E2</v>
+      </c>
+      <c r="I255" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/27(2006.01)I;G10L15/26(2006.01)I_x000d_
+						专利代理机构：北京汇捷知识产权代理事务所(普通合伙)11531代理人：李宏伟</v>
+      </c>
+      <c r="J255" t="str">
+        <v>本发明属于人工智能领域，具体涉及一种面向智能语音对话系统的多层级对话分析方法。目的是针对现有汉语口语对话标注体系不完善的问题，提升对话理解的自然度和准确性。该方法包括对输入的语音进行语音识别得到对应文本；结合语音和文本信息进行韵律层面分析；对文本进行句法层面分析；对文本进行语义层面分析；对本文进行语用层面分析。该方法利用句法、语义、语用和韵律4个层面，根据从词语到话段的语言单位层级确定各个层面的维度集合，将各个层面的分析结合起来，使智能对话系统能更好的理解谈话对方的意图，并提升用户体验。</v>
+      </c>
+    </row>
+    <row r="256" xml:space="preserve">
+      <c r="A256" t="str">
+        <v>[发明公布]一种面向设计知识推送的加权特征知识适用概率匹配方法</v>
+      </c>
+      <c r="B256" t="str">
+        <v>CN107679112A</v>
+      </c>
+      <c r="C256" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D256" t="str">
+        <v>2017108341582</v>
+      </c>
+      <c r="E256" t="str">
+        <v>2017.09.15</v>
+      </c>
+      <c r="F256" t="str">
+        <v>浙江大学</v>
+      </c>
+      <c r="G256" t="str">
+        <v>张树有;顾叶</v>
+      </c>
+      <c r="H256" t="str">
+        <v>310058浙江省杭州市西湖区余杭塘路866号</v>
+      </c>
+      <c r="I256" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I;G06N99/00(2010.01)I_x000d_
+						专利代理机构：杭州求是专利事务所有限公司33200代理人：林超</v>
+      </c>
+      <c r="J256" t="str">
+        <v>本发明公开了一种面向设计知识推送的加权特征知识适用概率匹配方法。在设计知识库为知识条目建立设计知识表示向量，组成设计知识表示向量集合，建立用于后续机器学习的训练样本集，将训练样本集中的每个训练样本特征向量分为适用和不适用；每个设计人员被分配到不同的设计任务，根据设计任务的要求构建针对每个设计内容的设计内容特征向量；针对每一设计内容特征向量，遍历并采用朴素贝叶斯决策算法进行设计知识表示向量与设计内容特征向量的匹配概率计算，根据设计知识特征向量是否适用于设计内容特征向量的结果赋值设计知识特征向量，最后进行排序处理。本发明将人工智能的算法思想应用于知识推送，提高了设计知识匹配过程中的智能性与操作性。</v>
+      </c>
+    </row>
+    <row r="257" xml:space="preserve">
+      <c r="A257" t="str">
+        <v>[发明公布]一种垂直领域与开放领域混合型智能问答系统的实现方法</v>
+      </c>
+      <c r="B257" t="str">
+        <v>CN107679231A</v>
+      </c>
+      <c r="C257" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D257" t="str">
+        <v>2017110006972</v>
+      </c>
+      <c r="E257" t="str">
+        <v>2017.10.24</v>
+      </c>
+      <c r="F257" t="str">
+        <v>济南浪潮高新科技投资发展有限公司</v>
+      </c>
+      <c r="G257" t="str">
+        <v>尹青山;段成德;于治楼</v>
+      </c>
+      <c r="H257" t="str">
+        <v>250100山东省济南市高新区孙村镇科航路2877号研发楼一楼</v>
+      </c>
+      <c r="I257" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/30(2006.01)I_x000d_
+						专利代理机构：济南信达专利事务所有限公司37100代理人：孙晶伟</v>
+      </c>
+      <c r="J257" t="str">
+        <v>本发明公开一种垂直领域与开放领域混合型智能问答系统的实现方法,涉及人工智能领域；本发明公开了一种垂直领域与开放领域混合型智能问答系统的实现方法，将语料按照领域存放于不同的语料库中，对语料库进行处理，并使用word2vec模型进行文本向量化，对问题的领域进行垂直领域分类，明确问题的领域，从而针对该封闭领域对问答语料使用距离算法进行训练并且若该问题没有具体的领域特征，则问答系统转为开放领域，使用seq2seq深度学习模型对大量语料库进行训练使问答系统自动产生响应。因此利用本发明方法可以实现垂直领域与开放领域智能问答系统的自动切换，提高了问答系统的响应时间和响应准确度。</v>
+      </c>
+    </row>
+    <row r="258" xml:space="preserve">
+      <c r="A258" t="str">
+        <v>[发明公布]电荷泵的仿真方法及仿真装置</v>
+      </c>
+      <c r="B258" t="str">
+        <v>CN107679282A</v>
+      </c>
+      <c r="C258" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D258" t="str">
+        <v>2017107919453</v>
+      </c>
+      <c r="E258" t="str">
+        <v>2017.09.05</v>
+      </c>
+      <c r="F258" t="str">
+        <v>珠海博雅科技有限公司</v>
+      </c>
+      <c r="G258" t="str" xml:space="preserve">
+        <v xml:space="preserve">马亮;李迪;刘大海;余作欢;张登军;林圭荣;张亦锋;杨小龙;逯钊琦_x000d_
+				</v>
+      </c>
+      <c r="H258" t="str">
+        <v>519080广东省珠海市唐家湾镇大学路101号清华科技园创业大楼A座A1005-1007单元</v>
+      </c>
+      <c r="I258" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06F17/50(2006.01)I_x000d_
+						专利代理机构：北京成创同维知识产权代理有限公司11449代理人：蔡纯;张靖琳</v>
+      </c>
+      <c r="J258" t="str">
+        <v>本申请公开了一种电荷泵仿真方法及仿真装置。该仿真方法包括：a)种群建立，所述种群包括多个个体，用于表征电荷传输动态的多个期间中电荷泵的长宽个数的范围；b)执行所述电荷泵的电路仿真，以获得多个仿真参数的仿真结果；c)根据仿真结果对所述多个个体进行加权打分，以获得每个个体的得分；以及d)根据所述多个个体的得分选择优化的个体。该电荷泵仿真方法及装置利用人工智能算法，结合仿真器，实现了电荷泵电路的多性能指标的最优化设计。</v>
+      </c>
+    </row>
+    <row r="259" xml:space="preserve">
+      <c r="A259" t="str">
+        <v>[发明公布]智慧货柜的物品识别系统及其方法</v>
+      </c>
+      <c r="B259" t="str">
+        <v>CN107679573A</v>
+      </c>
+      <c r="C259" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D259" t="str">
+        <v>2017109127514</v>
+      </c>
+      <c r="E259" t="str">
+        <v>2017.09.30</v>
+      </c>
+      <c r="F259" t="str">
+        <v>深圳市锐曼智能装备有限公司</v>
+      </c>
+      <c r="G259" t="str">
+        <v>高子庆</v>
+      </c>
+      <c r="H259" t="str">
+        <v>518000广东省深圳市宝安区福永街道大洋路中粮（福安）机器人智造产业园孵化器第15栋401号</v>
+      </c>
+      <c r="I259" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06K9/62(2006.01)I;_x000d_
+						G06N3/04(2006.01)I;G06N3/08(2006.01)I;G06Q30/02(2012.01)I_x000d_
+						</v>
+      </c>
+      <c r="J259" t="str">
+        <v>本发明公开一种智慧货柜的物品识别系统及其方法，该系统首先通过货柜上的摄像头获取客户所拿物品的图像信息，并将图像信息传递到柜台机器人上，柜台机器人将图像信息发送到物品识别服务器进行图像数据处理，最终物品识别服务器将识别结果通过柜台机器人上的广告展示模块进行展示。物品识别服务器在进行以第一次物品识别前，首先通过训练模块进行已标注物品的自动识别学习以及特征储存，当需要识别物品时，推理模块便通过训练模块得到的特征分类器进行待识别物品的图像解析，最终获取图像的识别结果。本发明迁移人工智能相关算法到零售行业中，提高零售行业的便利性，智能程度，改善人们的购物体验，同时也节省了劳动力。</v>
+      </c>
+    </row>
+    <row r="260" xml:space="preserve">
+      <c r="A260" t="str">
+        <v>[发明公布]一种基于大数据及人工智能的高考志愿填报系统及方法</v>
+      </c>
+      <c r="B260" t="str">
+        <v>CN107680018A</v>
+      </c>
+      <c r="C260" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D260" t="str">
+        <v>2017108912536</v>
+      </c>
+      <c r="E260" t="str">
+        <v>2017.09.27</v>
+      </c>
+      <c r="F260" t="str">
+        <v>杭州铭师堂教育科技发展有限公司</v>
+      </c>
+      <c r="G260" t="str">
+        <v>陈含卓</v>
+      </c>
+      <c r="H260" t="str">
+        <v>310019浙江省杭州市江干区九盛路9号A15幢5楼507室</v>
+      </c>
+      <c r="I260" t="str" xml:space="preserve">
+        <v xml:space="preserve">G06Q50/20(2012.01)I;G06K9/62(2006.01)I_x000d_
+						专利代理机构：杭州求是专利事务所有限公司33200代理人：刘静;邱启旺</v>
+      </c>
+      <c r="J260" t="str">
+        <v>本发明公开了一种基于大数据和人工智能的高考志愿填报系统及方法，提出在高考志愿填写时结合目前市场上职业发展及要求情况，将各职位的内容、需求的专业、未来的发展方向与高考志愿填报系统做结合，并不断更新此系统，由智能算法推荐用户所需专业；同时利用该系统输出自动化高考志愿排位，优化高考志愿填报质量和效率。本发明增添职场专业信息与高考志愿填报匹配性的空白缺口，基于大数据、云、人工智能和外部数据采集器进行自动化外部数据采集、智能分析、志愿策略优化和效率优化，解决了高考志愿填报与工作专业不对口，高考志愿填报难，优化度不高、策略性不高、分数利用率不高的问题。</v>
+      </c>
+    </row>
+    <row r="261" xml:space="preserve">
+      <c r="A261" t="str">
+        <v>[发明公布]一种AI眼部健康评估方法</v>
+      </c>
+      <c r="B261" t="str">
+        <v>CN107680683A</v>
+      </c>
+      <c r="C261" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D261" t="str">
+        <v>2017109302250</v>
+      </c>
+      <c r="E261" t="str">
+        <v>2017.10.09</v>
+      </c>
+      <c r="F261" t="str">
+        <v>上海睦清视觉科技有限公司</v>
+      </c>
+      <c r="G261" t="str">
+        <v>刘瑞祯;张逸轩</v>
+      </c>
+      <c r="H261" t="str">
+        <v>200000上海市嘉定区翔江公路3333号6幢J941室</v>
+      </c>
+      <c r="I261" t="str" xml:space="preserve">
+        <v xml:space="preserve">G16H50/30(2018.01)I;_x000d_
+						G06T7/00(2017.01)I;A61B3/103(2006.01)I;A61B3/11(2006.01)I;A61B3/16(2006.01)I_x000d_
+						专利代理机构：北京创遇知识产权代理有限公司11577代理人：李芙蓉;冯建基</v>
+      </c>
+      <c r="J261" t="str">
+        <v>本发明公开了一种AI眼部健康评估方法，属于人工智能医学检测技术领域，所述方法包括：采集多个眼底图像和眼部基本数据，将采集到的数据结构化并分析眼部特征属性，根据眼部特征属性给出健康指数；通过图像处理算法对用户眼底图像进行预处理再进行特征提取；利用深度学习算法搭建眼部健康评估模型；通过云计算平台导入眼部健康评估模型，生成健康报告，输出健康指数，本方法可简便地检测眼部健康情况，给用户一个直观的反馈，利于疾病的预防以及日常健康管理。</v>
+      </c>
+    </row>
+    <row r="262" xml:space="preserve">
+      <c r="A262" t="str">
+        <v>[发明公布]高压脉冲大电流人工引雷装置与方法</v>
+      </c>
+      <c r="B262" t="str">
+        <v>CN107681468A</v>
+      </c>
+      <c r="C262" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D262" t="str">
+        <v>2017108771557</v>
+      </c>
+      <c r="E262" t="str">
+        <v>2017.09.25</v>
+      </c>
+      <c r="F262" t="str">
+        <v>李俊杰</v>
+      </c>
+      <c r="G262" t="str">
+        <v>李俊杰;其他发明人请求不公开姓名</v>
+      </c>
+      <c r="H262" t="str">
+        <v>210007江苏省南京市秦淮区后标营路100号10栋</v>
+      </c>
+      <c r="I262" t="str" xml:space="preserve">
+        <v xml:space="preserve">H01T19/00(2006.01)I;H01T19/04(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J262" t="str">
+        <v>一种高压脉冲大电流人工引雷装置与方法，包括大气电场仪、防雷电源滤波器、直流高压源、储能电容、电触发器、电触发放电开关、极性切换开关、保护间隙、高压脉冲大电流变压器、均压环、自击穿气体开关、引雷金属尖端、雷电流监测器、激光器、全介质光缆、向上引导激光输出口、向下引导激光输出口、自动控制器、数据采集存储处理系统；结合数据采集与人工智能技术实现自动控制的方法，使用高压脉冲大电流引雷，利用激光引导结合多脉冲共同作用，激发雷电先导，触发闪电，实现人工引雷的快速、高效、安全、方便、智能控制，并降低成本。</v>
+      </c>
+    </row>
+    <row r="263" xml:space="preserve">
+      <c r="A263" t="str">
+        <v>[发明公布]网络安全防御方法和系统</v>
+      </c>
+      <c r="B263" t="str">
+        <v>CN107682304A</v>
+      </c>
+      <c r="C263" t="str">
+        <v>2018.02.09</v>
+      </c>
+      <c r="D263" t="str">
+        <v>2016106255412</v>
+      </c>
+      <c r="E263" t="str">
+        <v>2016.08.01</v>
+      </c>
+      <c r="F263" t="str">
+        <v>丛子渊</v>
+      </c>
+      <c r="G263" t="str">
+        <v>丛子渊</v>
+      </c>
+      <c r="H263" t="str">
+        <v>264200山东省威海市环翠区万福山庄168号601室</v>
+      </c>
+      <c r="I263" t="str" xml:space="preserve">
+        <v xml:space="preserve">H04L29/06(2006.01)I_x000d_
+				</v>
+      </c>
+      <c r="J263" t="str">
+        <v>本发明公开了一种网络安全防御方法和系统。其中的方法包括：根据特征库，检测客户机设备对资源的请求消息；向服务器转发所述请求消息，并接收所述服务器返回的响应消息；向所述响应消息中插入特定数据，并返回给所述客户机设备；接收所述客户机设备对所述特定数据的反馈消息，根据所述反馈消息的事件特征操作所述特征库。本发明通过向返回数据中嵌入指令数据并在客户机设备中执行，大大拓展了防火墙可获得的事件特征的范围，自动更新特征库，实现了防火墙的人工智能化，增强了网络安全性，具有广泛的应用前景。</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>